--- a/journal-evaluation/diff-analysis-ratios.xlsx
+++ b/journal-evaluation/diff-analysis-ratios.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrshen.CSDOMAIN.008\Desktop\caso-tpds\journal-evaluation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="18">
   <si>
     <t>caso-rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,23 +75,31 @@
   <si>
     <t>hm_1</t>
   </si>
+  <si>
+    <t>wdev_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdev_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -105,7 +108,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -114,14 +117,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -240,7 +243,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -256,7 +259,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -561,7 +564,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -609,8 +612,13 @@
       </c>
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="V2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>10</v>
       </c>
@@ -658,8 +666,17 @@
       <c r="T3" s="11">
         <v>1130</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="V3" s="11">
+        <v>10</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>20</v>
       </c>
@@ -707,8 +724,17 @@
       <c r="T4" s="11">
         <v>1280</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="V4" s="11">
+        <v>10</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>30</v>
       </c>
@@ -756,8 +782,17 @@
       <c r="T5" s="11">
         <v>1947</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="V5" s="11">
+        <v>10</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="4">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>40</v>
       </c>
@@ -805,8 +840,17 @@
       <c r="T6" s="11">
         <v>2110</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="V6" s="11">
+        <v>10</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="4">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>50</v>
       </c>
@@ -854,8 +898,17 @@
       <c r="T7" s="11">
         <v>1010</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="V7" s="11">
+        <v>20</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>60</v>
       </c>
@@ -903,8 +956,17 @@
       <c r="T8" s="11">
         <v>1142</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="V8" s="11">
+        <v>20</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" s="4">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>70</v>
       </c>
@@ -952,8 +1014,17 @@
       <c r="T9" s="11">
         <v>1733</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="V9" s="11">
+        <v>20</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="4">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R10" s="11">
         <v>20</v>
       </c>
@@ -963,8 +1034,17 @@
       <c r="T10" s="11">
         <v>1884</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1">
+      <c r="V10" s="11">
+        <v>20</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="4">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="R11" s="11">
         <v>30</v>
       </c>
@@ -974,8 +1054,17 @@
       <c r="T11" s="11">
         <v>882</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1">
+      <c r="V11" s="11">
+        <v>30</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1116,17 @@
       <c r="T12" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="V12" s="11">
+        <v>30</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -1076,8 +1174,17 @@
       <c r="T13" s="11">
         <v>1520</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="V13" s="11">
+        <v>30</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>20</v>
       </c>
@@ -1125,8 +1232,17 @@
       <c r="T14" s="11">
         <v>1648</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="V14" s="11">
+        <v>30</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="4">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>30</v>
       </c>
@@ -1174,8 +1290,17 @@
       <c r="T15" s="11">
         <v>766</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="V15" s="11">
+        <v>40</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>40</v>
       </c>
@@ -1223,8 +1348,17 @@
       <c r="T16" s="11">
         <v>872</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="V16" s="11">
+        <v>40</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>50</v>
       </c>
@@ -1272,8 +1406,17 @@
       <c r="T17" s="11">
         <v>1321</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="V17" s="11">
+        <v>40</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="4">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>60</v>
       </c>
@@ -1321,8 +1464,17 @@
       <c r="T18" s="11">
         <v>1438</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="V18" s="11">
+        <v>40</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="4">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>70</v>
       </c>
@@ -1370,8 +1522,17 @@
       <c r="T19" s="11">
         <v>638</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="V19" s="11">
+        <v>50</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R20" s="11">
         <v>50</v>
       </c>
@@ -1381,8 +1542,17 @@
       <c r="T20" s="11">
         <v>724</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="V20" s="11">
+        <v>50</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R21" s="11">
         <v>50</v>
       </c>
@@ -1392,8 +1562,17 @@
       <c r="T21" s="11">
         <v>1098</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1">
+      <c r="V21" s="11">
+        <v>50</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="4">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="R22" s="11">
         <v>50</v>
       </c>
@@ -1403,8 +1582,17 @@
       <c r="T22" s="11">
         <v>1191</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1">
+      <c r="V22" s="11">
+        <v>50</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="4">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1456,8 +1644,17 @@
       <c r="T23" s="11">
         <v>540</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="V23" s="11">
+        <v>60</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>10</v>
       </c>
@@ -1501,8 +1698,17 @@
       <c r="T24" s="11">
         <v>576</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="V24" s="11">
+        <v>60</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>20</v>
       </c>
@@ -1546,8 +1752,17 @@
       <c r="T25" s="11">
         <v>924</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="V25" s="11">
+        <v>60</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>30</v>
       </c>
@@ -1591,8 +1806,17 @@
       <c r="T26" s="11">
         <v>949</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="V26" s="11">
+        <v>60</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="4">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>40</v>
       </c>
@@ -1636,8 +1860,17 @@
       <c r="T27" s="11">
         <v>406</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="V27" s="11">
+        <v>70</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>50</v>
       </c>
@@ -1681,8 +1914,17 @@
       <c r="T28" s="11">
         <v>432</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="V28" s="11">
+        <v>70</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X28" s="4">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>60</v>
       </c>
@@ -1726,8 +1968,17 @@
       <c r="T29" s="11">
         <v>696</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="V29" s="11">
+        <v>70</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" s="4">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>70</v>
       </c>
@@ -1771,9 +2022,18 @@
       <c r="T30" s="11">
         <v>712</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1">
+      <c r="V30" s="11">
+        <v>70</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X30" s="4">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
@@ -1816,8 +2076,13 @@
       <c r="P34" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="R34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>10</v>
       </c>
@@ -1852,8 +2117,17 @@
         <v>178452</v>
       </c>
       <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="R35" s="11">
+        <v>10</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
+        <v>329302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>20</v>
       </c>
@@ -1888,8 +2162,17 @@
         <v>153998</v>
       </c>
       <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="R36" s="11">
+        <v>10</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="5">
+        <v>380426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>30</v>
       </c>
@@ -1924,8 +2207,17 @@
         <v>127594</v>
       </c>
       <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="R37" s="11">
+        <v>10</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T37" s="5">
+        <v>551013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>40</v>
       </c>
@@ -1960,8 +2252,17 @@
         <v>110901</v>
       </c>
       <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="R38" s="11">
+        <v>10</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="5">
+        <v>626620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>50</v>
       </c>
@@ -1996,8 +2297,17 @@
         <v>89190</v>
       </c>
       <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="R39" s="11">
+        <v>20</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T39" s="5">
+        <v>289214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>60</v>
       </c>
@@ -2032,8 +2342,17 @@
         <v>70035</v>
       </c>
       <c r="P40" s="4"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="R40" s="11">
+        <v>20</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" s="5">
+        <v>339092</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>70</v>
       </c>
@@ -2068,11 +2387,253 @@
         <v>47692</v>
       </c>
       <c r="P41" s="4"/>
+      <c r="R41" s="11">
+        <v>20</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T41" s="5">
+        <v>486606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R42" s="11">
+        <v>20</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="5">
+        <v>558610</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R43" s="11">
+        <v>30</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T43" s="5">
+        <v>265926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R44" s="11">
+        <v>30</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T44" s="5">
+        <v>296924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R45" s="11">
+        <v>30</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45" s="5">
+        <v>444186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R46" s="11">
+        <v>30</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="5">
+        <v>489190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R47" s="11">
+        <v>40</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47" s="5">
+        <v>225770</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R48" s="11">
+        <v>40</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T48" s="5">
+        <v>255548</v>
+      </c>
+    </row>
+    <row r="49" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R49" s="11">
+        <v>40</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T49" s="5">
+        <v>377753</v>
+      </c>
+    </row>
+    <row r="50" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R50" s="11">
+        <v>40</v>
+      </c>
+      <c r="S50" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T50" s="5">
+        <v>421108</v>
+      </c>
+    </row>
+    <row r="51" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R51" s="11">
+        <v>50</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T51" s="5">
+        <v>185360</v>
+      </c>
+    </row>
+    <row r="52" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R52" s="11">
+        <v>50</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="5">
+        <v>213356</v>
+      </c>
+    </row>
+    <row r="53" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R53" s="11">
+        <v>50</v>
+      </c>
+      <c r="S53" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T53" s="5">
+        <v>311524</v>
+      </c>
+    </row>
+    <row r="54" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R54" s="11">
+        <v>50</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="5">
+        <v>351608</v>
+      </c>
+    </row>
+    <row r="55" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R55" s="11">
+        <v>60</v>
+      </c>
+      <c r="S55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T55" s="5">
+        <v>147424</v>
+      </c>
+    </row>
+    <row r="56" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R56" s="11">
+        <v>60</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T56" s="5">
+        <v>171432</v>
+      </c>
+    </row>
+    <row r="57" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R57" s="11">
+        <v>60</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T57" s="5">
+        <v>248306</v>
+      </c>
+    </row>
+    <row r="58" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R58" s="11">
+        <v>60</v>
+      </c>
+      <c r="S58" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="5">
+        <v>282543</v>
+      </c>
+    </row>
+    <row r="59" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R59" s="11">
+        <v>70</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T59" s="5">
+        <v>109904</v>
+      </c>
+    </row>
+    <row r="60" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R60" s="11">
+        <v>70</v>
+      </c>
+      <c r="S60" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" s="5">
+        <v>127854</v>
+      </c>
+    </row>
+    <row r="61" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R61" s="11">
+        <v>70</v>
+      </c>
+      <c r="S61" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T61" s="5">
+        <v>185025</v>
+      </c>
+    </row>
+    <row r="62" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="R62" s="11">
+        <v>70</v>
+      </c>
+      <c r="S62" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="5">
+        <v>210607</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="R34:T34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2086,7 +2647,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,7 +2660,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-analysis-ratios.xlsx
+++ b/journal-evaluation/diff-analysis-ratios.xlsx
@@ -16,31 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="18">
-  <si>
-    <t>caso-rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bso-rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caso-lrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bso-lrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>con-rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>con-lrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="22">
   <si>
     <t>wdev_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,9 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rsrch_1</t>
-  </si>
-  <si>
     <t>src2_1</t>
   </si>
   <si>
@@ -81,6 +54,43 @@
   </si>
   <si>
     <t>wdev_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASO-RS</t>
+  </si>
+  <si>
+    <t>BSO-RS</t>
+  </si>
+  <si>
+    <t>con-RS</t>
+  </si>
+  <si>
+    <t>RSrch_1</t>
+  </si>
+  <si>
+    <t>CASO-LRC</t>
+  </si>
+  <si>
+    <t>BSO-LRC</t>
+  </si>
+  <si>
+    <t>con-LRC</t>
+  </si>
+  <si>
+    <t>rsrch_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proj_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,17 +555,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -566,54 +576,54 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
       <c r="V2" s="14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
@@ -661,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T3" s="11">
         <v>1130</v>
@@ -670,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X3" s="4">
         <v>1590</v>
@@ -719,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T4" s="11">
         <v>1280</v>
@@ -728,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X4" s="4">
         <v>2026</v>
@@ -777,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T5" s="11">
         <v>1947</v>
@@ -786,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X5" s="4">
         <v>2569</v>
@@ -835,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T6" s="11">
         <v>2110</v>
@@ -844,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X6" s="4">
         <v>3083</v>
@@ -893,7 +903,7 @@
         <v>20</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T7" s="11">
         <v>1010</v>
@@ -902,7 +912,7 @@
         <v>20</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X7" s="4">
         <v>1338</v>
@@ -951,7 +961,7 @@
         <v>20</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T8" s="11">
         <v>1142</v>
@@ -960,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X8" s="4">
         <v>1792</v>
@@ -1009,7 +1019,7 @@
         <v>20</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T9" s="11">
         <v>1733</v>
@@ -1018,7 +1028,7 @@
         <v>20</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X9" s="4">
         <v>2173</v>
@@ -1029,7 +1039,7 @@
         <v>20</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T10" s="11">
         <v>1884</v>
@@ -1038,7 +1048,7 @@
         <v>20</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X10" s="4">
         <v>2722</v>
@@ -1049,7 +1059,7 @@
         <v>30</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T11" s="11">
         <v>882</v>
@@ -1058,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X11" s="4">
         <v>1170</v>
@@ -1066,52 +1076,52 @@
     </row>
     <row r="12" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="R12" s="11">
         <v>30</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T12" s="11">
         <v>1000</v>
@@ -1120,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X12" s="4">
         <v>1562</v>
@@ -1169,7 +1179,7 @@
         <v>30</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T13" s="11">
         <v>1520</v>
@@ -1178,7 +1188,7 @@
         <v>30</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X13" s="4">
         <v>1893</v>
@@ -1227,7 +1237,7 @@
         <v>30</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T14" s="11">
         <v>1648</v>
@@ -1236,7 +1246,7 @@
         <v>30</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X14" s="4">
         <v>2375</v>
@@ -1285,7 +1295,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T15" s="11">
         <v>766</v>
@@ -1294,7 +1304,7 @@
         <v>40</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X15" s="4">
         <v>1012</v>
@@ -1343,7 +1353,7 @@
         <v>40</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T16" s="11">
         <v>872</v>
@@ -1352,7 +1362,7 @@
         <v>40</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X16" s="4">
         <v>1358</v>
@@ -1401,7 +1411,7 @@
         <v>40</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T17" s="11">
         <v>1321</v>
@@ -1410,7 +1420,7 @@
         <v>40</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X17" s="4">
         <v>1634</v>
@@ -1459,7 +1469,7 @@
         <v>40</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T18" s="11">
         <v>1438</v>
@@ -1468,7 +1478,7 @@
         <v>40</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X18" s="4">
         <v>2064</v>
@@ -1517,7 +1527,7 @@
         <v>50</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T19" s="11">
         <v>638</v>
@@ -1526,7 +1536,7 @@
         <v>50</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X19" s="4">
         <v>842</v>
@@ -1537,7 +1547,7 @@
         <v>50</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T20" s="11">
         <v>724</v>
@@ -1546,7 +1556,7 @@
         <v>50</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X20" s="4">
         <v>1124</v>
@@ -1557,7 +1567,7 @@
         <v>50</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T21" s="11">
         <v>1098</v>
@@ -1566,7 +1576,7 @@
         <v>50</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X21" s="4">
         <v>1355</v>
@@ -1577,7 +1587,7 @@
         <v>50</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T22" s="11">
         <v>1191</v>
@@ -1586,7 +1596,7 @@
         <v>50</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X22" s="4">
         <v>1708</v>
@@ -1594,52 +1604,52 @@
     </row>
     <row r="23" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="R23" s="11">
         <v>60</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T23" s="11">
         <v>540</v>
@@ -1648,7 +1658,7 @@
         <v>60</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X23" s="4">
         <v>682</v>
@@ -1693,7 +1703,7 @@
         <v>60</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T24" s="11">
         <v>576</v>
@@ -1702,7 +1712,7 @@
         <v>60</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X24" s="4">
         <v>908</v>
@@ -1747,7 +1757,7 @@
         <v>60</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T25" s="11">
         <v>924</v>
@@ -1756,7 +1766,7 @@
         <v>60</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X25" s="4">
         <v>1103</v>
@@ -1801,7 +1811,7 @@
         <v>60</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T26" s="11">
         <v>949</v>
@@ -1810,7 +1820,7 @@
         <v>60</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X26" s="4">
         <v>1381</v>
@@ -1855,7 +1865,7 @@
         <v>70</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T27" s="11">
         <v>406</v>
@@ -1864,7 +1874,7 @@
         <v>70</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X27" s="4">
         <v>512</v>
@@ -1909,7 +1919,7 @@
         <v>70</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T28" s="11">
         <v>432</v>
@@ -1918,7 +1928,7 @@
         <v>70</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X28" s="4">
         <v>678</v>
@@ -1963,7 +1973,7 @@
         <v>70</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T29" s="11">
         <v>696</v>
@@ -1972,7 +1982,7 @@
         <v>70</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="X29" s="4">
         <v>827</v>
@@ -2017,7 +2027,7 @@
         <v>70</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T30" s="11">
         <v>712</v>
@@ -2026,63 +2036,68 @@
         <v>70</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X30" s="4">
         <v>1033</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="R34" s="14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>10</v>
       </c>
@@ -2121,13 +2136,22 @@
         <v>10</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T35" s="5">
         <v>329302</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V35" s="11">
+        <v>10</v>
+      </c>
+      <c r="W35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X35" s="5">
+        <v>35452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>20</v>
       </c>
@@ -2166,13 +2190,22 @@
         <v>10</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T36" s="5">
         <v>380426</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V36" s="11">
+        <v>10</v>
+      </c>
+      <c r="W36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X36" s="5">
+        <v>36572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>30</v>
       </c>
@@ -2211,13 +2244,22 @@
         <v>10</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T37" s="5">
         <v>551013</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V37" s="11">
+        <v>10</v>
+      </c>
+      <c r="W37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X37" s="5">
+        <v>61088</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>40</v>
       </c>
@@ -2256,13 +2298,22 @@
         <v>10</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T38" s="5">
         <v>626620</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V38" s="11">
+        <v>10</v>
+      </c>
+      <c r="W38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X38" s="5">
+        <v>62369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>50</v>
       </c>
@@ -2301,13 +2352,22 @@
         <v>20</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T39" s="5">
         <v>289214</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V39" s="11">
+        <v>20</v>
+      </c>
+      <c r="W39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X39" s="5">
+        <v>30642</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>60</v>
       </c>
@@ -2346,13 +2406,22 @@
         <v>20</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T40" s="5">
         <v>339092</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V40" s="11">
+        <v>20</v>
+      </c>
+      <c r="W40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X40" s="5">
+        <v>32644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>70</v>
       </c>
@@ -2391,249 +2460,1246 @@
         <v>20</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T41" s="5">
         <v>486606</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V41" s="11">
+        <v>20</v>
+      </c>
+      <c r="W41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X41" s="5">
+        <v>52824</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R42" s="11">
         <v>20</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T42" s="5">
         <v>558610</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V42" s="11">
+        <v>20</v>
+      </c>
+      <c r="W42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X42" s="5">
+        <v>55689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R43" s="11">
         <v>30</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T43" s="5">
         <v>265926</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V43" s="11">
+        <v>30</v>
+      </c>
+      <c r="W43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X43" s="5">
+        <v>27036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R44" s="11">
         <v>30</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T44" s="5">
         <v>296924</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V44" s="11">
+        <v>30</v>
+      </c>
+      <c r="W44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X44" s="5">
+        <v>29498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R45" s="11">
         <v>30</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T45" s="5">
         <v>444186</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V45" s="11">
+        <v>30</v>
+      </c>
+      <c r="W45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X45" s="5">
+        <v>47266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="F46" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="J46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="N46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
       <c r="R46" s="11">
         <v>30</v>
       </c>
       <c r="S46" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T46" s="5">
         <v>489190</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V46" s="11">
+        <v>30</v>
+      </c>
+      <c r="W46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X46" s="5">
+        <v>50576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="F47" s="11">
+        <v>10</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="4">
+        <v>254980</v>
+      </c>
+      <c r="J47" s="11">
+        <v>10</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="4">
+        <v>91474</v>
+      </c>
+      <c r="N47" s="11">
+        <v>10</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P47" s="4">
+        <v>134736</v>
+      </c>
       <c r="R47" s="11">
         <v>40</v>
       </c>
       <c r="S47" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T47" s="5">
         <v>225770</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V47" s="11">
+        <v>40</v>
+      </c>
+      <c r="W47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X47" s="5">
+        <v>20194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="F48" s="11">
+        <v>10</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="4">
+        <v>262852</v>
+      </c>
+      <c r="J48" s="11">
+        <v>10</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="4">
+        <v>99638</v>
+      </c>
+      <c r="N48" s="11">
+        <v>10</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" s="4">
+        <v>142908</v>
+      </c>
       <c r="R48" s="11">
         <v>40</v>
       </c>
       <c r="S48" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T48" s="5">
         <v>255548</v>
       </c>
-    </row>
-    <row r="49" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V48" s="11">
+        <v>40</v>
+      </c>
+      <c r="W48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X48" s="5">
+        <v>22784</v>
+      </c>
+    </row>
+    <row r="49" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F49" s="11">
+        <v>10</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="4">
+        <v>437847</v>
+      </c>
+      <c r="J49" s="11">
+        <v>10</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" s="4">
+        <v>158653</v>
+      </c>
+      <c r="N49" s="11">
+        <v>10</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P49" s="4">
+        <v>253012</v>
+      </c>
       <c r="R49" s="11">
         <v>40</v>
       </c>
       <c r="S49" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T49" s="5">
         <v>377753</v>
       </c>
-    </row>
-    <row r="50" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V49" s="11">
+        <v>40</v>
+      </c>
+      <c r="W49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X49" s="5">
+        <v>34560</v>
+      </c>
+    </row>
+    <row r="50" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F50" s="11">
+        <v>10</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="4">
+        <v>452201</v>
+      </c>
+      <c r="J50" s="11">
+        <v>10</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="4">
+        <v>178452</v>
+      </c>
+      <c r="N50" s="11">
+        <v>10</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50" s="4">
+        <v>259521</v>
+      </c>
       <c r="R50" s="11">
         <v>40</v>
       </c>
       <c r="S50" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T50" s="5">
         <v>421108</v>
       </c>
-    </row>
-    <row r="51" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V50" s="11">
+        <v>40</v>
+      </c>
+      <c r="W50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X50" s="5">
+        <v>38142</v>
+      </c>
+    </row>
+    <row r="51" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F51" s="11">
+        <v>20</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="4">
+        <v>205864</v>
+      </c>
+      <c r="J51" s="11">
+        <v>20</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="4">
+        <v>81652</v>
+      </c>
+      <c r="N51" s="11">
+        <v>20</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P51" s="4">
+        <v>106812</v>
+      </c>
       <c r="R51" s="11">
         <v>50</v>
       </c>
       <c r="S51" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T51" s="5">
         <v>185360</v>
       </c>
-    </row>
-    <row r="52" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V51" s="11">
+        <v>50</v>
+      </c>
+      <c r="W51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X51" s="5">
+        <v>17472</v>
+      </c>
+    </row>
+    <row r="52" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F52" s="11">
+        <v>20</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="4">
+        <v>221928</v>
+      </c>
+      <c r="J52" s="11">
+        <v>20</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="4">
+        <v>86120</v>
+      </c>
+      <c r="N52" s="11">
+        <v>20</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" s="4">
+        <v>114268</v>
+      </c>
       <c r="R52" s="11">
         <v>50</v>
       </c>
       <c r="S52" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T52" s="5">
         <v>213356</v>
       </c>
-    </row>
-    <row r="53" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V52" s="11">
+        <v>50</v>
+      </c>
+      <c r="W52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X52" s="5">
+        <v>19762</v>
+      </c>
+    </row>
+    <row r="53" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F53" s="11">
+        <v>20</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="4">
+        <v>355446</v>
+      </c>
+      <c r="J53" s="11">
+        <v>20</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" s="4">
+        <v>139983</v>
+      </c>
+      <c r="N53" s="11">
+        <v>20</v>
+      </c>
+      <c r="O53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P53" s="4">
+        <v>198819</v>
+      </c>
       <c r="R53" s="11">
         <v>50</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T53" s="5">
         <v>311524</v>
       </c>
-    </row>
-    <row r="54" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V53" s="11">
+        <v>50</v>
+      </c>
+      <c r="W53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X53" s="5">
+        <v>30280</v>
+      </c>
+    </row>
+    <row r="54" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F54" s="11">
+        <v>20</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="4">
+        <v>381148</v>
+      </c>
+      <c r="J54" s="11">
+        <v>20</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="4">
+        <v>153998</v>
+      </c>
+      <c r="N54" s="11">
+        <v>20</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54" s="4">
+        <v>205106</v>
+      </c>
       <c r="R54" s="11">
         <v>50</v>
       </c>
       <c r="S54" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T54" s="5">
         <v>351608</v>
       </c>
-    </row>
-    <row r="55" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V54" s="11">
+        <v>50</v>
+      </c>
+      <c r="W54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X54" s="5">
+        <v>33334</v>
+      </c>
+    </row>
+    <row r="55" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F55" s="11">
+        <v>30</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="4">
+        <v>162764</v>
+      </c>
+      <c r="J55" s="11">
+        <v>30</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="4">
+        <v>68376</v>
+      </c>
+      <c r="N55" s="11">
+        <v>30</v>
+      </c>
+      <c r="O55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P55" s="4">
+        <v>77860</v>
+      </c>
       <c r="R55" s="11">
         <v>60</v>
       </c>
       <c r="S55" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T55" s="5">
         <v>147424</v>
       </c>
-    </row>
-    <row r="56" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V55" s="11">
+        <v>60</v>
+      </c>
+      <c r="W55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X55" s="5">
+        <v>14988</v>
+      </c>
+    </row>
+    <row r="56" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F56" s="11">
+        <v>30</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="4">
+        <v>163036</v>
+      </c>
+      <c r="J56" s="11">
+        <v>30</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" s="4">
+        <v>71554</v>
+      </c>
+      <c r="N56" s="11">
+        <v>30</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" s="4">
+        <v>83978</v>
+      </c>
       <c r="R56" s="11">
         <v>60</v>
       </c>
       <c r="S56" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T56" s="5">
         <v>171432</v>
       </c>
-    </row>
-    <row r="57" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V56" s="11">
+        <v>60</v>
+      </c>
+      <c r="W56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X56" s="5">
+        <v>16854</v>
+      </c>
+    </row>
+    <row r="57" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F57" s="11">
+        <v>30</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="4">
+        <v>278780</v>
+      </c>
+      <c r="J57" s="11">
+        <v>30</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="4">
+        <v>116648</v>
+      </c>
+      <c r="N57" s="11">
+        <v>30</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" s="4">
+        <v>142642</v>
+      </c>
       <c r="R57" s="11">
         <v>60</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T57" s="5">
         <v>248306</v>
       </c>
-    </row>
-    <row r="58" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V57" s="11">
+        <v>60</v>
+      </c>
+      <c r="W57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X57" s="5">
+        <v>26145</v>
+      </c>
+    </row>
+    <row r="58" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F58" s="11">
+        <v>30</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="4">
+        <v>280560</v>
+      </c>
+      <c r="J58" s="11">
+        <v>30</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="4">
+        <v>127594</v>
+      </c>
+      <c r="N58" s="11">
+        <v>30</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P58" s="4">
+        <v>147440</v>
+      </c>
       <c r="R58" s="11">
         <v>60</v>
       </c>
       <c r="S58" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T58" s="5">
         <v>282543</v>
       </c>
-    </row>
-    <row r="59" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V58" s="11">
+        <v>60</v>
+      </c>
+      <c r="W58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X58" s="5">
+        <v>28697</v>
+      </c>
+    </row>
+    <row r="59" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F59" s="11">
+        <v>40</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="4">
+        <v>141016</v>
+      </c>
+      <c r="J59" s="11">
+        <v>40</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="4">
+        <v>57650</v>
+      </c>
+      <c r="N59" s="11">
+        <v>40</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P59" s="4">
+        <v>62862</v>
+      </c>
       <c r="R59" s="11">
         <v>70</v>
       </c>
       <c r="S59" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T59" s="5">
         <v>109904</v>
       </c>
-    </row>
-    <row r="60" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V59" s="11">
+        <v>70</v>
+      </c>
+      <c r="W59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X59" s="5">
+        <v>9294</v>
+      </c>
+    </row>
+    <row r="60" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F60" s="11">
+        <v>40</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="4">
+        <v>135640</v>
+      </c>
+      <c r="J60" s="11">
+        <v>40</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" s="4">
+        <v>61710</v>
+      </c>
+      <c r="N60" s="11">
+        <v>40</v>
+      </c>
+      <c r="O60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P60" s="4">
+        <v>68296</v>
+      </c>
       <c r="R60" s="11">
         <v>70</v>
       </c>
       <c r="S60" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T60" s="5">
         <v>127854</v>
       </c>
-    </row>
-    <row r="61" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V60" s="11">
+        <v>70</v>
+      </c>
+      <c r="W60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X60" s="5">
+        <v>10892</v>
+      </c>
+    </row>
+    <row r="61" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F61" s="11">
+        <v>40</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="4">
+        <v>240495</v>
+      </c>
+      <c r="J61" s="11">
+        <v>40</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="4">
+        <v>99210</v>
+      </c>
+      <c r="N61" s="11">
+        <v>40</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P61" s="4">
+        <v>114809</v>
+      </c>
       <c r="R61" s="11">
         <v>70</v>
       </c>
       <c r="S61" s="12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T61" s="5">
         <v>185025</v>
       </c>
-    </row>
-    <row r="62" spans="18:20" x14ac:dyDescent="0.15">
+      <c r="V61" s="11">
+        <v>70</v>
+      </c>
+      <c r="W61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X61" s="5">
+        <v>15930</v>
+      </c>
+    </row>
+    <row r="62" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F62" s="11">
+        <v>40</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="4">
+        <v>233845</v>
+      </c>
+      <c r="J62" s="11">
+        <v>40</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="4">
+        <v>110901</v>
+      </c>
+      <c r="N62" s="11">
+        <v>40</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62" s="4">
+        <v>119073</v>
+      </c>
       <c r="R62" s="11">
         <v>70</v>
       </c>
       <c r="S62" s="12" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T62" s="5">
         <v>210607</v>
       </c>
+      <c r="V62" s="11">
+        <v>70</v>
+      </c>
+      <c r="W62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X62" s="5">
+        <v>18103</v>
+      </c>
+    </row>
+    <row r="63" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F63" s="11">
+        <v>50</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="4">
+        <v>114174</v>
+      </c>
+      <c r="J63" s="11">
+        <v>50</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="4">
+        <v>45462</v>
+      </c>
+      <c r="N63" s="11">
+        <v>50</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P63" s="4">
+        <v>56828</v>
+      </c>
+    </row>
+    <row r="64" spans="6:24" x14ac:dyDescent="0.15">
+      <c r="F64" s="11">
+        <v>50</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="4">
+        <v>112322</v>
+      </c>
+      <c r="J64" s="11">
+        <v>50</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="4">
+        <v>49774</v>
+      </c>
+      <c r="N64" s="11">
+        <v>50</v>
+      </c>
+      <c r="O64" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P64" s="4">
+        <v>61122</v>
+      </c>
+    </row>
+    <row r="65" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="F65" s="11">
+        <v>50</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="4">
+        <v>195601</v>
+      </c>
+      <c r="J65" s="11">
+        <v>50</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="4">
+        <v>78287</v>
+      </c>
+      <c r="N65" s="11">
+        <v>50</v>
+      </c>
+      <c r="O65" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P65" s="4">
+        <v>104287</v>
+      </c>
+    </row>
+    <row r="66" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="F66" s="11">
+        <v>50</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="4">
+        <v>193544</v>
+      </c>
+      <c r="J66" s="11">
+        <v>50</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="4">
+        <v>89190</v>
+      </c>
+      <c r="N66" s="11">
+        <v>50</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66" s="4">
+        <v>107644</v>
+      </c>
+    </row>
+    <row r="67" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="F67" s="11">
+        <v>60</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="4">
+        <v>91500</v>
+      </c>
+      <c r="J67" s="11">
+        <v>60</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="4">
+        <v>35706</v>
+      </c>
+      <c r="N67" s="11">
+        <v>60</v>
+      </c>
+      <c r="O67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P67" s="4">
+        <v>42344</v>
+      </c>
+    </row>
+    <row r="68" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="F68" s="11">
+        <v>60</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="4">
+        <v>91200</v>
+      </c>
+      <c r="J68" s="11">
+        <v>60</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" s="4">
+        <v>39088</v>
+      </c>
+      <c r="N68" s="11">
+        <v>60</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P68" s="4">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="69" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="F69" s="11">
+        <v>60</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="4">
+        <v>157702</v>
+      </c>
+      <c r="J69" s="11">
+        <v>60</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" s="4">
+        <v>61027</v>
+      </c>
+      <c r="N69" s="11">
+        <v>60</v>
+      </c>
+      <c r="O69" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P69" s="4">
+        <v>77109</v>
+      </c>
+    </row>
+    <row r="70" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="F70" s="11">
+        <v>60</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="4">
+        <v>157788</v>
+      </c>
+      <c r="J70" s="11">
+        <v>60</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="4">
+        <v>70035</v>
+      </c>
+      <c r="N70" s="11">
+        <v>60</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70" s="4">
+        <v>79847</v>
+      </c>
+    </row>
+    <row r="71" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="F71" s="11">
+        <v>70</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="4">
+        <v>70026</v>
+      </c>
+      <c r="J71" s="11">
+        <v>70</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="4">
+        <v>24312</v>
+      </c>
+      <c r="N71" s="11">
+        <v>70</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P71" s="4">
+        <v>36160</v>
+      </c>
+    </row>
+    <row r="72" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="F72" s="11">
+        <v>70</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="4">
+        <v>71032</v>
+      </c>
+      <c r="J72" s="11">
+        <v>70</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="4">
+        <v>26736</v>
+      </c>
+      <c r="N72" s="11">
+        <v>70</v>
+      </c>
+      <c r="O72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P72" s="4">
+        <v>38534</v>
+      </c>
+    </row>
+    <row r="73" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="F73" s="11">
+        <v>70</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="4">
+        <v>121095</v>
+      </c>
+      <c r="J73" s="11">
+        <v>70</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73" s="4">
+        <v>41068</v>
+      </c>
+      <c r="N73" s="11">
+        <v>70</v>
+      </c>
+      <c r="O73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P73" s="4">
+        <v>66424</v>
+      </c>
+    </row>
+    <row r="74" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="F74" s="11">
+        <v>70</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="4">
+        <v>123067</v>
+      </c>
+      <c r="J74" s="11">
+        <v>70</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="4">
+        <v>47692</v>
+      </c>
+      <c r="N74" s="11">
+        <v>70</v>
+      </c>
+      <c r="O74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74" s="4">
+        <v>68266</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="N46:P46"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="R34:T34"/>
+    <mergeCell ref="V34:X34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-analysis-ratios.xlsx
+++ b/journal-evaluation/diff-analysis-ratios.xlsx
@@ -24,6 +24,7 @@
     <definedName name="New_Text_Document_4" localSheetId="0">Sheet1!$Q$179:$R$197</definedName>
     <definedName name="New_Text_Document_5" localSheetId="0">Sheet1!$F$247:$G$405</definedName>
     <definedName name="New_Text_Document_6" localSheetId="0">Sheet1!$D$294:$E$452</definedName>
+    <definedName name="New_Text_Document_7" localSheetId="0">Sheet1!$N$284:$O$288</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -81,6 +82,14 @@
   </connection>
   <connection id="7" name="New Text Document6" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\zrshen.CSDOMAIN.008\Desktop\New Text Document.txt" space="1" comma="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="New Text Document7" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\zrshen.CSDOMAIN.008\Desktop\New Text Document.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -434,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,10 +585,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,31 +612,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_5" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_5" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -916,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH109" sqref="AH109"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N284" sqref="N284:O288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -930,18 +946,20 @@
     <col min="11" max="12" width="7.140625" customWidth="1"/>
     <col min="17" max="21" width="7.140625" customWidth="1"/>
     <col min="22" max="22" width="8.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -3350,7 +3368,24 @@
         <v>68266</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:36">
+      <c r="R32" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" thickBot="1">
+      <c r="R33" s="11">
+        <v>10</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T33" s="5">
+        <v>329302</v>
+      </c>
+    </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>13</v>
@@ -3394,11 +3429,15 @@
       <c r="P34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R34" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
+      <c r="R34" s="11">
+        <v>10</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T34" s="5">
+        <v>380426</v>
+      </c>
       <c r="V34" s="48" t="s">
         <v>17</v>
       </c>
@@ -3452,10 +3491,10 @@
         <v>10</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T35" s="5">
-        <v>329302</v>
+        <v>551013</v>
       </c>
       <c r="V35" s="11">
         <v>10</v>
@@ -3514,10 +3553,10 @@
         <v>10</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T36" s="5">
-        <v>380426</v>
+        <v>626620</v>
       </c>
       <c r="V36" s="11">
         <v>10</v>
@@ -3573,13 +3612,13 @@
         <v>0.95558599099980435</v>
       </c>
       <c r="R37" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T37" s="5">
-        <v>551013</v>
+        <v>289214</v>
       </c>
       <c r="V37" s="11">
         <v>10</v>
@@ -3635,13 +3674,13 @@
         <v>0.93420839410144219</v>
       </c>
       <c r="R38" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T38" s="5">
-        <v>626620</v>
+        <v>339092</v>
       </c>
       <c r="V38" s="11">
         <v>10</v>
@@ -3700,10 +3739,10 @@
         <v>20</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T39" s="5">
-        <v>289214</v>
+        <v>486606</v>
       </c>
       <c r="V39" s="11">
         <v>20</v>
@@ -3762,10 +3801,10 @@
         <v>20</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T40" s="5">
-        <v>339092</v>
+        <v>558610</v>
       </c>
       <c r="V40" s="11">
         <v>20</v>
@@ -3825,13 +3864,13 @@
         <v>0.90933572710951527</v>
       </c>
       <c r="R41" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T41" s="5">
-        <v>486606</v>
+        <v>265926</v>
       </c>
       <c r="V41" s="11">
         <v>20</v>
@@ -3845,13 +3884,13 @@
     </row>
     <row r="42" spans="1:24">
       <c r="R42" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T42" s="5">
-        <v>558610</v>
+        <v>296924</v>
       </c>
       <c r="V42" s="11">
         <v>20</v>
@@ -3868,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T43" s="5">
-        <v>265926</v>
+        <v>444186</v>
       </c>
       <c r="V43" s="11">
         <v>30</v>
@@ -3896,10 +3935,10 @@
         <v>30</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T44" s="5">
-        <v>296924</v>
+        <v>489190</v>
       </c>
       <c r="V44" s="11">
         <v>30</v>
@@ -3913,13 +3952,13 @@
     </row>
     <row r="45" spans="1:24">
       <c r="R45" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T45" s="5">
-        <v>444186</v>
+        <v>225770</v>
       </c>
       <c r="V45" s="11">
         <v>30</v>
@@ -3933,13 +3972,13 @@
     </row>
     <row r="46" spans="1:24">
       <c r="R46" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S46" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T46" s="5">
-        <v>489190</v>
+        <v>255548</v>
       </c>
       <c r="V46" s="11">
         <v>30</v>
@@ -3956,10 +3995,10 @@
         <v>40</v>
       </c>
       <c r="S47" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T47" s="5">
-        <v>225770</v>
+        <v>377753</v>
       </c>
       <c r="V47" s="11">
         <v>40</v>
@@ -3976,10 +4015,10 @@
         <v>40</v>
       </c>
       <c r="S48" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T48" s="5">
-        <v>255548</v>
+        <v>421108</v>
       </c>
       <c r="V48" s="11">
         <v>40</v>
@@ -3993,13 +4032,13 @@
     </row>
     <row r="49" spans="1:24">
       <c r="R49" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="S49" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T49" s="5">
-        <v>377753</v>
+        <v>185360</v>
       </c>
       <c r="V49" s="11">
         <v>40</v>
@@ -4013,13 +4052,13 @@
     </row>
     <row r="50" spans="1:24">
       <c r="R50" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="S50" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T50" s="5">
-        <v>421108</v>
+        <v>213356</v>
       </c>
       <c r="V50" s="11">
         <v>40</v>
@@ -4036,10 +4075,10 @@
         <v>50</v>
       </c>
       <c r="S51" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T51" s="5">
-        <v>185360</v>
+        <v>311524</v>
       </c>
       <c r="V51" s="11">
         <v>50</v>
@@ -4056,10 +4095,10 @@
         <v>50</v>
       </c>
       <c r="S52" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T52" s="5">
-        <v>213356</v>
+        <v>351608</v>
       </c>
       <c r="V52" s="11">
         <v>50</v>
@@ -4073,13 +4112,13 @@
     </row>
     <row r="53" spans="1:24">
       <c r="R53" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T53" s="5">
-        <v>311524</v>
+        <v>147424</v>
       </c>
       <c r="V53" s="11">
         <v>50</v>
@@ -4093,13 +4132,13 @@
     </row>
     <row r="54" spans="1:24">
       <c r="R54" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S54" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T54" s="5">
-        <v>351608</v>
+        <v>171432</v>
       </c>
       <c r="V54" s="11">
         <v>50</v>
@@ -4116,10 +4155,10 @@
         <v>60</v>
       </c>
       <c r="S55" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T55" s="5">
-        <v>147424</v>
+        <v>248306</v>
       </c>
       <c r="V55" s="11">
         <v>60</v>
@@ -4132,14 +4171,22 @@
       </c>
     </row>
     <row r="56" spans="1:24">
+      <c r="H56">
+        <f>1-H57</f>
+        <v>0.18676454329169279</v>
+      </c>
+      <c r="I56">
+        <f>1-I57</f>
+        <v>0.15036011991970777</v>
+      </c>
       <c r="R56" s="11">
         <v>60</v>
       </c>
       <c r="S56" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T56" s="5">
-        <v>171432</v>
+        <v>282543</v>
       </c>
       <c r="V56" s="11">
         <v>60</v>
@@ -4160,18 +4207,22 @@
         <f>AVERAGE(I62:I100)</f>
         <v>0.84963988008029223</v>
       </c>
+      <c r="P57">
+        <f>1-Q57</f>
+        <v>5.124473949538777E-2</v>
+      </c>
       <c r="Q57">
         <f>AVERAGE(Q62:Q100)</f>
         <v>0.94875526050461223</v>
       </c>
       <c r="R57" s="11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T57" s="5">
-        <v>248306</v>
+        <v>109904</v>
       </c>
       <c r="V57" s="11">
         <v>60</v>
@@ -4184,14 +4235,22 @@
       </c>
     </row>
     <row r="58" spans="1:24">
+      <c r="P58">
+        <f>1-Q58</f>
+        <v>5.0208474645083712E-2</v>
+      </c>
+      <c r="Q58">
+        <f>AVERAGE(R62:R100)</f>
+        <v>0.94979152535491629</v>
+      </c>
       <c r="R58" s="11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="S58" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T58" s="5">
-        <v>282543</v>
+        <v>127854</v>
       </c>
       <c r="V58" s="11">
         <v>60</v>
@@ -4204,23 +4263,23 @@
       </c>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
       <c r="R59" s="11">
         <v>70</v>
       </c>
       <c r="S59" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T59" s="5">
-        <v>109904</v>
+        <v>185025</v>
       </c>
       <c r="V59" s="11">
         <v>70</v>
@@ -4237,10 +4296,10 @@
         <v>70</v>
       </c>
       <c r="S60" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T60" s="5">
-        <v>127854</v>
+        <v>210607</v>
       </c>
       <c r="V60" s="11">
         <v>70</v>
@@ -4294,15 +4353,6 @@
       </c>
       <c r="P61" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="R61" s="11">
-        <v>70</v>
-      </c>
-      <c r="S61" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T61" s="5">
-        <v>185025</v>
       </c>
       <c r="V61" s="11">
         <v>70</v>
@@ -4361,14 +4411,9 @@
         <f>K62/L62</f>
         <v>0.95509489689875837</v>
       </c>
-      <c r="R62" s="11">
-        <v>70</v>
-      </c>
-      <c r="S62" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="T62" s="5">
-        <v>210607</v>
+      <c r="R62">
+        <f t="shared" ref="R62:R65" si="2">N62/O62</f>
+        <v>0.96293817718291908</v>
       </c>
       <c r="V62" s="11">
         <v>70</v>
@@ -4399,11 +4444,11 @@
       </c>
       <c r="G63" s="22"/>
       <c r="H63">
-        <f t="shared" ref="H63:H126" si="2">B63/C63</f>
+        <f t="shared" ref="H63:H124" si="3">B63/C63</f>
         <v>0.89824561403508774</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I68" si="3">E63/F63</f>
+        <f t="shared" ref="I63:I68" si="4">E63/F63</f>
         <v>0.93716719914802982</v>
       </c>
       <c r="J63" s="21">
@@ -4424,8 +4469,12 @@
       </c>
       <c r="P63" s="22"/>
       <c r="Q63">
-        <f t="shared" ref="Q63:Q124" si="4">K63/L63</f>
+        <f t="shared" ref="Q63:Q124" si="5">K63/L63</f>
         <v>0.90083188700700223</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="2"/>
+        <v>0.91755157371521923</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -4447,11 +4496,11 @@
       </c>
       <c r="G64" s="22"/>
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89759036144578308</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93670115642118079</v>
       </c>
       <c r="J64" s="21">
@@ -4472,8 +4521,12 @@
       </c>
       <c r="P64" s="22"/>
       <c r="Q64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89643831782240568</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="2"/>
+        <v>0.91280438311688317</v>
       </c>
     </row>
     <row r="65" spans="1:34">
@@ -4495,11 +4548,11 @@
       </c>
       <c r="G65" s="22"/>
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90352941176470591</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94151212553495012</v>
       </c>
       <c r="J65" s="21">
@@ -4520,8 +4573,12 @@
       </c>
       <c r="P65" s="22"/>
       <c r="Q65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90202794051374491</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="2"/>
+        <v>0.91906891109942135</v>
       </c>
     </row>
     <row r="66" spans="1:34">
@@ -4543,11 +4600,11 @@
       </c>
       <c r="G66" s="22"/>
       <c r="H66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90140845070422537</v>
       </c>
       <c r="I66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94011976047904189</v>
       </c>
       <c r="J66" s="21">
@@ -4568,11 +4625,11 @@
       </c>
       <c r="P66" s="22"/>
       <c r="Q66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90800116947665921</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R93" si="5">N66/O66</f>
+        <f t="shared" ref="R66:R89" si="6">N66/O66</f>
         <v>0.92571024734982332</v>
       </c>
       <c r="T66" s="48" t="s">
@@ -4615,11 +4672,11 @@
       </c>
       <c r="G67" s="22"/>
       <c r="H67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91166077738515905</v>
       </c>
       <c r="I67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94759358288770057</v>
       </c>
       <c r="J67" s="21">
@@ -4640,11 +4697,11 @@
       </c>
       <c r="P67" s="22"/>
       <c r="Q67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91959281711083152</v>
       </c>
       <c r="R67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93621372031662264</v>
       </c>
       <c r="T67" s="22">
@@ -4703,11 +4760,11 @@
       </c>
       <c r="G68" s="22"/>
       <c r="H68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91121495327102808</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94751773049645394</v>
       </c>
       <c r="J68" s="21">
@@ -4728,11 +4785,11 @@
       </c>
       <c r="P68" s="22"/>
       <c r="Q68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9441395806950893</v>
       </c>
       <c r="R68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.95740755594770188</v>
       </c>
       <c r="T68" s="22">
@@ -4947,7 +5004,7 @@
       </c>
       <c r="G72" s="22"/>
       <c r="H72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71845672575599584</v>
       </c>
       <c r="I72">
@@ -4972,11 +5029,11 @@
       </c>
       <c r="P72" s="22"/>
       <c r="Q72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93527742383875823</v>
       </c>
       <c r="R72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96610303914726225</v>
       </c>
       <c r="T72" s="22">
@@ -5035,11 +5092,11 @@
       </c>
       <c r="G73" s="22"/>
       <c r="H73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71631205673758869</v>
       </c>
       <c r="I73">
-        <f t="shared" ref="I73:I78" si="6">E73/F73</f>
+        <f t="shared" ref="I73:I78" si="7">E73/F73</f>
         <v>0.76902278872151408</v>
       </c>
       <c r="J73" s="21">
@@ -5060,11 +5117,11 @@
       </c>
       <c r="P73" s="22"/>
       <c r="Q73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9238626656246024</v>
       </c>
       <c r="R73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.95983626366986885</v>
       </c>
       <c r="T73" s="22">
@@ -5123,11 +5180,11 @@
       </c>
       <c r="G74" s="22"/>
       <c r="H74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71989174560216507</v>
       </c>
       <c r="I74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77286787450287231</v>
       </c>
       <c r="J74" s="21">
@@ -5148,11 +5205,11 @@
       </c>
       <c r="P74" s="22"/>
       <c r="Q74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94830929885629045</v>
       </c>
       <c r="R74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98283231580652208</v>
       </c>
       <c r="T74" s="22">
@@ -5211,11 +5268,11 @@
       </c>
       <c r="G75" s="22"/>
       <c r="H75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71924290220820186</v>
       </c>
       <c r="I75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.76867594023699126</v>
       </c>
       <c r="J75" s="21">
@@ -5236,11 +5293,11 @@
       </c>
       <c r="P75" s="22"/>
       <c r="Q75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94394440362478571</v>
       </c>
       <c r="R75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98131942988891219</v>
       </c>
       <c r="T75" s="22">
@@ -5299,11 +5356,11 @@
       </c>
       <c r="G76" s="22"/>
       <c r="H76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72137404580152675</v>
       </c>
       <c r="I76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.76995012468827928</v>
       </c>
       <c r="J76" s="21">
@@ -5324,11 +5381,11 @@
       </c>
       <c r="P76" s="22"/>
       <c r="Q76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94834174969291662</v>
       </c>
       <c r="R76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98235758883835655</v>
       </c>
       <c r="T76" s="22">
@@ -5387,11 +5444,11 @@
       </c>
       <c r="G77" s="22"/>
       <c r="H77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72355769230769229</v>
       </c>
       <c r="I77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77454831107619793</v>
       </c>
       <c r="J77" s="21">
@@ -5412,11 +5469,11 @@
       </c>
       <c r="P77" s="22"/>
       <c r="Q77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94631179402753007</v>
       </c>
       <c r="R77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98179896665100985</v>
       </c>
       <c r="T77" s="22">
@@ -5475,11 +5532,11 @@
       </c>
       <c r="G78" s="22"/>
       <c r="H78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71974522292993626</v>
       </c>
       <c r="I78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77027027027027029</v>
       </c>
       <c r="J78" s="21">
@@ -5500,11 +5557,11 @@
       </c>
       <c r="P78" s="22"/>
       <c r="Q78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95625347415230688</v>
       </c>
       <c r="R78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9867428105241689</v>
       </c>
       <c r="T78" s="22">
@@ -5757,7 +5814,7 @@
       </c>
       <c r="G83" s="22"/>
       <c r="H83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77205537434409333</v>
       </c>
       <c r="I83">
@@ -5782,11 +5839,11 @@
       </c>
       <c r="P83" s="22"/>
       <c r="Q83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93826676788206775</v>
       </c>
       <c r="R83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.94820748077552264</v>
       </c>
       <c r="T83" s="22">
@@ -5845,11 +5902,11 @@
       </c>
       <c r="G84" s="22"/>
       <c r="H84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76026945486081421</v>
       </c>
       <c r="I84">
-        <f t="shared" ref="I84:I89" si="7">E84/F84</f>
+        <f t="shared" ref="I84:I89" si="8">E84/F84</f>
         <v>0.79188949121069119</v>
       </c>
       <c r="J84" s="22">
@@ -5870,11 +5927,11 @@
       </c>
       <c r="P84" s="22"/>
       <c r="Q84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90347292662899092</v>
       </c>
       <c r="R84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92170533967011459</v>
       </c>
       <c r="T84" s="22">
@@ -5933,11 +5990,11 @@
       </c>
       <c r="G85" s="22"/>
       <c r="H85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8124643646831412</v>
       </c>
       <c r="I85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.8352812150120078</v>
       </c>
       <c r="J85" s="22">
@@ -5958,11 +6015,11 @@
       </c>
       <c r="P85" s="22"/>
       <c r="Q85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0198433137249587</v>
       </c>
       <c r="R85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0230941458297453</v>
       </c>
       <c r="T85" s="22">
@@ -6021,11 +6078,11 @@
       </c>
       <c r="G86" s="22"/>
       <c r="H86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79860824867250202</v>
       </c>
       <c r="I86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.82358134371137559</v>
       </c>
       <c r="J86" s="22">
@@ -6046,11 +6103,11 @@
       </c>
       <c r="P86" s="22"/>
       <c r="Q86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.022730546973796</v>
       </c>
       <c r="R86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0223142174101663</v>
       </c>
       <c r="T86" s="22">
@@ -6109,11 +6166,11 @@
       </c>
       <c r="G87" s="22"/>
       <c r="H87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78233622103006373</v>
       </c>
       <c r="I87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.81118789744185371</v>
       </c>
       <c r="J87" s="22">
@@ -6134,11 +6191,11 @@
       </c>
       <c r="P87" s="22"/>
       <c r="Q87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99159598625856415</v>
       </c>
       <c r="R87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.99855999013845387</v>
       </c>
       <c r="T87" s="22">
@@ -6197,11 +6254,11 @@
       </c>
       <c r="G88" s="22"/>
       <c r="H88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77623415160507148</v>
       </c>
       <c r="I88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.80710684132632637</v>
       </c>
       <c r="J88" s="22">
@@ -6222,11 +6279,11 @@
       </c>
       <c r="P88" s="22"/>
       <c r="Q88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98443598632694129</v>
       </c>
       <c r="R88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.99262126190343603</v>
       </c>
       <c r="T88" s="22">
@@ -6285,11 +6342,11 @@
       </c>
       <c r="G89" s="22"/>
       <c r="H89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77717074119706897</v>
       </c>
       <c r="I89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.80671473308571839</v>
       </c>
       <c r="J89" s="22">
@@ -6310,11 +6367,11 @@
       </c>
       <c r="P89" s="22"/>
       <c r="Q89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95505207381691948</v>
       </c>
       <c r="R89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96790957288586377</v>
       </c>
       <c r="T89" s="22">
@@ -6567,7 +6624,7 @@
       </c>
       <c r="G94" s="22"/>
       <c r="H94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95139047184864367</v>
       </c>
       <c r="I94">
@@ -6592,7 +6649,7 @@
       </c>
       <c r="P94" s="22"/>
       <c r="Q94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9228441439185241</v>
       </c>
       <c r="R94">
@@ -6655,11 +6712,11 @@
       </c>
       <c r="G95" s="22"/>
       <c r="H95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87403350515463918</v>
       </c>
       <c r="I95">
-        <f t="shared" ref="I95:I100" si="8">E95/F95</f>
+        <f t="shared" ref="I95:I100" si="9">E95/F95</f>
         <v>0.89681874872023981</v>
       </c>
       <c r="J95" s="21">
@@ -6680,11 +6737,11 @@
       </c>
       <c r="P95" s="22"/>
       <c r="Q95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0054066402680475</v>
       </c>
       <c r="R95">
-        <f t="shared" ref="R95:R100" si="9">N95/O95</f>
+        <f t="shared" ref="R95:R100" si="10">N95/O95</f>
         <v>0.94951240412739102</v>
       </c>
     </row>
@@ -6707,11 +6764,11 @@
       </c>
       <c r="G96" s="22"/>
       <c r="H96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86504019179241287</v>
       </c>
       <c r="I96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.89200946965864714</v>
       </c>
       <c r="J96" s="21">
@@ -6732,11 +6789,11 @@
       </c>
       <c r="P96" s="22"/>
       <c r="Q96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0101583866798907</v>
       </c>
       <c r="R96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.94834337349397591</v>
       </c>
     </row>
@@ -6759,11 +6816,11 @@
       </c>
       <c r="G97" s="22"/>
       <c r="H97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82435575402363015</v>
       </c>
       <c r="I97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85465450661408271</v>
       </c>
       <c r="J97" s="21">
@@ -6784,11 +6841,11 @@
       </c>
       <c r="P97" s="22"/>
       <c r="Q97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99582328160443601</v>
       </c>
       <c r="R97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.93338055286758914</v>
       </c>
       <c r="T97" s="48" t="s">
@@ -6831,11 +6888,11 @@
       </c>
       <c r="G98" s="22"/>
       <c r="H98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83441523890603386</v>
       </c>
       <c r="I98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.86650085496657858</v>
       </c>
       <c r="J98" s="21">
@@ -6856,11 +6913,11 @@
       </c>
       <c r="P98" s="22"/>
       <c r="Q98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96433839479392625</v>
       </c>
       <c r="R98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.90902328706314262</v>
       </c>
       <c r="T98" s="22">
@@ -6919,11 +6976,11 @@
       </c>
       <c r="G99" s="22"/>
       <c r="H99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83706874842608914</v>
       </c>
       <c r="I99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.86977878038131273</v>
       </c>
       <c r="J99" s="21">
@@ -6944,11 +7001,11 @@
       </c>
       <c r="P99" s="22"/>
       <c r="Q99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90766389658356417</v>
       </c>
       <c r="R99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.85481852315394247</v>
       </c>
       <c r="T99" s="22">
@@ -7007,11 +7064,11 @@
       </c>
       <c r="G100" s="22"/>
       <c r="H100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77458180334557325</v>
       </c>
       <c r="I100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.81280577299412915</v>
       </c>
       <c r="J100" s="21">
@@ -7032,11 +7089,11 @@
       </c>
       <c r="P100" s="22"/>
       <c r="Q100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91508752932683635</v>
       </c>
       <c r="R100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.85336273428886433</v>
       </c>
       <c r="T100" s="22">
@@ -7229,15 +7286,15 @@
       </c>
     </row>
     <row r="105" spans="1:34">
-      <c r="A105" s="47" t="s">
+      <c r="A105" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="47"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
       <c r="T105" s="22">
         <v>20</v>
       </c>
@@ -7412,7 +7469,7 @@
       </c>
       <c r="G108" s="27"/>
       <c r="H108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85534591194968557</v>
       </c>
       <c r="J108" s="26">
@@ -7433,7 +7490,7 @@
       </c>
       <c r="P108" s="27"/>
       <c r="Q108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94730730952117659</v>
       </c>
       <c r="T108" s="22">
@@ -7492,7 +7549,7 @@
       </c>
       <c r="G109" s="27"/>
       <c r="H109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89103690685413006</v>
       </c>
       <c r="J109" s="26">
@@ -7513,7 +7570,7 @@
       </c>
       <c r="P109" s="27"/>
       <c r="Q109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88689255999035332</v>
       </c>
       <c r="T109" s="22">
@@ -7572,7 +7629,7 @@
       </c>
       <c r="G110" s="27"/>
       <c r="H110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89156626506024095</v>
       </c>
       <c r="J110" s="26">
@@ -7593,7 +7650,7 @@
       </c>
       <c r="P110" s="27"/>
       <c r="Q110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.87670748106730834</v>
       </c>
       <c r="T110" s="22">
@@ -7652,7 +7709,7 @@
       </c>
       <c r="G111" s="27"/>
       <c r="H111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8906976744186047</v>
       </c>
       <c r="J111" s="26">
@@ -7673,7 +7730,7 @@
       </c>
       <c r="P111" s="27"/>
       <c r="Q111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88273526180886119</v>
       </c>
       <c r="T111" s="22">
@@ -7732,7 +7789,7 @@
       </c>
       <c r="G112" s="27"/>
       <c r="H112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8966480446927374</v>
       </c>
       <c r="J112" s="26">
@@ -7753,7 +7810,7 @@
       </c>
       <c r="P112" s="27"/>
       <c r="Q112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88646936553498956</v>
       </c>
       <c r="T112" s="22">
@@ -7812,7 +7869,7 @@
       </c>
       <c r="G113" s="27"/>
       <c r="H113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="J113" s="26">
@@ -7833,7 +7890,7 @@
       </c>
       <c r="P113" s="27"/>
       <c r="Q113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8979662986635677</v>
       </c>
       <c r="T113" s="22">
@@ -7892,7 +7949,7 @@
       </c>
       <c r="G114" s="27"/>
       <c r="H114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89400921658986177</v>
       </c>
       <c r="J114" s="26">
@@ -7913,7 +7970,7 @@
       </c>
       <c r="P114" s="27"/>
       <c r="Q114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.92571346622687511</v>
       </c>
       <c r="T114" s="22">
@@ -7954,10 +8011,6 @@
       </c>
     </row>
     <row r="115" spans="1:34">
-      <c r="H115" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="T115" s="22">
         <v>50</v>
       </c>
@@ -7996,10 +8049,6 @@
       </c>
     </row>
     <row r="116" spans="1:34" ht="15.75" thickBot="1">
-      <c r="H116" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="T116" s="22">
         <v>50</v>
       </c>
@@ -8059,10 +8108,6 @@
       <c r="G117" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H117" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="J117" s="23" t="s">
         <v>5</v>
       </c>
@@ -8140,7 +8185,7 @@
       </c>
       <c r="G118" s="27"/>
       <c r="H118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7120418848167539</v>
       </c>
       <c r="J118" s="26">
@@ -8161,7 +8206,7 @@
       </c>
       <c r="P118" s="27"/>
       <c r="Q118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93449513070220402</v>
       </c>
       <c r="T118" s="22">
@@ -8220,7 +8265,7 @@
       </c>
       <c r="G119" s="27"/>
       <c r="H119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71140142517814731</v>
       </c>
       <c r="J119" s="26">
@@ -8241,7 +8286,7 @@
       </c>
       <c r="P119" s="27"/>
       <c r="Q119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91956052944675792</v>
       </c>
       <c r="T119" s="22">
@@ -8300,7 +8345,7 @@
       </c>
       <c r="G120" s="27"/>
       <c r="H120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71312584573748306</v>
       </c>
       <c r="J120" s="26">
@@ -8321,7 +8366,7 @@
       </c>
       <c r="P120" s="27"/>
       <c r="Q120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94556011968152542</v>
       </c>
       <c r="T120" s="22">
@@ -8380,7 +8425,7 @@
       </c>
       <c r="G121" s="27"/>
       <c r="H121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71202531645569622</v>
       </c>
       <c r="J121" s="26">
@@ -8401,7 +8446,7 @@
       </c>
       <c r="P121" s="27"/>
       <c r="Q121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94190157369458438</v>
       </c>
       <c r="T121" s="22">
@@ -8460,7 +8505,7 @@
       </c>
       <c r="G122" s="27"/>
       <c r="H122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71238095238095234</v>
       </c>
       <c r="J122" s="26">
@@ -8481,7 +8526,7 @@
       </c>
       <c r="P122" s="27"/>
       <c r="Q122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94721642310368825</v>
       </c>
       <c r="T122" s="22">
@@ -8540,7 +8585,7 @@
       </c>
       <c r="G123" s="27"/>
       <c r="H123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71158392434988182</v>
       </c>
       <c r="J123" s="26">
@@ -8561,7 +8606,7 @@
       </c>
       <c r="P123" s="27"/>
       <c r="Q123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94450677886863021</v>
       </c>
       <c r="T123" s="22">
@@ -8620,7 +8665,7 @@
       </c>
       <c r="G124" s="27"/>
       <c r="H124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70347003154574128</v>
       </c>
       <c r="J124" s="26">
@@ -8641,7 +8686,7 @@
       </c>
       <c r="P124" s="27"/>
       <c r="Q124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94307241523650065</v>
       </c>
       <c r="T124" s="22">
@@ -8682,10 +8727,6 @@
       </c>
     </row>
     <row r="125" spans="1:34">
-      <c r="H125" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="T125" s="22">
         <v>70</v>
       </c>
@@ -8723,18 +8764,7 @@
         <v>39908</v>
       </c>
     </row>
-    <row r="126" spans="1:34">
-      <c r="H126" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="127" spans="1:34" ht="15.75" thickBot="1">
-      <c r="H127" t="e">
-        <f t="shared" ref="H127:H190" si="10">B127/C127</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+    <row r="127" spans="1:34" ht="15.75" thickBot="1"/>
     <row r="128" spans="1:34" ht="15.75" thickBot="1">
       <c r="A128" s="23" t="s">
         <v>0</v>
@@ -8757,10 +8787,6 @@
       <c r="G128" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H128" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="J128" s="23" t="s">
         <v>6</v>
       </c>
@@ -8802,7 +8828,7 @@
       </c>
       <c r="G129" s="27"/>
       <c r="H129">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H127:H190" si="11">B129/C129</f>
         <v>0.75552791065068892</v>
       </c>
       <c r="J129" s="27">
@@ -8823,7 +8849,7 @@
       </c>
       <c r="P129" s="27"/>
       <c r="Q129">
-        <f t="shared" ref="Q129:Q190" si="11">K129/L129</f>
+        <f t="shared" ref="Q129:Q190" si="12">K129/L129</f>
         <v>0.92011360446491963</v>
       </c>
     </row>
@@ -8846,7 +8872,7 @@
       </c>
       <c r="G130" s="27"/>
       <c r="H130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.7451966584379367</v>
       </c>
       <c r="J130" s="27">
@@ -8867,7 +8893,7 @@
       </c>
       <c r="P130" s="27"/>
       <c r="Q130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.87839044218203921</v>
       </c>
     </row>
@@ -8890,7 +8916,7 @@
       </c>
       <c r="G131" s="27"/>
       <c r="H131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.7930805382269841</v>
       </c>
       <c r="J131" s="27">
@@ -8911,7 +8937,7 @@
       </c>
       <c r="P131" s="27"/>
       <c r="Q131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99100812041988517</v>
       </c>
     </row>
@@ -8934,7 +8960,7 @@
       </c>
       <c r="G132" s="27"/>
       <c r="H132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.78413308052571018</v>
       </c>
       <c r="J132" s="27">
@@ -8955,7 +8981,7 @@
       </c>
       <c r="P132" s="27"/>
       <c r="Q132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0057082088735281</v>
       </c>
     </row>
@@ -8978,7 +9004,7 @@
       </c>
       <c r="G133" s="27"/>
       <c r="H133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.76537973641654322</v>
       </c>
       <c r="J133" s="27">
@@ -8999,7 +9025,7 @@
       </c>
       <c r="P133" s="27"/>
       <c r="Q133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.97591544414924336</v>
       </c>
     </row>
@@ -9022,7 +9048,7 @@
       </c>
       <c r="G134" s="27"/>
       <c r="H134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.75717081487351268</v>
       </c>
       <c r="J134" s="27">
@@ -9043,7 +9069,7 @@
       </c>
       <c r="P134" s="27"/>
       <c r="Q134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.97116496494033711</v>
       </c>
     </row>
@@ -9066,7 +9092,7 @@
       </c>
       <c r="G135" s="27"/>
       <c r="H135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.75686620550557016</v>
       </c>
       <c r="J135" s="27">
@@ -9079,24 +9105,7 @@
       <c r="O135" s="27"/>
       <c r="P135" s="27"/>
     </row>
-    <row r="136" spans="1:17">
-      <c r="H136" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17">
-      <c r="H137" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H138" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+    <row r="138" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="139" spans="1:17" ht="15.75" thickBot="1">
       <c r="A139" s="23" t="s">
         <v>21</v>
@@ -9119,10 +9128,6 @@
       <c r="G139" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H139" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="J139" s="23" t="s">
         <v>7</v>
       </c>
@@ -9164,7 +9169,7 @@
       </c>
       <c r="G140" s="27"/>
       <c r="H140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.95084432107332872</v>
       </c>
       <c r="J140" s="26">
@@ -9185,7 +9190,7 @@
       </c>
       <c r="P140" s="27"/>
       <c r="Q140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91083097938361646</v>
       </c>
     </row>
@@ -9208,7 +9213,7 @@
       </c>
       <c r="G141" s="27"/>
       <c r="H141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.8563694475246233</v>
       </c>
       <c r="J141" s="26">
@@ -9229,7 +9234,7 @@
       </c>
       <c r="P141" s="27"/>
       <c r="Q141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.026763801699863</v>
       </c>
     </row>
@@ -9252,7 +9257,7 @@
       </c>
       <c r="G142" s="27"/>
       <c r="H142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.85505072153164741</v>
       </c>
       <c r="J142" s="26">
@@ -9273,7 +9278,7 @@
       </c>
       <c r="P142" s="27"/>
       <c r="Q142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0511591685137482</v>
       </c>
     </row>
@@ -9296,7 +9301,7 @@
       </c>
       <c r="G143" s="27"/>
       <c r="H143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.80583996966249527</v>
       </c>
       <c r="J143" s="26">
@@ -9317,7 +9322,7 @@
       </c>
       <c r="P143" s="27"/>
       <c r="Q143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0243243243243243</v>
       </c>
     </row>
@@ -9340,7 +9345,7 @@
       </c>
       <c r="G144" s="27"/>
       <c r="H144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.82336926930197107</v>
       </c>
       <c r="J144" s="26">
@@ -9361,7 +9366,7 @@
       </c>
       <c r="P144" s="27"/>
       <c r="Q144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.98898916188091024</v>
       </c>
     </row>
@@ -9384,7 +9389,7 @@
       </c>
       <c r="G145" s="27"/>
       <c r="H145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.82727860374919193</v>
       </c>
       <c r="J145" s="26">
@@ -9405,7 +9410,7 @@
       </c>
       <c r="P145" s="27"/>
       <c r="Q145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9234328726554788</v>
       </c>
     </row>
@@ -9428,7 +9433,7 @@
       </c>
       <c r="G146" s="27"/>
       <c r="H146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.75913338997451152</v>
       </c>
       <c r="J146" s="26">
@@ -9449,61 +9454,22 @@
       </c>
       <c r="P146" s="27"/>
       <c r="Q146">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91441202475685235</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
-      <c r="H147" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17">
-      <c r="H148" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17">
-      <c r="H149" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17">
-      <c r="H150" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
-      <c r="H151" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="152" spans="1:17">
-      <c r="A152" s="47" t="s">
+      <c r="A152" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B152" s="47"/>
-      <c r="C152" s="47"/>
-      <c r="D152" s="47"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="47"/>
-      <c r="H152" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H153" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+      <c r="B152" s="49"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="49"/>
+      <c r="G152" s="49"/>
+    </row>
+    <row r="153" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:17" ht="15.75" thickBot="1">
       <c r="A154" s="13" t="s">
         <v>1</v>
@@ -9526,10 +9492,6 @@
       <c r="G154" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H154" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="J154" s="13" t="s">
         <v>4</v>
       </c>
@@ -9571,7 +9533,7 @@
       </c>
       <c r="G155" s="17"/>
       <c r="H155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.91959064327485385</v>
       </c>
       <c r="J155" s="16">
@@ -9592,7 +9554,7 @@
       </c>
       <c r="P155" s="17"/>
       <c r="Q155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.98332313341493272</v>
       </c>
     </row>
@@ -9615,7 +9577,7 @@
       </c>
       <c r="G156" s="17"/>
       <c r="H156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.91611842105263153</v>
       </c>
       <c r="J156" s="16">
@@ -9636,7 +9598,7 @@
       </c>
       <c r="P156" s="17"/>
       <c r="Q156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.95699470183744784</v>
       </c>
     </row>
@@ -9659,7 +9621,7 @@
       </c>
       <c r="G157" s="17"/>
       <c r="H157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.91541353383458646</v>
       </c>
       <c r="J157" s="16">
@@ -9680,7 +9642,7 @@
       </c>
       <c r="P157" s="17"/>
       <c r="Q157">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94278350515463916</v>
       </c>
     </row>
@@ -9703,7 +9665,7 @@
       </c>
       <c r="G158" s="17"/>
       <c r="H158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.90537634408602152</v>
       </c>
       <c r="J158" s="16">
@@ -9724,7 +9686,7 @@
       </c>
       <c r="P158" s="17"/>
       <c r="Q158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.92592884130982367</v>
       </c>
     </row>
@@ -9747,7 +9709,7 @@
       </c>
       <c r="G159" s="17"/>
       <c r="H159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.90463917525773196</v>
       </c>
       <c r="J159" s="16">
@@ -9768,7 +9730,7 @@
       </c>
       <c r="P159" s="17"/>
       <c r="Q159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.93217375299098104</v>
       </c>
     </row>
@@ -9791,7 +9753,7 @@
       </c>
       <c r="G160" s="17"/>
       <c r="H160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.91503267973856206</v>
       </c>
       <c r="J160" s="16">
@@ -9812,7 +9774,7 @@
       </c>
       <c r="P160" s="17"/>
       <c r="Q160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.93821334503950837</v>
       </c>
     </row>
@@ -9835,7 +9797,7 @@
       </c>
       <c r="G161" s="17"/>
       <c r="H161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.91703056768558955</v>
       </c>
       <c r="J161" s="16">
@@ -9856,22 +9818,11 @@
       </c>
       <c r="P161" s="17"/>
       <c r="Q161">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.93990188062142277</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
-      <c r="H162" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H163" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+    <row r="163" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:17" ht="15.75" thickBot="1">
       <c r="A164" s="13" t="s">
         <v>2</v>
@@ -9894,10 +9845,6 @@
       <c r="G164" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H164" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="J164" s="13" t="s">
         <v>5</v>
       </c>
@@ -9939,7 +9886,7 @@
       </c>
       <c r="G165" s="17"/>
       <c r="H165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J165" s="16">
@@ -9960,7 +9907,7 @@
       </c>
       <c r="P165" s="17"/>
       <c r="Q165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.95558731671166164</v>
       </c>
     </row>
@@ -9983,7 +9930,7 @@
       </c>
       <c r="G166" s="17"/>
       <c r="H166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.81888035126234904</v>
       </c>
       <c r="J166" s="16">
@@ -10004,7 +9951,7 @@
       </c>
       <c r="P166" s="17"/>
       <c r="Q166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94967567299915823</v>
       </c>
     </row>
@@ -10027,7 +9974,7 @@
       </c>
       <c r="G167" s="17"/>
       <c r="H167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.81886792452830193</v>
       </c>
       <c r="J167" s="16">
@@ -10048,7 +9995,7 @@
       </c>
       <c r="P167" s="17"/>
       <c r="Q167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94409083852653519</v>
       </c>
     </row>
@@ -10071,7 +10018,7 @@
       </c>
       <c r="G168" s="17"/>
       <c r="H168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.81659388646288211</v>
       </c>
       <c r="J168" s="16">
@@ -10092,7 +10039,7 @@
       </c>
       <c r="P168" s="17"/>
       <c r="Q168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94217677849800652</v>
       </c>
     </row>
@@ -10115,7 +10062,7 @@
       </c>
       <c r="G169" s="17"/>
       <c r="H169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.82042253521126762</v>
       </c>
       <c r="J169" s="16">
@@ -10136,7 +10083,7 @@
       </c>
       <c r="P169" s="17"/>
       <c r="Q169">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94818320610687024</v>
       </c>
     </row>
@@ -10159,7 +10106,7 @@
       </c>
       <c r="G170" s="17"/>
       <c r="H170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.81798245614035092</v>
       </c>
       <c r="J170" s="16">
@@ -10180,7 +10127,7 @@
       </c>
       <c r="P170" s="17"/>
       <c r="Q170">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94163660681716854</v>
       </c>
     </row>
@@ -10203,7 +10150,7 @@
       </c>
       <c r="G171" s="17"/>
       <c r="H171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.81686046511627908</v>
       </c>
       <c r="J171" s="16">
@@ -10224,28 +10171,11 @@
       </c>
       <c r="P171" s="17"/>
       <c r="Q171">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.95324877290178356</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
-      <c r="H172" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17">
-      <c r="H173" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H174" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+    <row r="174" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="175" spans="1:17" ht="15.75" thickBot="1">
       <c r="A175" s="13" t="s">
         <v>0</v>
@@ -10268,10 +10198,6 @@
       <c r="G175" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H175" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="J175" s="13" t="s">
         <v>6</v>
       </c>
@@ -10313,7 +10239,7 @@
       </c>
       <c r="G176" s="17"/>
       <c r="H176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.9202185571998871</v>
       </c>
       <c r="J176" s="17">
@@ -10334,7 +10260,7 @@
       </c>
       <c r="P176" s="17"/>
       <c r="Q176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0164480932579878</v>
       </c>
     </row>
@@ -10357,7 +10283,7 @@
       </c>
       <c r="G177" s="17"/>
       <c r="H177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.92980022982909993</v>
       </c>
       <c r="J177" s="17">
@@ -10378,7 +10304,7 @@
       </c>
       <c r="P177" s="17"/>
       <c r="Q177">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.98089823763501993</v>
       </c>
     </row>
@@ -10401,7 +10327,7 @@
       </c>
       <c r="G178" s="17"/>
       <c r="H178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.97343970392225376</v>
       </c>
       <c r="J178" s="17">
@@ -10422,7 +10348,7 @@
       </c>
       <c r="P178" s="17"/>
       <c r="Q178">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.98155418335339029</v>
       </c>
     </row>
@@ -10445,7 +10371,7 @@
       </c>
       <c r="G179" s="17"/>
       <c r="H179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.9642878660079528</v>
       </c>
       <c r="J179" s="17">
@@ -10466,7 +10392,7 @@
       </c>
       <c r="P179" s="17"/>
       <c r="Q179">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0600641341884558</v>
       </c>
     </row>
@@ -10489,7 +10415,7 @@
       </c>
       <c r="G180" s="17"/>
       <c r="H180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.95046699454045025</v>
       </c>
       <c r="J180" s="17">
@@ -10510,7 +10436,7 @@
       </c>
       <c r="P180" s="17"/>
       <c r="Q180">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0700058275929052</v>
       </c>
     </row>
@@ -10533,7 +10459,7 @@
       </c>
       <c r="G181" s="17"/>
       <c r="H181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94413975218362789</v>
       </c>
       <c r="J181" s="17">
@@ -10554,7 +10480,7 @@
       </c>
       <c r="P181" s="17"/>
       <c r="Q181">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0591230811655483</v>
       </c>
     </row>
@@ -10577,7 +10503,7 @@
       </c>
       <c r="G182" s="17"/>
       <c r="H182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94092273351130418</v>
       </c>
       <c r="J182" s="17">
@@ -10598,40 +10524,11 @@
       </c>
       <c r="P182" s="17"/>
       <c r="Q182">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0665116389435969</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
-      <c r="H183" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q183" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17">
-      <c r="H184" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q184" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H185" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q185" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+    <row r="185" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="186" spans="1:17" ht="15.75" thickBot="1">
       <c r="A186" s="13" t="s">
         <v>21</v>
@@ -10654,10 +10551,6 @@
       <c r="G186" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H186" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="J186" s="13" t="s">
         <v>7</v>
       </c>
@@ -10678,10 +10571,6 @@
       </c>
       <c r="P186" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="Q186" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="187" spans="1:17">
@@ -10703,7 +10592,7 @@
       </c>
       <c r="G187" s="17"/>
       <c r="H187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.99016237372401761</v>
       </c>
       <c r="J187" s="16">
@@ -10724,7 +10613,7 @@
       </c>
       <c r="P187" s="17"/>
       <c r="Q187">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94351048978548535</v>
       </c>
     </row>
@@ -10747,7 +10636,7 @@
       </c>
       <c r="G188" s="17"/>
       <c r="H188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.9708812260536398</v>
       </c>
       <c r="J188" s="16">
@@ -10768,7 +10657,7 @@
       </c>
       <c r="P188" s="17"/>
       <c r="Q188">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94138479001135078</v>
       </c>
     </row>
@@ -10791,7 +10680,7 @@
       </c>
       <c r="G189" s="17"/>
       <c r="H189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.95941106247512931</v>
       </c>
       <c r="J189" s="16">
@@ -10812,7 +10701,7 @@
       </c>
       <c r="P189" s="17"/>
       <c r="Q189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.95479981617150123</v>
       </c>
     </row>
@@ -10835,7 +10724,7 @@
       </c>
       <c r="G190" s="17"/>
       <c r="H190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93297655453618755</v>
       </c>
       <c r="J190" s="16">
@@ -10856,7 +10745,7 @@
       </c>
       <c r="P190" s="17"/>
       <c r="Q190">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.93178818112049122</v>
       </c>
     </row>
@@ -10879,7 +10768,7 @@
       </c>
       <c r="G191" s="17"/>
       <c r="H191">
-        <f t="shared" ref="H191:H242" si="12">B191/C191</f>
+        <f t="shared" ref="H191:H242" si="13">B191/C191</f>
         <v>0.93475247524752481</v>
       </c>
       <c r="J191" s="16">
@@ -10900,7 +10789,7 @@
       </c>
       <c r="P191" s="17"/>
       <c r="Q191">
-        <f t="shared" ref="Q191:Q242" si="13">K191/L191</f>
+        <f t="shared" ref="Q191:Q242" si="14">K191/L191</f>
         <v>0.93331652136321064</v>
       </c>
     </row>
@@ -10923,7 +10812,7 @@
       </c>
       <c r="G192" s="17"/>
       <c r="H192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.93502561714019561</v>
       </c>
       <c r="J192" s="16">
@@ -10944,7 +10833,7 @@
       </c>
       <c r="P192" s="17"/>
       <c r="Q192">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.91918165989553102</v>
       </c>
     </row>
@@ -10967,7 +10856,7 @@
       </c>
       <c r="G193" s="17"/>
       <c r="H193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.90846317280453259</v>
       </c>
       <c r="J193" s="16">
@@ -10988,109 +10877,22 @@
       </c>
       <c r="P193" s="17"/>
       <c r="Q193">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92405145530145527</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
-      <c r="H194" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q194" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17">
-      <c r="H195" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q195" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17">
-      <c r="H196" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q196" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17">
-      <c r="H197" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q197" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17">
-      <c r="H198" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q198" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17">
-      <c r="H199" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q199" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17">
-      <c r="H200" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q200" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="201" spans="1:17">
-      <c r="A201" s="47" t="s">
+      <c r="A201" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B201" s="47"/>
-      <c r="C201" s="47"/>
-      <c r="D201" s="47"/>
-      <c r="E201" s="47"/>
-      <c r="F201" s="47"/>
-      <c r="G201" s="47"/>
-      <c r="H201" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q201" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H202" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q202" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+      <c r="B201" s="49"/>
+      <c r="C201" s="49"/>
+      <c r="D201" s="49"/>
+      <c r="E201" s="49"/>
+      <c r="F201" s="49"/>
+      <c r="G201" s="49"/>
+    </row>
+    <row r="202" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="203" spans="1:17" ht="15.75" thickBot="1">
       <c r="A203" s="29" t="s">
         <v>1</v>
@@ -11113,10 +10915,6 @@
       <c r="G203" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H203" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="J203" s="29" t="s">
         <v>4</v>
       </c>
@@ -11137,10 +10935,6 @@
       </c>
       <c r="P203" s="31" t="s">
         <v>16</v>
-      </c>
-      <c r="Q203" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="204" spans="1:17">
@@ -11162,7 +10956,7 @@
       </c>
       <c r="G204" s="34"/>
       <c r="H204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.975103734439834</v>
       </c>
       <c r="J204" s="32">
@@ -11183,7 +10977,7 @@
       </c>
       <c r="P204" s="34"/>
       <c r="Q204">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0071266110689916</v>
       </c>
     </row>
@@ -11206,7 +11000,7 @@
       </c>
       <c r="G205" s="34"/>
       <c r="H205">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.97515527950310554</v>
       </c>
       <c r="J205" s="32">
@@ -11227,7 +11021,7 @@
       </c>
       <c r="P205" s="34"/>
       <c r="Q205">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98763359632924852</v>
       </c>
     </row>
@@ -11250,7 +11044,7 @@
       </c>
       <c r="G206" s="34"/>
       <c r="H206">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0230905861456483</v>
       </c>
       <c r="J206" s="32">
@@ -11271,7 +11065,7 @@
       </c>
       <c r="P206" s="34"/>
       <c r="Q206">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97531811496898779</v>
       </c>
     </row>
@@ -11294,7 +11088,7 @@
       </c>
       <c r="G207" s="34"/>
       <c r="H207">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0269709543568464</v>
       </c>
       <c r="J207" s="32">
@@ -11315,7 +11109,7 @@
       </c>
       <c r="P207" s="34"/>
       <c r="Q207">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9730059478420009</v>
       </c>
     </row>
@@ -11338,7 +11132,7 @@
       </c>
       <c r="G208" s="34"/>
       <c r="H208">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0249376558603491</v>
       </c>
       <c r="J208" s="32">
@@ -11359,7 +11153,7 @@
       </c>
       <c r="P208" s="34"/>
       <c r="Q208">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97543509789702687</v>
       </c>
     </row>
@@ -11382,7 +11176,7 @@
       </c>
       <c r="G209" s="34"/>
       <c r="H209">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0279503105590062</v>
       </c>
       <c r="J209" s="32">
@@ -11403,7 +11197,7 @@
       </c>
       <c r="P209" s="34"/>
       <c r="Q209">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97636343922801694</v>
       </c>
     </row>
@@ -11426,7 +11220,7 @@
       </c>
       <c r="G210" s="34"/>
       <c r="H210">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.97942386831275718</v>
       </c>
       <c r="J210" s="32">
@@ -11447,30 +11241,11 @@
       </c>
       <c r="P210" s="34"/>
       <c r="Q210">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97714132042490254</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
-      <c r="H211" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q211" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H212" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q212" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+    <row r="212" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="213" spans="1:17" ht="15.75" thickBot="1">
       <c r="A213" s="29" t="s">
         <v>2</v>
@@ -11493,10 +11268,6 @@
       <c r="G213" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H213" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="J213" s="29" t="s">
         <v>5</v>
       </c>
@@ -11517,10 +11288,6 @@
       </c>
       <c r="P213" s="31" t="s">
         <v>16</v>
-      </c>
-      <c r="Q213" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="214" spans="1:17">
@@ -11542,7 +11309,7 @@
       </c>
       <c r="G214" s="34"/>
       <c r="H214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.95622568093385218</v>
       </c>
       <c r="J214" s="32">
@@ -11563,7 +11330,7 @@
       </c>
       <c r="P214" s="34"/>
       <c r="Q214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97281632033207621</v>
       </c>
     </row>
@@ -11586,7 +11353,7 @@
       </c>
       <c r="G215" s="34"/>
       <c r="H215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.93186813186813189</v>
       </c>
       <c r="J215" s="32">
@@ -11607,7 +11374,7 @@
       </c>
       <c r="P215" s="34"/>
       <c r="Q215">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.96874754736528168</v>
       </c>
     </row>
@@ -11630,7 +11397,7 @@
       </c>
       <c r="G216" s="34"/>
       <c r="H216">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.92991239048811014</v>
       </c>
       <c r="J216" s="32">
@@ -11651,7 +11418,7 @@
       </c>
       <c r="P216" s="34"/>
       <c r="Q216">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9658539645366343</v>
       </c>
     </row>
@@ -11674,7 +11441,7 @@
       </c>
       <c r="G217" s="34"/>
       <c r="H217">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.92597968069666181</v>
       </c>
       <c r="J217" s="32">
@@ -11695,7 +11462,7 @@
       </c>
       <c r="P217" s="34"/>
       <c r="Q217">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.96501206042909737</v>
       </c>
     </row>
@@ -11718,7 +11485,7 @@
       </c>
       <c r="G218" s="34"/>
       <c r="H218">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.921875</v>
       </c>
       <c r="J218" s="32">
@@ -11739,7 +11506,7 @@
       </c>
       <c r="P218" s="34"/>
       <c r="Q218">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9696917463874285</v>
       </c>
     </row>
@@ -11762,7 +11529,7 @@
       </c>
       <c r="G219" s="34"/>
       <c r="H219">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.9219088937093276</v>
       </c>
       <c r="J219" s="32">
@@ -11783,7 +11550,7 @@
       </c>
       <c r="P219" s="34"/>
       <c r="Q219">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.96550415544002122</v>
       </c>
     </row>
@@ -11806,7 +11573,7 @@
       </c>
       <c r="G220" s="34"/>
       <c r="H220">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.92753623188405798</v>
       </c>
       <c r="J220" s="32">
@@ -11827,37 +11594,37 @@
       </c>
       <c r="P220" s="34"/>
       <c r="Q220">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97396048228120846</v>
       </c>
     </row>
     <row r="221" spans="1:17">
       <c r="H221" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q221" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q221" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="222" spans="1:17">
       <c r="H222" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q222" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q222" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="223" spans="1:17" ht="15.75" thickBot="1">
       <c r="H223" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q223" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11884,7 +11651,7 @@
         <v>16</v>
       </c>
       <c r="H224" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="J224" s="29" t="s">
@@ -11909,7 +11676,7 @@
         <v>16</v>
       </c>
       <c r="Q224" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11932,7 +11699,7 @@
       </c>
       <c r="G225" s="34"/>
       <c r="H225">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.96177605029101765</v>
       </c>
       <c r="J225" s="34">
@@ -11953,7 +11720,7 @@
       </c>
       <c r="P225" s="34"/>
       <c r="Q225">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0271276338598176</v>
       </c>
     </row>
@@ -11976,7 +11743,7 @@
       </c>
       <c r="G226" s="34"/>
       <c r="H226">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.96004347947267199</v>
       </c>
       <c r="J226" s="34">
@@ -11997,7 +11764,7 @@
       </c>
       <c r="P226" s="34"/>
       <c r="Q226">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0053173968283846</v>
       </c>
     </row>
@@ -12020,7 +11787,7 @@
       </c>
       <c r="G227" s="34"/>
       <c r="H227">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0075736808216296</v>
       </c>
       <c r="J227" s="34">
@@ -12041,7 +11808,7 @@
       </c>
       <c r="P227" s="34"/>
       <c r="Q227">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.99722333491132875</v>
       </c>
     </row>
@@ -12064,7 +11831,7 @@
       </c>
       <c r="G228" s="34"/>
       <c r="H228">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99902594264214917</v>
       </c>
       <c r="J228" s="34">
@@ -12085,7 +11852,7 @@
       </c>
       <c r="P228" s="34"/>
       <c r="Q228">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0267973572111624</v>
       </c>
     </row>
@@ -12108,7 +11875,7 @@
       </c>
       <c r="G229" s="34"/>
       <c r="H229">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.98975360496535492</v>
       </c>
       <c r="J229" s="34">
@@ -12129,7 +11896,7 @@
       </c>
       <c r="P229" s="34"/>
       <c r="Q229">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1282473852222885</v>
       </c>
     </row>
@@ -12152,7 +11919,7 @@
       </c>
       <c r="G230" s="34"/>
       <c r="H230">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.98255963067453189</v>
       </c>
       <c r="J230" s="34">
@@ -12173,7 +11940,7 @@
       </c>
       <c r="P230" s="34"/>
       <c r="Q230">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.111587773606981</v>
       </c>
     </row>
@@ -12196,7 +11963,7 @@
       </c>
       <c r="G231" s="34"/>
       <c r="H231">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.98022485295212569</v>
       </c>
       <c r="J231" s="34">
@@ -12217,37 +11984,37 @@
       </c>
       <c r="P231" s="34"/>
       <c r="Q231">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1181560432636775</v>
       </c>
     </row>
     <row r="232" spans="1:17">
       <c r="H232" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q232" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q232" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="233" spans="1:17">
       <c r="H233" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q233" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q233" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="234" spans="1:17" ht="15.75" thickBot="1">
       <c r="H234" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q234" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12274,7 +12041,7 @@
         <v>16</v>
       </c>
       <c r="H235" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="J235" s="29" t="s">
@@ -12299,7 +12066,7 @@
         <v>16</v>
       </c>
       <c r="Q235" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12322,7 +12089,7 @@
       </c>
       <c r="G236" s="34"/>
       <c r="H236">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0240901032432996</v>
       </c>
       <c r="J236" s="32">
@@ -12343,7 +12110,7 @@
       </c>
       <c r="P236" s="34"/>
       <c r="Q236">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.93396484375</v>
       </c>
     </row>
@@ -12366,7 +12133,7 @@
       </c>
       <c r="G237" s="34"/>
       <c r="H237">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0044845661036692</v>
       </c>
       <c r="J237" s="32">
@@ -12387,7 +12154,7 @@
       </c>
       <c r="P237" s="34"/>
       <c r="Q237">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.94935111751982693</v>
       </c>
     </row>
@@ -12410,7 +12177,7 @@
       </c>
       <c r="G238" s="34"/>
       <c r="H238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99935094437593297</v>
       </c>
       <c r="J238" s="32">
@@ -12431,7 +12198,7 @@
       </c>
       <c r="P238" s="34"/>
       <c r="Q238">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9505298471697109</v>
       </c>
     </row>
@@ -12454,7 +12221,7 @@
       </c>
       <c r="G239" s="34"/>
       <c r="H239">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.98375284114824479</v>
       </c>
       <c r="J239" s="32">
@@ -12475,7 +12242,7 @@
       </c>
       <c r="P239" s="34"/>
       <c r="Q239">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92519079364121748</v>
       </c>
     </row>
@@ -12498,7 +12265,7 @@
       </c>
       <c r="G240" s="34"/>
       <c r="H240">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.98284934710582728</v>
       </c>
       <c r="J240" s="32">
@@ -12519,7 +12286,7 @@
       </c>
       <c r="P240" s="34"/>
       <c r="Q240">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.93044554455445549</v>
       </c>
     </row>
@@ -12542,7 +12309,7 @@
       </c>
       <c r="G241" s="34"/>
       <c r="H241">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.98153064758166919</v>
       </c>
       <c r="J241" s="32">
@@ -12563,7 +12330,7 @@
       </c>
       <c r="P241" s="34"/>
       <c r="Q241">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92121018234998397</v>
       </c>
     </row>
@@ -12586,7 +12353,7 @@
       </c>
       <c r="G242" s="34"/>
       <c r="H242">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.97399859451862258</v>
       </c>
       <c r="J242" s="32">
@@ -12607,20 +12374,20 @@
       </c>
       <c r="P242" s="34"/>
       <c r="Q242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92452590854315975</v>
       </c>
     </row>
     <row r="247" spans="1:18">
-      <c r="A247" s="47" t="s">
+      <c r="A247" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B247" s="47"/>
-      <c r="C247" s="47"/>
-      <c r="D247" s="47"/>
-      <c r="E247" s="47"/>
-      <c r="F247" s="47"/>
-      <c r="G247" s="47"/>
+      <c r="B247" s="49"/>
+      <c r="C247" s="49"/>
+      <c r="D247" s="49"/>
+      <c r="E247" s="49"/>
+      <c r="F247" s="49"/>
+      <c r="G247" s="49"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" thickBot="1">
       <c r="H248">
@@ -12687,15 +12454,15 @@
         <v>2444</v>
       </c>
       <c r="D250" s="40"/>
-      <c r="E250" s="39">
-        <v>3054</v>
-      </c>
-      <c r="F250" s="39">
-        <v>3718</v>
+      <c r="E250">
+        <v>2425</v>
+      </c>
+      <c r="F250">
+        <v>3081</v>
       </c>
       <c r="G250" s="40"/>
       <c r="H250">
-        <f t="shared" ref="H250:H287" si="14">B250/C250</f>
+        <f t="shared" ref="H250:H287" si="15">B250/C250</f>
         <v>0.73486088379705405</v>
       </c>
       <c r="J250" s="38">
@@ -12708,15 +12475,15 @@
         <v>51136</v>
       </c>
       <c r="M250" s="40"/>
-      <c r="N250" s="39">
-        <v>86310</v>
-      </c>
-      <c r="O250" s="39">
-        <v>87700</v>
+      <c r="N250">
+        <v>68987</v>
+      </c>
+      <c r="O250">
+        <v>69418</v>
       </c>
       <c r="P250" s="40"/>
       <c r="R250">
-        <f t="shared" ref="R250:R277" si="15">K250/L250</f>
+        <f t="shared" ref="R250:R277" si="16">K250/L250</f>
         <v>1.010325406758448</v>
       </c>
     </row>
@@ -12731,15 +12498,15 @@
         <v>2180</v>
       </c>
       <c r="D251" s="40"/>
-      <c r="E251" s="39">
-        <v>2586</v>
-      </c>
-      <c r="F251" s="39">
-        <v>3314</v>
+      <c r="E251">
+        <v>2071</v>
+      </c>
+      <c r="F251">
+        <v>2747</v>
       </c>
       <c r="G251" s="40"/>
       <c r="H251">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.71376146788990824</v>
       </c>
       <c r="J251" s="38">
@@ -12752,15 +12519,15 @@
         <v>46444</v>
       </c>
       <c r="M251" s="40"/>
-      <c r="N251" s="39">
-        <v>72754</v>
-      </c>
-      <c r="O251" s="39">
-        <v>79854</v>
+      <c r="N251">
+        <v>58015</v>
+      </c>
+      <c r="O251">
+        <v>63148</v>
       </c>
       <c r="P251" s="40"/>
       <c r="R251">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.93178882094565496</v>
       </c>
     </row>
@@ -12775,15 +12542,15 @@
         <v>1904</v>
       </c>
       <c r="D252" s="40"/>
-      <c r="E252" s="39">
-        <v>2260</v>
-      </c>
-      <c r="F252" s="39">
-        <v>2898</v>
+      <c r="E252">
+        <v>1810</v>
+      </c>
+      <c r="F252">
+        <v>2401</v>
       </c>
       <c r="G252" s="40"/>
       <c r="H252">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="J252" s="38">
@@ -12796,15 +12563,15 @@
         <v>39556</v>
       </c>
       <c r="M252" s="40"/>
-      <c r="N252" s="39">
-        <v>61248</v>
-      </c>
-      <c r="O252" s="39">
-        <v>68136</v>
+      <c r="N252">
+        <v>48768</v>
+      </c>
+      <c r="O252">
+        <v>53846</v>
       </c>
       <c r="P252" s="40"/>
       <c r="R252">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.91738295075336229</v>
       </c>
     </row>
@@ -12819,15 +12586,15 @@
         <v>1624</v>
       </c>
       <c r="D253" s="40"/>
-      <c r="E253" s="39">
-        <v>1906</v>
-      </c>
-      <c r="F253" s="39">
-        <v>2472</v>
+      <c r="E253">
+        <v>1523</v>
+      </c>
+      <c r="F253">
+        <v>2048</v>
       </c>
       <c r="G253" s="40"/>
       <c r="H253">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.70197044334975367</v>
       </c>
       <c r="J253" s="38">
@@ -12840,15 +12607,15 @@
         <v>30908</v>
       </c>
       <c r="M253" s="40"/>
-      <c r="N253" s="39">
-        <v>47424</v>
-      </c>
-      <c r="O253" s="39">
-        <v>53096</v>
+      <c r="N253">
+        <v>37798</v>
+      </c>
+      <c r="O253">
+        <v>42002</v>
       </c>
       <c r="P253" s="40"/>
       <c r="R253">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.91147922867865927</v>
       </c>
     </row>
@@ -12863,15 +12630,15 @@
         <v>1356</v>
       </c>
       <c r="D254" s="40"/>
-      <c r="E254" s="39">
-        <v>1588</v>
-      </c>
-      <c r="F254" s="39">
-        <v>2062</v>
+      <c r="E254">
+        <v>1270</v>
+      </c>
+      <c r="F254">
+        <v>1709</v>
       </c>
       <c r="G254" s="40"/>
       <c r="H254">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.70206489675516226</v>
       </c>
       <c r="J254" s="38">
@@ -12884,15 +12651,15 @@
         <v>28452</v>
       </c>
       <c r="M254" s="40"/>
-      <c r="N254" s="39">
-        <v>43852</v>
-      </c>
-      <c r="O254" s="39">
-        <v>48972</v>
+      <c r="N254">
+        <v>34870</v>
+      </c>
+      <c r="O254">
+        <v>38712</v>
       </c>
       <c r="P254" s="40"/>
       <c r="R254">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.90988331224518493</v>
       </c>
     </row>
@@ -12907,15 +12674,15 @@
         <v>1088</v>
       </c>
       <c r="D255" s="40"/>
-      <c r="E255" s="39">
-        <v>1286</v>
-      </c>
-      <c r="F255" s="39">
-        <v>1652</v>
+      <c r="E255">
+        <v>1029</v>
+      </c>
+      <c r="F255">
+        <v>1370</v>
       </c>
       <c r="G255" s="40"/>
       <c r="H255">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.7095588235294118</v>
       </c>
       <c r="J255" s="38">
@@ -12928,15 +12695,15 @@
         <v>24108</v>
       </c>
       <c r="M255" s="40"/>
-      <c r="N255" s="39">
-        <v>37392</v>
-      </c>
-      <c r="O255" s="39">
-        <v>41592</v>
+      <c r="N255">
+        <v>29668</v>
+      </c>
+      <c r="O255">
+        <v>32850</v>
       </c>
       <c r="P255" s="40"/>
       <c r="R255">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.91023726563796248</v>
       </c>
     </row>
@@ -12951,15 +12718,15 @@
         <v>820</v>
       </c>
       <c r="D256" s="40"/>
-      <c r="E256" s="39">
-        <v>968</v>
-      </c>
-      <c r="F256" s="39">
-        <v>1244</v>
+      <c r="E256">
+        <v>776</v>
+      </c>
+      <c r="F256">
+        <v>1031</v>
       </c>
       <c r="G256" s="40"/>
       <c r="H256">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.71219512195121948</v>
       </c>
       <c r="J256" s="38">
@@ -12972,15 +12739,15 @@
         <v>19268</v>
       </c>
       <c r="M256" s="40"/>
-      <c r="N256" s="39">
-        <v>30562</v>
-      </c>
-      <c r="O256" s="39">
-        <v>33476</v>
+      <c r="N256">
+        <v>24173</v>
+      </c>
+      <c r="O256">
+        <v>26372</v>
       </c>
       <c r="P256" s="40"/>
       <c r="R256">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.92298110857380111</v>
       </c>
     </row>
@@ -13040,15 +12807,15 @@
         <v>2576</v>
       </c>
       <c r="D260" s="40"/>
-      <c r="E260" s="39">
-        <v>4028</v>
-      </c>
-      <c r="F260" s="39">
-        <v>4492</v>
+      <c r="E260">
+        <v>3340</v>
+      </c>
+      <c r="F260">
+        <v>3534</v>
       </c>
       <c r="G260" s="40"/>
       <c r="H260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0295031055900621</v>
       </c>
       <c r="J260" s="38">
@@ -13061,15 +12828,15 @@
         <v>190780</v>
       </c>
       <c r="M260" s="40"/>
-      <c r="N260" s="39">
-        <v>290376</v>
-      </c>
-      <c r="O260" s="39">
-        <v>328904</v>
+      <c r="N260">
+        <v>225920</v>
+      </c>
+      <c r="O260">
+        <v>259842</v>
       </c>
       <c r="P260" s="40"/>
       <c r="R260">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.84633609393018139</v>
       </c>
     </row>
@@ -13084,15 +12851,15 @@
         <v>2268</v>
       </c>
       <c r="D261" s="40"/>
-      <c r="E261" s="39">
-        <v>3694</v>
-      </c>
-      <c r="F261" s="39">
-        <v>3956</v>
+      <c r="E261">
+        <v>3057</v>
+      </c>
+      <c r="F261">
+        <v>3112</v>
       </c>
       <c r="G261" s="40"/>
       <c r="H261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0670194003527338</v>
       </c>
       <c r="J261" s="38">
@@ -13105,15 +12872,15 @@
         <v>157040</v>
       </c>
       <c r="M261" s="40"/>
-      <c r="N261" s="39">
-        <v>232538</v>
-      </c>
-      <c r="O261" s="39">
-        <v>267074</v>
+      <c r="N261">
+        <v>181463</v>
+      </c>
+      <c r="O261">
+        <v>212057</v>
       </c>
       <c r="P261" s="40"/>
       <c r="R261">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.83028527763627102</v>
       </c>
     </row>
@@ -13128,15 +12895,15 @@
         <v>1988</v>
       </c>
       <c r="D262" s="40"/>
-      <c r="E262" s="39">
-        <v>3234</v>
-      </c>
-      <c r="F262" s="39">
-        <v>3464</v>
+      <c r="E262">
+        <v>2675</v>
+      </c>
+      <c r="F262">
+        <v>2726</v>
       </c>
       <c r="G262" s="40"/>
       <c r="H262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0643863179074446</v>
       </c>
       <c r="J262" s="38">
@@ -13149,15 +12916,15 @@
         <v>121672</v>
       </c>
       <c r="M262" s="40"/>
-      <c r="N262" s="39">
-        <v>172822</v>
-      </c>
-      <c r="O262" s="39">
-        <v>202108</v>
+      <c r="N262">
+        <v>136045</v>
+      </c>
+      <c r="O262">
+        <v>161890</v>
       </c>
       <c r="P262" s="40"/>
       <c r="R262">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.81586560589124857</v>
       </c>
     </row>
@@ -13172,15 +12939,15 @@
         <v>1700</v>
       </c>
       <c r="D263" s="40"/>
-      <c r="E263" s="39">
-        <v>2926</v>
-      </c>
-      <c r="F263" s="39">
-        <v>2964</v>
+      <c r="E263">
+        <v>2417</v>
+      </c>
+      <c r="F263">
+        <v>2332</v>
       </c>
       <c r="G263" s="40"/>
       <c r="H263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1223529411764706</v>
       </c>
       <c r="J263" s="38">
@@ -13193,15 +12960,15 @@
         <v>100468</v>
       </c>
       <c r="M263" s="40"/>
-      <c r="N263" s="39">
-        <v>140674</v>
-      </c>
-      <c r="O263" s="39">
-        <v>165794</v>
+      <c r="N263">
+        <v>111007</v>
+      </c>
+      <c r="O263">
+        <v>133131</v>
       </c>
       <c r="P263" s="40"/>
       <c r="R263">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.8096110204244138</v>
       </c>
     </row>
@@ -13216,15 +12983,15 @@
         <v>1412</v>
       </c>
       <c r="D264" s="40"/>
-      <c r="E264" s="39">
-        <v>2420</v>
-      </c>
-      <c r="F264" s="39">
-        <v>2458</v>
+      <c r="E264">
+        <v>2000</v>
+      </c>
+      <c r="F264">
+        <v>1935</v>
       </c>
       <c r="G264" s="40"/>
       <c r="H264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1189801699716715</v>
       </c>
       <c r="J264" s="38">
@@ -13237,15 +13004,15 @@
         <v>87652</v>
       </c>
       <c r="M264" s="40"/>
-      <c r="N264" s="39">
-        <v>125980</v>
-      </c>
-      <c r="O264" s="39">
-        <v>146266</v>
+      <c r="N264">
+        <v>99116</v>
+      </c>
+      <c r="O264">
+        <v>116959</v>
       </c>
       <c r="P264" s="40"/>
       <c r="R264">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.82430520695477572</v>
       </c>
     </row>
@@ -13260,15 +13027,15 @@
         <v>1128</v>
       </c>
       <c r="D265" s="40"/>
-      <c r="E265" s="39">
-        <v>1940</v>
-      </c>
-      <c r="F265" s="39">
-        <v>1958</v>
+      <c r="E265">
+        <v>1604</v>
+      </c>
+      <c r="F265">
+        <v>1543</v>
       </c>
       <c r="G265" s="40"/>
       <c r="H265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.124113475177305</v>
       </c>
       <c r="J265" s="38">
@@ -13281,15 +13048,15 @@
         <v>66880</v>
       </c>
       <c r="M265" s="40"/>
-      <c r="N265" s="39">
-        <v>94572</v>
-      </c>
-      <c r="O265" s="39">
-        <v>110610</v>
+      <c r="N265">
+        <v>74608</v>
+      </c>
+      <c r="O265">
+        <v>88745</v>
       </c>
       <c r="P265" s="40"/>
       <c r="R265">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.81704545454545452</v>
       </c>
     </row>
@@ -13304,15 +13071,15 @@
         <v>856</v>
       </c>
       <c r="D266" s="40"/>
-      <c r="E266" s="39">
-        <v>1452</v>
-      </c>
-      <c r="F266" s="39">
-        <v>1482</v>
+      <c r="E266">
+        <v>1200</v>
+      </c>
+      <c r="F266">
+        <v>1169</v>
       </c>
       <c r="G266" s="40"/>
       <c r="H266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1074766355140186</v>
       </c>
       <c r="J266" s="38">
@@ -13325,15 +13092,15 @@
         <v>52944</v>
       </c>
       <c r="M266" s="40"/>
-      <c r="N266" s="39">
-        <v>77730</v>
-      </c>
-      <c r="O266" s="39">
-        <v>88798</v>
+      <c r="N266">
+        <v>61133</v>
+      </c>
+      <c r="O266">
+        <v>70871</v>
       </c>
       <c r="P266" s="40"/>
       <c r="R266">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.84119069205197949</v>
       </c>
     </row>
@@ -13393,15 +13160,15 @@
         <v>556028</v>
       </c>
       <c r="D271" s="40"/>
-      <c r="E271" s="39">
-        <v>714852</v>
-      </c>
-      <c r="F271" s="39">
-        <v>922690</v>
+      <c r="E271">
+        <v>572422</v>
+      </c>
+      <c r="F271">
+        <v>739359</v>
       </c>
       <c r="G271" s="40"/>
       <c r="H271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.77332796190119923</v>
       </c>
       <c r="J271" s="40">
@@ -13414,15 +13181,15 @@
         <v>373188</v>
       </c>
       <c r="M271" s="40"/>
-      <c r="N271" s="39">
-        <v>523200</v>
-      </c>
-      <c r="O271" s="39">
-        <v>618204</v>
+      <c r="N271">
+        <v>172804</v>
+      </c>
+      <c r="O271">
+        <v>188937</v>
       </c>
       <c r="P271" s="40"/>
       <c r="R271">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.81443133219717678</v>
       </c>
     </row>
@@ -13437,15 +13204,15 @@
         <v>496572</v>
       </c>
       <c r="D272" s="40"/>
-      <c r="E272" s="39">
-        <v>625996</v>
-      </c>
-      <c r="F272" s="39">
-        <v>824044</v>
+      <c r="E272">
+        <v>500470</v>
+      </c>
+      <c r="F272">
+        <v>660308</v>
       </c>
       <c r="G272" s="40"/>
       <c r="H272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.75506472374600264</v>
       </c>
       <c r="J272" s="40">
@@ -13458,15 +13225,15 @@
         <v>318640</v>
       </c>
       <c r="M272" s="40"/>
-      <c r="N272" s="39">
-        <v>438992</v>
-      </c>
-      <c r="O272" s="39">
-        <v>525662</v>
+      <c r="N272">
+        <v>150085</v>
+      </c>
+      <c r="O272">
+        <v>157985</v>
       </c>
       <c r="P272" s="40"/>
       <c r="R272">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.79979914637208138</v>
       </c>
     </row>
@@ -13481,15 +13248,15 @@
         <v>436300</v>
       </c>
       <c r="D273" s="40"/>
-      <c r="E273" s="39">
-        <v>586788</v>
-      </c>
-      <c r="F273" s="39">
-        <v>723926</v>
+      <c r="E273">
+        <v>470480</v>
+      </c>
+      <c r="F273">
+        <v>580113</v>
       </c>
       <c r="G273" s="40"/>
       <c r="H273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.81176254870501952</v>
       </c>
       <c r="J273" s="40">
@@ -13502,15 +13269,15 @@
         <v>228196</v>
       </c>
       <c r="M273" s="40"/>
-      <c r="N273" s="39">
-        <v>346028</v>
-      </c>
-      <c r="O273" s="39">
-        <v>375742</v>
+      <c r="N273">
+        <v>126679</v>
+      </c>
+      <c r="O273">
+        <v>133242</v>
       </c>
       <c r="P273" s="40"/>
       <c r="R273">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.89442409157040437</v>
       </c>
     </row>
@@ -13525,15 +13292,15 @@
         <v>375608</v>
       </c>
       <c r="D274" s="40"/>
-      <c r="E274" s="39">
-        <v>494766</v>
-      </c>
-      <c r="F274" s="39">
-        <v>623064</v>
+      <c r="E274">
+        <v>396401</v>
+      </c>
+      <c r="F274">
+        <v>499336</v>
       </c>
       <c r="G274" s="40"/>
       <c r="H274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.79347617729121855</v>
       </c>
       <c r="J274" s="40">
@@ -13546,15 +13313,15 @@
         <v>192652</v>
       </c>
       <c r="M274" s="40"/>
-      <c r="N274" s="39">
-        <v>295276</v>
-      </c>
-      <c r="O274" s="39">
-        <v>317588</v>
+      <c r="N274">
+        <v>101508</v>
+      </c>
+      <c r="O274">
+        <v>110858</v>
       </c>
       <c r="P274" s="40"/>
       <c r="R274">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.89685027926001293</v>
       </c>
     </row>
@@ -13569,15 +13336,15 @@
         <v>313156</v>
       </c>
       <c r="D275" s="40"/>
-      <c r="E275" s="39">
-        <v>407568</v>
-      </c>
-      <c r="F275" s="39">
-        <v>519312</v>
+      <c r="E275">
+        <v>326014</v>
+      </c>
+      <c r="F275">
+        <v>416234</v>
       </c>
       <c r="G275" s="40"/>
       <c r="H275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.7806332945880009</v>
       </c>
       <c r="J275" s="40">
@@ -13590,15 +13357,15 @@
         <v>159520</v>
       </c>
       <c r="M275" s="40"/>
-      <c r="N275" s="39">
-        <v>237654</v>
-      </c>
-      <c r="O275" s="39">
-        <v>262564</v>
+      <c r="N275">
+        <v>81513</v>
+      </c>
+      <c r="O275">
+        <v>92132</v>
       </c>
       <c r="P275" s="40"/>
       <c r="R275">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.86953360080240727</v>
       </c>
     </row>
@@ -13613,15 +13380,15 @@
         <v>248552</v>
       </c>
       <c r="D276" s="40"/>
-      <c r="E276" s="39">
-        <v>321148</v>
-      </c>
-      <c r="F276" s="39">
-        <v>411658</v>
+      <c r="E276">
+        <v>256848</v>
+      </c>
+      <c r="F276">
+        <v>330105</v>
       </c>
       <c r="G276" s="40"/>
       <c r="H276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.77467894042292962</v>
       </c>
       <c r="J276" s="40">
@@ -13634,15 +13401,15 @@
         <v>127152</v>
       </c>
       <c r="M276" s="40"/>
-      <c r="N276" s="39">
-        <v>188596</v>
-      </c>
-      <c r="O276" s="39">
-        <v>209640</v>
+      <c r="N276">
+        <v>56534</v>
+      </c>
+      <c r="O276">
+        <v>66955</v>
       </c>
       <c r="P276" s="40"/>
       <c r="R276">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.86271549012205861</v>
       </c>
     </row>
@@ -13657,15 +13424,15 @@
         <v>188204</v>
       </c>
       <c r="D277" s="40"/>
-      <c r="E277" s="39">
-        <v>242248</v>
-      </c>
-      <c r="F277" s="39">
-        <v>311564</v>
+      <c r="E277">
+        <v>193706</v>
+      </c>
+      <c r="F277">
+        <v>249884</v>
       </c>
       <c r="G277" s="40"/>
       <c r="H277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.77131198061677753</v>
       </c>
       <c r="J277" s="40">
@@ -13678,15 +13445,15 @@
         <v>101012</v>
       </c>
       <c r="M277" s="40"/>
-      <c r="N277" s="39">
-        <v>146140</v>
-      </c>
-      <c r="O277" s="39">
-        <v>166686</v>
+      <c r="N277">
+        <v>39352</v>
+      </c>
+      <c r="O277">
+        <v>46536</v>
       </c>
       <c r="P277" s="40"/>
       <c r="R277">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.83859343444343248</v>
       </c>
     </row>
@@ -13746,15 +13513,15 @@
         <v>48032</v>
       </c>
       <c r="D282" s="40"/>
-      <c r="E282" s="39">
-        <v>81802</v>
-      </c>
-      <c r="F282" s="39">
-        <v>83120</v>
+      <c r="E282">
+        <v>65111</v>
+      </c>
+      <c r="F282">
+        <v>65576</v>
       </c>
       <c r="G282" s="40"/>
       <c r="H282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0080779480346436</v>
       </c>
       <c r="J282" s="38">
@@ -13767,15 +13534,15 @@
         <v>141024</v>
       </c>
       <c r="M282" s="40"/>
-      <c r="N282" s="39">
-        <v>216792</v>
-      </c>
-      <c r="O282" s="39">
-        <v>236850</v>
+      <c r="N282">
+        <v>413568</v>
+      </c>
+      <c r="O282">
+        <v>495696</v>
       </c>
       <c r="P282" s="40"/>
       <c r="R282">
-        <f t="shared" ref="R282:R287" si="16">K282/L282</f>
+        <f t="shared" ref="R282:R287" si="17">K282/L282</f>
         <v>0.9134331744951214</v>
       </c>
     </row>
@@ -13790,15 +13557,15 @@
         <v>42400</v>
       </c>
       <c r="D283" s="40"/>
-      <c r="E283" s="39">
-        <v>65278</v>
-      </c>
-      <c r="F283" s="39">
-        <v>73438</v>
+      <c r="E283">
+        <v>51851</v>
+      </c>
+      <c r="F283">
+        <v>57919</v>
       </c>
       <c r="G283" s="40"/>
       <c r="H283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.90622641509433965</v>
       </c>
       <c r="J283" s="38">
@@ -13811,15 +13578,15 @@
         <v>118592</v>
       </c>
       <c r="M283" s="40"/>
-      <c r="N283" s="39">
-        <v>187514</v>
-      </c>
-      <c r="O283" s="39">
-        <v>197378</v>
+      <c r="N283">
+        <v>346920</v>
+      </c>
+      <c r="O283">
+        <v>422151</v>
       </c>
       <c r="P283" s="40"/>
       <c r="R283">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.94994603345925521</v>
       </c>
     </row>
@@ -13834,15 +13601,15 @@
         <v>38360</v>
       </c>
       <c r="D284" s="40"/>
-      <c r="E284" s="39">
-        <v>58998</v>
-      </c>
-      <c r="F284" s="39">
-        <v>66722</v>
+      <c r="E284">
+        <v>46709</v>
+      </c>
+      <c r="F284">
+        <v>52541</v>
       </c>
       <c r="G284" s="40"/>
       <c r="H284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.89728884254431696</v>
       </c>
       <c r="J284" s="38">
@@ -13855,15 +13622,15 @@
         <v>99972</v>
       </c>
       <c r="M284" s="40"/>
-      <c r="N284" s="39">
-        <v>158034</v>
-      </c>
-      <c r="O284" s="39">
-        <v>166512</v>
+      <c r="N284">
+        <v>275066</v>
+      </c>
+      <c r="O284">
+        <v>301969</v>
       </c>
       <c r="P284" s="40"/>
       <c r="R284">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.95350698195494743</v>
       </c>
     </row>
@@ -13878,15 +13645,15 @@
         <v>30196</v>
       </c>
       <c r="D285" s="40"/>
-      <c r="E285" s="39">
-        <v>44186</v>
-      </c>
-      <c r="F285" s="39">
-        <v>51688</v>
+      <c r="E285">
+        <v>35233</v>
+      </c>
+      <c r="F285">
+        <v>40942</v>
       </c>
       <c r="G285" s="40"/>
       <c r="H285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.87031394886739966</v>
       </c>
       <c r="J285" s="38">
@@ -13899,15 +13666,15 @@
         <v>83088</v>
       </c>
       <c r="M285" s="40"/>
-      <c r="N285" s="39">
-        <v>127264</v>
-      </c>
-      <c r="O285" s="39">
-        <v>138628</v>
+      <c r="N285">
+        <v>234028</v>
+      </c>
+      <c r="O285">
+        <v>255120</v>
       </c>
       <c r="P285" s="40"/>
       <c r="R285">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.91170806855382247</v>
       </c>
     </row>
@@ -13922,15 +13689,15 @@
         <v>26092</v>
       </c>
       <c r="D286" s="40"/>
-      <c r="E286" s="39">
-        <v>38236</v>
-      </c>
-      <c r="F286" s="39">
-        <v>44884</v>
+      <c r="E286">
+        <v>30398</v>
+      </c>
+      <c r="F286">
+        <v>35488</v>
       </c>
       <c r="G286" s="40"/>
       <c r="H286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.86463283765138743</v>
       </c>
       <c r="J286" s="38">
@@ -13943,15 +13710,15 @@
         <v>69084</v>
       </c>
       <c r="M286" s="40"/>
-      <c r="N286" s="39">
-        <v>102354</v>
-      </c>
-      <c r="O286" s="39">
-        <v>115180</v>
+      <c r="N286">
+        <v>188181</v>
+      </c>
+      <c r="O286">
+        <v>211042</v>
       </c>
       <c r="P286" s="40"/>
       <c r="R286">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.87823519194024668</v>
       </c>
     </row>
@@ -13966,15 +13733,15 @@
         <v>21676</v>
       </c>
       <c r="D287" s="40"/>
-      <c r="E287" s="39">
-        <v>31918</v>
-      </c>
-      <c r="F287" s="39">
-        <v>37552</v>
+      <c r="E287">
+        <v>25259</v>
+      </c>
+      <c r="F287">
+        <v>29614</v>
       </c>
       <c r="G287" s="40"/>
       <c r="H287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.85809189887433102</v>
       </c>
       <c r="J287" s="38">
@@ -13987,15 +13754,15 @@
         <v>50712</v>
       </c>
       <c r="M287" s="40"/>
-      <c r="N287" s="39">
-        <v>70648</v>
-      </c>
-      <c r="O287" s="39">
-        <v>83198</v>
+      <c r="N287">
+        <v>149146</v>
+      </c>
+      <c r="O287">
+        <v>168396</v>
       </c>
       <c r="P287" s="40"/>
       <c r="R287">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.83648840511121625</v>
       </c>
     </row>
@@ -14010,11 +13777,11 @@
         <v>14108</v>
       </c>
       <c r="D288" s="40"/>
-      <c r="E288" s="39">
-        <v>19280</v>
-      </c>
-      <c r="F288" s="39">
-        <v>23904</v>
+      <c r="E288">
+        <v>15454</v>
+      </c>
+      <c r="F288">
+        <v>19006</v>
       </c>
       <c r="G288" s="40"/>
       <c r="H288">
@@ -14031,11 +13798,11 @@
         <v>35456</v>
       </c>
       <c r="M288" s="40"/>
-      <c r="N288" s="39">
-        <v>49012</v>
-      </c>
-      <c r="O288" s="39">
-        <v>57616</v>
+      <c r="N288">
+        <v>115424</v>
+      </c>
+      <c r="O288">
+        <v>133849</v>
       </c>
       <c r="P288" s="40"/>
       <c r="R288">
@@ -14044,15 +13811,15 @@
       </c>
     </row>
     <row r="293" spans="1:17">
-      <c r="A293" s="47" t="s">
+      <c r="A293" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B293" s="47"/>
-      <c r="C293" s="47"/>
-      <c r="D293" s="47"/>
-      <c r="E293" s="47"/>
-      <c r="F293" s="47"/>
-      <c r="G293" s="47"/>
+      <c r="B293" s="49"/>
+      <c r="C293" s="49"/>
+      <c r="D293" s="49"/>
+      <c r="E293" s="49"/>
+      <c r="F293" s="49"/>
+      <c r="G293" s="49"/>
     </row>
     <row r="294" spans="1:17" ht="15.75" thickBot="1">
       <c r="H294">
@@ -14171,7 +13938,7 @@
       </c>
       <c r="G297" s="46"/>
       <c r="H297">
-        <f t="shared" ref="H297:H334" si="17">B297/C297</f>
+        <f t="shared" ref="H297:H334" si="18">B297/C297</f>
         <v>0.97037037037037033</v>
       </c>
       <c r="J297" s="44">
@@ -14192,7 +13959,7 @@
       </c>
       <c r="P297" s="46"/>
       <c r="Q297">
-        <f t="shared" ref="Q297:Q334" si="18">K297/L297</f>
+        <f t="shared" ref="Q297:Q334" si="19">K297/L297</f>
         <v>0.88763321650811811</v>
       </c>
     </row>
@@ -14215,7 +13982,7 @@
       </c>
       <c r="G298" s="46"/>
       <c r="H298">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.96892655367231639</v>
       </c>
       <c r="J298" s="44">
@@ -14236,7 +14003,7 @@
       </c>
       <c r="P298" s="46"/>
       <c r="Q298">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.86542962219993314</v>
       </c>
     </row>
@@ -14259,7 +14026,7 @@
       </c>
       <c r="G299" s="46"/>
       <c r="H299">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.033003300330033</v>
       </c>
       <c r="J299" s="44">
@@ -14280,7 +14047,7 @@
       </c>
       <c r="P299" s="46"/>
       <c r="Q299">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.8648734850095684</v>
       </c>
     </row>
@@ -14303,7 +14070,7 @@
       </c>
       <c r="G300" s="46"/>
       <c r="H300">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0355731225296443</v>
       </c>
       <c r="J300" s="44">
@@ -14324,7 +14091,7 @@
       </c>
       <c r="P300" s="46"/>
       <c r="Q300">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.87122969837587005</v>
       </c>
     </row>
@@ -14347,7 +14114,7 @@
       </c>
       <c r="G301" s="46"/>
       <c r="H301">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0495049504950495</v>
       </c>
       <c r="J301" s="44">
@@ -14368,7 +14135,7 @@
       </c>
       <c r="P301" s="46"/>
       <c r="Q301">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.87809549870023262</v>
       </c>
     </row>
@@ -14391,7 +14158,7 @@
       </c>
       <c r="G302" s="46"/>
       <c r="H302">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0457516339869282</v>
       </c>
       <c r="J302" s="44">
@@ -14412,7 +14179,7 @@
       </c>
       <c r="P302" s="46"/>
       <c r="Q302">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.89448604492852279</v>
       </c>
     </row>
@@ -14480,7 +14247,7 @@
       </c>
       <c r="G306" s="46"/>
       <c r="H306">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.7515856236786469</v>
       </c>
       <c r="J306" s="44">
@@ -14501,7 +14268,7 @@
       </c>
       <c r="P306" s="46"/>
       <c r="Q306">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0430684150990825</v>
       </c>
     </row>
@@ -14524,7 +14291,7 @@
       </c>
       <c r="G307" s="46"/>
       <c r="H307">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.74491017964071859</v>
       </c>
       <c r="J307" s="44">
@@ -14545,7 +14312,7 @@
       </c>
       <c r="P307" s="46"/>
       <c r="Q307">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0529487280253609</v>
       </c>
     </row>
@@ -14568,7 +14335,7 @@
       </c>
       <c r="G308" s="46"/>
       <c r="H308">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.74725274725274726</v>
       </c>
       <c r="J308" s="44">
@@ -14589,7 +14356,7 @@
       </c>
       <c r="P308" s="46"/>
       <c r="Q308">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0344643239004918</v>
       </c>
     </row>
@@ -14612,7 +14379,7 @@
       </c>
       <c r="G309" s="46"/>
       <c r="H309">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.91826923076923073</v>
       </c>
       <c r="J309" s="44">
@@ -14633,7 +14400,7 @@
       </c>
       <c r="P309" s="46"/>
       <c r="Q309">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0347456513166542</v>
       </c>
     </row>
@@ -14656,7 +14423,7 @@
       </c>
       <c r="G310" s="46"/>
       <c r="H310">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.91860465116279066</v>
       </c>
       <c r="J310" s="44">
@@ -14677,7 +14444,7 @@
       </c>
       <c r="P310" s="46"/>
       <c r="Q310">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0300278306723305</v>
       </c>
     </row>
@@ -14700,7 +14467,7 @@
       </c>
       <c r="G311" s="46"/>
       <c r="H311">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.9193154034229829</v>
       </c>
       <c r="J311" s="44">
@@ -14721,7 +14488,7 @@
       </c>
       <c r="P311" s="46"/>
       <c r="Q311">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0307431772292059</v>
       </c>
     </row>
@@ -14744,7 +14511,7 @@
       </c>
       <c r="G312" s="46"/>
       <c r="H312">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.69255663430420711</v>
       </c>
       <c r="J312" s="44">
@@ -14765,7 +14532,7 @@
       </c>
       <c r="P312" s="46"/>
       <c r="Q312">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0236761108041985</v>
       </c>
     </row>
@@ -14833,7 +14600,7 @@
       </c>
       <c r="G317" s="46"/>
       <c r="H317">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.75219181095434118</v>
       </c>
       <c r="J317" s="46">
@@ -14854,7 +14621,7 @@
       </c>
       <c r="P317" s="46"/>
       <c r="Q317">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.90022992697033233</v>
       </c>
     </row>
@@ -14877,7 +14644,7 @@
       </c>
       <c r="G318" s="46"/>
       <c r="H318">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.73706951149142186</v>
       </c>
       <c r="J318" s="46">
@@ -14898,7 +14665,7 @@
       </c>
       <c r="P318" s="46"/>
       <c r="Q318">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.88369192391643281</v>
       </c>
     </row>
@@ -14921,7 +14688,7 @@
       </c>
       <c r="G319" s="46"/>
       <c r="H319">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.78933029919392317</v>
       </c>
       <c r="J319" s="46">
@@ -14942,7 +14709,7 @@
       </c>
       <c r="P319" s="46"/>
       <c r="Q319">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0107645926657696</v>
       </c>
     </row>
@@ -14965,7 +14732,7 @@
       </c>
       <c r="G320" s="46"/>
       <c r="H320">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.77728842912876284</v>
       </c>
       <c r="J320" s="46">
@@ -14986,7 +14753,7 @@
       </c>
       <c r="P320" s="46"/>
       <c r="Q320">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0223422044039729</v>
       </c>
     </row>
@@ -15009,7 +14776,7 @@
       </c>
       <c r="G321" s="46"/>
       <c r="H321">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.76092955700798837</v>
       </c>
       <c r="J321" s="46">
@@ -15030,7 +14797,7 @@
       </c>
       <c r="P321" s="46"/>
       <c r="Q321">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.98926049431149465</v>
       </c>
     </row>
@@ -15053,7 +14820,7 @@
       </c>
       <c r="G322" s="46"/>
       <c r="H322">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.75288644533728066</v>
       </c>
       <c r="J322" s="46">
@@ -15074,7 +14841,7 @@
       </c>
       <c r="P322" s="46"/>
       <c r="Q322">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.9975373297172605</v>
       </c>
     </row>
@@ -15097,7 +14864,7 @@
       </c>
       <c r="G323" s="46"/>
       <c r="H323">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.75266433149500667</v>
       </c>
       <c r="J323" s="46">
@@ -15118,7 +14885,7 @@
       </c>
       <c r="P323" s="46"/>
       <c r="Q323">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.95940338239899781</v>
       </c>
     </row>
@@ -15186,7 +14953,7 @@
       </c>
       <c r="G328" s="46"/>
       <c r="H328">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.94535028326654691</v>
       </c>
       <c r="J328" s="44">
@@ -15207,7 +14974,7 @@
       </c>
       <c r="P328" s="46"/>
       <c r="Q328">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.88960863032930226</v>
       </c>
     </row>
@@ -15230,7 +14997,7 @@
       </c>
       <c r="G329" s="46"/>
       <c r="H329">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.86033781670315923</v>
       </c>
       <c r="J329" s="44">
@@ -15251,7 +15018,7 @@
       </c>
       <c r="P329" s="46"/>
       <c r="Q329">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.95145316276602021</v>
       </c>
     </row>
@@ -15274,7 +15041,7 @@
       </c>
       <c r="G330" s="46"/>
       <c r="H330">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.85342075748425505</v>
       </c>
       <c r="J330" s="44">
@@ -15295,7 +15062,7 @@
       </c>
       <c r="P330" s="46"/>
       <c r="Q330">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.96721483554933518</v>
       </c>
     </row>
@@ -15318,7 +15085,7 @@
       </c>
       <c r="G331" s="46"/>
       <c r="H331">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.81946746215887745</v>
       </c>
       <c r="J331" s="44">
@@ -15339,7 +15106,7 @@
       </c>
       <c r="P331" s="46"/>
       <c r="Q331">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.94057739247538086</v>
       </c>
     </row>
@@ -15362,7 +15129,7 @@
       </c>
       <c r="G332" s="46"/>
       <c r="H332">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.82707535121328224</v>
       </c>
       <c r="J332" s="44">
@@ -15383,7 +15150,7 @@
       </c>
       <c r="P332" s="46"/>
       <c r="Q332">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.92008175779253965</v>
       </c>
     </row>
@@ -15406,7 +15173,7 @@
       </c>
       <c r="G333" s="46"/>
       <c r="H333">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.82338536883991431</v>
       </c>
       <c r="J333" s="44">
@@ -15427,7 +15194,7 @@
       </c>
       <c r="P333" s="46"/>
       <c r="Q333">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.86089906700593721</v>
       </c>
     </row>
@@ -15450,7 +15217,7 @@
       </c>
       <c r="G334" s="46"/>
       <c r="H334">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="J334" s="44">
@@ -15471,18 +15238,12 @@
       </c>
       <c r="P334" s="46"/>
       <c r="Q334">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.86353398853398855</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AB66:AD66"/>
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="T97:V97"/>
-    <mergeCell ref="X97:Z97"/>
-    <mergeCell ref="AB97:AD97"/>
-    <mergeCell ref="AF97:AH97"/>
+  <mergeCells count="21">
     <mergeCell ref="A293:G293"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AD2:AF2"/>
@@ -15493,12 +15254,17 @@
     <mergeCell ref="A201:G201"/>
     <mergeCell ref="A247:G247"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="R34:T34"/>
     <mergeCell ref="V34:X34"/>
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A105:G105"/>
     <mergeCell ref="T66:V66"/>
     <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="AB66:AD66"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="T97:V97"/>
+    <mergeCell ref="X97:Z97"/>
+    <mergeCell ref="AB97:AD97"/>
+    <mergeCell ref="AF97:AH97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-analysis-ratios.xlsx
+++ b/journal-evaluation/diff-analysis-ratios.xlsx
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N284" sqref="N284:O288"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q221" sqref="Q221:Q224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11598,36 +11598,7 @@
         <v>0.97396048228120846</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
-      <c r="H221" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q221" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17">
-      <c r="H222" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q222" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H223" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q223" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+    <row r="223" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="224" spans="1:17" ht="15.75" thickBot="1">
       <c r="A224" s="29" t="s">
         <v>0</v>
@@ -11650,10 +11621,6 @@
       <c r="G224" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H224" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="J224" s="29" t="s">
         <v>6</v>
       </c>
@@ -11674,10 +11641,6 @@
       </c>
       <c r="P224" s="31" t="s">
         <v>16</v>
-      </c>
-      <c r="Q224" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="225" spans="1:17">

--- a/journal-evaluation/diff-analysis-ratios.xlsx
+++ b/journal-evaluation/diff-analysis-ratios.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrshen.CSDOMAIN.008\Desktop\caso-tpds\journal-evaluation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -25,6 +20,7 @@
     <definedName name="New_Text_Document_5" localSheetId="0">Sheet1!$F$247:$G$405</definedName>
     <definedName name="New_Text_Document_6" localSheetId="0">Sheet1!$D$294:$E$452</definedName>
     <definedName name="New_Text_Document_7" localSheetId="0">Sheet1!$N$284:$O$288</definedName>
+    <definedName name="New_Text_Document_8" localSheetId="0">Sheet1!$N$273:$O$277</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -89,6 +85,14 @@
     </textPr>
   </connection>
   <connection id="8" name="New Text Document7" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\zrshen.CSDOMAIN.008\Desktop\New Text Document.txt" space="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="New Text Document71" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\zrshen.CSDOMAIN.008\Desktop\New Text Document.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -185,7 +189,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -200,7 +204,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -215,7 +219,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -230,7 +234,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +249,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -260,7 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,7 +279,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -292,19 +296,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -313,7 +317,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -322,14 +326,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -337,7 +341,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -588,15 +592,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,11 +616,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_8" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,19 +636,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -686,7 +694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,7 +729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -932,36 +940,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q221" sqref="Q221:Q224"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N271" sqref="N271:O277"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="11" max="12" width="7.140625" customWidth="1"/>
-    <col min="17" max="21" width="7.140625" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="11" max="12" width="7.125" customWidth="1"/>
+    <col min="17" max="21" width="7.125" customWidth="1"/>
+    <col min="22" max="22" width="8.25" customWidth="1"/>
+    <col min="24" max="24" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" thickBot="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-    </row>
-    <row r="2" spans="1:36" ht="15.75" thickBot="1">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1004,33 +1012,33 @@
       <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="V2" s="48" t="s">
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="V2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Z2" s="48" t="s">
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Z2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AD2" s="48" t="s">
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AD2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AH2" s="48" t="s">
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AH2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>10</v>
       </c>
@@ -1123,7 +1131,7 @@
         <v>134736</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>20</v>
       </c>
@@ -1216,7 +1224,7 @@
         <v>142908</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>30</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>253012</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>40</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>259521</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>50</v>
       </c>
@@ -1495,7 +1503,7 @@
         <v>106812</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>60</v>
       </c>
@@ -1588,7 +1596,7 @@
         <v>114268</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>70</v>
       </c>
@@ -1681,7 +1689,7 @@
         <v>198819</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="R10" s="11">
         <v>20</v>
       </c>
@@ -1728,7 +1736,7 @@
         <v>205106</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.75" thickBot="1">
+    <row r="11" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="R11" s="11">
         <v>30</v>
       </c>
@@ -1775,7 +1783,7 @@
         <v>77860</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.75" thickBot="1">
+    <row r="12" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>83978</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -1957,7 +1965,7 @@
         <v>142642</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>20</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>147440</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>30</v>
       </c>
@@ -2143,7 +2151,7 @@
         <v>62862</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>40</v>
       </c>
@@ -2236,7 +2244,7 @@
         <v>68296</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>50</v>
       </c>
@@ -2329,7 +2337,7 @@
         <v>114809</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>60</v>
       </c>
@@ -2422,7 +2430,7 @@
         <v>119073</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>70</v>
       </c>
@@ -2515,7 +2523,7 @@
         <v>56828</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
       <c r="R20" s="11">
         <v>50</v>
       </c>
@@ -2562,7 +2570,7 @@
         <v>61122</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
       <c r="R21" s="11">
         <v>50</v>
       </c>
@@ -2609,7 +2617,7 @@
         <v>104287</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15.75" thickBot="1">
+    <row r="22" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="R22" s="11">
         <v>50</v>
       </c>
@@ -2656,7 +2664,7 @@
         <v>107644</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15.75" thickBot="1">
+    <row r="23" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -2745,7 +2753,7 @@
         <v>42344</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>10</v>
       </c>
@@ -2834,7 +2842,7 @@
         <v>45808</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>20</v>
       </c>
@@ -2923,7 +2931,7 @@
         <v>77109</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>30</v>
       </c>
@@ -3012,7 +3020,7 @@
         <v>79847</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>40</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>36160</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>50</v>
       </c>
@@ -3190,7 +3198,7 @@
         <v>38534</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>60</v>
       </c>
@@ -3279,7 +3287,7 @@
         <v>66424</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>70</v>
       </c>
@@ -3368,14 +3376,14 @@
         <v>68266</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
       <c r="R32" s="47" t="s">
         <v>9</v>
       </c>
       <c r="S32" s="47"/>
       <c r="T32" s="47"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1">
+    <row r="33" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="R33" s="11">
         <v>10</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>329302</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1">
+    <row r="34" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -3438,13 +3446,13 @@
       <c r="T34" s="5">
         <v>380426</v>
       </c>
-      <c r="V34" s="48" t="s">
+      <c r="V34" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>10</v>
       </c>
@@ -3506,7 +3514,7 @@
         <v>35452</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>20</v>
       </c>
@@ -3568,7 +3576,7 @@
         <v>36572</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>30</v>
       </c>
@@ -3630,7 +3638,7 @@
         <v>61088</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>40</v>
       </c>
@@ -3692,7 +3700,7 @@
         <v>62369</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>50</v>
       </c>
@@ -3754,7 +3762,7 @@
         <v>30642</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>60</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>32644</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>70</v>
       </c>
@@ -3882,7 +3890,7 @@
         <v>52824</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R42" s="11">
         <v>30</v>
       </c>
@@ -3902,7 +3910,7 @@
         <v>55689</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R43" s="11">
         <v>30</v>
       </c>
@@ -3922,7 +3930,7 @@
         <v>27036</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="H44">
         <f>AVERAGE(H3:H41)</f>
         <v>0.85681482591637637</v>
@@ -3950,7 +3958,7 @@
         <v>29498</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R45" s="11">
         <v>40</v>
       </c>
@@ -3970,7 +3978,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R46" s="11">
         <v>40</v>
       </c>
@@ -3990,7 +3998,7 @@
         <v>50576</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R47" s="11">
         <v>40</v>
       </c>
@@ -4010,7 +4018,7 @@
         <v>20194</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R48" s="11">
         <v>40</v>
       </c>
@@ -4030,7 +4038,7 @@
         <v>22784</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R49" s="11">
         <v>50</v>
       </c>
@@ -4050,7 +4058,7 @@
         <v>34560</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R50" s="11">
         <v>50</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>38142</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R51" s="11">
         <v>50</v>
       </c>
@@ -4090,7 +4098,7 @@
         <v>17472</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R52" s="11">
         <v>50</v>
       </c>
@@ -4110,7 +4118,7 @@
         <v>19762</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R53" s="11">
         <v>60</v>
       </c>
@@ -4130,7 +4138,7 @@
         <v>30280</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R54" s="11">
         <v>60</v>
       </c>
@@ -4150,7 +4158,7 @@
         <v>33334</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="R55" s="11">
         <v>60</v>
       </c>
@@ -4170,7 +4178,7 @@
         <v>14988</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
       <c r="H56">
         <f>1-H57</f>
         <v>0.18676454329169279</v>
@@ -4198,7 +4206,7 @@
         <v>16854</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="H57">
         <f>AVERAGE(H62:H100)</f>
         <v>0.81323545670830721</v>
@@ -4234,7 +4242,7 @@
         <v>26145</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
       <c r="P58">
         <f>1-Q58</f>
         <v>5.0208474645083712E-2</v>
@@ -4262,16 +4270,16 @@
         <v>28697</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
-      <c r="A59" s="49" t="s">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A59" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
       <c r="R59" s="11">
         <v>70</v>
       </c>
@@ -4291,7 +4299,7 @@
         <v>9294</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15.75" thickBot="1">
+    <row r="60" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="R60" s="11">
         <v>70</v>
       </c>
@@ -4311,7 +4319,7 @@
         <v>10892</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75" thickBot="1">
+    <row r="61" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>1</v>
       </c>
@@ -4364,7 +4372,7 @@
         <v>15930</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A62" s="21">
         <v>10</v>
       </c>
@@ -4425,7 +4433,7 @@
         <v>18103</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A63" s="21">
         <v>20</v>
       </c>
@@ -4477,7 +4485,7 @@
         <v>0.91755157371521923</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A64" s="21">
         <v>30</v>
       </c>
@@ -4529,7 +4537,7 @@
         <v>0.91280438311688317</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A65" s="21">
         <v>40</v>
       </c>
@@ -4581,7 +4589,7 @@
         <v>0.91906891109942135</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A66" s="21">
         <v>50</v>
       </c>
@@ -4632,28 +4640,28 @@
         <f t="shared" ref="R66:R89" si="6">N66/O66</f>
         <v>0.92571024734982332</v>
       </c>
-      <c r="T66" s="48" t="s">
+      <c r="T66" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="U66" s="48"/>
-      <c r="V66" s="48"/>
-      <c r="X66" s="48" t="s">
+      <c r="U66" s="49"/>
+      <c r="V66" s="49"/>
+      <c r="X66" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Y66" s="48"/>
-      <c r="Z66" s="48"/>
-      <c r="AB66" s="48" t="s">
+      <c r="Y66" s="49"/>
+      <c r="Z66" s="49"/>
+      <c r="AB66" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AC66" s="48"/>
-      <c r="AD66" s="48"/>
-      <c r="AF66" s="48" t="s">
+      <c r="AC66" s="49"/>
+      <c r="AD66" s="49"/>
+      <c r="AF66" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="AG66" s="48"/>
-      <c r="AH66" s="48"/>
-    </row>
-    <row r="67" spans="1:34">
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="49"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A67" s="21">
         <v>60</v>
       </c>
@@ -4741,7 +4749,7 @@
         <v>33390</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A68" s="21">
         <v>70</v>
       </c>
@@ -4829,7 +4837,7 @@
         <v>35096</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T69" s="22">
         <v>10</v>
       </c>
@@ -4867,7 +4875,7 @@
         <v>58673</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15.75" thickBot="1">
+    <row r="70" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T70" s="22">
         <v>10</v>
       </c>
@@ -4905,7 +4913,7 @@
         <v>60677</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15.75" thickBot="1">
+    <row r="71" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>2</v>
       </c>
@@ -4985,7 +4993,7 @@
         <v>27130</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A72" s="21">
         <v>10</v>
       </c>
@@ -5073,7 +5081,7 @@
         <v>31040</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A73" s="21">
         <v>20</v>
       </c>
@@ -5161,7 +5169,7 @@
         <v>48178</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A74" s="21">
         <v>30</v>
       </c>
@@ -5249,7 +5257,7 @@
         <v>53721</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A75" s="21">
         <v>40</v>
       </c>
@@ -5337,7 +5345,7 @@
         <v>24536</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A76" s="21">
         <v>50</v>
       </c>
@@ -5425,7 +5433,7 @@
         <v>28364</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A77" s="21">
         <v>60</v>
       </c>
@@ -5513,7 +5521,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A78" s="21">
         <v>70</v>
       </c>
@@ -5601,7 +5609,7 @@
         <v>49421</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T79" s="22">
         <v>40</v>
       </c>
@@ -5639,7 +5647,7 @@
         <v>17722</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T80" s="22">
         <v>40</v>
       </c>
@@ -5677,7 +5685,7 @@
         <v>21498</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="15.75" thickBot="1">
+    <row r="81" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T81" s="22">
         <v>40</v>
       </c>
@@ -5715,7 +5723,7 @@
         <v>31206</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15.75" thickBot="1">
+    <row r="82" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>0</v>
       </c>
@@ -5795,7 +5803,7 @@
         <v>36513</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A83" s="21">
         <v>10</v>
       </c>
@@ -5883,7 +5891,7 @@
         <v>15682</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A84" s="21">
         <v>20</v>
       </c>
@@ -5971,7 +5979,7 @@
         <v>18794</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A85" s="21">
         <v>30</v>
       </c>
@@ -6059,7 +6067,7 @@
         <v>27871</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A86" s="21">
         <v>40</v>
       </c>
@@ -6147,7 +6155,7 @@
         <v>32165</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A87" s="21">
         <v>50</v>
       </c>
@@ -6235,7 +6243,7 @@
         <v>13296</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A88" s="21">
         <v>60</v>
       </c>
@@ -6323,7 +6331,7 @@
         <v>15884</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A89" s="21">
         <v>70</v>
       </c>
@@ -6411,7 +6419,7 @@
         <v>23905</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T90" s="22">
         <v>60</v>
       </c>
@@ -6449,7 +6457,7 @@
         <v>27484</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T91" s="22">
         <v>70</v>
       </c>
@@ -6487,7 +6495,7 @@
         <v>7594</v>
       </c>
     </row>
-    <row r="92" spans="1:34" ht="15.75" thickBot="1">
+    <row r="92" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T92" s="22">
         <v>70</v>
       </c>
@@ -6525,7 +6533,7 @@
         <v>9804</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="15.75" thickBot="1">
+    <row r="93" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>21</v>
       </c>
@@ -6605,7 +6613,7 @@
         <v>13291</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A94" s="21">
         <v>10</v>
       </c>
@@ -6693,7 +6701,7 @@
         <v>13291</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A95" s="21">
         <v>20</v>
       </c>
@@ -6745,7 +6753,7 @@
         <v>0.94951240412739102</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A96" s="21">
         <v>30</v>
       </c>
@@ -6797,7 +6805,7 @@
         <v>0.94834337349397591</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A97" s="21">
         <v>40</v>
       </c>
@@ -6848,28 +6856,28 @@
         <f t="shared" si="10"/>
         <v>0.93338055286758914</v>
       </c>
-      <c r="T97" s="48" t="s">
+      <c r="T97" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="U97" s="48"/>
-      <c r="V97" s="48"/>
-      <c r="X97" s="48" t="s">
+      <c r="U97" s="49"/>
+      <c r="V97" s="49"/>
+      <c r="X97" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="Y97" s="48"/>
-      <c r="Z97" s="48"/>
-      <c r="AB97" s="48" t="s">
+      <c r="Y97" s="49"/>
+      <c r="Z97" s="49"/>
+      <c r="AB97" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AC97" s="48"/>
-      <c r="AD97" s="48"/>
-      <c r="AF97" s="48" t="s">
+      <c r="AC97" s="49"/>
+      <c r="AD97" s="49"/>
+      <c r="AF97" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AG97" s="48"/>
-      <c r="AH97" s="48"/>
-    </row>
-    <row r="98" spans="1:34">
+      <c r="AG97" s="49"/>
+      <c r="AH97" s="49"/>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A98" s="21">
         <v>50</v>
       </c>
@@ -6957,7 +6965,7 @@
         <v>88438</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A99" s="21">
         <v>60</v>
       </c>
@@ -7045,7 +7053,7 @@
         <v>95832</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A100" s="21">
         <v>70</v>
       </c>
@@ -7133,7 +7141,7 @@
         <v>155330</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T101" s="22">
         <v>10</v>
       </c>
@@ -7171,7 +7179,7 @@
         <v>172853</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T102" s="22">
         <v>20</v>
       </c>
@@ -7209,7 +7217,7 @@
         <v>79218</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T103" s="22">
         <v>20</v>
       </c>
@@ -7247,7 +7255,7 @@
         <v>78792</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T104" s="22">
         <v>20</v>
       </c>
@@ -7285,16 +7293,16 @@
         <v>134074</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
-      <c r="A105" s="49" t="s">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A105" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
       <c r="T105" s="22">
         <v>20</v>
       </c>
@@ -7332,7 +7340,7 @@
         <v>141203</v>
       </c>
     </row>
-    <row r="106" spans="1:34" ht="15.75" thickBot="1">
+    <row r="106" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T106" s="22">
         <v>30</v>
       </c>
@@ -7370,7 +7378,7 @@
         <v>67222</v>
       </c>
     </row>
-    <row r="107" spans="1:34" ht="15.75" thickBot="1">
+    <row r="107" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>1</v>
       </c>
@@ -7450,7 +7458,7 @@
         <v>66546</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A108" s="26">
         <v>10</v>
       </c>
@@ -7530,7 +7538,7 @@
         <v>113346</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A109" s="26">
         <v>20</v>
       </c>
@@ -7610,7 +7618,7 @@
         <v>119520</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A110" s="26">
         <v>30</v>
       </c>
@@ -7690,7 +7698,7 @@
         <v>55314</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A111" s="26">
         <v>40</v>
       </c>
@@ -7770,7 +7778,7 @@
         <v>55546</v>
       </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A112" s="26">
         <v>50</v>
       </c>
@@ -7850,7 +7858,7 @@
         <v>93563</v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A113" s="26">
         <v>60</v>
       </c>
@@ -7930,7 +7938,7 @@
         <v>100241</v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A114" s="26">
         <v>70</v>
       </c>
@@ -8010,7 +8018,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T115" s="22">
         <v>50</v>
       </c>
@@ -8048,7 +8056,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="116" spans="1:34" ht="15.75" thickBot="1">
+    <row r="116" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T116" s="22">
         <v>50</v>
       </c>
@@ -8086,7 +8094,7 @@
         <v>75768</v>
       </c>
     </row>
-    <row r="117" spans="1:34" ht="15.75" thickBot="1">
+    <row r="117" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
         <v>2</v>
       </c>
@@ -8166,7 +8174,7 @@
         <v>83351</v>
       </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A118" s="26">
         <v>10</v>
       </c>
@@ -8246,7 +8254,7 @@
         <v>29490</v>
       </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A119" s="26">
         <v>20</v>
       </c>
@@ -8326,7 +8334,7 @@
         <v>32490</v>
       </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A120" s="26">
         <v>30</v>
       </c>
@@ -8406,7 +8414,7 @@
         <v>49859</v>
       </c>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A121" s="26">
         <v>40</v>
       </c>
@@ -8486,7 +8494,7 @@
         <v>58327</v>
       </c>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A122" s="26">
         <v>50</v>
       </c>
@@ -8566,7 +8574,7 @@
         <v>20282</v>
       </c>
     </row>
-    <row r="123" spans="1:34">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A123" s="26">
         <v>60</v>
       </c>
@@ -8646,7 +8654,7 @@
         <v>22164</v>
       </c>
     </row>
-    <row r="124" spans="1:34">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A124" s="26">
         <v>70</v>
       </c>
@@ -8726,7 +8734,7 @@
         <v>34056</v>
       </c>
     </row>
-    <row r="125" spans="1:34">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.15">
       <c r="T125" s="22">
         <v>70</v>
       </c>
@@ -8764,8 +8772,8 @@
         <v>39908</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="15.75" thickBot="1"/>
-    <row r="128" spans="1:34" ht="15.75" thickBot="1">
+    <row r="127" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="s">
         <v>0</v>
       </c>
@@ -8809,7 +8817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A129" s="26">
         <v>10</v>
       </c>
@@ -8828,7 +8836,7 @@
       </c>
       <c r="G129" s="27"/>
       <c r="H129">
-        <f t="shared" ref="H127:H190" si="11">B129/C129</f>
+        <f t="shared" ref="H129:H190" si="11">B129/C129</f>
         <v>0.75552791065068892</v>
       </c>
       <c r="J129" s="27">
@@ -8853,7 +8861,7 @@
         <v>0.92011360446491963</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A130" s="26">
         <v>20</v>
       </c>
@@ -8897,7 +8905,7 @@
         <v>0.87839044218203921</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A131" s="26">
         <v>30</v>
       </c>
@@ -8941,7 +8949,7 @@
         <v>0.99100812041988517</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A132" s="26">
         <v>40</v>
       </c>
@@ -8985,7 +8993,7 @@
         <v>1.0057082088735281</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A133" s="26">
         <v>50</v>
       </c>
@@ -9029,7 +9037,7 @@
         <v>0.97591544414924336</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A134" s="26">
         <v>60</v>
       </c>
@@ -9073,7 +9081,7 @@
         <v>0.97116496494033711</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A135" s="26">
         <v>70</v>
       </c>
@@ -9105,8 +9113,8 @@
       <c r="O135" s="27"/>
       <c r="P135" s="27"/>
     </row>
-    <row r="138" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="139" spans="1:17" ht="15.75" thickBot="1">
+    <row r="138" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
         <v>21</v>
       </c>
@@ -9150,7 +9158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A140" s="26">
         <v>10</v>
       </c>
@@ -9194,7 +9202,7 @@
         <v>0.91083097938361646</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A141" s="26">
         <v>20</v>
       </c>
@@ -9238,7 +9246,7 @@
         <v>1.026763801699863</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A142" s="26">
         <v>30</v>
       </c>
@@ -9282,7 +9290,7 @@
         <v>1.0511591685137482</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A143" s="26">
         <v>40</v>
       </c>
@@ -9326,7 +9334,7 @@
         <v>1.0243243243243243</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A144" s="26">
         <v>50</v>
       </c>
@@ -9370,7 +9378,7 @@
         <v>0.98898916188091024</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A145" s="26">
         <v>60</v>
       </c>
@@ -9414,7 +9422,7 @@
         <v>0.9234328726554788</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A146" s="26">
         <v>70</v>
       </c>
@@ -9458,19 +9466,19 @@
         <v>0.91441202475685235</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
-      <c r="A152" s="49" t="s">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A152" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B152" s="49"/>
-      <c r="C152" s="49"/>
-      <c r="D152" s="49"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="49"/>
-      <c r="G152" s="49"/>
-    </row>
-    <row r="153" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="154" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B152" s="48"/>
+      <c r="C152" s="48"/>
+      <c r="D152" s="48"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="48"/>
+    </row>
+    <row r="153" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>1</v>
       </c>
@@ -9514,7 +9522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A155" s="16">
         <v>10</v>
       </c>
@@ -9558,7 +9566,7 @@
         <v>0.98332313341493272</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A156" s="16">
         <v>20</v>
       </c>
@@ -9602,7 +9610,7 @@
         <v>0.95699470183744784</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A157" s="16">
         <v>30</v>
       </c>
@@ -9646,7 +9654,7 @@
         <v>0.94278350515463916</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A158" s="16">
         <v>40</v>
       </c>
@@ -9690,7 +9698,7 @@
         <v>0.92592884130982367</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A159" s="16">
         <v>50</v>
       </c>
@@ -9734,7 +9742,7 @@
         <v>0.93217375299098104</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A160" s="16">
         <v>60</v>
       </c>
@@ -9778,7 +9786,7 @@
         <v>0.93821334503950837</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A161" s="16">
         <v>70</v>
       </c>
@@ -9822,8 +9830,8 @@
         <v>0.93990188062142277</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="164" spans="1:17" ht="15.75" thickBot="1">
+    <row r="163" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>2</v>
       </c>
@@ -9867,7 +9875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A165" s="16">
         <v>10</v>
       </c>
@@ -9911,7 +9919,7 @@
         <v>0.95558731671166164</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A166" s="16">
         <v>20</v>
       </c>
@@ -9955,7 +9963,7 @@
         <v>0.94967567299915823</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A167" s="16">
         <v>30</v>
       </c>
@@ -9999,7 +10007,7 @@
         <v>0.94409083852653519</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A168" s="16">
         <v>40</v>
       </c>
@@ -10043,7 +10051,7 @@
         <v>0.94217677849800652</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A169" s="16">
         <v>50</v>
       </c>
@@ -10087,7 +10095,7 @@
         <v>0.94818320610687024</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A170" s="16">
         <v>60</v>
       </c>
@@ -10131,7 +10139,7 @@
         <v>0.94163660681716854</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A171" s="16">
         <v>70</v>
       </c>
@@ -10175,8 +10183,8 @@
         <v>0.95324877290178356</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="175" spans="1:17" ht="15.75" thickBot="1">
+    <row r="174" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>0</v>
       </c>
@@ -10220,7 +10228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A176" s="16">
         <v>10</v>
       </c>
@@ -10264,7 +10272,7 @@
         <v>1.0164480932579878</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A177" s="16">
         <v>20</v>
       </c>
@@ -10308,7 +10316,7 @@
         <v>0.98089823763501993</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A178" s="16">
         <v>30</v>
       </c>
@@ -10352,7 +10360,7 @@
         <v>0.98155418335339029</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A179" s="16">
         <v>40</v>
       </c>
@@ -10396,7 +10404,7 @@
         <v>1.0600641341884558</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A180" s="16">
         <v>50</v>
       </c>
@@ -10440,7 +10448,7 @@
         <v>1.0700058275929052</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A181" s="16">
         <v>60</v>
       </c>
@@ -10484,7 +10492,7 @@
         <v>1.0591230811655483</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A182" s="16">
         <v>70</v>
       </c>
@@ -10528,8 +10536,8 @@
         <v>1.0665116389435969</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="186" spans="1:17" ht="15.75" thickBot="1">
+    <row r="185" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="186" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>21</v>
       </c>
@@ -10573,7 +10581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A187" s="16">
         <v>10</v>
       </c>
@@ -10617,7 +10625,7 @@
         <v>0.94351048978548535</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A188" s="16">
         <v>20</v>
       </c>
@@ -10661,7 +10669,7 @@
         <v>0.94138479001135078</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A189" s="16">
         <v>30</v>
       </c>
@@ -10705,7 +10713,7 @@
         <v>0.95479981617150123</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A190" s="16">
         <v>40</v>
       </c>
@@ -10749,7 +10757,7 @@
         <v>0.93178818112049122</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A191" s="16">
         <v>50</v>
       </c>
@@ -10793,7 +10801,7 @@
         <v>0.93331652136321064</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A192" s="16">
         <v>60</v>
       </c>
@@ -10837,7 +10845,7 @@
         <v>0.91918165989553102</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A193" s="16">
         <v>70</v>
       </c>
@@ -10881,19 +10889,19 @@
         <v>0.92405145530145527</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
-      <c r="A201" s="49" t="s">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A201" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B201" s="49"/>
-      <c r="C201" s="49"/>
-      <c r="D201" s="49"/>
-      <c r="E201" s="49"/>
-      <c r="F201" s="49"/>
-      <c r="G201" s="49"/>
-    </row>
-    <row r="202" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="203" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B201" s="48"/>
+      <c r="C201" s="48"/>
+      <c r="D201" s="48"/>
+      <c r="E201" s="48"/>
+      <c r="F201" s="48"/>
+      <c r="G201" s="48"/>
+    </row>
+    <row r="202" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A203" s="29" t="s">
         <v>1</v>
       </c>
@@ -10937,7 +10945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A204" s="32">
         <v>10</v>
       </c>
@@ -10981,7 +10989,7 @@
         <v>1.0071266110689916</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A205" s="32">
         <v>20</v>
       </c>
@@ -11025,7 +11033,7 @@
         <v>0.98763359632924852</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A206" s="32">
         <v>30</v>
       </c>
@@ -11069,7 +11077,7 @@
         <v>0.97531811496898779</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A207" s="32">
         <v>40</v>
       </c>
@@ -11113,7 +11121,7 @@
         <v>0.9730059478420009</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A208" s="32">
         <v>50</v>
       </c>
@@ -11157,7 +11165,7 @@
         <v>0.97543509789702687</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A209" s="32">
         <v>60</v>
       </c>
@@ -11201,7 +11209,7 @@
         <v>0.97636343922801694</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A210" s="32">
         <v>70</v>
       </c>
@@ -11245,8 +11253,8 @@
         <v>0.97714132042490254</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="213" spans="1:17" ht="15.75" thickBot="1">
+    <row r="212" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A213" s="29" t="s">
         <v>2</v>
       </c>
@@ -11290,7 +11298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A214" s="32">
         <v>10</v>
       </c>
@@ -11334,7 +11342,7 @@
         <v>0.97281632033207621</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A215" s="32">
         <v>20</v>
       </c>
@@ -11378,7 +11386,7 @@
         <v>0.96874754736528168</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A216" s="32">
         <v>30</v>
       </c>
@@ -11422,7 +11430,7 @@
         <v>0.9658539645366343</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A217" s="32">
         <v>40</v>
       </c>
@@ -11466,7 +11474,7 @@
         <v>0.96501206042909737</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A218" s="32">
         <v>50</v>
       </c>
@@ -11510,7 +11518,7 @@
         <v>0.9696917463874285</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A219" s="32">
         <v>60</v>
       </c>
@@ -11554,7 +11562,7 @@
         <v>0.96550415544002122</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A220" s="32">
         <v>70</v>
       </c>
@@ -11598,8 +11606,8 @@
         <v>0.97396048228120846</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="224" spans="1:17" ht="15.75" thickBot="1">
+    <row r="223" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A224" s="29" t="s">
         <v>0</v>
       </c>
@@ -11643,7 +11651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A225" s="32">
         <v>10</v>
       </c>
@@ -11687,7 +11695,7 @@
         <v>1.0271276338598176</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A226" s="32">
         <v>20</v>
       </c>
@@ -11731,7 +11739,7 @@
         <v>1.0053173968283846</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A227" s="32">
         <v>30</v>
       </c>
@@ -11775,7 +11783,7 @@
         <v>0.99722333491132875</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A228" s="32">
         <v>40</v>
       </c>
@@ -11819,7 +11827,7 @@
         <v>1.0267973572111624</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A229" s="32">
         <v>50</v>
       </c>
@@ -11863,7 +11871,7 @@
         <v>1.1282473852222885</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A230" s="32">
         <v>60</v>
       </c>
@@ -11907,7 +11915,7 @@
         <v>1.111587773606981</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A231" s="32">
         <v>70</v>
       </c>
@@ -11951,7 +11959,7 @@
         <v>1.1181560432636775</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H232" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -11961,7 +11969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H233" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -11971,7 +11979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="15.75" thickBot="1">
+    <row r="234" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H234" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -11981,7 +11989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="15.75" thickBot="1">
+    <row r="235" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A235" s="29" t="s">
         <v>21</v>
       </c>
@@ -12033,7 +12041,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A236" s="32">
         <v>10</v>
       </c>
@@ -12077,7 +12085,7 @@
         <v>0.93396484375</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A237" s="32">
         <v>20</v>
       </c>
@@ -12121,7 +12129,7 @@
         <v>0.94935111751982693</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A238" s="32">
         <v>30</v>
       </c>
@@ -12165,7 +12173,7 @@
         <v>0.9505298471697109</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A239" s="32">
         <v>40</v>
       </c>
@@ -12209,7 +12217,7 @@
         <v>0.92519079364121748</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A240" s="32">
         <v>50</v>
       </c>
@@ -12253,7 +12261,7 @@
         <v>0.93044554455445549</v>
       </c>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A241" s="32">
         <v>60</v>
       </c>
@@ -12297,7 +12305,7 @@
         <v>0.92121018234998397</v>
       </c>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A242" s="32">
         <v>70</v>
       </c>
@@ -12341,18 +12349,18 @@
         <v>0.92452590854315975</v>
       </c>
     </row>
-    <row r="247" spans="1:18">
-      <c r="A247" s="49" t="s">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A247" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B247" s="49"/>
-      <c r="C247" s="49"/>
-      <c r="D247" s="49"/>
-      <c r="E247" s="49"/>
-      <c r="F247" s="49"/>
-      <c r="G247" s="49"/>
-    </row>
-    <row r="248" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B247" s="48"/>
+      <c r="C247" s="48"/>
+      <c r="D247" s="48"/>
+      <c r="E247" s="48"/>
+      <c r="F247" s="48"/>
+      <c r="G247" s="48"/>
+    </row>
+    <row r="248" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H248">
         <f>AVERAGE(H250:H288)</f>
         <v>0.86827250456954552</v>
@@ -12362,7 +12370,7 @@
         <v>0.87699339234924611</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="15.75" thickBot="1">
+    <row r="249" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A249" s="35" t="s">
         <v>1</v>
       </c>
@@ -12406,7 +12414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:18">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A250" s="38">
         <v>10</v>
       </c>
@@ -12450,7 +12458,7 @@
         <v>1.010325406758448</v>
       </c>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A251" s="38">
         <v>20</v>
       </c>
@@ -12494,7 +12502,7 @@
         <v>0.93178882094565496</v>
       </c>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A252" s="38">
         <v>30</v>
       </c>
@@ -12538,7 +12546,7 @@
         <v>0.91738295075336229</v>
       </c>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A253" s="38">
         <v>40</v>
       </c>
@@ -12582,7 +12590,7 @@
         <v>0.91147922867865927</v>
       </c>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A254" s="38">
         <v>50</v>
       </c>
@@ -12626,7 +12634,7 @@
         <v>0.90988331224518493</v>
       </c>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A255" s="38">
         <v>60</v>
       </c>
@@ -12670,7 +12678,7 @@
         <v>0.91023726563796248</v>
       </c>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A256" s="38">
         <v>70</v>
       </c>
@@ -12714,8 +12722,8 @@
         <v>0.92298110857380111</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="259" spans="1:18" ht="15.75" thickBot="1">
+    <row r="258" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="259" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A259" s="35" t="s">
         <v>2</v>
       </c>
@@ -12759,7 +12767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:18">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A260" s="38">
         <v>10</v>
       </c>
@@ -12803,7 +12811,7 @@
         <v>0.84633609393018139</v>
       </c>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A261" s="38">
         <v>20</v>
       </c>
@@ -12847,7 +12855,7 @@
         <v>0.83028527763627102</v>
       </c>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A262" s="38">
         <v>30</v>
       </c>
@@ -12891,7 +12899,7 @@
         <v>0.81586560589124857</v>
       </c>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A263" s="38">
         <v>40</v>
       </c>
@@ -12935,7 +12943,7 @@
         <v>0.8096110204244138</v>
       </c>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A264" s="38">
         <v>50</v>
       </c>
@@ -12979,7 +12987,7 @@
         <v>0.82430520695477572</v>
       </c>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A265" s="38">
         <v>60</v>
       </c>
@@ -13023,7 +13031,7 @@
         <v>0.81704545454545452</v>
       </c>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A266" s="38">
         <v>70</v>
       </c>
@@ -13067,8 +13075,8 @@
         <v>0.84119069205197949</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="270" spans="1:18" ht="15.75" thickBot="1">
+    <row r="269" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A270" s="35" t="s">
         <v>0</v>
       </c>
@@ -13112,7 +13120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A271" s="38">
         <v>10</v>
       </c>
@@ -13145,10 +13153,10 @@
       </c>
       <c r="M271" s="40"/>
       <c r="N271">
-        <v>172804</v>
+        <v>413568</v>
       </c>
       <c r="O271">
-        <v>188937</v>
+        <v>495696</v>
       </c>
       <c r="P271" s="40"/>
       <c r="R271">
@@ -13156,7 +13164,7 @@
         <v>0.81443133219717678</v>
       </c>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A272" s="38">
         <v>20</v>
       </c>
@@ -13189,10 +13197,10 @@
       </c>
       <c r="M272" s="40"/>
       <c r="N272">
-        <v>150085</v>
+        <v>346920</v>
       </c>
       <c r="O272">
-        <v>157985</v>
+        <v>422151</v>
       </c>
       <c r="P272" s="40"/>
       <c r="R272">
@@ -13200,7 +13208,7 @@
         <v>0.79979914637208138</v>
       </c>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A273" s="38">
         <v>30</v>
       </c>
@@ -13233,10 +13241,10 @@
       </c>
       <c r="M273" s="40"/>
       <c r="N273">
-        <v>126679</v>
+        <v>275066</v>
       </c>
       <c r="O273">
-        <v>133242</v>
+        <v>301969</v>
       </c>
       <c r="P273" s="40"/>
       <c r="R273">
@@ -13244,7 +13252,7 @@
         <v>0.89442409157040437</v>
       </c>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A274" s="38">
         <v>40</v>
       </c>
@@ -13277,10 +13285,10 @@
       </c>
       <c r="M274" s="40"/>
       <c r="N274">
-        <v>101508</v>
+        <v>234028</v>
       </c>
       <c r="O274">
-        <v>110858</v>
+        <v>255120</v>
       </c>
       <c r="P274" s="40"/>
       <c r="R274">
@@ -13288,7 +13296,7 @@
         <v>0.89685027926001293</v>
       </c>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A275" s="38">
         <v>50</v>
       </c>
@@ -13321,10 +13329,10 @@
       </c>
       <c r="M275" s="40"/>
       <c r="N275">
-        <v>81513</v>
+        <v>188181</v>
       </c>
       <c r="O275">
-        <v>92132</v>
+        <v>211042</v>
       </c>
       <c r="P275" s="40"/>
       <c r="R275">
@@ -13332,7 +13340,7 @@
         <v>0.86953360080240727</v>
       </c>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A276" s="38">
         <v>60</v>
       </c>
@@ -13365,10 +13373,10 @@
       </c>
       <c r="M276" s="40"/>
       <c r="N276">
-        <v>56534</v>
+        <v>149146</v>
       </c>
       <c r="O276">
-        <v>66955</v>
+        <v>168396</v>
       </c>
       <c r="P276" s="40"/>
       <c r="R276">
@@ -13376,7 +13384,7 @@
         <v>0.86271549012205861</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A277" s="38">
         <v>70</v>
       </c>
@@ -13409,10 +13417,10 @@
       </c>
       <c r="M277" s="40"/>
       <c r="N277">
-        <v>39352</v>
+        <v>115424</v>
       </c>
       <c r="O277">
-        <v>46536</v>
+        <v>133849</v>
       </c>
       <c r="P277" s="40"/>
       <c r="R277">
@@ -13420,8 +13428,8 @@
         <v>0.83859343444343248</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="281" spans="1:18" ht="15.75" thickBot="1">
+    <row r="280" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A281" s="35" t="s">
         <v>21</v>
       </c>
@@ -13465,7 +13473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A282" s="38">
         <v>10</v>
       </c>
@@ -13498,10 +13506,10 @@
       </c>
       <c r="M282" s="40"/>
       <c r="N282">
-        <v>413568</v>
+        <v>172804</v>
       </c>
       <c r="O282">
-        <v>495696</v>
+        <v>188937</v>
       </c>
       <c r="P282" s="40"/>
       <c r="R282">
@@ -13509,7 +13517,7 @@
         <v>0.9134331744951214</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A283" s="38">
         <v>20</v>
       </c>
@@ -13542,10 +13550,10 @@
       </c>
       <c r="M283" s="40"/>
       <c r="N283">
-        <v>346920</v>
+        <v>150085</v>
       </c>
       <c r="O283">
-        <v>422151</v>
+        <v>157985</v>
       </c>
       <c r="P283" s="40"/>
       <c r="R283">
@@ -13553,7 +13561,7 @@
         <v>0.94994603345925521</v>
       </c>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A284" s="38">
         <v>30</v>
       </c>
@@ -13586,10 +13594,10 @@
       </c>
       <c r="M284" s="40"/>
       <c r="N284">
-        <v>275066</v>
+        <v>126679</v>
       </c>
       <c r="O284">
-        <v>301969</v>
+        <v>133242</v>
       </c>
       <c r="P284" s="40"/>
       <c r="R284">
@@ -13597,7 +13605,7 @@
         <v>0.95350698195494743</v>
       </c>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A285" s="38">
         <v>40</v>
       </c>
@@ -13630,10 +13638,10 @@
       </c>
       <c r="M285" s="40"/>
       <c r="N285">
-        <v>234028</v>
+        <v>101508</v>
       </c>
       <c r="O285">
-        <v>255120</v>
+        <v>110858</v>
       </c>
       <c r="P285" s="40"/>
       <c r="R285">
@@ -13641,7 +13649,7 @@
         <v>0.91170806855382247</v>
       </c>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A286" s="38">
         <v>50</v>
       </c>
@@ -13674,10 +13682,10 @@
       </c>
       <c r="M286" s="40"/>
       <c r="N286">
-        <v>188181</v>
+        <v>81513</v>
       </c>
       <c r="O286">
-        <v>211042</v>
+        <v>92132</v>
       </c>
       <c r="P286" s="40"/>
       <c r="R286">
@@ -13685,7 +13693,7 @@
         <v>0.87823519194024668</v>
       </c>
     </row>
-    <row r="287" spans="1:18">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A287" s="38">
         <v>60</v>
       </c>
@@ -13718,10 +13726,10 @@
       </c>
       <c r="M287" s="40"/>
       <c r="N287">
-        <v>149146</v>
+        <v>56534</v>
       </c>
       <c r="O287">
-        <v>168396</v>
+        <v>66955</v>
       </c>
       <c r="P287" s="40"/>
       <c r="R287">
@@ -13729,7 +13737,7 @@
         <v>0.83648840511121625</v>
       </c>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A288" s="38">
         <v>70</v>
       </c>
@@ -13762,10 +13770,10 @@
       </c>
       <c r="M288" s="40"/>
       <c r="N288">
-        <v>115424</v>
+        <v>39352</v>
       </c>
       <c r="O288">
-        <v>133849</v>
+        <v>46536</v>
       </c>
       <c r="P288" s="40"/>
       <c r="R288">
@@ -13773,18 +13781,18 @@
         <v>0.8374323104693141</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
-      <c r="A293" s="49" t="s">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A293" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B293" s="49"/>
-      <c r="C293" s="49"/>
-      <c r="D293" s="49"/>
-      <c r="E293" s="49"/>
-      <c r="F293" s="49"/>
-      <c r="G293" s="49"/>
-    </row>
-    <row r="294" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B293" s="48"/>
+      <c r="C293" s="48"/>
+      <c r="D293" s="48"/>
+      <c r="E293" s="48"/>
+      <c r="F293" s="48"/>
+      <c r="G293" s="48"/>
+    </row>
+    <row r="294" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H294">
         <f>AVERAGE(H296:H334)</f>
         <v>0.8573070565523635</v>
@@ -13794,7 +13802,7 @@
         <v>0.95034872387451086</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="15.75" thickBot="1">
+    <row r="295" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A295" s="41" t="s">
         <v>1</v>
       </c>
@@ -13838,7 +13846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A296" s="44">
         <v>10</v>
       </c>
@@ -13882,7 +13890,7 @@
         <v>0.94174377687996869</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A297" s="44">
         <v>20</v>
       </c>
@@ -13926,7 +13934,7 @@
         <v>0.88763321650811811</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A298" s="44">
         <v>30</v>
       </c>
@@ -13970,7 +13978,7 @@
         <v>0.86542962219993314</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A299" s="44">
         <v>40</v>
       </c>
@@ -14014,7 +14022,7 @@
         <v>0.8648734850095684</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A300" s="44">
         <v>50</v>
       </c>
@@ -14058,7 +14066,7 @@
         <v>0.87122969837587005</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A301" s="44">
         <v>60</v>
       </c>
@@ -14102,7 +14110,7 @@
         <v>0.87809549870023262</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A302" s="44">
         <v>70</v>
       </c>
@@ -14146,8 +14154,8 @@
         <v>0.89448604492852279</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="305" spans="1:17" ht="15.75" thickBot="1">
+    <row r="304" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="305" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A305" s="41" t="s">
         <v>2</v>
       </c>
@@ -14191,7 +14199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A306" s="44">
         <v>10</v>
       </c>
@@ -14235,7 +14243,7 @@
         <v>1.0430684150990825</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A307" s="44">
         <v>20</v>
       </c>
@@ -14279,7 +14287,7 @@
         <v>1.0529487280253609</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A308" s="44">
         <v>30</v>
       </c>
@@ -14323,7 +14331,7 @@
         <v>1.0344643239004918</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A309" s="44">
         <v>40</v>
       </c>
@@ -14367,7 +14375,7 @@
         <v>1.0347456513166542</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A310" s="44">
         <v>50</v>
       </c>
@@ -14411,7 +14419,7 @@
         <v>1.0300278306723305</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A311" s="44">
         <v>60</v>
       </c>
@@ -14455,7 +14463,7 @@
         <v>1.0307431772292059</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A312" s="44">
         <v>70</v>
       </c>
@@ -14499,8 +14507,8 @@
         <v>1.0236761108041985</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="316" spans="1:17" ht="15.75" thickBot="1">
+    <row r="315" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="316" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A316" s="41" t="s">
         <v>0</v>
       </c>
@@ -14544,7 +14552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A317" s="44">
         <v>10</v>
       </c>
@@ -14588,7 +14596,7 @@
         <v>0.90022992697033233</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A318" s="44">
         <v>20</v>
       </c>
@@ -14632,7 +14640,7 @@
         <v>0.88369192391643281</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A319" s="44">
         <v>30</v>
       </c>
@@ -14676,7 +14684,7 @@
         <v>1.0107645926657696</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A320" s="44">
         <v>40</v>
       </c>
@@ -14720,7 +14728,7 @@
         <v>1.0223422044039729</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A321" s="44">
         <v>50</v>
       </c>
@@ -14764,7 +14772,7 @@
         <v>0.98926049431149465</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A322" s="44">
         <v>60</v>
       </c>
@@ -14808,7 +14816,7 @@
         <v>0.9975373297172605</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A323" s="44">
         <v>70</v>
       </c>
@@ -14852,8 +14860,8 @@
         <v>0.95940338239899781</v>
       </c>
     </row>
-    <row r="326" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="327" spans="1:17" ht="15.75" thickBot="1">
+    <row r="326" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="327" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A327" s="41" t="s">
         <v>21</v>
       </c>
@@ -14897,7 +14905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A328" s="44">
         <v>10</v>
       </c>
@@ -14941,7 +14949,7 @@
         <v>0.88960863032930226</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A329" s="44">
         <v>20</v>
       </c>
@@ -14985,7 +14993,7 @@
         <v>0.95145316276602021</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A330" s="44">
         <v>30</v>
       </c>
@@ -15029,7 +15037,7 @@
         <v>0.96721483554933518</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A331" s="44">
         <v>40</v>
       </c>
@@ -15073,7 +15081,7 @@
         <v>0.94057739247538086</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A332" s="44">
         <v>50</v>
       </c>
@@ -15117,7 +15125,7 @@
         <v>0.92008175779253965</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A333" s="44">
         <v>60</v>
       </c>
@@ -15161,7 +15169,7 @@
         <v>0.86089906700593721</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A334" s="44">
         <v>70</v>
       </c>
@@ -15207,6 +15215,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="T97:V97"/>
+    <mergeCell ref="X97:Z97"/>
+    <mergeCell ref="AB97:AD97"/>
+    <mergeCell ref="AF97:AH97"/>
     <mergeCell ref="A293:G293"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AD2:AF2"/>
@@ -15223,11 +15236,6 @@
     <mergeCell ref="T66:V66"/>
     <mergeCell ref="X66:Z66"/>
     <mergeCell ref="AB66:AD66"/>
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="T97:V97"/>
-    <mergeCell ref="X97:Z97"/>
-    <mergeCell ref="AB97:AD97"/>
-    <mergeCell ref="AF97:AH97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15241,7 +15249,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15254,7 +15262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-analysis-ratios.xlsx
+++ b/journal-evaluation/diff-analysis-ratios.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrshen.CSDOMAIN.008\Desktop\caso-tpds\journal-evaluation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -20,7 +25,6 @@
     <definedName name="New_Text_Document_5" localSheetId="0">Sheet1!$F$247:$G$405</definedName>
     <definedName name="New_Text_Document_6" localSheetId="0">Sheet1!$D$294:$E$452</definedName>
     <definedName name="New_Text_Document_7" localSheetId="0">Sheet1!$N$284:$O$288</definedName>
-    <definedName name="New_Text_Document_8" localSheetId="0">Sheet1!$N$273:$O$277</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -85,14 +89,6 @@
     </textPr>
   </connection>
   <connection id="8" name="New Text Document7" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\zrshen.CSDOMAIN.008\Desktop\New Text Document.txt" space="1" consecutive="1">
-      <textFields count="2">
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="9" name="New Text Document71" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\zrshen.CSDOMAIN.008\Desktop\New Text Document.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -189,7 +185,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -204,7 +200,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -219,7 +215,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,7 +230,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -249,7 +245,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,7 +260,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -279,7 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -296,19 +292,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -317,7 +313,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -326,14 +322,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -341,7 +337,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -592,15 +588,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,11 +612,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_8" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,23 +632,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -694,7 +686,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,7 +721,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,36 +932,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N271" sqref="N271:O277"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q221" sqref="Q221:Q224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="11" max="12" width="7.125" customWidth="1"/>
-    <col min="17" max="21" width="7.125" customWidth="1"/>
-    <col min="22" max="22" width="8.25" customWidth="1"/>
-    <col min="24" max="24" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="11" max="12" width="7.140625" customWidth="1"/>
+    <col min="17" max="21" width="7.140625" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:36" ht="15.75" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="2" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:36" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1012,33 +1004,33 @@
       <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="V2" s="49" t="s">
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="V2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Z2" s="49" t="s">
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Z2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AD2" s="49" t="s">
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AD2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AH2" s="49" t="s">
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AH2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="9">
         <v>10</v>
       </c>
@@ -1131,7 +1123,7 @@
         <v>134736</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36">
       <c r="A4" s="9">
         <v>20</v>
       </c>
@@ -1224,7 +1216,7 @@
         <v>142908</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36">
       <c r="A5" s="9">
         <v>30</v>
       </c>
@@ -1317,7 +1309,7 @@
         <v>253012</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36">
       <c r="A6" s="9">
         <v>40</v>
       </c>
@@ -1410,7 +1402,7 @@
         <v>259521</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36">
       <c r="A7" s="9">
         <v>50</v>
       </c>
@@ -1503,7 +1495,7 @@
         <v>106812</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36">
       <c r="A8" s="9">
         <v>60</v>
       </c>
@@ -1596,7 +1588,7 @@
         <v>114268</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36">
       <c r="A9" s="9">
         <v>70</v>
       </c>
@@ -1689,7 +1681,7 @@
         <v>198819</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36">
       <c r="R10" s="11">
         <v>20</v>
       </c>
@@ -1736,7 +1728,7 @@
         <v>205106</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="15.75" thickBot="1">
       <c r="R11" s="11">
         <v>30</v>
       </c>
@@ -1783,7 +1775,7 @@
         <v>77860</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="15.75" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -1872,7 +1864,7 @@
         <v>83978</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -1965,7 +1957,7 @@
         <v>142642</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36">
       <c r="A14" s="9">
         <v>20</v>
       </c>
@@ -2058,7 +2050,7 @@
         <v>147440</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36">
       <c r="A15" s="9">
         <v>30</v>
       </c>
@@ -2151,7 +2143,7 @@
         <v>62862</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36">
       <c r="A16" s="9">
         <v>40</v>
       </c>
@@ -2244,7 +2236,7 @@
         <v>68296</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:36">
       <c r="A17" s="9">
         <v>50</v>
       </c>
@@ -2337,7 +2329,7 @@
         <v>114809</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36">
       <c r="A18" s="9">
         <v>60</v>
       </c>
@@ -2430,7 +2422,7 @@
         <v>119073</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36">
       <c r="A19" s="9">
         <v>70</v>
       </c>
@@ -2523,7 +2515,7 @@
         <v>56828</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:36">
       <c r="R20" s="11">
         <v>50</v>
       </c>
@@ -2570,7 +2562,7 @@
         <v>61122</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:36">
       <c r="R21" s="11">
         <v>50</v>
       </c>
@@ -2617,7 +2609,7 @@
         <v>104287</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="15.75" thickBot="1">
       <c r="R22" s="11">
         <v>50</v>
       </c>
@@ -2664,7 +2656,7 @@
         <v>107644</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="15.75" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -2753,7 +2745,7 @@
         <v>42344</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:36">
       <c r="A24" s="9">
         <v>10</v>
       </c>
@@ -2842,7 +2834,7 @@
         <v>45808</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:36">
       <c r="A25" s="9">
         <v>20</v>
       </c>
@@ -2931,7 +2923,7 @@
         <v>77109</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:36">
       <c r="A26" s="9">
         <v>30</v>
       </c>
@@ -3020,7 +3012,7 @@
         <v>79847</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:36">
       <c r="A27" s="9">
         <v>40</v>
       </c>
@@ -3109,7 +3101,7 @@
         <v>36160</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:36">
       <c r="A28" s="9">
         <v>50</v>
       </c>
@@ -3198,7 +3190,7 @@
         <v>38534</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:36">
       <c r="A29" s="9">
         <v>60</v>
       </c>
@@ -3287,7 +3279,7 @@
         <v>66424</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:36">
       <c r="A30" s="9">
         <v>70</v>
       </c>
@@ -3376,14 +3368,14 @@
         <v>68266</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:36">
       <c r="R32" s="47" t="s">
         <v>9</v>
       </c>
       <c r="S32" s="47"/>
       <c r="T32" s="47"/>
     </row>
-    <row r="33" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="15.75" thickBot="1">
       <c r="R33" s="11">
         <v>10</v>
       </c>
@@ -3394,7 +3386,7 @@
         <v>329302</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="15.75" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -3446,13 +3438,13 @@
       <c r="T34" s="5">
         <v>380426</v>
       </c>
-      <c r="V34" s="49" t="s">
+      <c r="V34" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="9">
         <v>10</v>
       </c>
@@ -3514,7 +3506,7 @@
         <v>35452</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24">
       <c r="A36" s="9">
         <v>20</v>
       </c>
@@ -3576,7 +3568,7 @@
         <v>36572</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24">
       <c r="A37" s="9">
         <v>30</v>
       </c>
@@ -3638,7 +3630,7 @@
         <v>61088</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24">
       <c r="A38" s="9">
         <v>40</v>
       </c>
@@ -3700,7 +3692,7 @@
         <v>62369</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24">
       <c r="A39" s="9">
         <v>50</v>
       </c>
@@ -3762,7 +3754,7 @@
         <v>30642</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24">
       <c r="A40" s="9">
         <v>60</v>
       </c>
@@ -3824,7 +3816,7 @@
         <v>32644</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24">
       <c r="A41" s="9">
         <v>70</v>
       </c>
@@ -3890,7 +3882,7 @@
         <v>52824</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24">
       <c r="R42" s="11">
         <v>30</v>
       </c>
@@ -3910,7 +3902,7 @@
         <v>55689</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24">
       <c r="R43" s="11">
         <v>30</v>
       </c>
@@ -3930,7 +3922,7 @@
         <v>27036</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24">
       <c r="H44">
         <f>AVERAGE(H3:H41)</f>
         <v>0.85681482591637637</v>
@@ -3958,7 +3950,7 @@
         <v>29498</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24">
       <c r="R45" s="11">
         <v>40</v>
       </c>
@@ -3978,7 +3970,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24">
       <c r="R46" s="11">
         <v>40</v>
       </c>
@@ -3998,7 +3990,7 @@
         <v>50576</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24">
       <c r="R47" s="11">
         <v>40</v>
       </c>
@@ -4018,7 +4010,7 @@
         <v>20194</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24">
       <c r="R48" s="11">
         <v>40</v>
       </c>
@@ -4038,7 +4030,7 @@
         <v>22784</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24">
       <c r="R49" s="11">
         <v>50</v>
       </c>
@@ -4058,7 +4050,7 @@
         <v>34560</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24">
       <c r="R50" s="11">
         <v>50</v>
       </c>
@@ -4078,7 +4070,7 @@
         <v>38142</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24">
       <c r="R51" s="11">
         <v>50</v>
       </c>
@@ -4098,7 +4090,7 @@
         <v>17472</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24">
       <c r="R52" s="11">
         <v>50</v>
       </c>
@@ -4118,7 +4110,7 @@
         <v>19762</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24">
       <c r="R53" s="11">
         <v>60</v>
       </c>
@@ -4138,7 +4130,7 @@
         <v>30280</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24">
       <c r="R54" s="11">
         <v>60</v>
       </c>
@@ -4158,7 +4150,7 @@
         <v>33334</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24">
       <c r="R55" s="11">
         <v>60</v>
       </c>
@@ -4178,7 +4170,7 @@
         <v>14988</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24">
       <c r="H56">
         <f>1-H57</f>
         <v>0.18676454329169279</v>
@@ -4206,7 +4198,7 @@
         <v>16854</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24">
       <c r="H57">
         <f>AVERAGE(H62:H100)</f>
         <v>0.81323545670830721</v>
@@ -4242,7 +4234,7 @@
         <v>26145</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24">
       <c r="P58">
         <f>1-Q58</f>
         <v>5.0208474645083712E-2</v>
@@ -4270,16 +4262,16 @@
         <v>28697</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A59" s="48" t="s">
+    <row r="59" spans="1:24">
+      <c r="A59" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
       <c r="R59" s="11">
         <v>70</v>
       </c>
@@ -4299,7 +4291,7 @@
         <v>9294</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="R60" s="11">
         <v>70</v>
       </c>
@@ -4319,7 +4311,7 @@
         <v>10892</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="15.75" thickBot="1">
       <c r="A61" s="18" t="s">
         <v>1</v>
       </c>
@@ -4372,7 +4364,7 @@
         <v>15930</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24">
       <c r="A62" s="21">
         <v>10</v>
       </c>
@@ -4433,7 +4425,7 @@
         <v>18103</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24">
       <c r="A63" s="21">
         <v>20</v>
       </c>
@@ -4485,7 +4477,7 @@
         <v>0.91755157371521923</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24">
       <c r="A64" s="21">
         <v>30</v>
       </c>
@@ -4537,7 +4529,7 @@
         <v>0.91280438311688317</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:34">
       <c r="A65" s="21">
         <v>40</v>
       </c>
@@ -4589,7 +4581,7 @@
         <v>0.91906891109942135</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:34">
       <c r="A66" s="21">
         <v>50</v>
       </c>
@@ -4640,28 +4632,28 @@
         <f t="shared" ref="R66:R89" si="6">N66/O66</f>
         <v>0.92571024734982332</v>
       </c>
-      <c r="T66" s="49" t="s">
+      <c r="T66" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="U66" s="49"/>
-      <c r="V66" s="49"/>
-      <c r="X66" s="49" t="s">
+      <c r="U66" s="48"/>
+      <c r="V66" s="48"/>
+      <c r="X66" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Y66" s="49"/>
-      <c r="Z66" s="49"/>
-      <c r="AB66" s="49" t="s">
+      <c r="Y66" s="48"/>
+      <c r="Z66" s="48"/>
+      <c r="AB66" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="AC66" s="49"/>
-      <c r="AD66" s="49"/>
-      <c r="AF66" s="49" t="s">
+      <c r="AC66" s="48"/>
+      <c r="AD66" s="48"/>
+      <c r="AF66" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="AG66" s="49"/>
-      <c r="AH66" s="49"/>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AG66" s="48"/>
+      <c r="AH66" s="48"/>
+    </row>
+    <row r="67" spans="1:34">
       <c r="A67" s="21">
         <v>60</v>
       </c>
@@ -4749,7 +4741,7 @@
         <v>33390</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:34">
       <c r="A68" s="21">
         <v>70</v>
       </c>
@@ -4837,7 +4829,7 @@
         <v>35096</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:34">
       <c r="T69" s="22">
         <v>10</v>
       </c>
@@ -4875,7 +4867,7 @@
         <v>58673</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" ht="15.75" thickBot="1">
       <c r="T70" s="22">
         <v>10</v>
       </c>
@@ -4913,7 +4905,7 @@
         <v>60677</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" ht="15.75" thickBot="1">
       <c r="A71" s="18" t="s">
         <v>2</v>
       </c>
@@ -4993,7 +4985,7 @@
         <v>27130</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:34">
       <c r="A72" s="21">
         <v>10</v>
       </c>
@@ -5081,7 +5073,7 @@
         <v>31040</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:34">
       <c r="A73" s="21">
         <v>20</v>
       </c>
@@ -5169,7 +5161,7 @@
         <v>48178</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:34">
       <c r="A74" s="21">
         <v>30</v>
       </c>
@@ -5257,7 +5249,7 @@
         <v>53721</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:34">
       <c r="A75" s="21">
         <v>40</v>
       </c>
@@ -5345,7 +5337,7 @@
         <v>24536</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:34">
       <c r="A76" s="21">
         <v>50</v>
       </c>
@@ -5433,7 +5425,7 @@
         <v>28364</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:34">
       <c r="A77" s="21">
         <v>60</v>
       </c>
@@ -5521,7 +5513,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:34">
       <c r="A78" s="21">
         <v>70</v>
       </c>
@@ -5609,7 +5601,7 @@
         <v>49421</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:34">
       <c r="T79" s="22">
         <v>40</v>
       </c>
@@ -5647,7 +5639,7 @@
         <v>17722</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:34">
       <c r="T80" s="22">
         <v>40</v>
       </c>
@@ -5685,7 +5677,7 @@
         <v>21498</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" ht="15.75" thickBot="1">
       <c r="T81" s="22">
         <v>40</v>
       </c>
@@ -5723,7 +5715,7 @@
         <v>31206</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" ht="15.75" thickBot="1">
       <c r="A82" s="18" t="s">
         <v>0</v>
       </c>
@@ -5803,7 +5795,7 @@
         <v>36513</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:34">
       <c r="A83" s="21">
         <v>10</v>
       </c>
@@ -5891,7 +5883,7 @@
         <v>15682</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:34">
       <c r="A84" s="21">
         <v>20</v>
       </c>
@@ -5979,7 +5971,7 @@
         <v>18794</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:34">
       <c r="A85" s="21">
         <v>30</v>
       </c>
@@ -6067,7 +6059,7 @@
         <v>27871</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:34">
       <c r="A86" s="21">
         <v>40</v>
       </c>
@@ -6155,7 +6147,7 @@
         <v>32165</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:34">
       <c r="A87" s="21">
         <v>50</v>
       </c>
@@ -6243,7 +6235,7 @@
         <v>13296</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:34">
       <c r="A88" s="21">
         <v>60</v>
       </c>
@@ -6331,7 +6323,7 @@
         <v>15884</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:34">
       <c r="A89" s="21">
         <v>70</v>
       </c>
@@ -6419,7 +6411,7 @@
         <v>23905</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:34">
       <c r="T90" s="22">
         <v>60</v>
       </c>
@@ -6457,7 +6449,7 @@
         <v>27484</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:34">
       <c r="T91" s="22">
         <v>70</v>
       </c>
@@ -6495,7 +6487,7 @@
         <v>7594</v>
       </c>
     </row>
-    <row r="92" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" ht="15.75" thickBot="1">
       <c r="T92" s="22">
         <v>70</v>
       </c>
@@ -6533,7 +6525,7 @@
         <v>9804</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" ht="15.75" thickBot="1">
       <c r="A93" s="18" t="s">
         <v>21</v>
       </c>
@@ -6613,7 +6605,7 @@
         <v>13291</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:34">
       <c r="A94" s="21">
         <v>10</v>
       </c>
@@ -6701,7 +6693,7 @@
         <v>13291</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:34">
       <c r="A95" s="21">
         <v>20</v>
       </c>
@@ -6753,7 +6745,7 @@
         <v>0.94951240412739102</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:34">
       <c r="A96" s="21">
         <v>30</v>
       </c>
@@ -6805,7 +6797,7 @@
         <v>0.94834337349397591</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:34">
       <c r="A97" s="21">
         <v>40</v>
       </c>
@@ -6856,28 +6848,28 @@
         <f t="shared" si="10"/>
         <v>0.93338055286758914</v>
       </c>
-      <c r="T97" s="49" t="s">
+      <c r="T97" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="U97" s="49"/>
-      <c r="V97" s="49"/>
-      <c r="X97" s="49" t="s">
+      <c r="U97" s="48"/>
+      <c r="V97" s="48"/>
+      <c r="X97" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Y97" s="49"/>
-      <c r="Z97" s="49"/>
-      <c r="AB97" s="49" t="s">
+      <c r="Y97" s="48"/>
+      <c r="Z97" s="48"/>
+      <c r="AB97" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AC97" s="49"/>
-      <c r="AD97" s="49"/>
-      <c r="AF97" s="49" t="s">
+      <c r="AC97" s="48"/>
+      <c r="AD97" s="48"/>
+      <c r="AF97" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AG97" s="49"/>
-      <c r="AH97" s="49"/>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AG97" s="48"/>
+      <c r="AH97" s="48"/>
+    </row>
+    <row r="98" spans="1:34">
       <c r="A98" s="21">
         <v>50</v>
       </c>
@@ -6965,7 +6957,7 @@
         <v>88438</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:34">
       <c r="A99" s="21">
         <v>60</v>
       </c>
@@ -7053,7 +7045,7 @@
         <v>95832</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:34">
       <c r="A100" s="21">
         <v>70</v>
       </c>
@@ -7141,7 +7133,7 @@
         <v>155330</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:34">
       <c r="T101" s="22">
         <v>10</v>
       </c>
@@ -7179,7 +7171,7 @@
         <v>172853</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:34">
       <c r="T102" s="22">
         <v>20</v>
       </c>
@@ -7217,7 +7209,7 @@
         <v>79218</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:34">
       <c r="T103" s="22">
         <v>20</v>
       </c>
@@ -7255,7 +7247,7 @@
         <v>78792</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:34">
       <c r="T104" s="22">
         <v>20</v>
       </c>
@@ -7293,16 +7285,16 @@
         <v>134074</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A105" s="48" t="s">
+    <row r="105" spans="1:34">
+      <c r="A105" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
       <c r="T105" s="22">
         <v>20</v>
       </c>
@@ -7340,7 +7332,7 @@
         <v>141203</v>
       </c>
     </row>
-    <row r="106" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" ht="15.75" thickBot="1">
       <c r="T106" s="22">
         <v>30</v>
       </c>
@@ -7378,7 +7370,7 @@
         <v>67222</v>
       </c>
     </row>
-    <row r="107" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" ht="15.75" thickBot="1">
       <c r="A107" s="23" t="s">
         <v>1</v>
       </c>
@@ -7458,7 +7450,7 @@
         <v>66546</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:34">
       <c r="A108" s="26">
         <v>10</v>
       </c>
@@ -7538,7 +7530,7 @@
         <v>113346</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:34">
       <c r="A109" s="26">
         <v>20</v>
       </c>
@@ -7618,7 +7610,7 @@
         <v>119520</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:34">
       <c r="A110" s="26">
         <v>30</v>
       </c>
@@ -7698,7 +7690,7 @@
         <v>55314</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:34">
       <c r="A111" s="26">
         <v>40</v>
       </c>
@@ -7778,7 +7770,7 @@
         <v>55546</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:34">
       <c r="A112" s="26">
         <v>50</v>
       </c>
@@ -7858,7 +7850,7 @@
         <v>93563</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:34">
       <c r="A113" s="26">
         <v>60</v>
       </c>
@@ -7938,7 +7930,7 @@
         <v>100241</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:34">
       <c r="A114" s="26">
         <v>70</v>
       </c>
@@ -8018,7 +8010,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:34">
       <c r="T115" s="22">
         <v>50</v>
       </c>
@@ -8056,7 +8048,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="116" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" ht="15.75" thickBot="1">
       <c r="T116" s="22">
         <v>50</v>
       </c>
@@ -8094,7 +8086,7 @@
         <v>75768</v>
       </c>
     </row>
-    <row r="117" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" ht="15.75" thickBot="1">
       <c r="A117" s="23" t="s">
         <v>2</v>
       </c>
@@ -8174,7 +8166,7 @@
         <v>83351</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:34">
       <c r="A118" s="26">
         <v>10</v>
       </c>
@@ -8254,7 +8246,7 @@
         <v>29490</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:34">
       <c r="A119" s="26">
         <v>20</v>
       </c>
@@ -8334,7 +8326,7 @@
         <v>32490</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:34">
       <c r="A120" s="26">
         <v>30</v>
       </c>
@@ -8414,7 +8406,7 @@
         <v>49859</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:34">
       <c r="A121" s="26">
         <v>40</v>
       </c>
@@ -8494,7 +8486,7 @@
         <v>58327</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:34">
       <c r="A122" s="26">
         <v>50</v>
       </c>
@@ -8574,7 +8566,7 @@
         <v>20282</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:34">
       <c r="A123" s="26">
         <v>60</v>
       </c>
@@ -8654,7 +8646,7 @@
         <v>22164</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:34">
       <c r="A124" s="26">
         <v>70</v>
       </c>
@@ -8734,7 +8726,7 @@
         <v>34056</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:34">
       <c r="T125" s="22">
         <v>70</v>
       </c>
@@ -8772,8 +8764,8 @@
         <v>39908</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" ht="15.75" thickBot="1"/>
+    <row r="128" spans="1:34" ht="15.75" thickBot="1">
       <c r="A128" s="23" t="s">
         <v>0</v>
       </c>
@@ -8817,7 +8809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:17">
       <c r="A129" s="26">
         <v>10</v>
       </c>
@@ -8836,7 +8828,7 @@
       </c>
       <c r="G129" s="27"/>
       <c r="H129">
-        <f t="shared" ref="H129:H190" si="11">B129/C129</f>
+        <f t="shared" ref="H127:H190" si="11">B129/C129</f>
         <v>0.75552791065068892</v>
       </c>
       <c r="J129" s="27">
@@ -8861,7 +8853,7 @@
         <v>0.92011360446491963</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:17">
       <c r="A130" s="26">
         <v>20</v>
       </c>
@@ -8905,7 +8897,7 @@
         <v>0.87839044218203921</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:17">
       <c r="A131" s="26">
         <v>30</v>
       </c>
@@ -8949,7 +8941,7 @@
         <v>0.99100812041988517</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:17">
       <c r="A132" s="26">
         <v>40</v>
       </c>
@@ -8993,7 +8985,7 @@
         <v>1.0057082088735281</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:17">
       <c r="A133" s="26">
         <v>50</v>
       </c>
@@ -9037,7 +9029,7 @@
         <v>0.97591544414924336</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:17">
       <c r="A134" s="26">
         <v>60</v>
       </c>
@@ -9081,7 +9073,7 @@
         <v>0.97116496494033711</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:17">
       <c r="A135" s="26">
         <v>70</v>
       </c>
@@ -9113,8 +9105,8 @@
       <c r="O135" s="27"/>
       <c r="P135" s="27"/>
     </row>
-    <row r="138" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="139" spans="1:17" ht="15.75" thickBot="1">
       <c r="A139" s="23" t="s">
         <v>21</v>
       </c>
@@ -9158,7 +9150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:17">
       <c r="A140" s="26">
         <v>10</v>
       </c>
@@ -9202,7 +9194,7 @@
         <v>0.91083097938361646</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:17">
       <c r="A141" s="26">
         <v>20</v>
       </c>
@@ -9246,7 +9238,7 @@
         <v>1.026763801699863</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:17">
       <c r="A142" s="26">
         <v>30</v>
       </c>
@@ -9290,7 +9282,7 @@
         <v>1.0511591685137482</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:17">
       <c r="A143" s="26">
         <v>40</v>
       </c>
@@ -9334,7 +9326,7 @@
         <v>1.0243243243243243</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:17">
       <c r="A144" s="26">
         <v>50</v>
       </c>
@@ -9378,7 +9370,7 @@
         <v>0.98898916188091024</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:17">
       <c r="A145" s="26">
         <v>60</v>
       </c>
@@ -9422,7 +9414,7 @@
         <v>0.9234328726554788</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:17">
       <c r="A146" s="26">
         <v>70</v>
       </c>
@@ -9466,19 +9458,19 @@
         <v>0.91441202475685235</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A152" s="48" t="s">
+    <row r="152" spans="1:17">
+      <c r="A152" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B152" s="48"/>
-      <c r="C152" s="48"/>
-      <c r="D152" s="48"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="48"/>
-      <c r="G152" s="48"/>
-    </row>
-    <row r="153" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="49"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="49"/>
+      <c r="G152" s="49"/>
+    </row>
+    <row r="153" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="154" spans="1:17" ht="15.75" thickBot="1">
       <c r="A154" s="13" t="s">
         <v>1</v>
       </c>
@@ -9522,7 +9514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:17">
       <c r="A155" s="16">
         <v>10</v>
       </c>
@@ -9566,7 +9558,7 @@
         <v>0.98332313341493272</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:17">
       <c r="A156" s="16">
         <v>20</v>
       </c>
@@ -9610,7 +9602,7 @@
         <v>0.95699470183744784</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:17">
       <c r="A157" s="16">
         <v>30</v>
       </c>
@@ -9654,7 +9646,7 @@
         <v>0.94278350515463916</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:17">
       <c r="A158" s="16">
         <v>40</v>
       </c>
@@ -9698,7 +9690,7 @@
         <v>0.92592884130982367</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:17">
       <c r="A159" s="16">
         <v>50</v>
       </c>
@@ -9742,7 +9734,7 @@
         <v>0.93217375299098104</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:17">
       <c r="A160" s="16">
         <v>60</v>
       </c>
@@ -9786,7 +9778,7 @@
         <v>0.93821334503950837</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:17">
       <c r="A161" s="16">
         <v>70</v>
       </c>
@@ -9830,8 +9822,8 @@
         <v>0.93990188062142277</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="164" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="164" spans="1:17" ht="15.75" thickBot="1">
       <c r="A164" s="13" t="s">
         <v>2</v>
       </c>
@@ -9875,7 +9867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:17">
       <c r="A165" s="16">
         <v>10</v>
       </c>
@@ -9919,7 +9911,7 @@
         <v>0.95558731671166164</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:17">
       <c r="A166" s="16">
         <v>20</v>
       </c>
@@ -9963,7 +9955,7 @@
         <v>0.94967567299915823</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:17">
       <c r="A167" s="16">
         <v>30</v>
       </c>
@@ -10007,7 +9999,7 @@
         <v>0.94409083852653519</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:17">
       <c r="A168" s="16">
         <v>40</v>
       </c>
@@ -10051,7 +10043,7 @@
         <v>0.94217677849800652</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:17">
       <c r="A169" s="16">
         <v>50</v>
       </c>
@@ -10095,7 +10087,7 @@
         <v>0.94818320610687024</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:17">
       <c r="A170" s="16">
         <v>60</v>
       </c>
@@ -10139,7 +10131,7 @@
         <v>0.94163660681716854</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:17">
       <c r="A171" s="16">
         <v>70</v>
       </c>
@@ -10183,8 +10175,8 @@
         <v>0.95324877290178356</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="175" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="175" spans="1:17" ht="15.75" thickBot="1">
       <c r="A175" s="13" t="s">
         <v>0</v>
       </c>
@@ -10228,7 +10220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:17">
       <c r="A176" s="16">
         <v>10</v>
       </c>
@@ -10272,7 +10264,7 @@
         <v>1.0164480932579878</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:17">
       <c r="A177" s="16">
         <v>20</v>
       </c>
@@ -10316,7 +10308,7 @@
         <v>0.98089823763501993</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:17">
       <c r="A178" s="16">
         <v>30</v>
       </c>
@@ -10360,7 +10352,7 @@
         <v>0.98155418335339029</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:17">
       <c r="A179" s="16">
         <v>40</v>
       </c>
@@ -10404,7 +10396,7 @@
         <v>1.0600641341884558</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:17">
       <c r="A180" s="16">
         <v>50</v>
       </c>
@@ -10448,7 +10440,7 @@
         <v>1.0700058275929052</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:17">
       <c r="A181" s="16">
         <v>60</v>
       </c>
@@ -10492,7 +10484,7 @@
         <v>1.0591230811655483</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:17">
       <c r="A182" s="16">
         <v>70</v>
       </c>
@@ -10536,8 +10528,8 @@
         <v>1.0665116389435969</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="186" spans="1:17" ht="15.75" thickBot="1">
       <c r="A186" s="13" t="s">
         <v>21</v>
       </c>
@@ -10581,7 +10573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:17">
       <c r="A187" s="16">
         <v>10</v>
       </c>
@@ -10625,7 +10617,7 @@
         <v>0.94351048978548535</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:17">
       <c r="A188" s="16">
         <v>20</v>
       </c>
@@ -10669,7 +10661,7 @@
         <v>0.94138479001135078</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:17">
       <c r="A189" s="16">
         <v>30</v>
       </c>
@@ -10713,7 +10705,7 @@
         <v>0.95479981617150123</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:17">
       <c r="A190" s="16">
         <v>40</v>
       </c>
@@ -10757,7 +10749,7 @@
         <v>0.93178818112049122</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:17">
       <c r="A191" s="16">
         <v>50</v>
       </c>
@@ -10801,7 +10793,7 @@
         <v>0.93331652136321064</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:17">
       <c r="A192" s="16">
         <v>60</v>
       </c>
@@ -10845,7 +10837,7 @@
         <v>0.91918165989553102</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:17">
       <c r="A193" s="16">
         <v>70</v>
       </c>
@@ -10889,19 +10881,19 @@
         <v>0.92405145530145527</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A201" s="48" t="s">
+    <row r="201" spans="1:17">
+      <c r="A201" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B201" s="48"/>
-      <c r="C201" s="48"/>
-      <c r="D201" s="48"/>
-      <c r="E201" s="48"/>
-      <c r="F201" s="48"/>
-      <c r="G201" s="48"/>
-    </row>
-    <row r="202" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="203" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="49"/>
+      <c r="C201" s="49"/>
+      <c r="D201" s="49"/>
+      <c r="E201" s="49"/>
+      <c r="F201" s="49"/>
+      <c r="G201" s="49"/>
+    </row>
+    <row r="202" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="203" spans="1:17" ht="15.75" thickBot="1">
       <c r="A203" s="29" t="s">
         <v>1</v>
       </c>
@@ -10945,7 +10937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:17">
       <c r="A204" s="32">
         <v>10</v>
       </c>
@@ -10989,7 +10981,7 @@
         <v>1.0071266110689916</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:17">
       <c r="A205" s="32">
         <v>20</v>
       </c>
@@ -11033,7 +11025,7 @@
         <v>0.98763359632924852</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:17">
       <c r="A206" s="32">
         <v>30</v>
       </c>
@@ -11077,7 +11069,7 @@
         <v>0.97531811496898779</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:17">
       <c r="A207" s="32">
         <v>40</v>
       </c>
@@ -11121,7 +11113,7 @@
         <v>0.9730059478420009</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:17">
       <c r="A208" s="32">
         <v>50</v>
       </c>
@@ -11165,7 +11157,7 @@
         <v>0.97543509789702687</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:17">
       <c r="A209" s="32">
         <v>60</v>
       </c>
@@ -11209,7 +11201,7 @@
         <v>0.97636343922801694</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:17">
       <c r="A210" s="32">
         <v>70</v>
       </c>
@@ -11253,8 +11245,8 @@
         <v>0.97714132042490254</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="213" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="213" spans="1:17" ht="15.75" thickBot="1">
       <c r="A213" s="29" t="s">
         <v>2</v>
       </c>
@@ -11298,7 +11290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:17">
       <c r="A214" s="32">
         <v>10</v>
       </c>
@@ -11342,7 +11334,7 @@
         <v>0.97281632033207621</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:17">
       <c r="A215" s="32">
         <v>20</v>
       </c>
@@ -11386,7 +11378,7 @@
         <v>0.96874754736528168</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:17">
       <c r="A216" s="32">
         <v>30</v>
       </c>
@@ -11430,7 +11422,7 @@
         <v>0.9658539645366343</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:17">
       <c r="A217" s="32">
         <v>40</v>
       </c>
@@ -11474,7 +11466,7 @@
         <v>0.96501206042909737</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:17">
       <c r="A218" s="32">
         <v>50</v>
       </c>
@@ -11518,7 +11510,7 @@
         <v>0.9696917463874285</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:17">
       <c r="A219" s="32">
         <v>60</v>
       </c>
@@ -11562,7 +11554,7 @@
         <v>0.96550415544002122</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:17">
       <c r="A220" s="32">
         <v>70</v>
       </c>
@@ -11606,8 +11598,8 @@
         <v>0.97396048228120846</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="224" spans="1:17" ht="15.75" thickBot="1">
       <c r="A224" s="29" t="s">
         <v>0</v>
       </c>
@@ -11651,7 +11643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:17">
       <c r="A225" s="32">
         <v>10</v>
       </c>
@@ -11695,7 +11687,7 @@
         <v>1.0271276338598176</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:17">
       <c r="A226" s="32">
         <v>20</v>
       </c>
@@ -11739,7 +11731,7 @@
         <v>1.0053173968283846</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:17">
       <c r="A227" s="32">
         <v>30</v>
       </c>
@@ -11783,7 +11775,7 @@
         <v>0.99722333491132875</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:17">
       <c r="A228" s="32">
         <v>40</v>
       </c>
@@ -11827,7 +11819,7 @@
         <v>1.0267973572111624</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:17">
       <c r="A229" s="32">
         <v>50</v>
       </c>
@@ -11871,7 +11863,7 @@
         <v>1.1282473852222885</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:17">
       <c r="A230" s="32">
         <v>60</v>
       </c>
@@ -11915,7 +11907,7 @@
         <v>1.111587773606981</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:17">
       <c r="A231" s="32">
         <v>70</v>
       </c>
@@ -11959,7 +11951,7 @@
         <v>1.1181560432636775</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:17">
       <c r="H232" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -11969,7 +11961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:17">
       <c r="H233" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -11979,7 +11971,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="15.75" thickBot="1">
       <c r="H234" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -11989,7 +11981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" ht="15.75" thickBot="1">
       <c r="A235" s="29" t="s">
         <v>21</v>
       </c>
@@ -12041,7 +12033,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:17">
       <c r="A236" s="32">
         <v>10</v>
       </c>
@@ -12085,7 +12077,7 @@
         <v>0.93396484375</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:17">
       <c r="A237" s="32">
         <v>20</v>
       </c>
@@ -12129,7 +12121,7 @@
         <v>0.94935111751982693</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:17">
       <c r="A238" s="32">
         <v>30</v>
       </c>
@@ -12173,7 +12165,7 @@
         <v>0.9505298471697109</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:17">
       <c r="A239" s="32">
         <v>40</v>
       </c>
@@ -12217,7 +12209,7 @@
         <v>0.92519079364121748</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:17">
       <c r="A240" s="32">
         <v>50</v>
       </c>
@@ -12261,7 +12253,7 @@
         <v>0.93044554455445549</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:18">
       <c r="A241" s="32">
         <v>60</v>
       </c>
@@ -12305,7 +12297,7 @@
         <v>0.92121018234998397</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:18">
       <c r="A242" s="32">
         <v>70</v>
       </c>
@@ -12349,18 +12341,18 @@
         <v>0.92452590854315975</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A247" s="48" t="s">
+    <row r="247" spans="1:18">
+      <c r="A247" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B247" s="48"/>
-      <c r="C247" s="48"/>
-      <c r="D247" s="48"/>
-      <c r="E247" s="48"/>
-      <c r="F247" s="48"/>
-      <c r="G247" s="48"/>
-    </row>
-    <row r="248" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="49"/>
+      <c r="C247" s="49"/>
+      <c r="D247" s="49"/>
+      <c r="E247" s="49"/>
+      <c r="F247" s="49"/>
+      <c r="G247" s="49"/>
+    </row>
+    <row r="248" spans="1:18" ht="15.75" thickBot="1">
       <c r="H248">
         <f>AVERAGE(H250:H288)</f>
         <v>0.86827250456954552</v>
@@ -12370,7 +12362,7 @@
         <v>0.87699339234924611</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" ht="15.75" thickBot="1">
       <c r="A249" s="35" t="s">
         <v>1</v>
       </c>
@@ -12414,7 +12406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:18">
       <c r="A250" s="38">
         <v>10</v>
       </c>
@@ -12458,7 +12450,7 @@
         <v>1.010325406758448</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:18">
       <c r="A251" s="38">
         <v>20</v>
       </c>
@@ -12502,7 +12494,7 @@
         <v>0.93178882094565496</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:18">
       <c r="A252" s="38">
         <v>30</v>
       </c>
@@ -12546,7 +12538,7 @@
         <v>0.91738295075336229</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:18">
       <c r="A253" s="38">
         <v>40</v>
       </c>
@@ -12590,7 +12582,7 @@
         <v>0.91147922867865927</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:18">
       <c r="A254" s="38">
         <v>50</v>
       </c>
@@ -12634,7 +12626,7 @@
         <v>0.90988331224518493</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:18">
       <c r="A255" s="38">
         <v>60</v>
       </c>
@@ -12678,7 +12670,7 @@
         <v>0.91023726563796248</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:18">
       <c r="A256" s="38">
         <v>70</v>
       </c>
@@ -12722,8 +12714,8 @@
         <v>0.92298110857380111</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="259" spans="1:18" ht="15.75" thickBot="1">
       <c r="A259" s="35" t="s">
         <v>2</v>
       </c>
@@ -12767,7 +12759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:18">
       <c r="A260" s="38">
         <v>10</v>
       </c>
@@ -12811,7 +12803,7 @@
         <v>0.84633609393018139</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:18">
       <c r="A261" s="38">
         <v>20</v>
       </c>
@@ -12855,7 +12847,7 @@
         <v>0.83028527763627102</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:18">
       <c r="A262" s="38">
         <v>30</v>
       </c>
@@ -12899,7 +12891,7 @@
         <v>0.81586560589124857</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:18">
       <c r="A263" s="38">
         <v>40</v>
       </c>
@@ -12943,7 +12935,7 @@
         <v>0.8096110204244138</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:18">
       <c r="A264" s="38">
         <v>50</v>
       </c>
@@ -12987,7 +12979,7 @@
         <v>0.82430520695477572</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:18">
       <c r="A265" s="38">
         <v>60</v>
       </c>
@@ -13031,7 +13023,7 @@
         <v>0.81704545454545452</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:18">
       <c r="A266" s="38">
         <v>70</v>
       </c>
@@ -13075,8 +13067,8 @@
         <v>0.84119069205197949</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="270" spans="1:18" ht="15.75" thickBot="1">
       <c r="A270" s="35" t="s">
         <v>0</v>
       </c>
@@ -13120,7 +13112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:18">
       <c r="A271" s="38">
         <v>10</v>
       </c>
@@ -13153,10 +13145,10 @@
       </c>
       <c r="M271" s="40"/>
       <c r="N271">
-        <v>413568</v>
+        <v>172804</v>
       </c>
       <c r="O271">
-        <v>495696</v>
+        <v>188937</v>
       </c>
       <c r="P271" s="40"/>
       <c r="R271">
@@ -13164,7 +13156,7 @@
         <v>0.81443133219717678</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:18">
       <c r="A272" s="38">
         <v>20</v>
       </c>
@@ -13197,10 +13189,10 @@
       </c>
       <c r="M272" s="40"/>
       <c r="N272">
-        <v>346920</v>
+        <v>150085</v>
       </c>
       <c r="O272">
-        <v>422151</v>
+        <v>157985</v>
       </c>
       <c r="P272" s="40"/>
       <c r="R272">
@@ -13208,7 +13200,7 @@
         <v>0.79979914637208138</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:18">
       <c r="A273" s="38">
         <v>30</v>
       </c>
@@ -13241,10 +13233,10 @@
       </c>
       <c r="M273" s="40"/>
       <c r="N273">
-        <v>275066</v>
+        <v>126679</v>
       </c>
       <c r="O273">
-        <v>301969</v>
+        <v>133242</v>
       </c>
       <c r="P273" s="40"/>
       <c r="R273">
@@ -13252,7 +13244,7 @@
         <v>0.89442409157040437</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:18">
       <c r="A274" s="38">
         <v>40</v>
       </c>
@@ -13285,10 +13277,10 @@
       </c>
       <c r="M274" s="40"/>
       <c r="N274">
-        <v>234028</v>
+        <v>101508</v>
       </c>
       <c r="O274">
-        <v>255120</v>
+        <v>110858</v>
       </c>
       <c r="P274" s="40"/>
       <c r="R274">
@@ -13296,7 +13288,7 @@
         <v>0.89685027926001293</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:18">
       <c r="A275" s="38">
         <v>50</v>
       </c>
@@ -13329,10 +13321,10 @@
       </c>
       <c r="M275" s="40"/>
       <c r="N275">
-        <v>188181</v>
+        <v>81513</v>
       </c>
       <c r="O275">
-        <v>211042</v>
+        <v>92132</v>
       </c>
       <c r="P275" s="40"/>
       <c r="R275">
@@ -13340,7 +13332,7 @@
         <v>0.86953360080240727</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:18">
       <c r="A276" s="38">
         <v>60</v>
       </c>
@@ -13373,10 +13365,10 @@
       </c>
       <c r="M276" s="40"/>
       <c r="N276">
-        <v>149146</v>
+        <v>56534</v>
       </c>
       <c r="O276">
-        <v>168396</v>
+        <v>66955</v>
       </c>
       <c r="P276" s="40"/>
       <c r="R276">
@@ -13384,7 +13376,7 @@
         <v>0.86271549012205861</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:18">
       <c r="A277" s="38">
         <v>70</v>
       </c>
@@ -13417,10 +13409,10 @@
       </c>
       <c r="M277" s="40"/>
       <c r="N277">
-        <v>115424</v>
+        <v>39352</v>
       </c>
       <c r="O277">
-        <v>133849</v>
+        <v>46536</v>
       </c>
       <c r="P277" s="40"/>
       <c r="R277">
@@ -13428,8 +13420,8 @@
         <v>0.83859343444343248</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="281" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="281" spans="1:18" ht="15.75" thickBot="1">
       <c r="A281" s="35" t="s">
         <v>21</v>
       </c>
@@ -13473,7 +13465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:18">
       <c r="A282" s="38">
         <v>10</v>
       </c>
@@ -13506,10 +13498,10 @@
       </c>
       <c r="M282" s="40"/>
       <c r="N282">
-        <v>172804</v>
+        <v>413568</v>
       </c>
       <c r="O282">
-        <v>188937</v>
+        <v>495696</v>
       </c>
       <c r="P282" s="40"/>
       <c r="R282">
@@ -13517,7 +13509,7 @@
         <v>0.9134331744951214</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:18">
       <c r="A283" s="38">
         <v>20</v>
       </c>
@@ -13550,10 +13542,10 @@
       </c>
       <c r="M283" s="40"/>
       <c r="N283">
-        <v>150085</v>
+        <v>346920</v>
       </c>
       <c r="O283">
-        <v>157985</v>
+        <v>422151</v>
       </c>
       <c r="P283" s="40"/>
       <c r="R283">
@@ -13561,7 +13553,7 @@
         <v>0.94994603345925521</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:18">
       <c r="A284" s="38">
         <v>30</v>
       </c>
@@ -13594,10 +13586,10 @@
       </c>
       <c r="M284" s="40"/>
       <c r="N284">
-        <v>126679</v>
+        <v>275066</v>
       </c>
       <c r="O284">
-        <v>133242</v>
+        <v>301969</v>
       </c>
       <c r="P284" s="40"/>
       <c r="R284">
@@ -13605,7 +13597,7 @@
         <v>0.95350698195494743</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:18">
       <c r="A285" s="38">
         <v>40</v>
       </c>
@@ -13638,10 +13630,10 @@
       </c>
       <c r="M285" s="40"/>
       <c r="N285">
-        <v>101508</v>
+        <v>234028</v>
       </c>
       <c r="O285">
-        <v>110858</v>
+        <v>255120</v>
       </c>
       <c r="P285" s="40"/>
       <c r="R285">
@@ -13649,7 +13641,7 @@
         <v>0.91170806855382247</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:18">
       <c r="A286" s="38">
         <v>50</v>
       </c>
@@ -13682,10 +13674,10 @@
       </c>
       <c r="M286" s="40"/>
       <c r="N286">
-        <v>81513</v>
+        <v>188181</v>
       </c>
       <c r="O286">
-        <v>92132</v>
+        <v>211042</v>
       </c>
       <c r="P286" s="40"/>
       <c r="R286">
@@ -13693,7 +13685,7 @@
         <v>0.87823519194024668</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:18">
       <c r="A287" s="38">
         <v>60</v>
       </c>
@@ -13726,10 +13718,10 @@
       </c>
       <c r="M287" s="40"/>
       <c r="N287">
-        <v>56534</v>
+        <v>149146</v>
       </c>
       <c r="O287">
-        <v>66955</v>
+        <v>168396</v>
       </c>
       <c r="P287" s="40"/>
       <c r="R287">
@@ -13737,7 +13729,7 @@
         <v>0.83648840511121625</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:18">
       <c r="A288" s="38">
         <v>70</v>
       </c>
@@ -13770,10 +13762,10 @@
       </c>
       <c r="M288" s="40"/>
       <c r="N288">
-        <v>39352</v>
+        <v>115424</v>
       </c>
       <c r="O288">
-        <v>46536</v>
+        <v>133849</v>
       </c>
       <c r="P288" s="40"/>
       <c r="R288">
@@ -13781,18 +13773,18 @@
         <v>0.8374323104693141</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A293" s="48" t="s">
+    <row r="293" spans="1:17">
+      <c r="A293" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B293" s="48"/>
-      <c r="C293" s="48"/>
-      <c r="D293" s="48"/>
-      <c r="E293" s="48"/>
-      <c r="F293" s="48"/>
-      <c r="G293" s="48"/>
-    </row>
-    <row r="294" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="49"/>
+      <c r="C293" s="49"/>
+      <c r="D293" s="49"/>
+      <c r="E293" s="49"/>
+      <c r="F293" s="49"/>
+      <c r="G293" s="49"/>
+    </row>
+    <row r="294" spans="1:17" ht="15.75" thickBot="1">
       <c r="H294">
         <f>AVERAGE(H296:H334)</f>
         <v>0.8573070565523635</v>
@@ -13802,7 +13794,7 @@
         <v>0.95034872387451086</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17" ht="15.75" thickBot="1">
       <c r="A295" s="41" t="s">
         <v>1</v>
       </c>
@@ -13846,7 +13838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:17">
       <c r="A296" s="44">
         <v>10</v>
       </c>
@@ -13890,7 +13882,7 @@
         <v>0.94174377687996869</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:17">
       <c r="A297" s="44">
         <v>20</v>
       </c>
@@ -13934,7 +13926,7 @@
         <v>0.88763321650811811</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:17">
       <c r="A298" s="44">
         <v>30</v>
       </c>
@@ -13978,7 +13970,7 @@
         <v>0.86542962219993314</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:17">
       <c r="A299" s="44">
         <v>40</v>
       </c>
@@ -14022,7 +14014,7 @@
         <v>0.8648734850095684</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:17">
       <c r="A300" s="44">
         <v>50</v>
       </c>
@@ -14066,7 +14058,7 @@
         <v>0.87122969837587005</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:17">
       <c r="A301" s="44">
         <v>60</v>
       </c>
@@ -14110,7 +14102,7 @@
         <v>0.87809549870023262</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:17">
       <c r="A302" s="44">
         <v>70</v>
       </c>
@@ -14154,8 +14146,8 @@
         <v>0.89448604492852279</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="305" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="305" spans="1:17" ht="15.75" thickBot="1">
       <c r="A305" s="41" t="s">
         <v>2</v>
       </c>
@@ -14199,7 +14191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:17">
       <c r="A306" s="44">
         <v>10</v>
       </c>
@@ -14243,7 +14235,7 @@
         <v>1.0430684150990825</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:17">
       <c r="A307" s="44">
         <v>20</v>
       </c>
@@ -14287,7 +14279,7 @@
         <v>1.0529487280253609</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:17">
       <c r="A308" s="44">
         <v>30</v>
       </c>
@@ -14331,7 +14323,7 @@
         <v>1.0344643239004918</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:17">
       <c r="A309" s="44">
         <v>40</v>
       </c>
@@ -14375,7 +14367,7 @@
         <v>1.0347456513166542</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:17">
       <c r="A310" s="44">
         <v>50</v>
       </c>
@@ -14419,7 +14411,7 @@
         <v>1.0300278306723305</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:17">
       <c r="A311" s="44">
         <v>60</v>
       </c>
@@ -14463,7 +14455,7 @@
         <v>1.0307431772292059</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:17">
       <c r="A312" s="44">
         <v>70</v>
       </c>
@@ -14507,8 +14499,8 @@
         <v>1.0236761108041985</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="316" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="316" spans="1:17" ht="15.75" thickBot="1">
       <c r="A316" s="41" t="s">
         <v>0</v>
       </c>
@@ -14552,7 +14544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:17">
       <c r="A317" s="44">
         <v>10</v>
       </c>
@@ -14596,7 +14588,7 @@
         <v>0.90022992697033233</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:17">
       <c r="A318" s="44">
         <v>20</v>
       </c>
@@ -14640,7 +14632,7 @@
         <v>0.88369192391643281</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:17">
       <c r="A319" s="44">
         <v>30</v>
       </c>
@@ -14684,7 +14676,7 @@
         <v>1.0107645926657696</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:17">
       <c r="A320" s="44">
         <v>40</v>
       </c>
@@ -14728,7 +14720,7 @@
         <v>1.0223422044039729</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:17">
       <c r="A321" s="44">
         <v>50</v>
       </c>
@@ -14772,7 +14764,7 @@
         <v>0.98926049431149465</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:17">
       <c r="A322" s="44">
         <v>60</v>
       </c>
@@ -14816,7 +14808,7 @@
         <v>0.9975373297172605</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:17">
       <c r="A323" s="44">
         <v>70</v>
       </c>
@@ -14860,8 +14852,8 @@
         <v>0.95940338239899781</v>
       </c>
     </row>
-    <row r="326" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="327" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="327" spans="1:17" ht="15.75" thickBot="1">
       <c r="A327" s="41" t="s">
         <v>21</v>
       </c>
@@ -14905,7 +14897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:17">
       <c r="A328" s="44">
         <v>10</v>
       </c>
@@ -14949,7 +14941,7 @@
         <v>0.88960863032930226</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:17">
       <c r="A329" s="44">
         <v>20</v>
       </c>
@@ -14993,7 +14985,7 @@
         <v>0.95145316276602021</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:17">
       <c r="A330" s="44">
         <v>30</v>
       </c>
@@ -15037,7 +15029,7 @@
         <v>0.96721483554933518</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:17">
       <c r="A331" s="44">
         <v>40</v>
       </c>
@@ -15081,7 +15073,7 @@
         <v>0.94057739247538086</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:17">
       <c r="A332" s="44">
         <v>50</v>
       </c>
@@ -15125,7 +15117,7 @@
         <v>0.92008175779253965</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:17">
       <c r="A333" s="44">
         <v>60</v>
       </c>
@@ -15169,7 +15161,7 @@
         <v>0.86089906700593721</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:17">
       <c r="A334" s="44">
         <v>70</v>
       </c>
@@ -15215,11 +15207,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="T97:V97"/>
-    <mergeCell ref="X97:Z97"/>
-    <mergeCell ref="AB97:AD97"/>
-    <mergeCell ref="AF97:AH97"/>
     <mergeCell ref="A293:G293"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AD2:AF2"/>
@@ -15236,6 +15223,11 @@
     <mergeCell ref="T66:V66"/>
     <mergeCell ref="X66:Z66"/>
     <mergeCell ref="AB66:AD66"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="T97:V97"/>
+    <mergeCell ref="X97:Z97"/>
+    <mergeCell ref="AB97:AD97"/>
+    <mergeCell ref="AF97:AH97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15249,7 +15241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15262,7 +15254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-analysis-ratios.xlsx
+++ b/journal-evaluation/diff-analysis-ratios.xlsx
@@ -26,6 +26,7 @@
     <definedName name="New_Text_Document_6" localSheetId="0">Sheet1!$D$294:$E$452</definedName>
     <definedName name="New_Text_Document_7" localSheetId="0">Sheet1!$P$284:$Q$288</definedName>
     <definedName name="New_Text_Document_8" localSheetId="0">Sheet1!$J$49:$K$65</definedName>
+    <definedName name="New_Text_Document_9" localSheetId="0">Sheet1!$AC$40:$AD$58</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -105,11 +106,19 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="10" name="New Text Document9" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\zrshen.CSDOMAIN.008\Desktop\New Text Document.txt" space="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="35">
   <si>
     <t>wdev_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +319,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>wdev_0</t>
   </si>
 </sst>
 </file>
@@ -619,8 +631,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,11 +646,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,39 +667,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_8" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_5" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_5" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_9" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -997,18 +1013,20 @@
     <col min="24" max="24" width="8.28515625" customWidth="1"/>
     <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.140625" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1053,31 +1071,31 @@
       <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="X2" s="49" t="s">
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="X2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AB2" s="49" t="s">
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AB2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AF2" s="49" t="s">
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AF2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AJ2" s="49" t="s">
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AJ2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="9">
@@ -3487,11 +3505,11 @@
       <c r="V34" s="5">
         <v>380426</v>
       </c>
-      <c r="X34" s="49" t="s">
+      <c r="X34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="9">
@@ -4060,7 +4078,7 @@
       </c>
     </row>
     <row r="48" spans="1:26">
-      <c r="F48" s="52"/>
+      <c r="F48" s="48"/>
       <c r="T48" s="11">
         <v>40</v>
       </c>
@@ -4081,15 +4099,15 @@
       </c>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
       <c r="T49" s="11">
         <v>50</v>
       </c>
@@ -4110,7 +4128,7 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="15.75" thickBot="1">
-      <c r="F50" s="52"/>
+      <c r="F50" s="48"/>
       <c r="T50" s="11">
         <v>50</v>
       </c>
@@ -4146,7 +4164,22 @@
       <c r="E51" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="52"/>
+      <c r="F51" s="48"/>
+      <c r="H51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="T51" s="11">
         <v>50</v>
       </c>
@@ -4182,7 +4215,37 @@
       <c r="E52" s="22">
         <v>245563</v>
       </c>
-      <c r="F52" s="52"/>
+      <c r="F52" s="48">
+        <f>B52/C52</f>
+        <v>0.87356216668409492</v>
+      </c>
+      <c r="G52">
+        <f>D52/E52</f>
+        <v>0.91968252546189777</v>
+      </c>
+      <c r="H52" s="21">
+        <v>10</v>
+      </c>
+      <c r="I52" s="49">
+        <v>1411680</v>
+      </c>
+      <c r="J52" s="49">
+        <v>1563108</v>
+      </c>
+      <c r="K52" s="49">
+        <v>2388007</v>
+      </c>
+      <c r="L52" s="49">
+        <v>2602282</v>
+      </c>
+      <c r="M52">
+        <f>I52/J52</f>
+        <v>0.90312377647609765</v>
+      </c>
+      <c r="N52">
+        <f>K52/L52</f>
+        <v>0.91765880869175598</v>
+      </c>
       <c r="T52" s="11">
         <v>50</v>
       </c>
@@ -4218,7 +4281,37 @@
       <c r="E53" s="22">
         <v>215537</v>
       </c>
-      <c r="F53" s="52"/>
+      <c r="F53" s="48">
+        <f t="shared" ref="F53:F58" si="2">B53/C53</f>
+        <v>0.84868528864059589</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53:G58" si="3">D53/E53</f>
+        <v>0.88810737831555608</v>
+      </c>
+      <c r="H53" s="21">
+        <v>20</v>
+      </c>
+      <c r="I53" s="49">
+        <v>1200478</v>
+      </c>
+      <c r="J53" s="49">
+        <v>1383884</v>
+      </c>
+      <c r="K53" s="49">
+        <v>2046416</v>
+      </c>
+      <c r="L53" s="49">
+        <v>2301960</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:M58" si="4">I53/J53</f>
+        <v>0.86747010587592599</v>
+      </c>
+      <c r="N53">
+        <f t="shared" ref="N53:N58" si="5">K53/L53</f>
+        <v>0.88898851413577995</v>
+      </c>
       <c r="T53" s="11">
         <v>60</v>
       </c>
@@ -4254,7 +4347,37 @@
       <c r="E54" s="22">
         <v>188280</v>
       </c>
-      <c r="F54" s="52"/>
+      <c r="F54" s="48">
+        <f t="shared" si="2"/>
+        <v>0.83776591207628925</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>0.87633843212237095</v>
+      </c>
+      <c r="H54" s="21">
+        <v>30</v>
+      </c>
+      <c r="I54" s="49">
+        <v>1042944</v>
+      </c>
+      <c r="J54" s="49">
+        <v>1209936</v>
+      </c>
+      <c r="K54" s="49">
+        <v>1779344</v>
+      </c>
+      <c r="L54" s="49">
+        <v>2013160</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="4"/>
+        <v>0.86198278256039984</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="5"/>
+        <v>0.88385622603270475</v>
+      </c>
       <c r="T54" s="11">
         <v>60</v>
       </c>
@@ -4290,7 +4413,37 @@
       <c r="E55" s="22">
         <v>163588</v>
       </c>
-      <c r="F55" s="53"/>
+      <c r="F55" s="48">
+        <f t="shared" si="2"/>
+        <v>0.83911294279266024</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>0.87635401129667212</v>
+      </c>
+      <c r="H55" s="21">
+        <v>40</v>
+      </c>
+      <c r="I55" s="49">
+        <v>898298</v>
+      </c>
+      <c r="J55" s="49">
+        <v>1036500</v>
+      </c>
+      <c r="K55" s="49">
+        <v>1528967</v>
+      </c>
+      <c r="L55" s="49">
+        <v>1725025</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="4"/>
+        <v>0.86666473709599612</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="5"/>
+        <v>0.88634483558209298</v>
+      </c>
       <c r="T55" s="11">
         <v>60</v>
       </c>
@@ -4326,13 +4479,36 @@
       <c r="E56" s="22">
         <v>135715</v>
       </c>
-      <c r="H56">
-        <f>1-H57</f>
-        <v>0.18676454329169279</v>
-      </c>
-      <c r="I56">
-        <f>1-I57</f>
-        <v>0.15036011991970777</v>
+      <c r="F56" s="48">
+        <f t="shared" si="2"/>
+        <v>0.84130249716231553</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>0.87905537339277162</v>
+      </c>
+      <c r="H56" s="21">
+        <v>50</v>
+      </c>
+      <c r="I56" s="49">
+        <v>757364</v>
+      </c>
+      <c r="J56" s="49">
+        <v>875730</v>
+      </c>
+      <c r="K56" s="49">
+        <v>1291299</v>
+      </c>
+      <c r="L56" s="49">
+        <v>1458821</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="4"/>
+        <v>0.86483733570849464</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="5"/>
+        <v>0.88516617186070123</v>
       </c>
       <c r="T56" s="11">
         <v>60</v>
@@ -4369,19 +4545,36 @@
       <c r="E57" s="22">
         <v>106728</v>
       </c>
-      <c r="H57">
-        <f>AVERAGE(H62:H100)</f>
-        <v>0.81323545670830721</v>
-      </c>
-      <c r="I57">
-        <f>AVERAGE(I62:I100)</f>
-        <v>0.84963988008029223</v>
-      </c>
-      <c r="J57" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" t="s">
-        <v>33</v>
+      <c r="F57" s="48">
+        <f t="shared" si="2"/>
+        <v>0.82428893905191869</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>0.86117982160257855</v>
+      </c>
+      <c r="H57" s="21">
+        <v>60</v>
+      </c>
+      <c r="I57" s="49">
+        <v>598086</v>
+      </c>
+      <c r="J57" s="49">
+        <v>699526</v>
+      </c>
+      <c r="K57" s="49">
+        <v>1021276</v>
+      </c>
+      <c r="L57" s="49">
+        <v>1164361</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="4"/>
+        <v>0.85498752012076751</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="5"/>
+        <v>0.87711285417495088</v>
       </c>
       <c r="R57">
         <f>1-S57</f>
@@ -4426,6 +4619,37 @@
       <c r="E58" s="22">
         <v>81904</v>
       </c>
+      <c r="F58" s="48">
+        <f t="shared" si="2"/>
+        <v>0.82531159363486717</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>0.86288825942566905</v>
+      </c>
+      <c r="H58" s="21">
+        <v>70</v>
+      </c>
+      <c r="I58" s="49">
+        <v>445222</v>
+      </c>
+      <c r="J58" s="49">
+        <v>519036</v>
+      </c>
+      <c r="K58" s="49">
+        <v>759368</v>
+      </c>
+      <c r="L58" s="49">
+        <v>863298</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>0.85778635778635781</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="5"/>
+        <v>0.87961283357542819</v>
+      </c>
       <c r="R58">
         <f>1-S58</f>
         <v>5.0208474645083712E-2</v>
@@ -4474,6 +4698,14 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="15.75" thickBot="1">
+      <c r="H60">
+        <f>1-H61</f>
+        <v>0.18676454329169279</v>
+      </c>
+      <c r="I60">
+        <f>1-I61</f>
+        <v>0.15036011991970777</v>
+      </c>
       <c r="T60" s="11">
         <v>70</v>
       </c>
@@ -4514,6 +4746,20 @@
       </c>
       <c r="G61" s="20" t="s">
         <v>16</v>
+      </c>
+      <c r="H61">
+        <f>AVERAGE(H62:H100)</f>
+        <v>0.81323545670830721</v>
+      </c>
+      <c r="I61">
+        <f>AVERAGE(I62:I100)</f>
+        <v>0.84963988008029223</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" t="s">
+        <v>33</v>
       </c>
       <c r="L61" s="18" t="s">
         <v>4</v>
@@ -4594,7 +4840,7 @@
         <v>0.95509489689875837</v>
       </c>
       <c r="T62">
-        <f t="shared" ref="T62:T65" si="2">P62/Q62</f>
+        <f t="shared" ref="T62:T65" si="6">P62/Q62</f>
         <v>0.96293817718291908</v>
       </c>
       <c r="X62" s="11">
@@ -4626,11 +4872,11 @@
       </c>
       <c r="G63" s="22"/>
       <c r="H63">
-        <f t="shared" ref="H63:H124" si="3">B63/C63</f>
+        <f t="shared" ref="H63:H124" si="7">B63/C63</f>
         <v>0.89824561403508774</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I68" si="4">E63/F63</f>
+        <f t="shared" ref="I63:I68" si="8">E63/F63</f>
         <v>0.93716719914802982</v>
       </c>
       <c r="L63" s="21">
@@ -4651,11 +4897,11 @@
       </c>
       <c r="R63" s="22"/>
       <c r="S63">
-        <f t="shared" ref="S63:S124" si="5">M63/N63</f>
+        <f t="shared" ref="S63:S124" si="9">M63/N63</f>
         <v>0.90083188700700223</v>
       </c>
       <c r="T63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.91755157371521923</v>
       </c>
     </row>
@@ -4678,11 +4924,11 @@
       </c>
       <c r="G64" s="22"/>
       <c r="H64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.89759036144578308</v>
       </c>
       <c r="I64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.93670115642118079</v>
       </c>
       <c r="L64" s="21">
@@ -4703,11 +4949,11 @@
       </c>
       <c r="R64" s="22"/>
       <c r="S64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.89643831782240568</v>
       </c>
       <c r="T64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.91280438311688317</v>
       </c>
     </row>
@@ -4730,11 +4976,11 @@
       </c>
       <c r="G65" s="22"/>
       <c r="H65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.90352941176470591</v>
       </c>
       <c r="I65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.94151212553495012</v>
       </c>
       <c r="L65" s="21">
@@ -4755,11 +5001,11 @@
       </c>
       <c r="R65" s="22"/>
       <c r="S65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.90202794051374491</v>
       </c>
       <c r="T65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.91906891109942135</v>
       </c>
     </row>
@@ -4782,11 +5028,11 @@
       </c>
       <c r="G66" s="22"/>
       <c r="H66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.90140845070422537</v>
       </c>
       <c r="I66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.94011976047904189</v>
       </c>
       <c r="L66" s="21">
@@ -4807,33 +5053,33 @@
       </c>
       <c r="R66" s="22"/>
       <c r="S66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.90800116947665921</v>
       </c>
       <c r="T66">
-        <f t="shared" ref="T66:T89" si="6">P66/Q66</f>
+        <f t="shared" ref="T66:T89" si="10">P66/Q66</f>
         <v>0.92571024734982332</v>
       </c>
-      <c r="V66" s="49" t="s">
+      <c r="V66" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="W66" s="49"/>
-      <c r="X66" s="49"/>
-      <c r="Z66" s="49" t="s">
+      <c r="W66" s="50"/>
+      <c r="X66" s="50"/>
+      <c r="Z66" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="49"/>
-      <c r="AD66" s="49" t="s">
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="50"/>
+      <c r="AD66" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AE66" s="49"/>
-      <c r="AF66" s="49"/>
-      <c r="AH66" s="49" t="s">
+      <c r="AE66" s="50"/>
+      <c r="AF66" s="50"/>
+      <c r="AH66" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AI66" s="49"/>
-      <c r="AJ66" s="49"/>
+      <c r="AI66" s="50"/>
+      <c r="AJ66" s="50"/>
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="21">
@@ -4854,11 +5100,11 @@
       </c>
       <c r="G67" s="22"/>
       <c r="H67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.91166077738515905</v>
       </c>
       <c r="I67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.94759358288770057</v>
       </c>
       <c r="L67" s="21">
@@ -4879,11 +5125,11 @@
       </c>
       <c r="R67" s="22"/>
       <c r="S67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.91959281711083152</v>
       </c>
       <c r="T67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.93621372031662264</v>
       </c>
       <c r="V67" s="22">
@@ -4942,11 +5188,11 @@
       </c>
       <c r="G68" s="22"/>
       <c r="H68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.91121495327102808</v>
       </c>
       <c r="I68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.94751773049645394</v>
       </c>
       <c r="L68" s="21">
@@ -4967,11 +5213,11 @@
       </c>
       <c r="R68" s="22"/>
       <c r="S68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.9441395806950893</v>
       </c>
       <c r="T68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.95740755594770188</v>
       </c>
       <c r="V68" s="22">
@@ -5186,7 +5432,7 @@
       </c>
       <c r="G72" s="22"/>
       <c r="H72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.71845672575599584</v>
       </c>
       <c r="I72">
@@ -5211,11 +5457,11 @@
       </c>
       <c r="R72" s="22"/>
       <c r="S72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.93527742383875823</v>
       </c>
       <c r="T72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.96610303914726225</v>
       </c>
       <c r="V72" s="22">
@@ -5274,11 +5520,11 @@
       </c>
       <c r="G73" s="22"/>
       <c r="H73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.71631205673758869</v>
       </c>
       <c r="I73">
-        <f t="shared" ref="I73:I78" si="7">E73/F73</f>
+        <f t="shared" ref="I73:I78" si="11">E73/F73</f>
         <v>0.76902278872151408</v>
       </c>
       <c r="L73" s="21">
@@ -5299,11 +5545,11 @@
       </c>
       <c r="R73" s="22"/>
       <c r="S73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.9238626656246024</v>
       </c>
       <c r="T73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.95983626366986885</v>
       </c>
       <c r="V73" s="22">
@@ -5362,11 +5608,11 @@
       </c>
       <c r="G74" s="22"/>
       <c r="H74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.71989174560216507</v>
       </c>
       <c r="I74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.77286787450287231</v>
       </c>
       <c r="L74" s="21">
@@ -5387,11 +5633,11 @@
       </c>
       <c r="R74" s="22"/>
       <c r="S74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94830929885629045</v>
       </c>
       <c r="T74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.98283231580652208</v>
       </c>
       <c r="V74" s="22">
@@ -5450,11 +5696,11 @@
       </c>
       <c r="G75" s="22"/>
       <c r="H75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.71924290220820186</v>
       </c>
       <c r="I75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.76867594023699126</v>
       </c>
       <c r="L75" s="21">
@@ -5475,11 +5721,11 @@
       </c>
       <c r="R75" s="22"/>
       <c r="S75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94394440362478571</v>
       </c>
       <c r="T75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.98131942988891219</v>
       </c>
       <c r="V75" s="22">
@@ -5538,11 +5784,11 @@
       </c>
       <c r="G76" s="22"/>
       <c r="H76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.72137404580152675</v>
       </c>
       <c r="I76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.76995012468827928</v>
       </c>
       <c r="L76" s="21">
@@ -5563,11 +5809,11 @@
       </c>
       <c r="R76" s="22"/>
       <c r="S76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94834174969291662</v>
       </c>
       <c r="T76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.98235758883835655</v>
       </c>
       <c r="V76" s="22">
@@ -5626,11 +5872,11 @@
       </c>
       <c r="G77" s="22"/>
       <c r="H77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.72355769230769229</v>
       </c>
       <c r="I77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.77454831107619793</v>
       </c>
       <c r="L77" s="21">
@@ -5651,11 +5897,11 @@
       </c>
       <c r="R77" s="22"/>
       <c r="S77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94631179402753007</v>
       </c>
       <c r="T77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.98179896665100985</v>
       </c>
       <c r="V77" s="22">
@@ -5714,11 +5960,11 @@
       </c>
       <c r="G78" s="22"/>
       <c r="H78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.71974522292993626</v>
       </c>
       <c r="I78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.77027027027027029</v>
       </c>
       <c r="L78" s="21">
@@ -5739,11 +5985,11 @@
       </c>
       <c r="R78" s="22"/>
       <c r="S78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.95625347415230688</v>
       </c>
       <c r="T78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.9867428105241689</v>
       </c>
       <c r="V78" s="22">
@@ -5996,7 +6242,7 @@
       </c>
       <c r="G83" s="22"/>
       <c r="H83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.77205537434409333</v>
       </c>
       <c r="I83">
@@ -6021,11 +6267,11 @@
       </c>
       <c r="R83" s="22"/>
       <c r="S83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.93826676788206775</v>
       </c>
       <c r="T83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.94820748077552264</v>
       </c>
       <c r="V83" s="22">
@@ -6084,11 +6330,11 @@
       </c>
       <c r="G84" s="22"/>
       <c r="H84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.76026945486081421</v>
       </c>
       <c r="I84">
-        <f t="shared" ref="I84:I89" si="8">E84/F84</f>
+        <f t="shared" ref="I84:I89" si="12">E84/F84</f>
         <v>0.79188949121069119</v>
       </c>
       <c r="L84" s="22">
@@ -6109,11 +6355,11 @@
       </c>
       <c r="R84" s="22"/>
       <c r="S84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.90347292662899092</v>
       </c>
       <c r="T84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.92170533967011459</v>
       </c>
       <c r="V84" s="22">
@@ -6172,11 +6418,11 @@
       </c>
       <c r="G85" s="22"/>
       <c r="H85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.8124643646831412</v>
       </c>
       <c r="I85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.8352812150120078</v>
       </c>
       <c r="L85" s="22">
@@ -6197,11 +6443,11 @@
       </c>
       <c r="R85" s="22"/>
       <c r="S85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0198433137249587</v>
       </c>
       <c r="T85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0230941458297453</v>
       </c>
       <c r="V85" s="22">
@@ -6260,11 +6506,11 @@
       </c>
       <c r="G86" s="22"/>
       <c r="H86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.79860824867250202</v>
       </c>
       <c r="I86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.82358134371137559</v>
       </c>
       <c r="L86" s="22">
@@ -6285,11 +6531,11 @@
       </c>
       <c r="R86" s="22"/>
       <c r="S86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.022730546973796</v>
       </c>
       <c r="T86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0223142174101663</v>
       </c>
       <c r="V86" s="22">
@@ -6348,11 +6594,11 @@
       </c>
       <c r="G87" s="22"/>
       <c r="H87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.78233622103006373</v>
       </c>
       <c r="I87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.81118789744185371</v>
       </c>
       <c r="L87" s="22">
@@ -6373,11 +6619,11 @@
       </c>
       <c r="R87" s="22"/>
       <c r="S87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99159598625856415</v>
       </c>
       <c r="T87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99855999013845387</v>
       </c>
       <c r="V87" s="22">
@@ -6436,11 +6682,11 @@
       </c>
       <c r="G88" s="22"/>
       <c r="H88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.77623415160507148</v>
       </c>
       <c r="I88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.80710684132632637</v>
       </c>
       <c r="L88" s="22">
@@ -6461,11 +6707,11 @@
       </c>
       <c r="R88" s="22"/>
       <c r="S88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.98443598632694129</v>
       </c>
       <c r="T88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99262126190343603</v>
       </c>
       <c r="V88" s="22">
@@ -6524,11 +6770,11 @@
       </c>
       <c r="G89" s="22"/>
       <c r="H89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.77717074119706897</v>
       </c>
       <c r="I89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.80671473308571839</v>
       </c>
       <c r="L89" s="22">
@@ -6549,11 +6795,11 @@
       </c>
       <c r="R89" s="22"/>
       <c r="S89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.95505207381691948</v>
       </c>
       <c r="T89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.96790957288586377</v>
       </c>
       <c r="V89" s="22">
@@ -6806,7 +7052,7 @@
       </c>
       <c r="G94" s="22"/>
       <c r="H94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.95139047184864367</v>
       </c>
       <c r="I94">
@@ -6831,7 +7077,7 @@
       </c>
       <c r="R94" s="22"/>
       <c r="S94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.9228441439185241</v>
       </c>
       <c r="T94">
@@ -6894,11 +7140,11 @@
       </c>
       <c r="G95" s="22"/>
       <c r="H95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.87403350515463918</v>
       </c>
       <c r="I95">
-        <f t="shared" ref="I95:I100" si="9">E95/F95</f>
+        <f t="shared" ref="I95:I100" si="13">E95/F95</f>
         <v>0.89681874872023981</v>
       </c>
       <c r="L95" s="21">
@@ -6919,11 +7165,11 @@
       </c>
       <c r="R95" s="22"/>
       <c r="S95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0054066402680475</v>
       </c>
       <c r="T95">
-        <f t="shared" ref="T95:T100" si="10">P95/Q95</f>
+        <f t="shared" ref="T95:T100" si="14">P95/Q95</f>
         <v>0.94951240412739102</v>
       </c>
     </row>
@@ -6946,11 +7192,11 @@
       </c>
       <c r="G96" s="22"/>
       <c r="H96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.86504019179241287</v>
       </c>
       <c r="I96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89200946965864714</v>
       </c>
       <c r="L96" s="21">
@@ -6971,11 +7217,11 @@
       </c>
       <c r="R96" s="22"/>
       <c r="S96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0101583866798907</v>
       </c>
       <c r="T96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.94834337349397591</v>
       </c>
     </row>
@@ -6998,11 +7244,11 @@
       </c>
       <c r="G97" s="22"/>
       <c r="H97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.82435575402363015</v>
       </c>
       <c r="I97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.85465450661408271</v>
       </c>
       <c r="L97" s="21">
@@ -7023,33 +7269,33 @@
       </c>
       <c r="R97" s="22"/>
       <c r="S97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99582328160443601</v>
       </c>
       <c r="T97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93338055286758914</v>
       </c>
-      <c r="V97" s="49" t="s">
+      <c r="V97" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="W97" s="49"/>
-      <c r="X97" s="49"/>
-      <c r="Z97" s="49" t="s">
+      <c r="W97" s="50"/>
+      <c r="X97" s="50"/>
+      <c r="Z97" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AA97" s="49"/>
-      <c r="AB97" s="49"/>
-      <c r="AD97" s="49" t="s">
+      <c r="AA97" s="50"/>
+      <c r="AB97" s="50"/>
+      <c r="AD97" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AE97" s="49"/>
-      <c r="AF97" s="49"/>
-      <c r="AH97" s="49" t="s">
+      <c r="AE97" s="50"/>
+      <c r="AF97" s="50"/>
+      <c r="AH97" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AI97" s="49"/>
-      <c r="AJ97" s="49"/>
+      <c r="AI97" s="50"/>
+      <c r="AJ97" s="50"/>
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="21">
@@ -7070,11 +7316,11 @@
       </c>
       <c r="G98" s="22"/>
       <c r="H98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.83441523890603386</v>
       </c>
       <c r="I98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.86650085496657858</v>
       </c>
       <c r="L98" s="21">
@@ -7095,11 +7341,11 @@
       </c>
       <c r="R98" s="22"/>
       <c r="S98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.96433839479392625</v>
       </c>
       <c r="T98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.90902328706314262</v>
       </c>
       <c r="V98" s="22">
@@ -7158,11 +7404,11 @@
       </c>
       <c r="G99" s="22"/>
       <c r="H99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.83706874842608914</v>
       </c>
       <c r="I99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.86977878038131273</v>
       </c>
       <c r="L99" s="21">
@@ -7183,11 +7429,11 @@
       </c>
       <c r="R99" s="22"/>
       <c r="S99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.90766389658356417</v>
       </c>
       <c r="T99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.85481852315394247</v>
       </c>
       <c r="V99" s="22">
@@ -7246,11 +7492,11 @@
       </c>
       <c r="G100" s="22"/>
       <c r="H100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.77458180334557325</v>
       </c>
       <c r="I100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.81280577299412915</v>
       </c>
       <c r="L100" s="21">
@@ -7271,11 +7517,11 @@
       </c>
       <c r="R100" s="22"/>
       <c r="S100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.91508752932683635</v>
       </c>
       <c r="T100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.85336273428886433</v>
       </c>
       <c r="V100" s="22">
@@ -7468,15 +7714,15 @@
       </c>
     </row>
     <row r="105" spans="1:36">
-      <c r="A105" s="48" t="s">
+      <c r="A105" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
       <c r="V105" s="22">
         <v>20</v>
       </c>
@@ -7651,7 +7897,7 @@
       </c>
       <c r="G108" s="27"/>
       <c r="H108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.85534591194968557</v>
       </c>
       <c r="I108">
@@ -7676,7 +7922,7 @@
       </c>
       <c r="R108" s="27"/>
       <c r="S108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94730730952117659</v>
       </c>
       <c r="T108">
@@ -7739,11 +7985,11 @@
       </c>
       <c r="G109" s="27"/>
       <c r="H109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.89103690685413006</v>
       </c>
       <c r="I109">
-        <f t="shared" ref="I109:I114" si="11">E109/F109</f>
+        <f t="shared" ref="I109:I114" si="15">E109/F109</f>
         <v>0.92914224826851355</v>
       </c>
       <c r="L109" s="26">
@@ -7764,11 +8010,11 @@
       </c>
       <c r="R109" s="27"/>
       <c r="S109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.88689255999035332</v>
       </c>
       <c r="T109">
-        <f t="shared" ref="T109:T114" si="12">P109/Q109</f>
+        <f t="shared" ref="T109:T114" si="16">P109/Q109</f>
         <v>0.90524753339736319</v>
       </c>
       <c r="V109" s="22">
@@ -7827,11 +8073,11 @@
       </c>
       <c r="G110" s="27"/>
       <c r="H110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.89156626506024095</v>
       </c>
       <c r="I110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.93004866180048662</v>
       </c>
       <c r="L110" s="26">
@@ -7852,11 +8098,11 @@
       </c>
       <c r="R110" s="27"/>
       <c r="S110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.87670748106730834</v>
       </c>
       <c r="T110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.8995232931644741</v>
       </c>
       <c r="V110" s="22">
@@ -7915,11 +8161,11 @@
       </c>
       <c r="G111" s="27"/>
       <c r="H111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.8906976744186047</v>
       </c>
       <c r="I111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.92877291960507757</v>
       </c>
       <c r="L111" s="26">
@@ -7940,11 +8186,11 @@
       </c>
       <c r="R111" s="27"/>
       <c r="S111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.88273526180886119</v>
       </c>
       <c r="T111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.90414459499028399</v>
       </c>
       <c r="V111" s="22">
@@ -8003,11 +8249,11 @@
       </c>
       <c r="G112" s="27"/>
       <c r="H112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.8966480446927374</v>
       </c>
       <c r="I112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.93220338983050843</v>
       </c>
       <c r="L112" s="26">
@@ -8028,11 +8274,11 @@
       </c>
       <c r="R112" s="27"/>
       <c r="S112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.88646936553498956</v>
       </c>
       <c r="T112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.90956929588743352</v>
       </c>
       <c r="V112" s="22">
@@ -8091,11 +8337,11 @@
       </c>
       <c r="G113" s="27"/>
       <c r="H113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="I113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.93092454835281613</v>
       </c>
       <c r="L113" s="26">
@@ -8116,11 +8362,11 @@
       </c>
       <c r="R113" s="27"/>
       <c r="S113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.8979662986635677</v>
       </c>
       <c r="T113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.92071013815657743</v>
       </c>
       <c r="V113" s="22">
@@ -8179,11 +8425,11 @@
       </c>
       <c r="G114" s="27"/>
       <c r="H114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.89400921658986177</v>
       </c>
       <c r="I114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.93006993006993011</v>
       </c>
       <c r="L114" s="26">
@@ -8204,11 +8450,11 @@
       </c>
       <c r="R114" s="27"/>
       <c r="S114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.92571346622687511</v>
       </c>
       <c r="T114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.9444241018755849</v>
       </c>
       <c r="V114" s="22">
@@ -8423,7 +8669,7 @@
       </c>
       <c r="G118" s="27"/>
       <c r="H118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.7120418848167539</v>
       </c>
       <c r="I118">
@@ -8448,7 +8694,7 @@
       </c>
       <c r="R118" s="27"/>
       <c r="S118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.93449513070220402</v>
       </c>
       <c r="T118">
@@ -8511,11 +8757,11 @@
       </c>
       <c r="G119" s="27"/>
       <c r="H119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.71140142517814731</v>
       </c>
       <c r="I119">
-        <f t="shared" ref="I119:I124" si="13">E119/F119</f>
+        <f t="shared" ref="I119:I124" si="17">E119/F119</f>
         <v>0.76338246702870438</v>
       </c>
       <c r="L119" s="26">
@@ -8536,11 +8782,11 @@
       </c>
       <c r="R119" s="27"/>
       <c r="S119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.91956052944675792</v>
       </c>
       <c r="T119">
-        <f t="shared" ref="T119:T124" si="14">P119/Q119</f>
+        <f t="shared" ref="T119:T124" si="18">P119/Q119</f>
         <v>0.95534382937589335</v>
       </c>
       <c r="V119" s="22">
@@ -8599,11 +8845,11 @@
       </c>
       <c r="G120" s="27"/>
       <c r="H120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.71312584573748306</v>
       </c>
       <c r="I120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.76623950508174987</v>
       </c>
       <c r="L120" s="26">
@@ -8624,11 +8870,11 @@
       </c>
       <c r="R120" s="27"/>
       <c r="S120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94556011968152542</v>
       </c>
       <c r="T120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.980706266702011</v>
       </c>
       <c r="V120" s="22">
@@ -8687,11 +8933,11 @@
       </c>
       <c r="G121" s="27"/>
       <c r="H121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.71202531645569622</v>
       </c>
       <c r="I121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.76175710594315249</v>
       </c>
       <c r="L121" s="26">
@@ -8712,11 +8958,11 @@
       </c>
       <c r="R121" s="27"/>
       <c r="S121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94190157369458438</v>
       </c>
       <c r="T121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.97930561615657918</v>
       </c>
       <c r="V121" s="22">
@@ -8775,11 +9021,11 @@
       </c>
       <c r="G122" s="27"/>
       <c r="H122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.71238095238095234</v>
       </c>
       <c r="I122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.76104542626011196</v>
       </c>
       <c r="L122" s="26">
@@ -8800,11 +9046,11 @@
       </c>
       <c r="R122" s="27"/>
       <c r="S122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94721642310368825</v>
       </c>
       <c r="T122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.98121715943847543</v>
       </c>
       <c r="V122" s="22">
@@ -8863,11 +9109,11 @@
       </c>
       <c r="G123" s="27"/>
       <c r="H123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.71158392434988182</v>
       </c>
       <c r="I123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.76334106728538287</v>
       </c>
       <c r="L123" s="26">
@@ -8888,11 +9134,11 @@
       </c>
       <c r="R123" s="27"/>
       <c r="S123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94450677886863021</v>
       </c>
       <c r="T123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.98004098251590066</v>
       </c>
       <c r="V123" s="22">
@@ -8951,11 +9197,11 @@
       </c>
       <c r="G124" s="27"/>
       <c r="H124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.70347003154574128</v>
       </c>
       <c r="I124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.75438596491228072</v>
       </c>
       <c r="L124" s="26">
@@ -8976,11 +9222,11 @@
       </c>
       <c r="R124" s="27"/>
       <c r="S124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94307241523650065</v>
       </c>
       <c r="T124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.98097315639580684</v>
       </c>
       <c r="V124" s="22">
@@ -9122,7 +9368,7 @@
       </c>
       <c r="G129" s="27"/>
       <c r="H129">
-        <f t="shared" ref="H129:H190" si="15">B129/C129</f>
+        <f t="shared" ref="H129:H190" si="19">B129/C129</f>
         <v>0.75552791065068892</v>
       </c>
       <c r="I129">
@@ -9147,7 +9393,7 @@
       </c>
       <c r="R129" s="27"/>
       <c r="S129">
-        <f t="shared" ref="S129:S190" si="16">M129/N129</f>
+        <f t="shared" ref="S129:S190" si="20">M129/N129</f>
         <v>0.92011360446491963</v>
       </c>
       <c r="T129">
@@ -9174,11 +9420,11 @@
       </c>
       <c r="G130" s="27"/>
       <c r="H130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.7451966584379367</v>
       </c>
       <c r="I130">
-        <f t="shared" ref="I130:I135" si="17">E130/F130</f>
+        <f t="shared" ref="I130:I135" si="21">E130/F130</f>
         <v>0.77879022200508041</v>
       </c>
       <c r="L130" s="27">
@@ -9199,11 +9445,11 @@
       </c>
       <c r="R130" s="27"/>
       <c r="S130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.87839044218203921</v>
       </c>
       <c r="T130">
-        <f t="shared" ref="T130:T134" si="18">P130/Q130</f>
+        <f t="shared" ref="T130:T134" si="22">P130/Q130</f>
         <v>0.90345734840698866</v>
       </c>
     </row>
@@ -9226,11 +9472,11 @@
       </c>
       <c r="G131" s="27"/>
       <c r="H131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.7930805382269841</v>
       </c>
       <c r="I131">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.81886834186792867</v>
       </c>
       <c r="L131" s="27">
@@ -9251,11 +9497,11 @@
       </c>
       <c r="R131" s="27"/>
       <c r="S131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.99100812041988517</v>
       </c>
       <c r="T131">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.0006852313607553</v>
       </c>
     </row>
@@ -9278,11 +9524,11 @@
       </c>
       <c r="G132" s="27"/>
       <c r="H132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.78413308052571018</v>
       </c>
       <c r="I132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.81157069543587723</v>
       </c>
       <c r="L132" s="27">
@@ -9303,11 +9549,11 @@
       </c>
       <c r="R132" s="27"/>
       <c r="S132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0057082088735281</v>
       </c>
       <c r="T132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.0097589288124611</v>
       </c>
     </row>
@@ -9330,11 +9576,11 @@
       </c>
       <c r="G133" s="27"/>
       <c r="H133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.76537973641654322</v>
       </c>
       <c r="I133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.79696346451597999</v>
       </c>
       <c r="L133" s="27">
@@ -9355,11 +9601,11 @@
       </c>
       <c r="R133" s="27"/>
       <c r="S133">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.97591544414924336</v>
       </c>
       <c r="T133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.987725503675696</v>
       </c>
     </row>
@@ -9382,11 +9628,11 @@
       </c>
       <c r="G134" s="27"/>
       <c r="H134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.75717081487351268</v>
       </c>
       <c r="I134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.79017660478992591</v>
       </c>
       <c r="L134" s="27">
@@ -9407,11 +9653,11 @@
       </c>
       <c r="R134" s="27"/>
       <c r="S134">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.97116496494033711</v>
       </c>
       <c r="T134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.98447940455045246</v>
       </c>
     </row>
@@ -9434,11 +9680,11 @@
       </c>
       <c r="G135" s="27"/>
       <c r="H135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.75686620550557016</v>
       </c>
       <c r="I135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.78962533313905114</v>
       </c>
       <c r="L135" s="27">
@@ -9515,7 +9761,7 @@
       </c>
       <c r="G140" s="27"/>
       <c r="H140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.95084432107332872</v>
       </c>
       <c r="I140">
@@ -9540,7 +9786,7 @@
       </c>
       <c r="R140" s="27"/>
       <c r="S140">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.91083097938361646</v>
       </c>
       <c r="T140">
@@ -9567,11 +9813,11 @@
       </c>
       <c r="G141" s="27"/>
       <c r="H141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.8563694475246233</v>
       </c>
       <c r="I141">
-        <f t="shared" ref="I141:I146" si="19">E141/F141</f>
+        <f t="shared" ref="I141:I146" si="23">E141/F141</f>
         <v>0.88275784458990569</v>
       </c>
       <c r="L141" s="26">
@@ -9592,11 +9838,11 @@
       </c>
       <c r="R141" s="27"/>
       <c r="S141">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.026763801699863</v>
       </c>
       <c r="T141">
-        <f t="shared" ref="T141:T146" si="20">P141/Q141</f>
+        <f t="shared" ref="T141:T146" si="24">P141/Q141</f>
         <v>0.95878052462457497</v>
       </c>
     </row>
@@ -9619,11 +9865,11 @@
       </c>
       <c r="G142" s="27"/>
       <c r="H142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.85505072153164741</v>
       </c>
       <c r="I142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.88366447717351393</v>
       </c>
       <c r="L142" s="26">
@@ -9644,11 +9890,11 @@
       </c>
       <c r="R142" s="27"/>
       <c r="S142">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0511591685137482</v>
       </c>
       <c r="T142">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.97724075353584128</v>
       </c>
     </row>
@@ -9671,11 +9917,11 @@
       </c>
       <c r="G143" s="27"/>
       <c r="H143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.80583996966249527</v>
       </c>
       <c r="I143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.840052232378518</v>
       </c>
       <c r="L143" s="26">
@@ -9696,11 +9942,11 @@
       </c>
       <c r="R143" s="27"/>
       <c r="S143">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0243243243243243</v>
       </c>
       <c r="T143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.95457850598671767</v>
       </c>
     </row>
@@ -9723,11 +9969,11 @@
       </c>
       <c r="G144" s="27"/>
       <c r="H144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.82336926930197107</v>
       </c>
       <c r="I144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.85961690675953772</v>
       </c>
       <c r="L144" s="26">
@@ -9748,11 +9994,11 @@
       </c>
       <c r="R144" s="27"/>
       <c r="S144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.98898916188091024</v>
       </c>
       <c r="T144">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.92488106168099493</v>
       </c>
     </row>
@@ -9775,11 +10021,11 @@
       </c>
       <c r="G145" s="27"/>
       <c r="H145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.82727860374919193</v>
       </c>
       <c r="I145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.86209713352146145</v>
       </c>
       <c r="L145" s="26">
@@ -9800,11 +10046,11 @@
       </c>
       <c r="R145" s="27"/>
       <c r="S145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.9234328726554788</v>
       </c>
       <c r="T145">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.8685939778673758</v>
       </c>
     </row>
@@ -9827,11 +10073,11 @@
       </c>
       <c r="G146" s="27"/>
       <c r="H146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.75913338997451152</v>
       </c>
       <c r="I146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.7896244430299173</v>
       </c>
       <c r="L146" s="26">
@@ -9852,11 +10098,11 @@
       </c>
       <c r="R146" s="27"/>
       <c r="S146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.91441202475685235</v>
       </c>
       <c r="T146">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.85484900564694333</v>
       </c>
     </row>
@@ -9879,15 +10125,15 @@
       </c>
     </row>
     <row r="152" spans="1:20">
-      <c r="A152" s="48" t="s">
+      <c r="A152" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B152" s="48"/>
-      <c r="C152" s="48"/>
-      <c r="D152" s="48"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="48"/>
-      <c r="G152" s="48"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="53"/>
+      <c r="E152" s="53"/>
+      <c r="F152" s="53"/>
+      <c r="G152" s="53"/>
     </row>
     <row r="153" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:20" ht="15.75" thickBot="1">
@@ -9953,7 +10199,7 @@
       </c>
       <c r="G155" s="17"/>
       <c r="H155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.91959064327485385</v>
       </c>
       <c r="L155" s="16">
@@ -9974,7 +10220,7 @@
       </c>
       <c r="R155" s="17"/>
       <c r="S155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.98332313341493272</v>
       </c>
     </row>
@@ -9997,7 +10243,7 @@
       </c>
       <c r="G156" s="17"/>
       <c r="H156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.91611842105263153</v>
       </c>
       <c r="L156" s="16">
@@ -10018,7 +10264,7 @@
       </c>
       <c r="R156" s="17"/>
       <c r="S156">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.95699470183744784</v>
       </c>
     </row>
@@ -10041,7 +10287,7 @@
       </c>
       <c r="G157" s="17"/>
       <c r="H157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.91541353383458646</v>
       </c>
       <c r="L157" s="16">
@@ -10062,7 +10308,7 @@
       </c>
       <c r="R157" s="17"/>
       <c r="S157">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.94278350515463916</v>
       </c>
     </row>
@@ -10085,7 +10331,7 @@
       </c>
       <c r="G158" s="17"/>
       <c r="H158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.90537634408602152</v>
       </c>
       <c r="L158" s="16">
@@ -10106,7 +10352,7 @@
       </c>
       <c r="R158" s="17"/>
       <c r="S158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.92592884130982367</v>
       </c>
     </row>
@@ -10129,7 +10375,7 @@
       </c>
       <c r="G159" s="17"/>
       <c r="H159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.90463917525773196</v>
       </c>
       <c r="L159" s="16">
@@ -10150,7 +10396,7 @@
       </c>
       <c r="R159" s="17"/>
       <c r="S159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.93217375299098104</v>
       </c>
     </row>
@@ -10173,7 +10419,7 @@
       </c>
       <c r="G160" s="17"/>
       <c r="H160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.91503267973856206</v>
       </c>
       <c r="L160" s="16">
@@ -10194,7 +10440,7 @@
       </c>
       <c r="R160" s="17"/>
       <c r="S160">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.93821334503950837</v>
       </c>
     </row>
@@ -10217,7 +10463,7 @@
       </c>
       <c r="G161" s="17"/>
       <c r="H161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.91703056768558955</v>
       </c>
       <c r="L161" s="16">
@@ -10238,7 +10484,7 @@
       </c>
       <c r="R161" s="17"/>
       <c r="S161">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.93990188062142277</v>
       </c>
     </row>
@@ -10306,7 +10552,7 @@
       </c>
       <c r="G165" s="17"/>
       <c r="H165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L165" s="16">
@@ -10327,7 +10573,7 @@
       </c>
       <c r="R165" s="17"/>
       <c r="S165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.95558731671166164</v>
       </c>
     </row>
@@ -10350,7 +10596,7 @@
       </c>
       <c r="G166" s="17"/>
       <c r="H166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.81888035126234904</v>
       </c>
       <c r="L166" s="16">
@@ -10371,7 +10617,7 @@
       </c>
       <c r="R166" s="17"/>
       <c r="S166">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.94967567299915823</v>
       </c>
     </row>
@@ -10394,7 +10640,7 @@
       </c>
       <c r="G167" s="17"/>
       <c r="H167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.81886792452830193</v>
       </c>
       <c r="L167" s="16">
@@ -10415,7 +10661,7 @@
       </c>
       <c r="R167" s="17"/>
       <c r="S167">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.94409083852653519</v>
       </c>
     </row>
@@ -10438,7 +10684,7 @@
       </c>
       <c r="G168" s="17"/>
       <c r="H168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.81659388646288211</v>
       </c>
       <c r="L168" s="16">
@@ -10459,7 +10705,7 @@
       </c>
       <c r="R168" s="17"/>
       <c r="S168">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.94217677849800652</v>
       </c>
     </row>
@@ -10482,7 +10728,7 @@
       </c>
       <c r="G169" s="17"/>
       <c r="H169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.82042253521126762</v>
       </c>
       <c r="L169" s="16">
@@ -10503,7 +10749,7 @@
       </c>
       <c r="R169" s="17"/>
       <c r="S169">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.94818320610687024</v>
       </c>
     </row>
@@ -10526,7 +10772,7 @@
       </c>
       <c r="G170" s="17"/>
       <c r="H170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.81798245614035092</v>
       </c>
       <c r="L170" s="16">
@@ -10547,7 +10793,7 @@
       </c>
       <c r="R170" s="17"/>
       <c r="S170">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.94163660681716854</v>
       </c>
     </row>
@@ -10570,7 +10816,7 @@
       </c>
       <c r="G171" s="17"/>
       <c r="H171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.81686046511627908</v>
       </c>
       <c r="L171" s="16">
@@ -10591,7 +10837,7 @@
       </c>
       <c r="R171" s="17"/>
       <c r="S171">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.95324877290178356</v>
       </c>
     </row>
@@ -10659,7 +10905,7 @@
       </c>
       <c r="G176" s="17"/>
       <c r="H176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.9202185571998871</v>
       </c>
       <c r="L176" s="17">
@@ -10680,7 +10926,7 @@
       </c>
       <c r="R176" s="17"/>
       <c r="S176">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0164480932579878</v>
       </c>
     </row>
@@ -10703,7 +10949,7 @@
       </c>
       <c r="G177" s="17"/>
       <c r="H177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.92980022982909993</v>
       </c>
       <c r="L177" s="17">
@@ -10724,7 +10970,7 @@
       </c>
       <c r="R177" s="17"/>
       <c r="S177">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.98089823763501993</v>
       </c>
     </row>
@@ -10747,7 +10993,7 @@
       </c>
       <c r="G178" s="17"/>
       <c r="H178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.97343970392225376</v>
       </c>
       <c r="L178" s="17">
@@ -10768,7 +11014,7 @@
       </c>
       <c r="R178" s="17"/>
       <c r="S178">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.98155418335339029</v>
       </c>
     </row>
@@ -10791,7 +11037,7 @@
       </c>
       <c r="G179" s="17"/>
       <c r="H179">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.9642878660079528</v>
       </c>
       <c r="L179" s="17">
@@ -10812,7 +11058,7 @@
       </c>
       <c r="R179" s="17"/>
       <c r="S179">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0600641341884558</v>
       </c>
     </row>
@@ -10835,7 +11081,7 @@
       </c>
       <c r="G180" s="17"/>
       <c r="H180">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.95046699454045025</v>
       </c>
       <c r="L180" s="17">
@@ -10856,7 +11102,7 @@
       </c>
       <c r="R180" s="17"/>
       <c r="S180">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0700058275929052</v>
       </c>
     </row>
@@ -10879,7 +11125,7 @@
       </c>
       <c r="G181" s="17"/>
       <c r="H181">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.94413975218362789</v>
       </c>
       <c r="L181" s="17">
@@ -10900,7 +11146,7 @@
       </c>
       <c r="R181" s="17"/>
       <c r="S181">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0591230811655483</v>
       </c>
     </row>
@@ -10923,7 +11169,7 @@
       </c>
       <c r="G182" s="17"/>
       <c r="H182">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.94092273351130418</v>
       </c>
       <c r="L182" s="17">
@@ -10944,7 +11190,7 @@
       </c>
       <c r="R182" s="17"/>
       <c r="S182">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0665116389435969</v>
       </c>
     </row>
@@ -11012,7 +11258,7 @@
       </c>
       <c r="G187" s="17"/>
       <c r="H187">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.99016237372401761</v>
       </c>
       <c r="L187" s="16">
@@ -11033,7 +11279,7 @@
       </c>
       <c r="R187" s="17"/>
       <c r="S187">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.94351048978548535</v>
       </c>
     </row>
@@ -11056,7 +11302,7 @@
       </c>
       <c r="G188" s="17"/>
       <c r="H188">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.9708812260536398</v>
       </c>
       <c r="L188" s="16">
@@ -11077,7 +11323,7 @@
       </c>
       <c r="R188" s="17"/>
       <c r="S188">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.94138479001135078</v>
       </c>
     </row>
@@ -11100,7 +11346,7 @@
       </c>
       <c r="G189" s="17"/>
       <c r="H189">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.95941106247512931</v>
       </c>
       <c r="L189" s="16">
@@ -11121,7 +11367,7 @@
       </c>
       <c r="R189" s="17"/>
       <c r="S189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.95479981617150123</v>
       </c>
     </row>
@@ -11144,7 +11390,7 @@
       </c>
       <c r="G190" s="17"/>
       <c r="H190">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.93297655453618755</v>
       </c>
       <c r="L190" s="16">
@@ -11165,7 +11411,7 @@
       </c>
       <c r="R190" s="17"/>
       <c r="S190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.93178818112049122</v>
       </c>
     </row>
@@ -11188,7 +11434,7 @@
       </c>
       <c r="G191" s="17"/>
       <c r="H191">
-        <f t="shared" ref="H191:H242" si="21">B191/C191</f>
+        <f t="shared" ref="H191:H242" si="25">B191/C191</f>
         <v>0.93475247524752481</v>
       </c>
       <c r="L191" s="16">
@@ -11209,7 +11455,7 @@
       </c>
       <c r="R191" s="17"/>
       <c r="S191">
-        <f t="shared" ref="S191:S242" si="22">M191/N191</f>
+        <f t="shared" ref="S191:S242" si="26">M191/N191</f>
         <v>0.93331652136321064</v>
       </c>
     </row>
@@ -11232,7 +11478,7 @@
       </c>
       <c r="G192" s="17"/>
       <c r="H192">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.93502561714019561</v>
       </c>
       <c r="L192" s="16">
@@ -11253,7 +11499,7 @@
       </c>
       <c r="R192" s="17"/>
       <c r="S192">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.91918165989553102</v>
       </c>
     </row>
@@ -11276,7 +11522,7 @@
       </c>
       <c r="G193" s="17"/>
       <c r="H193">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.90846317280453259</v>
       </c>
       <c r="L193" s="16">
@@ -11297,20 +11543,20 @@
       </c>
       <c r="R193" s="17"/>
       <c r="S193">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.92405145530145527</v>
       </c>
     </row>
     <row r="201" spans="1:19">
-      <c r="A201" s="51" t="s">
+      <c r="A201" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B201" s="51"/>
-      <c r="C201" s="51"/>
-      <c r="D201" s="51"/>
-      <c r="E201" s="51"/>
-      <c r="F201" s="51"/>
-      <c r="G201" s="51"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="52"/>
+      <c r="D201" s="52"/>
+      <c r="E201" s="52"/>
+      <c r="F201" s="52"/>
+      <c r="G201" s="52"/>
     </row>
     <row r="202" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="203" spans="1:19" ht="15.75" thickBot="1">
@@ -11376,7 +11622,7 @@
       </c>
       <c r="G204" s="34"/>
       <c r="H204">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.975103734439834</v>
       </c>
       <c r="L204" s="32">
@@ -11397,7 +11643,7 @@
       </c>
       <c r="R204" s="34"/>
       <c r="S204">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0071266110689916</v>
       </c>
     </row>
@@ -11420,7 +11666,7 @@
       </c>
       <c r="G205" s="34"/>
       <c r="H205">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.97515527950310554</v>
       </c>
       <c r="L205" s="32">
@@ -11441,7 +11687,7 @@
       </c>
       <c r="R205" s="34"/>
       <c r="S205">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.98763359632924852</v>
       </c>
     </row>
@@ -11464,7 +11710,7 @@
       </c>
       <c r="G206" s="34"/>
       <c r="H206">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0230905861456483</v>
       </c>
       <c r="L206" s="32">
@@ -11485,7 +11731,7 @@
       </c>
       <c r="R206" s="34"/>
       <c r="S206">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.97531811496898779</v>
       </c>
     </row>
@@ -11508,7 +11754,7 @@
       </c>
       <c r="G207" s="34"/>
       <c r="H207">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0269709543568464</v>
       </c>
       <c r="L207" s="32">
@@ -11529,7 +11775,7 @@
       </c>
       <c r="R207" s="34"/>
       <c r="S207">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.9730059478420009</v>
       </c>
     </row>
@@ -11552,7 +11798,7 @@
       </c>
       <c r="G208" s="34"/>
       <c r="H208">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0249376558603491</v>
       </c>
       <c r="L208" s="32">
@@ -11573,7 +11819,7 @@
       </c>
       <c r="R208" s="34"/>
       <c r="S208">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.97543509789702687</v>
       </c>
     </row>
@@ -11596,7 +11842,7 @@
       </c>
       <c r="G209" s="34"/>
       <c r="H209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0279503105590062</v>
       </c>
       <c r="L209" s="32">
@@ -11617,7 +11863,7 @@
       </c>
       <c r="R209" s="34"/>
       <c r="S209">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.97636343922801694</v>
       </c>
     </row>
@@ -11640,7 +11886,7 @@
       </c>
       <c r="G210" s="34"/>
       <c r="H210">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.97942386831275718</v>
       </c>
       <c r="L210" s="32">
@@ -11661,7 +11907,7 @@
       </c>
       <c r="R210" s="34"/>
       <c r="S210">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.97714132042490254</v>
       </c>
     </row>
@@ -11729,7 +11975,7 @@
       </c>
       <c r="G214" s="34"/>
       <c r="H214">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.95622568093385218</v>
       </c>
       <c r="L214" s="32">
@@ -11750,7 +11996,7 @@
       </c>
       <c r="R214" s="34"/>
       <c r="S214">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.97281632033207621</v>
       </c>
     </row>
@@ -11773,7 +12019,7 @@
       </c>
       <c r="G215" s="34"/>
       <c r="H215">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.93186813186813189</v>
       </c>
       <c r="L215" s="32">
@@ -11794,7 +12040,7 @@
       </c>
       <c r="R215" s="34"/>
       <c r="S215">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.96874754736528168</v>
       </c>
     </row>
@@ -11817,7 +12063,7 @@
       </c>
       <c r="G216" s="34"/>
       <c r="H216">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.92991239048811014</v>
       </c>
       <c r="L216" s="32">
@@ -11838,7 +12084,7 @@
       </c>
       <c r="R216" s="34"/>
       <c r="S216">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.9658539645366343</v>
       </c>
     </row>
@@ -11861,7 +12107,7 @@
       </c>
       <c r="G217" s="34"/>
       <c r="H217">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.92597968069666181</v>
       </c>
       <c r="L217" s="32">
@@ -11882,7 +12128,7 @@
       </c>
       <c r="R217" s="34"/>
       <c r="S217">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.96501206042909737</v>
       </c>
     </row>
@@ -11905,7 +12151,7 @@
       </c>
       <c r="G218" s="34"/>
       <c r="H218">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.921875</v>
       </c>
       <c r="L218" s="32">
@@ -11926,7 +12172,7 @@
       </c>
       <c r="R218" s="34"/>
       <c r="S218">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.9696917463874285</v>
       </c>
     </row>
@@ -11949,7 +12195,7 @@
       </c>
       <c r="G219" s="34"/>
       <c r="H219">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.9219088937093276</v>
       </c>
       <c r="L219" s="32">
@@ -11970,7 +12216,7 @@
       </c>
       <c r="R219" s="34"/>
       <c r="S219">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.96550415544002122</v>
       </c>
     </row>
@@ -11993,7 +12239,7 @@
       </c>
       <c r="G220" s="34"/>
       <c r="H220">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.92753623188405798</v>
       </c>
       <c r="L220" s="32">
@@ -12014,7 +12260,7 @@
       </c>
       <c r="R220" s="34"/>
       <c r="S220">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.97396048228120846</v>
       </c>
     </row>
@@ -12082,7 +12328,7 @@
       </c>
       <c r="G225" s="34"/>
       <c r="H225">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.96177605029101765</v>
       </c>
       <c r="L225" s="34">
@@ -12103,7 +12349,7 @@
       </c>
       <c r="R225" s="34"/>
       <c r="S225">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0271276338598176</v>
       </c>
     </row>
@@ -12126,7 +12372,7 @@
       </c>
       <c r="G226" s="34"/>
       <c r="H226">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.96004347947267199</v>
       </c>
       <c r="L226" s="34">
@@ -12147,7 +12393,7 @@
       </c>
       <c r="R226" s="34"/>
       <c r="S226">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0053173968283846</v>
       </c>
     </row>
@@ -12170,7 +12416,7 @@
       </c>
       <c r="G227" s="34"/>
       <c r="H227">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0075736808216296</v>
       </c>
       <c r="L227" s="34">
@@ -12191,7 +12437,7 @@
       </c>
       <c r="R227" s="34"/>
       <c r="S227">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.99722333491132875</v>
       </c>
     </row>
@@ -12214,7 +12460,7 @@
       </c>
       <c r="G228" s="34"/>
       <c r="H228">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.99902594264214917</v>
       </c>
       <c r="L228" s="34">
@@ -12235,7 +12481,7 @@
       </c>
       <c r="R228" s="34"/>
       <c r="S228">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0267973572111624</v>
       </c>
     </row>
@@ -12258,7 +12504,7 @@
       </c>
       <c r="G229" s="34"/>
       <c r="H229">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.98975360496535492</v>
       </c>
       <c r="L229" s="34">
@@ -12279,7 +12525,7 @@
       </c>
       <c r="R229" s="34"/>
       <c r="S229">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.1282473852222885</v>
       </c>
     </row>
@@ -12302,7 +12548,7 @@
       </c>
       <c r="G230" s="34"/>
       <c r="H230">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.98255963067453189</v>
       </c>
       <c r="L230" s="34">
@@ -12323,7 +12569,7 @@
       </c>
       <c r="R230" s="34"/>
       <c r="S230">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.111587773606981</v>
       </c>
     </row>
@@ -12346,7 +12592,7 @@
       </c>
       <c r="G231" s="34"/>
       <c r="H231">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.98022485295212569</v>
       </c>
       <c r="L231" s="34">
@@ -12367,37 +12613,37 @@
       </c>
       <c r="R231" s="34"/>
       <c r="S231">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.1181560432636775</v>
       </c>
     </row>
     <row r="232" spans="1:19">
       <c r="H232" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S232" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="233" spans="1:19">
       <c r="H233" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S233" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="234" spans="1:19" ht="15.75" thickBot="1">
       <c r="H234" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S234" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12424,7 +12670,7 @@
         <v>16</v>
       </c>
       <c r="H235" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="L235" s="29" t="s">
@@ -12449,7 +12695,7 @@
         <v>16</v>
       </c>
       <c r="S235" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12472,7 +12718,7 @@
       </c>
       <c r="G236" s="34"/>
       <c r="H236">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0240901032432996</v>
       </c>
       <c r="L236" s="32">
@@ -12493,7 +12739,7 @@
       </c>
       <c r="R236" s="34"/>
       <c r="S236">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.93396484375</v>
       </c>
     </row>
@@ -12516,7 +12762,7 @@
       </c>
       <c r="G237" s="34"/>
       <c r="H237">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0044845661036692</v>
       </c>
       <c r="L237" s="32">
@@ -12537,7 +12783,7 @@
       </c>
       <c r="R237" s="34"/>
       <c r="S237">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.94935111751982693</v>
       </c>
     </row>
@@ -12560,7 +12806,7 @@
       </c>
       <c r="G238" s="34"/>
       <c r="H238">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.99935094437593297</v>
       </c>
       <c r="L238" s="32">
@@ -12581,7 +12827,7 @@
       </c>
       <c r="R238" s="34"/>
       <c r="S238">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.9505298471697109</v>
       </c>
     </row>
@@ -12604,7 +12850,7 @@
       </c>
       <c r="G239" s="34"/>
       <c r="H239">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.98375284114824479</v>
       </c>
       <c r="L239" s="32">
@@ -12625,7 +12871,7 @@
       </c>
       <c r="R239" s="34"/>
       <c r="S239">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.92519079364121748</v>
       </c>
     </row>
@@ -12648,7 +12894,7 @@
       </c>
       <c r="G240" s="34"/>
       <c r="H240">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.98284934710582728</v>
       </c>
       <c r="L240" s="32">
@@ -12669,7 +12915,7 @@
       </c>
       <c r="R240" s="34"/>
       <c r="S240">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.93044554455445549</v>
       </c>
     </row>
@@ -12692,7 +12938,7 @@
       </c>
       <c r="G241" s="34"/>
       <c r="H241">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.98153064758166919</v>
       </c>
       <c r="L241" s="32">
@@ -12713,7 +12959,7 @@
       </c>
       <c r="R241" s="34"/>
       <c r="S241">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.92121018234998397</v>
       </c>
     </row>
@@ -12736,7 +12982,7 @@
       </c>
       <c r="G242" s="34"/>
       <c r="H242">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.97399859451862258</v>
       </c>
       <c r="L242" s="32">
@@ -12757,20 +13003,20 @@
       </c>
       <c r="R242" s="34"/>
       <c r="S242">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.92452590854315975</v>
       </c>
     </row>
     <row r="247" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A247" s="50" t="s">
+      <c r="A247" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B247" s="51"/>
-      <c r="C247" s="51"/>
-      <c r="D247" s="51"/>
-      <c r="E247" s="51"/>
-      <c r="F247" s="51"/>
-      <c r="G247" s="51"/>
+      <c r="B247" s="52"/>
+      <c r="C247" s="52"/>
+      <c r="D247" s="52"/>
+      <c r="E247" s="52"/>
+      <c r="F247" s="52"/>
+      <c r="G247" s="52"/>
     </row>
     <row r="248" spans="1:20" ht="15.75" thickBot="1">
       <c r="H248">
@@ -12845,7 +13091,7 @@
       </c>
       <c r="G250" s="40"/>
       <c r="H250">
-        <f t="shared" ref="H250:H287" si="23">B250/C250</f>
+        <f t="shared" ref="H250:H287" si="27">B250/C250</f>
         <v>0.73486088379705405</v>
       </c>
       <c r="I250">
@@ -12870,7 +13116,7 @@
       </c>
       <c r="R250" s="40"/>
       <c r="T250">
-        <f t="shared" ref="T250:T277" si="24">M250/N250</f>
+        <f t="shared" ref="T250:T277" si="28">M250/N250</f>
         <v>1.010325406758448</v>
       </c>
     </row>
@@ -12893,11 +13139,11 @@
       </c>
       <c r="G251" s="40"/>
       <c r="H251">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.71376146788990824</v>
       </c>
       <c r="I251">
-        <f t="shared" ref="I251:I256" si="25">E251/F251</f>
+        <f t="shared" ref="I251:I256" si="29">E251/F251</f>
         <v>0.75391336002912268</v>
       </c>
       <c r="L251" s="38">
@@ -12918,7 +13164,7 @@
       </c>
       <c r="R251" s="40"/>
       <c r="T251">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.93178882094565496</v>
       </c>
     </row>
@@ -12941,11 +13187,11 @@
       </c>
       <c r="G252" s="40"/>
       <c r="H252">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="I252">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.75385256143273638</v>
       </c>
       <c r="L252" s="38">
@@ -12966,7 +13212,7 @@
       </c>
       <c r="R252" s="40"/>
       <c r="T252">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.91738295075336229</v>
       </c>
     </row>
@@ -12989,11 +13235,11 @@
       </c>
       <c r="G253" s="40"/>
       <c r="H253">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.70197044334975367</v>
       </c>
       <c r="I253">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.74365234375</v>
       </c>
       <c r="L253" s="38">
@@ -13014,7 +13260,7 @@
       </c>
       <c r="R253" s="40"/>
       <c r="T253">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.91147922867865927</v>
       </c>
     </row>
@@ -13037,11 +13283,11 @@
       </c>
       <c r="G254" s="40"/>
       <c r="H254">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.70206489675516226</v>
       </c>
       <c r="I254">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.74312463428905795</v>
       </c>
       <c r="L254" s="38">
@@ -13062,7 +13308,7 @@
       </c>
       <c r="R254" s="40"/>
       <c r="T254">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.90988331224518493</v>
       </c>
     </row>
@@ -13085,11 +13331,11 @@
       </c>
       <c r="G255" s="40"/>
       <c r="H255">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.7095588235294118</v>
       </c>
       <c r="I255">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.75109489051094891</v>
       </c>
       <c r="L255" s="38">
@@ -13110,7 +13356,7 @@
       </c>
       <c r="R255" s="40"/>
       <c r="T255">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.91023726563796248</v>
       </c>
     </row>
@@ -13133,11 +13379,11 @@
       </c>
       <c r="G256" s="40"/>
       <c r="H256">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.71219512195121948</v>
       </c>
       <c r="I256">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.75266731328806979</v>
       </c>
       <c r="L256" s="38">
@@ -13158,7 +13404,7 @@
       </c>
       <c r="R256" s="40"/>
       <c r="T256">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.92298110857380111</v>
       </c>
     </row>
@@ -13226,7 +13472,7 @@
       </c>
       <c r="G260" s="40"/>
       <c r="H260">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0295031055900621</v>
       </c>
       <c r="I260">
@@ -13251,7 +13497,7 @@
       </c>
       <c r="R260" s="40"/>
       <c r="T260">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.84633609393018139</v>
       </c>
     </row>
@@ -13274,11 +13520,11 @@
       </c>
       <c r="G261" s="40"/>
       <c r="H261">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0670194003527338</v>
       </c>
       <c r="I261">
-        <f t="shared" ref="I261:I266" si="26">E261/F261</f>
+        <f t="shared" ref="I261:I266" si="30">E261/F261</f>
         <v>0.98232647814910024</v>
       </c>
       <c r="L261" s="38">
@@ -13299,7 +13545,7 @@
       </c>
       <c r="R261" s="40"/>
       <c r="T261">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.83028527763627102</v>
       </c>
     </row>
@@ -13322,11 +13568,11 @@
       </c>
       <c r="G262" s="40"/>
       <c r="H262">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0643863179074446</v>
       </c>
       <c r="I262">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.98129126925898758</v>
       </c>
       <c r="L262" s="38">
@@ -13347,7 +13593,7 @@
       </c>
       <c r="R262" s="40"/>
       <c r="T262">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.81586560589124857</v>
       </c>
     </row>
@@ -13370,11 +13616,11 @@
       </c>
       <c r="G263" s="40"/>
       <c r="H263">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.1223529411764706</v>
       </c>
       <c r="I263">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1.0364493996569468</v>
       </c>
       <c r="L263" s="38">
@@ -13395,7 +13641,7 @@
       </c>
       <c r="R263" s="40"/>
       <c r="T263">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.8096110204244138</v>
       </c>
     </row>
@@ -13418,11 +13664,11 @@
       </c>
       <c r="G264" s="40"/>
       <c r="H264">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.1189801699716715</v>
       </c>
       <c r="I264">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1.0335917312661498</v>
       </c>
       <c r="L264" s="38">
@@ -13443,7 +13689,7 @@
       </c>
       <c r="R264" s="40"/>
       <c r="T264">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.82430520695477572</v>
       </c>
     </row>
@@ -13466,11 +13712,11 @@
       </c>
       <c r="G265" s="40"/>
       <c r="H265">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.124113475177305</v>
       </c>
       <c r="I265">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1.0395333765392094</v>
       </c>
       <c r="L265" s="38">
@@ -13491,7 +13737,7 @@
       </c>
       <c r="R265" s="40"/>
       <c r="T265">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.81704545454545452</v>
       </c>
     </row>
@@ -13514,11 +13760,11 @@
       </c>
       <c r="G266" s="40"/>
       <c r="H266">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.1074766355140186</v>
       </c>
       <c r="I266">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1.0265183917878529</v>
       </c>
       <c r="L266" s="38">
@@ -13539,7 +13785,7 @@
       </c>
       <c r="R266" s="40"/>
       <c r="T266">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.84119069205197949</v>
       </c>
     </row>
@@ -13607,7 +13853,7 @@
       </c>
       <c r="G271" s="40"/>
       <c r="H271">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.77332796190119923</v>
       </c>
       <c r="L271" s="40">
@@ -13628,7 +13874,7 @@
       </c>
       <c r="R271" s="40"/>
       <c r="T271">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.81443133219717678</v>
       </c>
     </row>
@@ -13651,7 +13897,7 @@
       </c>
       <c r="G272" s="40"/>
       <c r="H272">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.75506472374600264</v>
       </c>
       <c r="L272" s="40">
@@ -13672,7 +13918,7 @@
       </c>
       <c r="R272" s="40"/>
       <c r="T272">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.79979914637208138</v>
       </c>
     </row>
@@ -13695,7 +13941,7 @@
       </c>
       <c r="G273" s="40"/>
       <c r="H273">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.81176254870501952</v>
       </c>
       <c r="L273" s="40">
@@ -13716,7 +13962,7 @@
       </c>
       <c r="R273" s="40"/>
       <c r="T273">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.89442409157040437</v>
       </c>
     </row>
@@ -13739,7 +13985,7 @@
       </c>
       <c r="G274" s="40"/>
       <c r="H274">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.79347617729121855</v>
       </c>
       <c r="L274" s="40">
@@ -13760,7 +14006,7 @@
       </c>
       <c r="R274" s="40"/>
       <c r="T274">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.89685027926001293</v>
       </c>
     </row>
@@ -13783,7 +14029,7 @@
       </c>
       <c r="G275" s="40"/>
       <c r="H275">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.7806332945880009</v>
       </c>
       <c r="L275" s="40">
@@ -13804,7 +14050,7 @@
       </c>
       <c r="R275" s="40"/>
       <c r="T275">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.86953360080240727</v>
       </c>
     </row>
@@ -13827,7 +14073,7 @@
       </c>
       <c r="G276" s="40"/>
       <c r="H276">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.77467894042292962</v>
       </c>
       <c r="L276" s="40">
@@ -13848,7 +14094,7 @@
       </c>
       <c r="R276" s="40"/>
       <c r="T276">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.86271549012205861</v>
       </c>
     </row>
@@ -13871,7 +14117,7 @@
       </c>
       <c r="G277" s="40"/>
       <c r="H277">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.77131198061677753</v>
       </c>
       <c r="L277" s="40">
@@ -13892,7 +14138,7 @@
       </c>
       <c r="R277" s="40"/>
       <c r="T277">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.83859343444343248</v>
       </c>
     </row>
@@ -13960,7 +14206,7 @@
       </c>
       <c r="G282" s="40"/>
       <c r="H282">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0080779480346436</v>
       </c>
       <c r="L282" s="38">
@@ -13981,7 +14227,7 @@
       </c>
       <c r="R282" s="40"/>
       <c r="T282">
-        <f t="shared" ref="T282:T287" si="27">M282/N282</f>
+        <f t="shared" ref="T282:T287" si="31">M282/N282</f>
         <v>0.9134331744951214</v>
       </c>
     </row>
@@ -14004,7 +14250,7 @@
       </c>
       <c r="G283" s="40"/>
       <c r="H283">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.90622641509433965</v>
       </c>
       <c r="L283" s="38">
@@ -14025,7 +14271,7 @@
       </c>
       <c r="R283" s="40"/>
       <c r="T283">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.94994603345925521</v>
       </c>
     </row>
@@ -14048,7 +14294,7 @@
       </c>
       <c r="G284" s="40"/>
       <c r="H284">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.89728884254431696</v>
       </c>
       <c r="L284" s="38">
@@ -14069,7 +14315,7 @@
       </c>
       <c r="R284" s="40"/>
       <c r="T284">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.95350698195494743</v>
       </c>
     </row>
@@ -14092,7 +14338,7 @@
       </c>
       <c r="G285" s="40"/>
       <c r="H285">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.87031394886739966</v>
       </c>
       <c r="L285" s="38">
@@ -14113,7 +14359,7 @@
       </c>
       <c r="R285" s="40"/>
       <c r="T285">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.91170806855382247</v>
       </c>
     </row>
@@ -14136,7 +14382,7 @@
       </c>
       <c r="G286" s="40"/>
       <c r="H286">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.86463283765138743</v>
       </c>
       <c r="L286" s="38">
@@ -14157,7 +14403,7 @@
       </c>
       <c r="R286" s="40"/>
       <c r="T286">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.87823519194024668</v>
       </c>
     </row>
@@ -14180,7 +14426,7 @@
       </c>
       <c r="G287" s="40"/>
       <c r="H287">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.85809189887433102</v>
       </c>
       <c r="L287" s="38">
@@ -14201,7 +14447,7 @@
       </c>
       <c r="R287" s="40"/>
       <c r="T287">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.83648840511121625</v>
       </c>
     </row>
@@ -14250,15 +14496,15 @@
       </c>
     </row>
     <row r="293" spans="1:19" ht="45.75" customHeight="1">
-      <c r="A293" s="50" t="s">
+      <c r="A293" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B293" s="51"/>
-      <c r="C293" s="51"/>
-      <c r="D293" s="51"/>
-      <c r="E293" s="51"/>
-      <c r="F293" s="51"/>
-      <c r="G293" s="51"/>
+      <c r="B293" s="52"/>
+      <c r="C293" s="52"/>
+      <c r="D293" s="52"/>
+      <c r="E293" s="52"/>
+      <c r="F293" s="52"/>
+      <c r="G293" s="52"/>
     </row>
     <row r="294" spans="1:19" ht="15.75" thickBot="1">
       <c r="H294">
@@ -14377,7 +14623,7 @@
       </c>
       <c r="G297" s="46"/>
       <c r="H297">
-        <f t="shared" ref="H297:H334" si="28">B297/C297</f>
+        <f t="shared" ref="H297:H334" si="32">B297/C297</f>
         <v>0.97037037037037033</v>
       </c>
       <c r="L297" s="44">
@@ -14398,7 +14644,7 @@
       </c>
       <c r="R297" s="46"/>
       <c r="S297">
-        <f t="shared" ref="S297:S334" si="29">M297/N297</f>
+        <f t="shared" ref="S297:S334" si="33">M297/N297</f>
         <v>0.88763321650811811</v>
       </c>
     </row>
@@ -14421,7 +14667,7 @@
       </c>
       <c r="G298" s="46"/>
       <c r="H298">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.96892655367231639</v>
       </c>
       <c r="L298" s="44">
@@ -14442,7 +14688,7 @@
       </c>
       <c r="R298" s="46"/>
       <c r="S298">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.86542962219993314</v>
       </c>
     </row>
@@ -14465,7 +14711,7 @@
       </c>
       <c r="G299" s="46"/>
       <c r="H299">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.033003300330033</v>
       </c>
       <c r="L299" s="44">
@@ -14486,7 +14732,7 @@
       </c>
       <c r="R299" s="46"/>
       <c r="S299">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.8648734850095684</v>
       </c>
     </row>
@@ -14509,7 +14755,7 @@
       </c>
       <c r="G300" s="46"/>
       <c r="H300">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.0355731225296443</v>
       </c>
       <c r="L300" s="44">
@@ -14530,7 +14776,7 @@
       </c>
       <c r="R300" s="46"/>
       <c r="S300">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.87122969837587005</v>
       </c>
     </row>
@@ -14553,7 +14799,7 @@
       </c>
       <c r="G301" s="46"/>
       <c r="H301">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.0495049504950495</v>
       </c>
       <c r="L301" s="44">
@@ -14574,7 +14820,7 @@
       </c>
       <c r="R301" s="46"/>
       <c r="S301">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.87809549870023262</v>
       </c>
     </row>
@@ -14597,7 +14843,7 @@
       </c>
       <c r="G302" s="46"/>
       <c r="H302">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.0457516339869282</v>
       </c>
       <c r="L302" s="44">
@@ -14618,7 +14864,7 @@
       </c>
       <c r="R302" s="46"/>
       <c r="S302">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.89448604492852279</v>
       </c>
     </row>
@@ -14686,7 +14932,7 @@
       </c>
       <c r="G306" s="46"/>
       <c r="H306">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.7515856236786469</v>
       </c>
       <c r="L306" s="44">
@@ -14707,7 +14953,7 @@
       </c>
       <c r="R306" s="46"/>
       <c r="S306">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.0430684150990825</v>
       </c>
     </row>
@@ -14730,7 +14976,7 @@
       </c>
       <c r="G307" s="46"/>
       <c r="H307">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.74491017964071859</v>
       </c>
       <c r="L307" s="44">
@@ -14751,7 +14997,7 @@
       </c>
       <c r="R307" s="46"/>
       <c r="S307">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.0529487280253609</v>
       </c>
     </row>
@@ -14774,7 +15020,7 @@
       </c>
       <c r="G308" s="46"/>
       <c r="H308">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.74725274725274726</v>
       </c>
       <c r="L308" s="44">
@@ -14795,7 +15041,7 @@
       </c>
       <c r="R308" s="46"/>
       <c r="S308">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.0344643239004918</v>
       </c>
     </row>
@@ -14818,7 +15064,7 @@
       </c>
       <c r="G309" s="46"/>
       <c r="H309">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.91826923076923073</v>
       </c>
       <c r="L309" s="44">
@@ -14839,7 +15085,7 @@
       </c>
       <c r="R309" s="46"/>
       <c r="S309">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.0347456513166542</v>
       </c>
     </row>
@@ -14862,7 +15108,7 @@
       </c>
       <c r="G310" s="46"/>
       <c r="H310">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.91860465116279066</v>
       </c>
       <c r="L310" s="44">
@@ -14883,7 +15129,7 @@
       </c>
       <c r="R310" s="46"/>
       <c r="S310">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.0300278306723305</v>
       </c>
     </row>
@@ -14906,7 +15152,7 @@
       </c>
       <c r="G311" s="46"/>
       <c r="H311">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.9193154034229829</v>
       </c>
       <c r="L311" s="44">
@@ -14927,7 +15173,7 @@
       </c>
       <c r="R311" s="46"/>
       <c r="S311">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.0307431772292059</v>
       </c>
     </row>
@@ -14950,7 +15196,7 @@
       </c>
       <c r="G312" s="46"/>
       <c r="H312">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.69255663430420711</v>
       </c>
       <c r="L312" s="44">
@@ -14971,7 +15217,7 @@
       </c>
       <c r="R312" s="46"/>
       <c r="S312">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.0236761108041985</v>
       </c>
     </row>
@@ -15039,7 +15285,7 @@
       </c>
       <c r="G317" s="46"/>
       <c r="H317">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.75219181095434118</v>
       </c>
       <c r="L317" s="46">
@@ -15060,7 +15306,7 @@
       </c>
       <c r="R317" s="46"/>
       <c r="S317">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.90022992697033233</v>
       </c>
     </row>
@@ -15083,7 +15329,7 @@
       </c>
       <c r="G318" s="46"/>
       <c r="H318">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.73706951149142186</v>
       </c>
       <c r="L318" s="46">
@@ -15104,7 +15350,7 @@
       </c>
       <c r="R318" s="46"/>
       <c r="S318">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.88369192391643281</v>
       </c>
     </row>
@@ -15127,7 +15373,7 @@
       </c>
       <c r="G319" s="46"/>
       <c r="H319">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.78933029919392317</v>
       </c>
       <c r="L319" s="46">
@@ -15148,7 +15394,7 @@
       </c>
       <c r="R319" s="46"/>
       <c r="S319">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.0107645926657696</v>
       </c>
     </row>
@@ -15171,7 +15417,7 @@
       </c>
       <c r="G320" s="46"/>
       <c r="H320">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.77728842912876284</v>
       </c>
       <c r="L320" s="46">
@@ -15192,7 +15438,7 @@
       </c>
       <c r="R320" s="46"/>
       <c r="S320">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.0223422044039729</v>
       </c>
     </row>
@@ -15215,7 +15461,7 @@
       </c>
       <c r="G321" s="46"/>
       <c r="H321">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.76092955700798837</v>
       </c>
       <c r="L321" s="46">
@@ -15236,7 +15482,7 @@
       </c>
       <c r="R321" s="46"/>
       <c r="S321">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.98926049431149465</v>
       </c>
     </row>
@@ -15259,7 +15505,7 @@
       </c>
       <c r="G322" s="46"/>
       <c r="H322">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.75288644533728066</v>
       </c>
       <c r="L322" s="46">
@@ -15280,7 +15526,7 @@
       </c>
       <c r="R322" s="46"/>
       <c r="S322">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.9975373297172605</v>
       </c>
     </row>
@@ -15303,7 +15549,7 @@
       </c>
       <c r="G323" s="46"/>
       <c r="H323">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.75266433149500667</v>
       </c>
       <c r="L323" s="46">
@@ -15324,7 +15570,7 @@
       </c>
       <c r="R323" s="46"/>
       <c r="S323">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.95940338239899781</v>
       </c>
     </row>
@@ -15392,7 +15638,7 @@
       </c>
       <c r="G328" s="46"/>
       <c r="H328">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.94535028326654691</v>
       </c>
       <c r="L328" s="44">
@@ -15413,7 +15659,7 @@
       </c>
       <c r="R328" s="46"/>
       <c r="S328">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.88960863032930226</v>
       </c>
     </row>
@@ -15436,7 +15682,7 @@
       </c>
       <c r="G329" s="46"/>
       <c r="H329">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.86033781670315923</v>
       </c>
       <c r="L329" s="44">
@@ -15457,7 +15703,7 @@
       </c>
       <c r="R329" s="46"/>
       <c r="S329">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.95145316276602021</v>
       </c>
     </row>
@@ -15480,7 +15726,7 @@
       </c>
       <c r="G330" s="46"/>
       <c r="H330">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.85342075748425505</v>
       </c>
       <c r="L330" s="44">
@@ -15501,7 +15747,7 @@
       </c>
       <c r="R330" s="46"/>
       <c r="S330">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.96721483554933518</v>
       </c>
     </row>
@@ -15524,7 +15770,7 @@
       </c>
       <c r="G331" s="46"/>
       <c r="H331">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.81946746215887745</v>
       </c>
       <c r="L331" s="44">
@@ -15545,7 +15791,7 @@
       </c>
       <c r="R331" s="46"/>
       <c r="S331">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.94057739247538086</v>
       </c>
     </row>
@@ -15568,7 +15814,7 @@
       </c>
       <c r="G332" s="46"/>
       <c r="H332">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.82707535121328224</v>
       </c>
       <c r="L332" s="44">
@@ -15589,7 +15835,7 @@
       </c>
       <c r="R332" s="46"/>
       <c r="S332">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.92008175779253965</v>
       </c>
     </row>
@@ -15612,7 +15858,7 @@
       </c>
       <c r="G333" s="46"/>
       <c r="H333">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.82338536883991431</v>
       </c>
       <c r="L333" s="44">
@@ -15633,7 +15879,7 @@
       </c>
       <c r="R333" s="46"/>
       <c r="S333">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.86089906700593721</v>
       </c>
     </row>
@@ -15656,7 +15902,7 @@
       </c>
       <c r="G334" s="46"/>
       <c r="H334">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="L334" s="44">
@@ -15677,17 +15923,12 @@
       </c>
       <c r="R334" s="46"/>
       <c r="S334">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.86353398853398855</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AH66:AJ66"/>
-    <mergeCell ref="V97:X97"/>
-    <mergeCell ref="Z97:AB97"/>
-    <mergeCell ref="AD97:AF97"/>
-    <mergeCell ref="AH97:AJ97"/>
     <mergeCell ref="A293:G293"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AF2:AH2"/>
@@ -15704,6 +15945,11 @@
     <mergeCell ref="V66:X66"/>
     <mergeCell ref="Z66:AB66"/>
     <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AH66:AJ66"/>
+    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="Z97:AB97"/>
+    <mergeCell ref="AD97:AF97"/>
+    <mergeCell ref="AH97:AJ97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-analysis-ratios.xlsx
+++ b/journal-evaluation/diff-analysis-ratios.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrshen.CSDOMAIN.008\Desktop\caso-tpds\journal-evaluation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -28,7 +23,7 @@
     <definedName name="New_Text_Document_8" localSheetId="0">Sheet1!$J$49:$K$65</definedName>
     <definedName name="New_Text_Document_9" localSheetId="0">Sheet1!$AC$40:$AD$58</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -118,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="37">
   <si>
     <t>wdev_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,7 +198,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,7 +213,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,7 +228,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +243,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -271,7 +266,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,7 +282,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -304,7 +299,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -323,23 +318,31 @@
   <si>
     <t>wdev_0</t>
   </si>
+  <si>
+    <t>rsrch_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdev_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -348,7 +351,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -357,14 +360,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -372,7 +375,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -380,7 +383,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -637,13 +640,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -651,7 +654,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,19 +670,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_9" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_5" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,27 +690,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_8" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_5" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_9" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -749,7 +752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,7 +787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -995,29 +998,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S94" sqref="S94"/>
+    <sheetView tabSelected="1" topLeftCell="Q108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X129" sqref="X129:X156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="13" max="14" width="7.140625" customWidth="1"/>
-    <col min="19" max="23" width="7.140625" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" customWidth="1"/>
+    <col min="13" max="14" width="7.125" customWidth="1"/>
+    <col min="19" max="23" width="7.125" customWidth="1"/>
+    <col min="24" max="24" width="8.25" customWidth="1"/>
+    <col min="26" max="26" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" customWidth="1"/>
+    <col min="29" max="29" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" thickBot="1">
+    <row r="1" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
         <v>25</v>
       </c>
@@ -1028,7 +1031,7 @@
       <c r="F1" s="53"/>
       <c r="G1" s="53"/>
     </row>
-    <row r="2" spans="1:38" ht="15.75" thickBot="1">
+    <row r="2" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1071,33 +1074,33 @@
       <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="X2" s="50" t="s">
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="X2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AB2" s="50" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AB2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AF2" s="50" t="s">
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AJ2" s="50" t="s">
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AJ2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>10</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>134736</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>20</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>142908</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>30</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>253012</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>40</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>259521</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>50</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>106812</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>60</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>114268</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>70</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>198819</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="T10" s="11">
         <v>20</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>205106</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" thickBot="1">
+    <row r="11" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T11" s="11">
         <v>30</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>77860</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75" thickBot="1">
+    <row r="12" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>83978</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>142642</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>20</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>147440</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>30</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>62862</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>40</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>68296</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>50</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>114809</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>60</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>119073</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>70</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>56828</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
       <c r="T20" s="11">
         <v>50</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>61122</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
       <c r="T21" s="11">
         <v>50</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>104287</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15.75" thickBot="1">
+    <row r="22" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T22" s="11">
         <v>50</v>
       </c>
@@ -2723,7 +2726,7 @@
         <v>107644</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1">
+    <row r="23" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>42344</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>10</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>45808</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>20</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>77109</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>30</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>79847</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>40</v>
       </c>
@@ -3168,7 +3171,7 @@
         <v>36160</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>50</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>38534</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>60</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>66424</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>70</v>
       </c>
@@ -3435,14 +3438,14 @@
         <v>68266</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
       <c r="T32" s="47" t="s">
         <v>9</v>
       </c>
       <c r="U32" s="47"/>
       <c r="V32" s="47"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1">
+    <row r="33" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T33" s="11">
         <v>10</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>329302</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1">
+    <row r="34" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -3505,13 +3508,13 @@
       <c r="V34" s="5">
         <v>380426</v>
       </c>
-      <c r="X34" s="50" t="s">
+      <c r="X34" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>10</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>35452</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>20</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>36572</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>30</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>61088</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>40</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>62369</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>50</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>30642</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>60</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>32644</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>70</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>52824</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="T42" s="11">
         <v>30</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>55689</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="T43" s="11">
         <v>30</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>27036</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="H44">
         <f>AVERAGE(H3:H41)</f>
         <v>0.85681482591637637</v>
@@ -4017,7 +4020,7 @@
         <v>29498</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="T45" s="11">
         <v>40</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>47266</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="T46" s="11">
         <v>40</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>50576</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="T47" s="11">
         <v>40</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>20194</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F48" s="48"/>
       <c r="T48" s="11">
         <v>40</v>
@@ -4098,7 +4101,7 @@
         <v>22784</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A49" s="53" t="s">
         <v>24</v>
       </c>
@@ -4127,7 +4130,7 @@
         <v>34560</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1">
+    <row r="50" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F50" s="48"/>
       <c r="T50" s="11">
         <v>50</v>
@@ -4148,7 +4151,7 @@
         <v>38142</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1">
+    <row r="51" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>31</v>
       </c>
@@ -4199,7 +4202,7 @@
         <v>17472</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" s="21">
         <v>10</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>19762</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A53" s="21">
         <v>20</v>
       </c>
@@ -4331,7 +4334,7 @@
         <v>30280</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A54" s="21">
         <v>30</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>33334</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A55" s="21">
         <v>40</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>14988</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A56" s="21">
         <v>50</v>
       </c>
@@ -4529,7 +4532,7 @@
         <v>16854</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A57" s="21">
         <v>60</v>
       </c>
@@ -4603,7 +4606,7 @@
         <v>26145</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A58" s="21">
         <v>70</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>28697</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
       <c r="T59" s="11">
         <v>70</v>
       </c>
@@ -4697,7 +4700,7 @@
         <v>9294</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1">
+    <row r="60" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H60">
         <f>1-H61</f>
         <v>0.18676454329169279</v>
@@ -4725,7 +4728,7 @@
         <v>10892</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15.75" thickBot="1">
+    <row r="61" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>1</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>15930</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A62" s="21">
         <v>10</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>18103</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A63" s="21">
         <v>20</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>0.91755157371521923</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A64" s="21">
         <v>30</v>
       </c>
@@ -4957,7 +4960,7 @@
         <v>0.91280438311688317</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A65" s="21">
         <v>40</v>
       </c>
@@ -5009,7 +5012,7 @@
         <v>0.91906891109942135</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A66" s="21">
         <v>50</v>
       </c>
@@ -5060,28 +5063,28 @@
         <f t="shared" ref="T66:T89" si="10">P66/Q66</f>
         <v>0.92571024734982332</v>
       </c>
-      <c r="V66" s="50" t="s">
+      <c r="V66" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="W66" s="50"/>
-      <c r="X66" s="50"/>
-      <c r="Z66" s="50" t="s">
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+      <c r="Z66" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="50"/>
-      <c r="AD66" s="50" t="s">
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="52"/>
+      <c r="AD66" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AE66" s="50"/>
-      <c r="AF66" s="50"/>
-      <c r="AH66" s="50" t="s">
+      <c r="AE66" s="52"/>
+      <c r="AF66" s="52"/>
+      <c r="AH66" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AI66" s="50"/>
-      <c r="AJ66" s="50"/>
-    </row>
-    <row r="67" spans="1:36">
+      <c r="AI66" s="52"/>
+      <c r="AJ66" s="52"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A67" s="21">
         <v>60</v>
       </c>
@@ -5169,7 +5172,7 @@
         <v>33390</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A68" s="21">
         <v>70</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>35096</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V69" s="22">
         <v>10</v>
       </c>
@@ -5295,7 +5298,7 @@
         <v>58673</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="15.75" thickBot="1">
+    <row r="70" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V70" s="22">
         <v>10</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>60677</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="15.75" thickBot="1">
+    <row r="71" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>2</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>27130</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A72" s="21">
         <v>10</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>31040</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A73" s="21">
         <v>20</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>48178</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A74" s="21">
         <v>30</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>53721</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A75" s="21">
         <v>40</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>24536</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A76" s="21">
         <v>50</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>28364</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A77" s="21">
         <v>60</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A78" s="21">
         <v>70</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>49421</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V79" s="22">
         <v>40</v>
       </c>
@@ -6067,7 +6070,7 @@
         <v>17722</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V80" s="22">
         <v>40</v>
       </c>
@@ -6105,7 +6108,7 @@
         <v>21498</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="15.75" thickBot="1">
+    <row r="81" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V81" s="22">
         <v>40</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>31206</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="15.75" thickBot="1">
+    <row r="82" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>0</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>36513</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A83" s="21">
         <v>10</v>
       </c>
@@ -6311,7 +6314,7 @@
         <v>15682</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A84" s="21">
         <v>20</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>18794</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A85" s="21">
         <v>30</v>
       </c>
@@ -6487,7 +6490,7 @@
         <v>27871</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A86" s="21">
         <v>40</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>32165</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A87" s="21">
         <v>50</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>13296</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A88" s="21">
         <v>60</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>15884</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A89" s="21">
         <v>70</v>
       </c>
@@ -6839,7 +6842,7 @@
         <v>23905</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V90" s="22">
         <v>60</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>27484</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V91" s="22">
         <v>70</v>
       </c>
@@ -6915,7 +6918,7 @@
         <v>7594</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="15.75" thickBot="1">
+    <row r="92" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V92" s="22">
         <v>70</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>9804</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="15.75" thickBot="1">
+    <row r="93" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>21</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>13291</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A94" s="21">
         <v>10</v>
       </c>
@@ -7121,7 +7124,7 @@
         <v>13291</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A95" s="21">
         <v>20</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>0.94951240412739102</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A96" s="21">
         <v>30</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>0.94834337349397591</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A97" s="21">
         <v>40</v>
       </c>
@@ -7276,28 +7279,28 @@
         <f t="shared" si="14"/>
         <v>0.93338055286758914</v>
       </c>
-      <c r="V97" s="50" t="s">
+      <c r="V97" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="W97" s="50"/>
-      <c r="X97" s="50"/>
-      <c r="Z97" s="50" t="s">
+      <c r="W97" s="52"/>
+      <c r="X97" s="52"/>
+      <c r="Z97" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AA97" s="50"/>
-      <c r="AB97" s="50"/>
-      <c r="AD97" s="50" t="s">
+      <c r="AA97" s="52"/>
+      <c r="AB97" s="52"/>
+      <c r="AD97" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AE97" s="50"/>
-      <c r="AF97" s="50"/>
-      <c r="AH97" s="50" t="s">
+      <c r="AE97" s="52"/>
+      <c r="AF97" s="52"/>
+      <c r="AH97" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AI97" s="50"/>
-      <c r="AJ97" s="50"/>
-    </row>
-    <row r="98" spans="1:36">
+      <c r="AI97" s="52"/>
+      <c r="AJ97" s="52"/>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A98" s="21">
         <v>50</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>88438</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A99" s="21">
         <v>60</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>95832</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A100" s="21">
         <v>70</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>155330</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V101" s="22">
         <v>10</v>
       </c>
@@ -7599,7 +7602,7 @@
         <v>172853</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V102" s="22">
         <v>20</v>
       </c>
@@ -7637,7 +7640,7 @@
         <v>79218</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V103" s="22">
         <v>20</v>
       </c>
@@ -7675,7 +7678,7 @@
         <v>78792</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V104" s="22">
         <v>20</v>
       </c>
@@ -7713,7 +7716,7 @@
         <v>134074</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A105" s="53" t="s">
         <v>23</v>
       </c>
@@ -7760,7 +7763,7 @@
         <v>141203</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="15.75" thickBot="1">
+    <row r="106" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V106" s="22">
         <v>30</v>
       </c>
@@ -7798,7 +7801,7 @@
         <v>67222</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="15.75" thickBot="1">
+    <row r="107" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>1</v>
       </c>
@@ -7878,7 +7881,7 @@
         <v>66546</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A108" s="26">
         <v>10</v>
       </c>
@@ -7966,7 +7969,7 @@
         <v>113346</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A109" s="26">
         <v>20</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>119520</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A110" s="26">
         <v>30</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>55314</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A111" s="26">
         <v>40</v>
       </c>
@@ -8230,7 +8233,7 @@
         <v>55546</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A112" s="26">
         <v>50</v>
       </c>
@@ -8318,7 +8321,7 @@
         <v>93563</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A113" s="26">
         <v>60</v>
       </c>
@@ -8406,7 +8409,7 @@
         <v>100241</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A114" s="26">
         <v>70</v>
       </c>
@@ -8494,7 +8497,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V115" s="22">
         <v>50</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="15.75" thickBot="1">
+    <row r="116" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V116" s="22">
         <v>50</v>
       </c>
@@ -8570,7 +8573,7 @@
         <v>75768</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="15.75" thickBot="1">
+    <row r="117" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
         <v>2</v>
       </c>
@@ -8650,7 +8653,7 @@
         <v>83351</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A118" s="26">
         <v>10</v>
       </c>
@@ -8738,7 +8741,7 @@
         <v>29490</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A119" s="26">
         <v>20</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>32490</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A120" s="26">
         <v>30</v>
       </c>
@@ -8914,7 +8917,7 @@
         <v>49859</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A121" s="26">
         <v>40</v>
       </c>
@@ -9002,7 +9005,7 @@
         <v>58327</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A122" s="26">
         <v>50</v>
       </c>
@@ -9090,7 +9093,7 @@
         <v>20282</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A123" s="26">
         <v>60</v>
       </c>
@@ -9178,7 +9181,7 @@
         <v>22164</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A124" s="26">
         <v>70</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>34056</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.15">
       <c r="V125" s="22">
         <v>70</v>
       </c>
@@ -9304,8 +9307,8 @@
         <v>39908</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="15.75" thickBot="1"/>
-    <row r="128" spans="1:36" ht="15.75" thickBot="1">
+    <row r="127" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="s">
         <v>0</v>
       </c>
@@ -9348,8 +9351,18 @@
       <c r="R128" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:20">
+      <c r="V128" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="W128" s="52"/>
+      <c r="X128" s="52"/>
+      <c r="Z128" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA128" s="52"/>
+      <c r="AB128" s="52"/>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A129" s="26">
         <v>10</v>
       </c>
@@ -9400,8 +9413,26 @@
         <f>P129/Q129</f>
         <v>0.93488250590735833</v>
       </c>
-    </row>
-    <row r="130" spans="1:20">
+      <c r="V129" s="22">
+        <v>10</v>
+      </c>
+      <c r="W129" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X129" s="22">
+        <v>133662</v>
+      </c>
+      <c r="Z129" s="22">
+        <v>10</v>
+      </c>
+      <c r="AA129" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB129" s="49">
+        <v>1411680</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A130" s="26">
         <v>20</v>
       </c>
@@ -9452,8 +9483,26 @@
         <f t="shared" ref="T130:T134" si="22">P130/Q130</f>
         <v>0.90345734840698866</v>
       </c>
-    </row>
-    <row r="131" spans="1:20">
+      <c r="V130" s="22">
+        <v>10</v>
+      </c>
+      <c r="W130" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="X130" s="22">
+        <v>153008</v>
+      </c>
+      <c r="Z130" s="22">
+        <v>10</v>
+      </c>
+      <c r="AA130" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB130" s="49">
+        <v>1563108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A131" s="26">
         <v>30</v>
       </c>
@@ -9504,8 +9553,26 @@
         <f t="shared" si="22"/>
         <v>1.0006852313607553</v>
       </c>
-    </row>
-    <row r="132" spans="1:20">
+      <c r="V131" s="22">
+        <v>10</v>
+      </c>
+      <c r="W131" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X131" s="22">
+        <v>225840</v>
+      </c>
+      <c r="Z131" s="22">
+        <v>10</v>
+      </c>
+      <c r="AA131" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB131" s="49">
+        <v>2388007</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A132" s="26">
         <v>40</v>
       </c>
@@ -9556,8 +9623,26 @@
         <f t="shared" si="22"/>
         <v>1.0097589288124611</v>
       </c>
-    </row>
-    <row r="133" spans="1:20">
+      <c r="V132" s="22">
+        <v>10</v>
+      </c>
+      <c r="W132" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="X132" s="22">
+        <v>245563</v>
+      </c>
+      <c r="Z132" s="22">
+        <v>10</v>
+      </c>
+      <c r="AA132" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB132" s="49">
+        <v>2602282</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A133" s="26">
         <v>50</v>
       </c>
@@ -9608,8 +9693,26 @@
         <f t="shared" si="22"/>
         <v>0.987725503675696</v>
       </c>
-    </row>
-    <row r="134" spans="1:20">
+      <c r="V133" s="22">
+        <v>20</v>
+      </c>
+      <c r="W133" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X133" s="22">
+        <v>113936</v>
+      </c>
+      <c r="Z133" s="22">
+        <v>20</v>
+      </c>
+      <c r="AA133" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB133" s="49">
+        <v>1200478</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A134" s="26">
         <v>60</v>
       </c>
@@ -9660,8 +9763,26 @@
         <f t="shared" si="22"/>
         <v>0.98447940455045246</v>
       </c>
-    </row>
-    <row r="135" spans="1:20">
+      <c r="V134" s="22">
+        <v>20</v>
+      </c>
+      <c r="W134" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="X134" s="22">
+        <v>134250</v>
+      </c>
+      <c r="Z134" s="22">
+        <v>20</v>
+      </c>
+      <c r="AA134" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB134" s="49">
+        <v>1383884</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A135" s="26">
         <v>70</v>
       </c>
@@ -9696,9 +9817,86 @@
       <c r="P135" s="27"/>
       <c r="Q135" s="27"/>
       <c r="R135" s="27"/>
-    </row>
-    <row r="138" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="139" spans="1:20" ht="15.75" thickBot="1">
+      <c r="V135" s="22">
+        <v>20</v>
+      </c>
+      <c r="W135" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X135" s="22">
+        <v>191420</v>
+      </c>
+      <c r="Z135" s="22">
+        <v>20</v>
+      </c>
+      <c r="AA135" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB135" s="49">
+        <v>2046416</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="V136" s="22">
+        <v>20</v>
+      </c>
+      <c r="W136" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="X136" s="22">
+        <v>215537</v>
+      </c>
+      <c r="Z136" s="22">
+        <v>20</v>
+      </c>
+      <c r="AA136" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB136" s="49">
+        <v>2301960</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="V137" s="22">
+        <v>30</v>
+      </c>
+      <c r="W137" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X137" s="22">
+        <v>98218</v>
+      </c>
+      <c r="Z137" s="22">
+        <v>30</v>
+      </c>
+      <c r="AA137" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB137" s="49">
+        <v>1042944</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V138" s="22">
+        <v>30</v>
+      </c>
+      <c r="W138" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="X138" s="22">
+        <v>117238</v>
+      </c>
+      <c r="Z138" s="22">
+        <v>30</v>
+      </c>
+      <c r="AA138" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB138" s="49">
+        <v>1209936</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
         <v>21</v>
       </c>
@@ -9741,8 +9939,26 @@
       <c r="R139" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:20">
+      <c r="V139" s="22">
+        <v>30</v>
+      </c>
+      <c r="W139" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X139" s="22">
+        <v>164997</v>
+      </c>
+      <c r="Z139" s="22">
+        <v>30</v>
+      </c>
+      <c r="AA139" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB139" s="49">
+        <v>1779344</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A140" s="26">
         <v>10</v>
       </c>
@@ -9793,8 +10009,26 @@
         <f>P140/Q140</f>
         <v>0.88844595972841445</v>
       </c>
-    </row>
-    <row r="141" spans="1:20">
+      <c r="V140" s="22">
+        <v>30</v>
+      </c>
+      <c r="W140" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="X140" s="22">
+        <v>188280</v>
+      </c>
+      <c r="Z140" s="22">
+        <v>30</v>
+      </c>
+      <c r="AA140" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB140" s="49">
+        <v>2013160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A141" s="26">
         <v>20</v>
       </c>
@@ -9845,8 +10079,26 @@
         <f t="shared" ref="T141:T146" si="24">P141/Q141</f>
         <v>0.95878052462457497</v>
       </c>
-    </row>
-    <row r="142" spans="1:20">
+      <c r="V141" s="22">
+        <v>40</v>
+      </c>
+      <c r="W141" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X141" s="22">
+        <v>85514</v>
+      </c>
+      <c r="Z141" s="22">
+        <v>40</v>
+      </c>
+      <c r="AA141" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB141" s="49">
+        <v>898298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A142" s="26">
         <v>30</v>
       </c>
@@ -9897,8 +10149,26 @@
         <f t="shared" si="24"/>
         <v>0.97724075353584128</v>
       </c>
-    </row>
-    <row r="143" spans="1:20">
+      <c r="V142" s="22">
+        <v>40</v>
+      </c>
+      <c r="W142" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="X142" s="22">
+        <v>101910</v>
+      </c>
+      <c r="Z142" s="22">
+        <v>40</v>
+      </c>
+      <c r="AA142" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB142" s="49">
+        <v>1036500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A143" s="26">
         <v>40</v>
       </c>
@@ -9949,8 +10219,26 @@
         <f t="shared" si="24"/>
         <v>0.95457850598671767</v>
       </c>
-    </row>
-    <row r="144" spans="1:20">
+      <c r="V143" s="22">
+        <v>40</v>
+      </c>
+      <c r="W143" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X143" s="22">
+        <v>143361</v>
+      </c>
+      <c r="Z143" s="22">
+        <v>40</v>
+      </c>
+      <c r="AA143" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB143" s="49">
+        <v>1528967</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A144" s="26">
         <v>50</v>
       </c>
@@ -10001,8 +10289,26 @@
         <f t="shared" si="24"/>
         <v>0.92488106168099493</v>
       </c>
-    </row>
-    <row r="145" spans="1:20">
+      <c r="V144" s="22">
+        <v>40</v>
+      </c>
+      <c r="W144" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="X144" s="22">
+        <v>163588</v>
+      </c>
+      <c r="Z144" s="22">
+        <v>40</v>
+      </c>
+      <c r="AA144" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB144" s="49">
+        <v>1725025</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A145" s="26">
         <v>60</v>
       </c>
@@ -10053,8 +10359,26 @@
         <f t="shared" si="24"/>
         <v>0.8685939778673758</v>
       </c>
-    </row>
-    <row r="146" spans="1:20">
+      <c r="V145" s="22">
+        <v>50</v>
+      </c>
+      <c r="W145" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X145" s="22">
+        <v>71154</v>
+      </c>
+      <c r="Z145" s="22">
+        <v>50</v>
+      </c>
+      <c r="AA145" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB145" s="49">
+        <v>757364</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A146" s="26">
         <v>70</v>
       </c>
@@ -10105,8 +10429,66 @@
         <f t="shared" si="24"/>
         <v>0.85484900564694333</v>
       </c>
-    </row>
-    <row r="149" spans="1:20">
+      <c r="V146" s="22">
+        <v>50</v>
+      </c>
+      <c r="W146" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="X146" s="22">
+        <v>84576</v>
+      </c>
+      <c r="Z146" s="22">
+        <v>50</v>
+      </c>
+      <c r="AA146" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB146" s="49">
+        <v>875730</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="V147" s="22">
+        <v>50</v>
+      </c>
+      <c r="W147" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X147" s="22">
+        <v>119301</v>
+      </c>
+      <c r="Z147" s="22">
+        <v>50</v>
+      </c>
+      <c r="AA147" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB147" s="49">
+        <v>1291299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="V148" s="22">
+        <v>50</v>
+      </c>
+      <c r="W148" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="X148" s="22">
+        <v>135715</v>
+      </c>
+      <c r="Z148" s="22">
+        <v>50</v>
+      </c>
+      <c r="AA148" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB148" s="49">
+        <v>1458821</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.15">
       <c r="H149">
         <f>AVERAGE(H108:H146)</f>
         <v>0.80090396105678219</v>
@@ -10123,8 +10505,66 @@
         <f>AVERAGE(T118:T146)</f>
         <v>0.95356398961267597</v>
       </c>
-    </row>
-    <row r="152" spans="1:20">
+      <c r="V149" s="22">
+        <v>60</v>
+      </c>
+      <c r="W149" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X149" s="22">
+        <v>54774</v>
+      </c>
+      <c r="Z149" s="22">
+        <v>60</v>
+      </c>
+      <c r="AA149" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB149" s="49">
+        <v>598086</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="V150" s="22">
+        <v>60</v>
+      </c>
+      <c r="W150" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="X150" s="22">
+        <v>66450</v>
+      </c>
+      <c r="Z150" s="22">
+        <v>60</v>
+      </c>
+      <c r="AA150" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB150" s="49">
+        <v>699526</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="V151" s="22">
+        <v>60</v>
+      </c>
+      <c r="W151" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X151" s="22">
+        <v>91912</v>
+      </c>
+      <c r="Z151" s="22">
+        <v>60</v>
+      </c>
+      <c r="AA151" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB151" s="49">
+        <v>1021276</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A152" s="53" t="s">
         <v>22</v>
       </c>
@@ -10134,9 +10574,46 @@
       <c r="E152" s="53"/>
       <c r="F152" s="53"/>
       <c r="G152" s="53"/>
-    </row>
-    <row r="153" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="154" spans="1:20" ht="15.75" thickBot="1">
+      <c r="V152" s="22">
+        <v>60</v>
+      </c>
+      <c r="W152" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="X152" s="22">
+        <v>106728</v>
+      </c>
+      <c r="Z152" s="22">
+        <v>60</v>
+      </c>
+      <c r="AA152" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB152" s="49">
+        <v>1164361</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V153" s="22">
+        <v>70</v>
+      </c>
+      <c r="W153" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X153" s="22">
+        <v>42114</v>
+      </c>
+      <c r="Z153" s="22">
+        <v>70</v>
+      </c>
+      <c r="AA153" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB153" s="49">
+        <v>445222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>1</v>
       </c>
@@ -10179,8 +10656,26 @@
       <c r="R154" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="155" spans="1:20">
+      <c r="V154" s="22">
+        <v>70</v>
+      </c>
+      <c r="W154" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="X154" s="22">
+        <v>51028</v>
+      </c>
+      <c r="Z154" s="22">
+        <v>70</v>
+      </c>
+      <c r="AA154" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB154" s="49">
+        <v>519036</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A155" s="16">
         <v>10</v>
       </c>
@@ -10223,8 +10718,26 @@
         <f t="shared" si="20"/>
         <v>0.98332313341493272</v>
       </c>
-    </row>
-    <row r="156" spans="1:20">
+      <c r="V155" s="22">
+        <v>70</v>
+      </c>
+      <c r="W155" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X155" s="22">
+        <v>70674</v>
+      </c>
+      <c r="Z155" s="22">
+        <v>70</v>
+      </c>
+      <c r="AA155" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB155" s="49">
+        <v>759368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A156" s="16">
         <v>20</v>
       </c>
@@ -10267,8 +10780,26 @@
         <f t="shared" si="20"/>
         <v>0.95699470183744784</v>
       </c>
-    </row>
-    <row r="157" spans="1:20">
+      <c r="V156" s="22">
+        <v>70</v>
+      </c>
+      <c r="W156" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="X156" s="22">
+        <v>81904</v>
+      </c>
+      <c r="Z156" s="22">
+        <v>70</v>
+      </c>
+      <c r="AA156" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB156" s="49">
+        <v>863298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A157" s="16">
         <v>30</v>
       </c>
@@ -10312,7 +10843,7 @@
         <v>0.94278350515463916</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A158" s="16">
         <v>40</v>
       </c>
@@ -10356,7 +10887,7 @@
         <v>0.92592884130982367</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A159" s="16">
         <v>50</v>
       </c>
@@ -10400,7 +10931,7 @@
         <v>0.93217375299098104</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A160" s="16">
         <v>60</v>
       </c>
@@ -10444,7 +10975,7 @@
         <v>0.93821334503950837</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="16">
         <v>70</v>
       </c>
@@ -10488,8 +11019,8 @@
         <v>0.93990188062142277</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="164" spans="1:19" ht="15.75" thickBot="1">
+    <row r="163" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>2</v>
       </c>
@@ -10533,7 +11064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="16">
         <v>10</v>
       </c>
@@ -10577,7 +11108,7 @@
         <v>0.95558731671166164</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="16">
         <v>20</v>
       </c>
@@ -10621,7 +11152,7 @@
         <v>0.94967567299915823</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="16">
         <v>30</v>
       </c>
@@ -10665,7 +11196,7 @@
         <v>0.94409083852653519</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="16">
         <v>40</v>
       </c>
@@ -10709,7 +11240,7 @@
         <v>0.94217677849800652</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="16">
         <v>50</v>
       </c>
@@ -10753,7 +11284,7 @@
         <v>0.94818320610687024</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="16">
         <v>60</v>
       </c>
@@ -10797,7 +11328,7 @@
         <v>0.94163660681716854</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="16">
         <v>70</v>
       </c>
@@ -10841,8 +11372,8 @@
         <v>0.95324877290178356</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="175" spans="1:19" ht="15.75" thickBot="1">
+    <row r="174" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>0</v>
       </c>
@@ -10886,7 +11417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="16">
         <v>10</v>
       </c>
@@ -10930,7 +11461,7 @@
         <v>1.0164480932579878</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="16">
         <v>20</v>
       </c>
@@ -10974,7 +11505,7 @@
         <v>0.98089823763501993</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="16">
         <v>30</v>
       </c>
@@ -11018,7 +11549,7 @@
         <v>0.98155418335339029</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="16">
         <v>40</v>
       </c>
@@ -11062,7 +11593,7 @@
         <v>1.0600641341884558</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="16">
         <v>50</v>
       </c>
@@ -11106,7 +11637,7 @@
         <v>1.0700058275929052</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="16">
         <v>60</v>
       </c>
@@ -11150,7 +11681,7 @@
         <v>1.0591230811655483</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="16">
         <v>70</v>
       </c>
@@ -11194,8 +11725,8 @@
         <v>1.0665116389435969</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="186" spans="1:19" ht="15.75" thickBot="1">
+    <row r="185" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="186" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>21</v>
       </c>
@@ -11239,7 +11770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="16">
         <v>10</v>
       </c>
@@ -11283,7 +11814,7 @@
         <v>0.94351048978548535</v>
       </c>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="16">
         <v>20</v>
       </c>
@@ -11327,7 +11858,7 @@
         <v>0.94138479001135078</v>
       </c>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="16">
         <v>30</v>
       </c>
@@ -11371,7 +11902,7 @@
         <v>0.95479981617150123</v>
       </c>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="16">
         <v>40</v>
       </c>
@@ -11415,7 +11946,7 @@
         <v>0.93178818112049122</v>
       </c>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="16">
         <v>50</v>
       </c>
@@ -11459,7 +11990,7 @@
         <v>0.93331652136321064</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="16">
         <v>60</v>
       </c>
@@ -11503,7 +12034,7 @@
         <v>0.91918165989553102</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="16">
         <v>70</v>
       </c>
@@ -11547,19 +12078,19 @@
         <v>0.92405145530145527</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
-      <c r="A201" s="52" t="s">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A201" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B201" s="52"/>
-      <c r="C201" s="52"/>
-      <c r="D201" s="52"/>
-      <c r="E201" s="52"/>
-      <c r="F201" s="52"/>
-      <c r="G201" s="52"/>
-    </row>
-    <row r="202" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="203" spans="1:19" ht="15.75" thickBot="1">
+      <c r="B201" s="51"/>
+      <c r="C201" s="51"/>
+      <c r="D201" s="51"/>
+      <c r="E201" s="51"/>
+      <c r="F201" s="51"/>
+      <c r="G201" s="51"/>
+    </row>
+    <row r="202" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A203" s="29" t="s">
         <v>1</v>
       </c>
@@ -11603,7 +12134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="32">
         <v>10</v>
       </c>
@@ -11647,7 +12178,7 @@
         <v>1.0071266110689916</v>
       </c>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="32">
         <v>20</v>
       </c>
@@ -11691,7 +12222,7 @@
         <v>0.98763359632924852</v>
       </c>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="32">
         <v>30</v>
       </c>
@@ -11735,7 +12266,7 @@
         <v>0.97531811496898779</v>
       </c>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="32">
         <v>40</v>
       </c>
@@ -11779,7 +12310,7 @@
         <v>0.9730059478420009</v>
       </c>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="32">
         <v>50</v>
       </c>
@@ -11823,7 +12354,7 @@
         <v>0.97543509789702687</v>
       </c>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="32">
         <v>60</v>
       </c>
@@ -11867,7 +12398,7 @@
         <v>0.97636343922801694</v>
       </c>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="32">
         <v>70</v>
       </c>
@@ -11911,8 +12442,8 @@
         <v>0.97714132042490254</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="213" spans="1:19" ht="15.75" thickBot="1">
+    <row r="212" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A213" s="29" t="s">
         <v>2</v>
       </c>
@@ -11956,7 +12487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A214" s="32">
         <v>10</v>
       </c>
@@ -12000,7 +12531,7 @@
         <v>0.97281632033207621</v>
       </c>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A215" s="32">
         <v>20</v>
       </c>
@@ -12044,7 +12575,7 @@
         <v>0.96874754736528168</v>
       </c>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A216" s="32">
         <v>30</v>
       </c>
@@ -12088,7 +12619,7 @@
         <v>0.9658539645366343</v>
       </c>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A217" s="32">
         <v>40</v>
       </c>
@@ -12132,7 +12663,7 @@
         <v>0.96501206042909737</v>
       </c>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A218" s="32">
         <v>50</v>
       </c>
@@ -12176,7 +12707,7 @@
         <v>0.9696917463874285</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A219" s="32">
         <v>60</v>
       </c>
@@ -12220,7 +12751,7 @@
         <v>0.96550415544002122</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A220" s="32">
         <v>70</v>
       </c>
@@ -12264,8 +12795,8 @@
         <v>0.97396048228120846</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="224" spans="1:19" ht="15.75" thickBot="1">
+    <row r="223" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A224" s="29" t="s">
         <v>0</v>
       </c>
@@ -12309,7 +12840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A225" s="32">
         <v>10</v>
       </c>
@@ -12353,7 +12884,7 @@
         <v>1.0271276338598176</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A226" s="32">
         <v>20</v>
       </c>
@@ -12397,7 +12928,7 @@
         <v>1.0053173968283846</v>
       </c>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A227" s="32">
         <v>30</v>
       </c>
@@ -12441,7 +12972,7 @@
         <v>0.99722333491132875</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A228" s="32">
         <v>40</v>
       </c>
@@ -12485,7 +13016,7 @@
         <v>1.0267973572111624</v>
       </c>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A229" s="32">
         <v>50</v>
       </c>
@@ -12529,7 +13060,7 @@
         <v>1.1282473852222885</v>
       </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A230" s="32">
         <v>60</v>
       </c>
@@ -12573,7 +13104,7 @@
         <v>1.111587773606981</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A231" s="32">
         <v>70</v>
       </c>
@@ -12617,7 +13148,7 @@
         <v>1.1181560432636775</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.15">
       <c r="H232" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -12627,7 +13158,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.15">
       <c r="H233" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -12637,7 +13168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="15.75" thickBot="1">
+    <row r="234" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H234" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
@@ -12647,7 +13178,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="15.75" thickBot="1">
+    <row r="235" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A235" s="29" t="s">
         <v>21</v>
       </c>
@@ -12699,7 +13230,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A236" s="32">
         <v>10</v>
       </c>
@@ -12743,7 +13274,7 @@
         <v>0.93396484375</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A237" s="32">
         <v>20</v>
       </c>
@@ -12787,7 +13318,7 @@
         <v>0.94935111751982693</v>
       </c>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A238" s="32">
         <v>30</v>
       </c>
@@ -12831,7 +13362,7 @@
         <v>0.9505298471697109</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A239" s="32">
         <v>40</v>
       </c>
@@ -12875,7 +13406,7 @@
         <v>0.92519079364121748</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A240" s="32">
         <v>50</v>
       </c>
@@ -12919,7 +13450,7 @@
         <v>0.93044554455445549</v>
       </c>
     </row>
-    <row r="241" spans="1:20">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A241" s="32">
         <v>60</v>
       </c>
@@ -12963,7 +13494,7 @@
         <v>0.92121018234998397</v>
       </c>
     </row>
-    <row r="242" spans="1:20">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A242" s="32">
         <v>70</v>
       </c>
@@ -13007,18 +13538,18 @@
         <v>0.92452590854315975</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A247" s="51" t="s">
+    <row r="247" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B247" s="52"/>
-      <c r="C247" s="52"/>
-      <c r="D247" s="52"/>
-      <c r="E247" s="52"/>
-      <c r="F247" s="52"/>
-      <c r="G247" s="52"/>
-    </row>
-    <row r="248" spans="1:20" ht="15.75" thickBot="1">
+      <c r="B247" s="51"/>
+      <c r="C247" s="51"/>
+      <c r="D247" s="51"/>
+      <c r="E247" s="51"/>
+      <c r="F247" s="51"/>
+      <c r="G247" s="51"/>
+    </row>
+    <row r="248" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H248">
         <f>AVERAGE(H250:H288)</f>
         <v>0.86827250456954552</v>
@@ -13028,7 +13559,7 @@
         <v>0.87699339234924611</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="15.75" thickBot="1">
+    <row r="249" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A249" s="35" t="s">
         <v>1</v>
       </c>
@@ -13072,7 +13603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:20">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A250" s="38">
         <v>10</v>
       </c>
@@ -13120,7 +13651,7 @@
         <v>1.010325406758448</v>
       </c>
     </row>
-    <row r="251" spans="1:20">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A251" s="38">
         <v>20</v>
       </c>
@@ -13168,7 +13699,7 @@
         <v>0.93178882094565496</v>
       </c>
     </row>
-    <row r="252" spans="1:20">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A252" s="38">
         <v>30</v>
       </c>
@@ -13216,7 +13747,7 @@
         <v>0.91738295075336229</v>
       </c>
     </row>
-    <row r="253" spans="1:20">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A253" s="38">
         <v>40</v>
       </c>
@@ -13264,7 +13795,7 @@
         <v>0.91147922867865927</v>
       </c>
     </row>
-    <row r="254" spans="1:20">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A254" s="38">
         <v>50</v>
       </c>
@@ -13312,7 +13843,7 @@
         <v>0.90988331224518493</v>
       </c>
     </row>
-    <row r="255" spans="1:20">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A255" s="38">
         <v>60</v>
       </c>
@@ -13360,7 +13891,7 @@
         <v>0.91023726563796248</v>
       </c>
     </row>
-    <row r="256" spans="1:20">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A256" s="38">
         <v>70</v>
       </c>
@@ -13408,8 +13939,8 @@
         <v>0.92298110857380111</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="259" spans="1:20" ht="15.75" thickBot="1">
+    <row r="258" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="259" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A259" s="35" t="s">
         <v>2</v>
       </c>
@@ -13453,7 +13984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A260" s="38">
         <v>10</v>
       </c>
@@ -13501,7 +14032,7 @@
         <v>0.84633609393018139</v>
       </c>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A261" s="38">
         <v>20</v>
       </c>
@@ -13549,7 +14080,7 @@
         <v>0.83028527763627102</v>
       </c>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A262" s="38">
         <v>30</v>
       </c>
@@ -13597,7 +14128,7 @@
         <v>0.81586560589124857</v>
       </c>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A263" s="38">
         <v>40</v>
       </c>
@@ -13645,7 +14176,7 @@
         <v>0.8096110204244138</v>
       </c>
     </row>
-    <row r="264" spans="1:20">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A264" s="38">
         <v>50</v>
       </c>
@@ -13693,7 +14224,7 @@
         <v>0.82430520695477572</v>
       </c>
     </row>
-    <row r="265" spans="1:20">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A265" s="38">
         <v>60</v>
       </c>
@@ -13741,7 +14272,7 @@
         <v>0.81704545454545452</v>
       </c>
     </row>
-    <row r="266" spans="1:20">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A266" s="38">
         <v>70</v>
       </c>
@@ -13789,8 +14320,8 @@
         <v>0.84119069205197949</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="270" spans="1:20" ht="15.75" thickBot="1">
+    <row r="269" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A270" s="35" t="s">
         <v>0</v>
       </c>
@@ -13834,7 +14365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A271" s="38">
         <v>10</v>
       </c>
@@ -13878,7 +14409,7 @@
         <v>0.81443133219717678</v>
       </c>
     </row>
-    <row r="272" spans="1:20">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A272" s="38">
         <v>20</v>
       </c>
@@ -13922,7 +14453,7 @@
         <v>0.79979914637208138</v>
       </c>
     </row>
-    <row r="273" spans="1:20">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A273" s="38">
         <v>30</v>
       </c>
@@ -13966,7 +14497,7 @@
         <v>0.89442409157040437</v>
       </c>
     </row>
-    <row r="274" spans="1:20">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A274" s="38">
         <v>40</v>
       </c>
@@ -14010,7 +14541,7 @@
         <v>0.89685027926001293</v>
       </c>
     </row>
-    <row r="275" spans="1:20">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A275" s="38">
         <v>50</v>
       </c>
@@ -14054,7 +14585,7 @@
         <v>0.86953360080240727</v>
       </c>
     </row>
-    <row r="276" spans="1:20">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A276" s="38">
         <v>60</v>
       </c>
@@ -14098,7 +14629,7 @@
         <v>0.86271549012205861</v>
       </c>
     </row>
-    <row r="277" spans="1:20">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A277" s="38">
         <v>70</v>
       </c>
@@ -14142,8 +14673,8 @@
         <v>0.83859343444343248</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="281" spans="1:20" ht="15.75" thickBot="1">
+    <row r="280" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A281" s="35" t="s">
         <v>21</v>
       </c>
@@ -14187,7 +14718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:20">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A282" s="38">
         <v>10</v>
       </c>
@@ -14231,7 +14762,7 @@
         <v>0.9134331744951214</v>
       </c>
     </row>
-    <row r="283" spans="1:20">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A283" s="38">
         <v>20</v>
       </c>
@@ -14275,7 +14806,7 @@
         <v>0.94994603345925521</v>
       </c>
     </row>
-    <row r="284" spans="1:20">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A284" s="38">
         <v>30</v>
       </c>
@@ -14319,7 +14850,7 @@
         <v>0.95350698195494743</v>
       </c>
     </row>
-    <row r="285" spans="1:20">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A285" s="38">
         <v>40</v>
       </c>
@@ -14363,7 +14894,7 @@
         <v>0.91170806855382247</v>
       </c>
     </row>
-    <row r="286" spans="1:20">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A286" s="38">
         <v>50</v>
       </c>
@@ -14407,7 +14938,7 @@
         <v>0.87823519194024668</v>
       </c>
     </row>
-    <row r="287" spans="1:20">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A287" s="38">
         <v>60</v>
       </c>
@@ -14451,7 +14982,7 @@
         <v>0.83648840511121625</v>
       </c>
     </row>
-    <row r="288" spans="1:20">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A288" s="38">
         <v>70</v>
       </c>
@@ -14495,18 +15026,18 @@
         <v>0.8374323104693141</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="45.75" customHeight="1">
-      <c r="A293" s="51" t="s">
+    <row r="293" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B293" s="52"/>
-      <c r="C293" s="52"/>
-      <c r="D293" s="52"/>
-      <c r="E293" s="52"/>
-      <c r="F293" s="52"/>
-      <c r="G293" s="52"/>
-    </row>
-    <row r="294" spans="1:19" ht="15.75" thickBot="1">
+      <c r="B293" s="51"/>
+      <c r="C293" s="51"/>
+      <c r="D293" s="51"/>
+      <c r="E293" s="51"/>
+      <c r="F293" s="51"/>
+      <c r="G293" s="51"/>
+    </row>
+    <row r="294" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H294">
         <f>AVERAGE(H296:H334)</f>
         <v>0.8573070565523635</v>
@@ -14516,7 +15047,7 @@
         <v>0.95034872387451086</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="15.75" thickBot="1">
+    <row r="295" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A295" s="41" t="s">
         <v>1</v>
       </c>
@@ -14560,7 +15091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:19">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A296" s="44">
         <v>10</v>
       </c>
@@ -14604,7 +15135,7 @@
         <v>0.94174377687996869</v>
       </c>
     </row>
-    <row r="297" spans="1:19">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A297" s="44">
         <v>20</v>
       </c>
@@ -14648,7 +15179,7 @@
         <v>0.88763321650811811</v>
       </c>
     </row>
-    <row r="298" spans="1:19">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A298" s="44">
         <v>30</v>
       </c>
@@ -14692,7 +15223,7 @@
         <v>0.86542962219993314</v>
       </c>
     </row>
-    <row r="299" spans="1:19">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A299" s="44">
         <v>40</v>
       </c>
@@ -14736,7 +15267,7 @@
         <v>0.8648734850095684</v>
       </c>
     </row>
-    <row r="300" spans="1:19">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A300" s="44">
         <v>50</v>
       </c>
@@ -14780,7 +15311,7 @@
         <v>0.87122969837587005</v>
       </c>
     </row>
-    <row r="301" spans="1:19">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A301" s="44">
         <v>60</v>
       </c>
@@ -14824,7 +15355,7 @@
         <v>0.87809549870023262</v>
       </c>
     </row>
-    <row r="302" spans="1:19">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A302" s="44">
         <v>70</v>
       </c>
@@ -14868,8 +15399,8 @@
         <v>0.89448604492852279</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="305" spans="1:19" ht="15.75" thickBot="1">
+    <row r="304" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="305" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A305" s="41" t="s">
         <v>2</v>
       </c>
@@ -14913,7 +15444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:19">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A306" s="44">
         <v>10</v>
       </c>
@@ -14957,7 +15488,7 @@
         <v>1.0430684150990825</v>
       </c>
     </row>
-    <row r="307" spans="1:19">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A307" s="44">
         <v>20</v>
       </c>
@@ -15001,7 +15532,7 @@
         <v>1.0529487280253609</v>
       </c>
     </row>
-    <row r="308" spans="1:19">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A308" s="44">
         <v>30</v>
       </c>
@@ -15045,7 +15576,7 @@
         <v>1.0344643239004918</v>
       </c>
     </row>
-    <row r="309" spans="1:19">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A309" s="44">
         <v>40</v>
       </c>
@@ -15089,7 +15620,7 @@
         <v>1.0347456513166542</v>
       </c>
     </row>
-    <row r="310" spans="1:19">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A310" s="44">
         <v>50</v>
       </c>
@@ -15133,7 +15664,7 @@
         <v>1.0300278306723305</v>
       </c>
     </row>
-    <row r="311" spans="1:19">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A311" s="44">
         <v>60</v>
       </c>
@@ -15177,7 +15708,7 @@
         <v>1.0307431772292059</v>
       </c>
     </row>
-    <row r="312" spans="1:19">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A312" s="44">
         <v>70</v>
       </c>
@@ -15221,8 +15752,8 @@
         <v>1.0236761108041985</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="316" spans="1:19" ht="15.75" thickBot="1">
+    <row r="315" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="316" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A316" s="41" t="s">
         <v>0</v>
       </c>
@@ -15266,7 +15797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:19">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A317" s="44">
         <v>10</v>
       </c>
@@ -15310,7 +15841,7 @@
         <v>0.90022992697033233</v>
       </c>
     </row>
-    <row r="318" spans="1:19">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A318" s="44">
         <v>20</v>
       </c>
@@ -15354,7 +15885,7 @@
         <v>0.88369192391643281</v>
       </c>
     </row>
-    <row r="319" spans="1:19">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A319" s="44">
         <v>30</v>
       </c>
@@ -15398,7 +15929,7 @@
         <v>1.0107645926657696</v>
       </c>
     </row>
-    <row r="320" spans="1:19">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A320" s="44">
         <v>40</v>
       </c>
@@ -15442,7 +15973,7 @@
         <v>1.0223422044039729</v>
       </c>
     </row>
-    <row r="321" spans="1:19">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A321" s="44">
         <v>50</v>
       </c>
@@ -15486,7 +16017,7 @@
         <v>0.98926049431149465</v>
       </c>
     </row>
-    <row r="322" spans="1:19">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A322" s="44">
         <v>60</v>
       </c>
@@ -15530,7 +16061,7 @@
         <v>0.9975373297172605</v>
       </c>
     </row>
-    <row r="323" spans="1:19">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A323" s="44">
         <v>70</v>
       </c>
@@ -15574,8 +16105,8 @@
         <v>0.95940338239899781</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="327" spans="1:19" ht="15.75" thickBot="1">
+    <row r="326" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="327" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A327" s="41" t="s">
         <v>21</v>
       </c>
@@ -15619,7 +16150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:19">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A328" s="44">
         <v>10</v>
       </c>
@@ -15663,7 +16194,7 @@
         <v>0.88960863032930226</v>
       </c>
     </row>
-    <row r="329" spans="1:19">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A329" s="44">
         <v>20</v>
       </c>
@@ -15707,7 +16238,7 @@
         <v>0.95145316276602021</v>
       </c>
     </row>
-    <row r="330" spans="1:19">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A330" s="44">
         <v>30</v>
       </c>
@@ -15751,7 +16282,7 @@
         <v>0.96721483554933518</v>
       </c>
     </row>
-    <row r="331" spans="1:19">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A331" s="44">
         <v>40</v>
       </c>
@@ -15795,7 +16326,7 @@
         <v>0.94057739247538086</v>
       </c>
     </row>
-    <row r="332" spans="1:19">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A332" s="44">
         <v>50</v>
       </c>
@@ -15839,7 +16370,7 @@
         <v>0.92008175779253965</v>
       </c>
     </row>
-    <row r="333" spans="1:19">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A333" s="44">
         <v>60</v>
       </c>
@@ -15883,7 +16414,7 @@
         <v>0.86089906700593721</v>
       </c>
     </row>
-    <row r="334" spans="1:19">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A334" s="44">
         <v>70</v>
       </c>
@@ -15928,7 +16459,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="V128:X128"/>
+    <mergeCell ref="Z128:AB128"/>
+    <mergeCell ref="AH66:AJ66"/>
+    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="Z97:AB97"/>
+    <mergeCell ref="AD97:AF97"/>
+    <mergeCell ref="AH97:AJ97"/>
     <mergeCell ref="A293:G293"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AF2:AH2"/>
@@ -15945,11 +16483,6 @@
     <mergeCell ref="V66:X66"/>
     <mergeCell ref="Z66:AB66"/>
     <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AH66:AJ66"/>
-    <mergeCell ref="V97:X97"/>
-    <mergeCell ref="Z97:AB97"/>
-    <mergeCell ref="AD97:AF97"/>
-    <mergeCell ref="AH97:AJ97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15963,7 +16496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15976,7 +16509,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-analysis-ratios.xlsx
+++ b/journal-evaluation/diff-analysis-ratios.xlsx
@@ -640,13 +640,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -670,11 +670,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_9" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_5" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,19 +690,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_9" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_8" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_6" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document_5" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X129" sqref="X129:X156"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S144" sqref="S144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1074,31 +1074,31 @@
       <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="X2" s="52" t="s">
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="X2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AB2" s="52" t="s">
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AB2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AF2" s="52" t="s">
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AF2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AJ2" s="52" t="s">
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AJ2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
@@ -1125,6 +1125,10 @@
       <c r="H3">
         <f>B3/C3</f>
         <v>0.8828125</v>
+      </c>
+      <c r="I3">
+        <f>E3/F3</f>
+        <v>0.92274881516587681</v>
       </c>
       <c r="L3" s="9">
         <v>10</v>
@@ -1219,6 +1223,10 @@
         <f t="shared" ref="H4:H41" si="0">B4/C4</f>
         <v>0.88441330998248691</v>
       </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I9" si="1">E4/F4</f>
+        <v>0.91985138004246281</v>
+      </c>
       <c r="L4" s="9">
         <v>20</v>
       </c>
@@ -1237,7 +1245,7 @@
       </c>
       <c r="R4" s="4"/>
       <c r="S4">
-        <f t="shared" ref="S4:S41" si="1">M4/N4</f>
+        <f t="shared" ref="S4:S41" si="2">M4/N4</f>
         <v>0.93107842001621688</v>
       </c>
       <c r="T4" s="11">
@@ -1312,6 +1320,10 @@
         <f t="shared" si="0"/>
         <v>0.88200000000000001</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.92233009708737868</v>
+      </c>
       <c r="L5" s="9">
         <v>30</v>
       </c>
@@ -1330,7 +1342,7 @@
       </c>
       <c r="R5" s="4"/>
       <c r="S5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90640426512209571</v>
       </c>
       <c r="T5" s="11">
@@ -1405,6 +1417,10 @@
         <f t="shared" si="0"/>
         <v>0.87844036697247707</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.91863699582753822</v>
+      </c>
       <c r="L6" s="9">
         <v>40</v>
       </c>
@@ -1423,7 +1439,7 @@
       </c>
       <c r="R6" s="4"/>
       <c r="S6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90533096025086868</v>
       </c>
       <c r="T6" s="11">
@@ -1498,6 +1514,10 @@
         <f t="shared" si="0"/>
         <v>0.88121546961325969</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.92191435768261965</v>
+      </c>
       <c r="L7" s="9">
         <v>50</v>
       </c>
@@ -1516,7 +1536,7 @@
       </c>
       <c r="R7" s="4"/>
       <c r="S7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91273830977900028</v>
       </c>
       <c r="T7" s="11">
@@ -1591,6 +1611,10 @@
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.97365648050579556</v>
+      </c>
       <c r="L8" s="9">
         <v>60</v>
       </c>
@@ -1609,7 +1633,7 @@
       </c>
       <c r="R8" s="4"/>
       <c r="S8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91642522843770891</v>
       </c>
       <c r="T8" s="11">
@@ -1684,6 +1708,10 @@
         <f t="shared" si="0"/>
         <v>0.93981481481481477</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.97752808988764039</v>
+      </c>
       <c r="L9" s="9">
         <v>70</v>
       </c>
@@ -1702,7 +1730,7 @@
       </c>
       <c r="R9" s="4"/>
       <c r="S9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92760366771588887</v>
       </c>
       <c r="T9" s="11">
@@ -1960,6 +1988,10 @@
         <f t="shared" si="0"/>
         <v>0.78479763079960518</v>
       </c>
+      <c r="I13">
+        <f>E13/F13</f>
+        <v>0.83327927343496599</v>
+      </c>
       <c r="L13" s="9">
         <v>10</v>
       </c>
@@ -1978,7 +2010,7 @@
       </c>
       <c r="R13" s="4"/>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94281635737677383</v>
       </c>
       <c r="T13" s="11">
@@ -2053,6 +2085,10 @@
         <f t="shared" si="0"/>
         <v>0.7466517857142857</v>
       </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I19" si="3">E14/F14</f>
+        <v>0.79831006612784716</v>
+      </c>
       <c r="L14" s="9">
         <v>20</v>
       </c>
@@ -2071,7 +2107,7 @@
       </c>
       <c r="R14" s="4"/>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93474988623236599</v>
       </c>
       <c r="T14" s="11">
@@ -2146,6 +2182,10 @@
         <f t="shared" si="0"/>
         <v>0.74903969270166448</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.79705263157894735</v>
+      </c>
       <c r="L15" s="9">
         <v>30</v>
       </c>
@@ -2164,7 +2204,7 @@
       </c>
       <c r="R15" s="4"/>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92714758627259519</v>
       </c>
       <c r="T15" s="11">
@@ -2239,6 +2279,10 @@
         <f t="shared" si="0"/>
         <v>0.74521354933726069</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.79166666666666663</v>
+      </c>
       <c r="L16" s="9">
         <v>40</v>
       </c>
@@ -2257,7 +2301,7 @@
       </c>
       <c r="R16" s="4"/>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9204345788918824</v>
       </c>
       <c r="T16" s="11">
@@ -2332,6 +2376,10 @@
         <f t="shared" si="0"/>
         <v>0.74911032028469748</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.79332552693208436</v>
+      </c>
       <c r="L17" s="9">
         <v>50</v>
       </c>
@@ -2350,7 +2398,7 @@
       </c>
       <c r="R17" s="4"/>
       <c r="S17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92974706325054812</v>
       </c>
       <c r="T17" s="11">
@@ -2425,6 +2473,10 @@
         <f t="shared" si="0"/>
         <v>0.75110132158590304</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.79869659666908033</v>
+      </c>
       <c r="L18" s="9">
         <v>60</v>
       </c>
@@ -2443,7 +2495,7 @@
       </c>
       <c r="R18" s="4"/>
       <c r="S18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92438002095703808</v>
       </c>
       <c r="T18" s="11">
@@ -2518,6 +2570,10 @@
         <f t="shared" si="0"/>
         <v>0.75516224188790559</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.80058083252662149</v>
+      </c>
       <c r="L19" s="9">
         <v>70</v>
       </c>
@@ -2536,7 +2592,7 @@
       </c>
       <c r="R19" s="4"/>
       <c r="S19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93839206934136088</v>
       </c>
       <c r="T19" s="11">
@@ -2837,6 +2893,10 @@
         <f t="shared" si="0"/>
         <v>0.86561381188457154</v>
       </c>
+      <c r="I24">
+        <f>E24/F24</f>
+        <v>0.87934154671092524</v>
+      </c>
       <c r="L24" s="9">
         <v>10</v>
       </c>
@@ -2855,7 +2915,7 @@
       </c>
       <c r="R24" s="4"/>
       <c r="S24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97005158796585156</v>
       </c>
       <c r="T24" s="11">
@@ -2926,6 +2986,10 @@
         <f t="shared" si="0"/>
         <v>0.85290717563375129</v>
       </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I30" si="4">E25/F25</f>
+        <v>0.87110148404074395</v>
+      </c>
       <c r="L25" s="9">
         <v>20</v>
       </c>
@@ -2944,7 +3008,7 @@
       </c>
       <c r="R25" s="4"/>
       <c r="S25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92761616380087231</v>
       </c>
       <c r="T25" s="11">
@@ -3015,6 +3079,10 @@
         <f t="shared" si="0"/>
         <v>0.89560291522409774</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0.90800302540935018</v>
+      </c>
       <c r="L26" s="9">
         <v>30</v>
       </c>
@@ -3033,7 +3101,7 @@
       </c>
       <c r="R26" s="4"/>
       <c r="S26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99833165681199243</v>
       </c>
       <c r="T26" s="11">
@@ -3104,6 +3172,10 @@
         <f t="shared" si="0"/>
         <v>0.88347394618623509</v>
       </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0.89704541352812106</v>
+      </c>
       <c r="L27" s="9">
         <v>40</v>
       </c>
@@ -3122,7 +3194,7 @@
       </c>
       <c r="R27" s="4"/>
       <c r="S27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0396343261574756</v>
       </c>
       <c r="T27" s="11">
@@ -3193,6 +3265,10 @@
         <f t="shared" si="0"/>
         <v>0.86878269183899215</v>
       </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>0.88599804327546583</v>
+      </c>
       <c r="L28" s="9">
         <v>50</v>
       </c>
@@ -3211,7 +3287,7 @@
       </c>
       <c r="R28" s="4"/>
       <c r="S28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0164883103933335</v>
       </c>
       <c r="T28" s="11">
@@ -3282,6 +3358,10 @@
         <f t="shared" si="0"/>
         <v>0.85995613421064909</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>0.87882552390255642</v>
+      </c>
       <c r="L29" s="9">
         <v>60</v>
       </c>
@@ -3300,7 +3380,7 @@
       </c>
       <c r="R29" s="4"/>
       <c r="S29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0032894736842106</v>
       </c>
       <c r="T29" s="11">
@@ -3371,6 +3451,10 @@
         <f t="shared" si="0"/>
         <v>0.85960548750919019</v>
       </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0.87853205259084455</v>
+      </c>
       <c r="L30" s="9">
         <v>70</v>
       </c>
@@ -3389,7 +3473,7 @@
       </c>
       <c r="R30" s="4"/>
       <c r="S30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98583736907309383</v>
       </c>
       <c r="T30" s="11">
@@ -3508,11 +3592,11 @@
       <c r="V34" s="5">
         <v>380426</v>
       </c>
-      <c r="X34" s="52" t="s">
+      <c r="X34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
@@ -3536,6 +3620,10 @@
         <f t="shared" si="0"/>
         <v>0.96937547850814831</v>
       </c>
+      <c r="I35">
+        <f>E35/F35</f>
+        <v>0.97946095015151757</v>
+      </c>
       <c r="L35" s="9">
         <v>10</v>
       </c>
@@ -3554,7 +3642,7 @@
       </c>
       <c r="R35" s="4"/>
       <c r="S35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91806338946988097</v>
       </c>
       <c r="T35" s="11">
@@ -3598,6 +3686,10 @@
         <f t="shared" si="0"/>
         <v>0.938671731405465</v>
       </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I41" si="5">E36/F36</f>
+        <v>0.94855357431449661</v>
+      </c>
       <c r="L36" s="9">
         <v>20</v>
       </c>
@@ -3616,7 +3708,7 @@
       </c>
       <c r="R36" s="4"/>
       <c r="S36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9481189038550859</v>
       </c>
       <c r="T36" s="11">
@@ -3660,6 +3752,10 @@
         <f t="shared" si="0"/>
         <v>0.91653671435351547</v>
       </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>0.93455393862701674</v>
+      </c>
       <c r="L37" s="9">
         <v>30</v>
       </c>
@@ -3678,7 +3774,7 @@
       </c>
       <c r="R37" s="4"/>
       <c r="S37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95558599099980435</v>
       </c>
       <c r="T37" s="11">
@@ -3722,6 +3818,10 @@
         <f t="shared" si="0"/>
         <v>0.8863237359550562</v>
       </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>0.90608777725342138</v>
+      </c>
       <c r="L38" s="9">
         <v>40</v>
       </c>
@@ -3740,7 +3840,7 @@
       </c>
       <c r="R38" s="4"/>
       <c r="S38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93420839410144219</v>
       </c>
       <c r="T38" s="11">
@@ -3784,6 +3884,10 @@
         <f t="shared" si="0"/>
         <v>0.8841210403805283</v>
       </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>0.90838183236335268</v>
+      </c>
       <c r="L39" s="9">
         <v>50</v>
       </c>
@@ -3802,7 +3906,7 @@
       </c>
       <c r="R39" s="4"/>
       <c r="S39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91336842528227591</v>
       </c>
       <c r="T39" s="11">
@@ -3846,6 +3950,10 @@
         <f t="shared" si="0"/>
         <v>0.88928444286222852</v>
       </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>0.9110708436421926</v>
+      </c>
       <c r="L40" s="9">
         <v>60</v>
       </c>
@@ -3864,7 +3972,7 @@
       </c>
       <c r="R40" s="4"/>
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91347728203029066</v>
       </c>
       <c r="T40" s="11">
@@ -3909,7 +4017,7 @@
         <v>0.85328681601175171</v>
       </c>
       <c r="I41">
-        <f>E41/F41</f>
+        <f t="shared" si="5"/>
         <v>0.87996464674363362</v>
       </c>
       <c r="L41" s="9">
@@ -3930,7 +4038,7 @@
       </c>
       <c r="R41" s="4"/>
       <c r="S41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90933572710951527</v>
       </c>
       <c r="T41" s="11">
@@ -4041,6 +4149,10 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="H46">
+        <f>AVERAGE(F52:G58,M52:N58,H62:I68,S62:T68,H72:I78,H83:I89,H94:I100,S94:T100)</f>
+        <v>0.86549952322246837</v>
+      </c>
       <c r="T46" s="11">
         <v>40</v>
       </c>
@@ -4061,6 +4173,10 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="H47">
+        <f>1-H46</f>
+        <v>0.13450047677753163</v>
+      </c>
       <c r="T47" s="11">
         <v>40</v>
       </c>
@@ -4285,11 +4401,11 @@
         <v>215537</v>
       </c>
       <c r="F53" s="48">
-        <f t="shared" ref="F53:F58" si="2">B53/C53</f>
+        <f t="shared" ref="F53:F58" si="6">B53/C53</f>
         <v>0.84868528864059589</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G53:G58" si="3">D53/E53</f>
+        <f t="shared" ref="G53:G58" si="7">D53/E53</f>
         <v>0.88810737831555608</v>
       </c>
       <c r="H53" s="21">
@@ -4308,11 +4424,11 @@
         <v>2301960</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M58" si="4">I53/J53</f>
+        <f t="shared" ref="M53:M58" si="8">I53/J53</f>
         <v>0.86747010587592599</v>
       </c>
       <c r="N53">
-        <f t="shared" ref="N53:N58" si="5">K53/L53</f>
+        <f t="shared" ref="N53:N58" si="9">K53/L53</f>
         <v>0.88898851413577995</v>
       </c>
       <c r="T53" s="11">
@@ -4351,11 +4467,11 @@
         <v>188280</v>
       </c>
       <c r="F54" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.83776591207628925</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.87633843212237095</v>
       </c>
       <c r="H54" s="21">
@@ -4374,11 +4490,11 @@
         <v>2013160</v>
       </c>
       <c r="M54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86198278256039984</v>
       </c>
       <c r="N54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.88385622603270475</v>
       </c>
       <c r="T54" s="11">
@@ -4417,11 +4533,11 @@
         <v>163588</v>
       </c>
       <c r="F55" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.83911294279266024</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.87635401129667212</v>
       </c>
       <c r="H55" s="21">
@@ -4440,11 +4556,11 @@
         <v>1725025</v>
       </c>
       <c r="M55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86666473709599612</v>
       </c>
       <c r="N55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.88634483558209298</v>
       </c>
       <c r="T55" s="11">
@@ -4483,11 +4599,11 @@
         <v>135715</v>
       </c>
       <c r="F56" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.84130249716231553</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.87905537339277162</v>
       </c>
       <c r="H56" s="21">
@@ -4506,11 +4622,11 @@
         <v>1458821</v>
       </c>
       <c r="M56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86483733570849464</v>
       </c>
       <c r="N56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.88516617186070123</v>
       </c>
       <c r="T56" s="11">
@@ -4549,11 +4665,11 @@
         <v>106728</v>
       </c>
       <c r="F57" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.82428893905191869</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.86117982160257855</v>
       </c>
       <c r="H57" s="21">
@@ -4572,11 +4688,11 @@
         <v>1164361</v>
       </c>
       <c r="M57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.85498752012076751</v>
       </c>
       <c r="N57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.87711285417495088</v>
       </c>
       <c r="R57">
@@ -4623,11 +4739,11 @@
         <v>81904</v>
       </c>
       <c r="F58" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.82531159363486717</v>
       </c>
       <c r="G58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.86288825942566905</v>
       </c>
       <c r="H58" s="21">
@@ -4646,11 +4762,11 @@
         <v>863298</v>
       </c>
       <c r="M58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.85778635778635781</v>
       </c>
       <c r="N58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.87961283357542819</v>
       </c>
       <c r="R58">
@@ -4843,7 +4959,7 @@
         <v>0.95509489689875837</v>
       </c>
       <c r="T62">
-        <f t="shared" ref="T62:T65" si="6">P62/Q62</f>
+        <f t="shared" ref="T62:T65" si="10">P62/Q62</f>
         <v>0.96293817718291908</v>
       </c>
       <c r="X62" s="11">
@@ -4875,11 +4991,11 @@
       </c>
       <c r="G63" s="22"/>
       <c r="H63">
-        <f t="shared" ref="H63:H124" si="7">B63/C63</f>
+        <f t="shared" ref="H63:H124" si="11">B63/C63</f>
         <v>0.89824561403508774</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I68" si="8">E63/F63</f>
+        <f t="shared" ref="I63:I68" si="12">E63/F63</f>
         <v>0.93716719914802982</v>
       </c>
       <c r="L63" s="21">
@@ -4900,11 +5016,11 @@
       </c>
       <c r="R63" s="22"/>
       <c r="S63">
-        <f t="shared" ref="S63:S124" si="9">M63/N63</f>
+        <f t="shared" ref="S63:S124" si="13">M63/N63</f>
         <v>0.90083188700700223</v>
       </c>
       <c r="T63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.91755157371521923</v>
       </c>
     </row>
@@ -4927,11 +5043,11 @@
       </c>
       <c r="G64" s="22"/>
       <c r="H64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89759036144578308</v>
       </c>
       <c r="I64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.93670115642118079</v>
       </c>
       <c r="L64" s="21">
@@ -4952,11 +5068,11 @@
       </c>
       <c r="R64" s="22"/>
       <c r="S64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89643831782240568</v>
       </c>
       <c r="T64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.91280438311688317</v>
       </c>
     </row>
@@ -4979,11 +5095,11 @@
       </c>
       <c r="G65" s="22"/>
       <c r="H65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.90352941176470591</v>
       </c>
       <c r="I65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.94151212553495012</v>
       </c>
       <c r="L65" s="21">
@@ -5004,11 +5120,11 @@
       </c>
       <c r="R65" s="22"/>
       <c r="S65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.90202794051374491</v>
       </c>
       <c r="T65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.91906891109942135</v>
       </c>
     </row>
@@ -5031,11 +5147,11 @@
       </c>
       <c r="G66" s="22"/>
       <c r="H66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.90140845070422537</v>
       </c>
       <c r="I66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.94011976047904189</v>
       </c>
       <c r="L66" s="21">
@@ -5056,33 +5172,33 @@
       </c>
       <c r="R66" s="22"/>
       <c r="S66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.90800116947665921</v>
       </c>
       <c r="T66">
-        <f t="shared" ref="T66:T89" si="10">P66/Q66</f>
+        <f t="shared" ref="T66:T89" si="14">P66/Q66</f>
         <v>0.92571024734982332</v>
       </c>
-      <c r="V66" s="52" t="s">
+      <c r="V66" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-      <c r="Z66" s="52" t="s">
+      <c r="W66" s="50"/>
+      <c r="X66" s="50"/>
+      <c r="Z66" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="52"/>
-      <c r="AD66" s="52" t="s">
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="50"/>
+      <c r="AD66" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AE66" s="52"/>
-      <c r="AF66" s="52"/>
-      <c r="AH66" s="52" t="s">
+      <c r="AE66" s="50"/>
+      <c r="AF66" s="50"/>
+      <c r="AH66" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AI66" s="52"/>
-      <c r="AJ66" s="52"/>
+      <c r="AI66" s="50"/>
+      <c r="AJ66" s="50"/>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A67" s="21">
@@ -5103,11 +5219,11 @@
       </c>
       <c r="G67" s="22"/>
       <c r="H67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.91166077738515905</v>
       </c>
       <c r="I67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.94759358288770057</v>
       </c>
       <c r="L67" s="21">
@@ -5128,11 +5244,11 @@
       </c>
       <c r="R67" s="22"/>
       <c r="S67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.91959281711083152</v>
       </c>
       <c r="T67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93621372031662264</v>
       </c>
       <c r="V67" s="22">
@@ -5191,11 +5307,11 @@
       </c>
       <c r="G68" s="22"/>
       <c r="H68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.91121495327102808</v>
       </c>
       <c r="I68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.94751773049645394</v>
       </c>
       <c r="L68" s="21">
@@ -5216,11 +5332,11 @@
       </c>
       <c r="R68" s="22"/>
       <c r="S68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.9441395806950893</v>
       </c>
       <c r="T68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.95740755594770188</v>
       </c>
       <c r="V68" s="22">
@@ -5435,13 +5551,17 @@
       </c>
       <c r="G72" s="22"/>
       <c r="H72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71845672575599584</v>
       </c>
       <c r="I72">
         <f>E72/F72</f>
         <v>0.77210884353741494</v>
       </c>
+      <c r="J72">
+        <f>1-I72</f>
+        <v>0.22789115646258506</v>
+      </c>
       <c r="L72" s="21">
         <v>10</v>
       </c>
@@ -5460,11 +5580,11 @@
       </c>
       <c r="R72" s="22"/>
       <c r="S72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.93527742383875823</v>
       </c>
       <c r="T72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.96610303914726225</v>
       </c>
       <c r="V72" s="22">
@@ -5523,12 +5643,16 @@
       </c>
       <c r="G73" s="22"/>
       <c r="H73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71631205673758869</v>
       </c>
       <c r="I73">
-        <f t="shared" ref="I73:I78" si="11">E73/F73</f>
+        <f t="shared" ref="I73:I78" si="15">E73/F73</f>
         <v>0.76902278872151408</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ref="J73:J78" si="16">1-I73</f>
+        <v>0.23097721127848592</v>
       </c>
       <c r="L73" s="21">
         <v>20</v>
@@ -5548,11 +5672,11 @@
       </c>
       <c r="R73" s="22"/>
       <c r="S73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.9238626656246024</v>
       </c>
       <c r="T73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.95983626366986885</v>
       </c>
       <c r="V73" s="22">
@@ -5611,12 +5735,16 @@
       </c>
       <c r="G74" s="22"/>
       <c r="H74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71989174560216507</v>
       </c>
       <c r="I74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.77286787450287231</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="16"/>
+        <v>0.22713212549712769</v>
       </c>
       <c r="L74" s="21">
         <v>30</v>
@@ -5636,11 +5764,11 @@
       </c>
       <c r="R74" s="22"/>
       <c r="S74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94830929885629045</v>
       </c>
       <c r="T74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.98283231580652208</v>
       </c>
       <c r="V74" s="22">
@@ -5699,12 +5827,16 @@
       </c>
       <c r="G75" s="22"/>
       <c r="H75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71924290220820186</v>
       </c>
       <c r="I75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.76867594023699126</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="16"/>
+        <v>0.23132405976300874</v>
       </c>
       <c r="L75" s="21">
         <v>40</v>
@@ -5724,11 +5856,11 @@
       </c>
       <c r="R75" s="22"/>
       <c r="S75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94394440362478571</v>
       </c>
       <c r="T75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.98131942988891219</v>
       </c>
       <c r="V75" s="22">
@@ -5787,12 +5919,16 @@
       </c>
       <c r="G76" s="22"/>
       <c r="H76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.72137404580152675</v>
       </c>
       <c r="I76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.76995012468827928</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="16"/>
+        <v>0.23004987531172072</v>
       </c>
       <c r="L76" s="21">
         <v>50</v>
@@ -5812,11 +5948,11 @@
       </c>
       <c r="R76" s="22"/>
       <c r="S76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94834174969291662</v>
       </c>
       <c r="T76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.98235758883835655</v>
       </c>
       <c r="V76" s="22">
@@ -5875,12 +6011,16 @@
       </c>
       <c r="G77" s="22"/>
       <c r="H77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.72355769230769229</v>
       </c>
       <c r="I77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.77454831107619793</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="16"/>
+        <v>0.22545168892380207</v>
       </c>
       <c r="L77" s="21">
         <v>60</v>
@@ -5900,11 +6040,11 @@
       </c>
       <c r="R77" s="22"/>
       <c r="S77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94631179402753007</v>
       </c>
       <c r="T77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.98179896665100985</v>
       </c>
       <c r="V77" s="22">
@@ -5963,12 +6103,16 @@
       </c>
       <c r="G78" s="22"/>
       <c r="H78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71974522292993626</v>
       </c>
       <c r="I78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.77027027027027029</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="16"/>
+        <v>0.22972972972972971</v>
       </c>
       <c r="L78" s="21">
         <v>70</v>
@@ -5988,11 +6132,11 @@
       </c>
       <c r="R78" s="22"/>
       <c r="S78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.95625347415230688</v>
       </c>
       <c r="T78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.9867428105241689</v>
       </c>
       <c r="V78" s="22">
@@ -6245,7 +6389,7 @@
       </c>
       <c r="G83" s="22"/>
       <c r="H83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.77205537434409333</v>
       </c>
       <c r="I83">
@@ -6270,11 +6414,11 @@
       </c>
       <c r="R83" s="22"/>
       <c r="S83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.93826676788206775</v>
       </c>
       <c r="T83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.94820748077552264</v>
       </c>
       <c r="V83" s="22">
@@ -6333,11 +6477,11 @@
       </c>
       <c r="G84" s="22"/>
       <c r="H84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.76026945486081421</v>
       </c>
       <c r="I84">
-        <f t="shared" ref="I84:I89" si="12">E84/F84</f>
+        <f t="shared" ref="I84:I89" si="17">E84/F84</f>
         <v>0.79188949121069119</v>
       </c>
       <c r="L84" s="22">
@@ -6358,11 +6502,11 @@
       </c>
       <c r="R84" s="22"/>
       <c r="S84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.90347292662899092</v>
       </c>
       <c r="T84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.92170533967011459</v>
       </c>
       <c r="V84" s="22">
@@ -6421,11 +6565,11 @@
       </c>
       <c r="G85" s="22"/>
       <c r="H85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8124643646831412</v>
       </c>
       <c r="I85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.8352812150120078</v>
       </c>
       <c r="L85" s="22">
@@ -6446,11 +6590,11 @@
       </c>
       <c r="R85" s="22"/>
       <c r="S85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.0198433137249587</v>
       </c>
       <c r="T85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.0230941458297453</v>
       </c>
       <c r="V85" s="22">
@@ -6509,11 +6653,11 @@
       </c>
       <c r="G86" s="22"/>
       <c r="H86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.79860824867250202</v>
       </c>
       <c r="I86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.82358134371137559</v>
       </c>
       <c r="L86" s="22">
@@ -6534,11 +6678,11 @@
       </c>
       <c r="R86" s="22"/>
       <c r="S86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.022730546973796</v>
       </c>
       <c r="T86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.0223142174101663</v>
       </c>
       <c r="V86" s="22">
@@ -6597,11 +6741,11 @@
       </c>
       <c r="G87" s="22"/>
       <c r="H87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.78233622103006373</v>
       </c>
       <c r="I87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.81118789744185371</v>
       </c>
       <c r="L87" s="22">
@@ -6622,11 +6766,11 @@
       </c>
       <c r="R87" s="22"/>
       <c r="S87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.99159598625856415</v>
       </c>
       <c r="T87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.99855999013845387</v>
       </c>
       <c r="V87" s="22">
@@ -6685,11 +6829,11 @@
       </c>
       <c r="G88" s="22"/>
       <c r="H88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.77623415160507148</v>
       </c>
       <c r="I88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.80710684132632637</v>
       </c>
       <c r="L88" s="22">
@@ -6710,11 +6854,11 @@
       </c>
       <c r="R88" s="22"/>
       <c r="S88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.98443598632694129</v>
       </c>
       <c r="T88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.99262126190343603</v>
       </c>
       <c r="V88" s="22">
@@ -6773,11 +6917,11 @@
       </c>
       <c r="G89" s="22"/>
       <c r="H89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.77717074119706897</v>
       </c>
       <c r="I89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.80671473308571839</v>
       </c>
       <c r="L89" s="22">
@@ -6798,11 +6942,11 @@
       </c>
       <c r="R89" s="22"/>
       <c r="S89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.95505207381691948</v>
       </c>
       <c r="T89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.96790957288586377</v>
       </c>
       <c r="V89" s="22">
@@ -7055,13 +7199,17 @@
       </c>
       <c r="G94" s="22"/>
       <c r="H94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.95139047184864367</v>
       </c>
       <c r="I94">
         <f>E94/F94</f>
         <v>0.966972658503222</v>
       </c>
+      <c r="J94">
+        <f>1-H94</f>
+        <v>4.8609528151356329E-2</v>
+      </c>
       <c r="L94" s="21">
         <v>10</v>
       </c>
@@ -7080,7 +7228,7 @@
       </c>
       <c r="R94" s="22"/>
       <c r="S94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.9228441439185241</v>
       </c>
       <c r="T94">
@@ -7143,12 +7291,16 @@
       </c>
       <c r="G95" s="22"/>
       <c r="H95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.87403350515463918</v>
       </c>
       <c r="I95">
-        <f t="shared" ref="I95:I100" si="13">E95/F95</f>
+        <f t="shared" ref="I95:I100" si="18">E95/F95</f>
         <v>0.89681874872023981</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ref="J95:J100" si="19">1-H95</f>
+        <v>0.12596649484536082</v>
       </c>
       <c r="L95" s="21">
         <v>20</v>
@@ -7168,11 +7320,11 @@
       </c>
       <c r="R95" s="22"/>
       <c r="S95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.0054066402680475</v>
       </c>
       <c r="T95">
-        <f t="shared" ref="T95:T100" si="14">P95/Q95</f>
+        <f t="shared" ref="T95:T100" si="20">P95/Q95</f>
         <v>0.94951240412739102</v>
       </c>
     </row>
@@ -7195,12 +7347,16 @@
       </c>
       <c r="G96" s="22"/>
       <c r="H96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86504019179241287</v>
       </c>
       <c r="I96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.89200946965864714</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="19"/>
+        <v>0.13495980820758713</v>
       </c>
       <c r="L96" s="21">
         <v>30</v>
@@ -7220,11 +7376,11 @@
       </c>
       <c r="R96" s="22"/>
       <c r="S96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.0101583866798907</v>
       </c>
       <c r="T96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.94834337349397591</v>
       </c>
     </row>
@@ -7247,12 +7403,16 @@
       </c>
       <c r="G97" s="22"/>
       <c r="H97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.82435575402363015</v>
       </c>
       <c r="I97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.85465450661408271</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="19"/>
+        <v>0.17564424597636985</v>
       </c>
       <c r="L97" s="21">
         <v>40</v>
@@ -7272,33 +7432,33 @@
       </c>
       <c r="R97" s="22"/>
       <c r="S97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.99582328160443601</v>
       </c>
       <c r="T97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.93338055286758914</v>
       </c>
-      <c r="V97" s="52" t="s">
+      <c r="V97" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="W97" s="52"/>
-      <c r="X97" s="52"/>
-      <c r="Z97" s="52" t="s">
+      <c r="W97" s="50"/>
+      <c r="X97" s="50"/>
+      <c r="Z97" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AA97" s="52"/>
-      <c r="AB97" s="52"/>
-      <c r="AD97" s="52" t="s">
+      <c r="AA97" s="50"/>
+      <c r="AB97" s="50"/>
+      <c r="AD97" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AE97" s="52"/>
-      <c r="AF97" s="52"/>
-      <c r="AH97" s="52" t="s">
+      <c r="AE97" s="50"/>
+      <c r="AF97" s="50"/>
+      <c r="AH97" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AI97" s="52"/>
-      <c r="AJ97" s="52"/>
+      <c r="AI97" s="50"/>
+      <c r="AJ97" s="50"/>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A98" s="21">
@@ -7319,12 +7479,16 @@
       </c>
       <c r="G98" s="22"/>
       <c r="H98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.83441523890603386</v>
       </c>
       <c r="I98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.86650085496657858</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="19"/>
+        <v>0.16558476109396614</v>
       </c>
       <c r="L98" s="21">
         <v>50</v>
@@ -7344,11 +7508,11 @@
       </c>
       <c r="R98" s="22"/>
       <c r="S98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.96433839479392625</v>
       </c>
       <c r="T98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.90902328706314262</v>
       </c>
       <c r="V98" s="22">
@@ -7407,12 +7571,16 @@
       </c>
       <c r="G99" s="22"/>
       <c r="H99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.83706874842608914</v>
       </c>
       <c r="I99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.86977878038131273</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="19"/>
+        <v>0.16293125157391086</v>
       </c>
       <c r="L99" s="21">
         <v>60</v>
@@ -7432,11 +7600,11 @@
       </c>
       <c r="R99" s="22"/>
       <c r="S99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.90766389658356417</v>
       </c>
       <c r="T99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.85481852315394247</v>
       </c>
       <c r="V99" s="22">
@@ -7495,12 +7663,16 @@
       </c>
       <c r="G100" s="22"/>
       <c r="H100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.77458180334557325</v>
       </c>
       <c r="I100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.81280577299412915</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="19"/>
+        <v>0.22541819665442675</v>
       </c>
       <c r="L100" s="21">
         <v>70</v>
@@ -7520,11 +7692,11 @@
       </c>
       <c r="R100" s="22"/>
       <c r="S100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.91508752932683635</v>
       </c>
       <c r="T100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.85336273428886433</v>
       </c>
       <c r="V100" s="22">
@@ -7900,7 +8072,7 @@
       </c>
       <c r="G108" s="27"/>
       <c r="H108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.85534591194968557</v>
       </c>
       <c r="I108">
@@ -7925,7 +8097,7 @@
       </c>
       <c r="R108" s="27"/>
       <c r="S108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94730730952117659</v>
       </c>
       <c r="T108">
@@ -7988,11 +8160,11 @@
       </c>
       <c r="G109" s="27"/>
       <c r="H109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89103690685413006</v>
       </c>
       <c r="I109">
-        <f t="shared" ref="I109:I114" si="15">E109/F109</f>
+        <f t="shared" ref="I109:I114" si="21">E109/F109</f>
         <v>0.92914224826851355</v>
       </c>
       <c r="L109" s="26">
@@ -8013,11 +8185,11 @@
       </c>
       <c r="R109" s="27"/>
       <c r="S109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.88689255999035332</v>
       </c>
       <c r="T109">
-        <f t="shared" ref="T109:T114" si="16">P109/Q109</f>
+        <f t="shared" ref="T109:T114" si="22">P109/Q109</f>
         <v>0.90524753339736319</v>
       </c>
       <c r="V109" s="22">
@@ -8076,11 +8248,11 @@
       </c>
       <c r="G110" s="27"/>
       <c r="H110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89156626506024095</v>
       </c>
       <c r="I110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.93004866180048662</v>
       </c>
       <c r="L110" s="26">
@@ -8101,11 +8273,11 @@
       </c>
       <c r="R110" s="27"/>
       <c r="S110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.87670748106730834</v>
       </c>
       <c r="T110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.8995232931644741</v>
       </c>
       <c r="V110" s="22">
@@ -8164,11 +8336,11 @@
       </c>
       <c r="G111" s="27"/>
       <c r="H111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8906976744186047</v>
       </c>
       <c r="I111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.92877291960507757</v>
       </c>
       <c r="L111" s="26">
@@ -8189,11 +8361,11 @@
       </c>
       <c r="R111" s="27"/>
       <c r="S111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.88273526180886119</v>
       </c>
       <c r="T111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.90414459499028399</v>
       </c>
       <c r="V111" s="22">
@@ -8252,11 +8424,11 @@
       </c>
       <c r="G112" s="27"/>
       <c r="H112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8966480446927374</v>
       </c>
       <c r="I112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.93220338983050843</v>
       </c>
       <c r="L112" s="26">
@@ -8277,11 +8449,11 @@
       </c>
       <c r="R112" s="27"/>
       <c r="S112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.88646936553498956</v>
       </c>
       <c r="T112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.90956929588743352</v>
       </c>
       <c r="V112" s="22">
@@ -8340,11 +8512,11 @@
       </c>
       <c r="G113" s="27"/>
       <c r="H113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="I113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.93092454835281613</v>
       </c>
       <c r="L113" s="26">
@@ -8365,11 +8537,11 @@
       </c>
       <c r="R113" s="27"/>
       <c r="S113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.8979662986635677</v>
       </c>
       <c r="T113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.92071013815657743</v>
       </c>
       <c r="V113" s="22">
@@ -8428,11 +8600,11 @@
       </c>
       <c r="G114" s="27"/>
       <c r="H114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89400921658986177</v>
       </c>
       <c r="I114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.93006993006993011</v>
       </c>
       <c r="L114" s="26">
@@ -8453,11 +8625,11 @@
       </c>
       <c r="R114" s="27"/>
       <c r="S114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.92571346622687511</v>
       </c>
       <c r="T114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.9444241018755849</v>
       </c>
       <c r="V114" s="22">
@@ -8672,7 +8844,7 @@
       </c>
       <c r="G118" s="27"/>
       <c r="H118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.7120418848167539</v>
       </c>
       <c r="I118">
@@ -8697,7 +8869,7 @@
       </c>
       <c r="R118" s="27"/>
       <c r="S118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.93449513070220402</v>
       </c>
       <c r="T118">
@@ -8760,11 +8932,11 @@
       </c>
       <c r="G119" s="27"/>
       <c r="H119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71140142517814731</v>
       </c>
       <c r="I119">
-        <f t="shared" ref="I119:I124" si="17">E119/F119</f>
+        <f t="shared" ref="I119:I124" si="23">E119/F119</f>
         <v>0.76338246702870438</v>
       </c>
       <c r="L119" s="26">
@@ -8785,11 +8957,11 @@
       </c>
       <c r="R119" s="27"/>
       <c r="S119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.91956052944675792</v>
       </c>
       <c r="T119">
-        <f t="shared" ref="T119:T124" si="18">P119/Q119</f>
+        <f t="shared" ref="T119:T124" si="24">P119/Q119</f>
         <v>0.95534382937589335</v>
       </c>
       <c r="V119" s="22">
@@ -8848,11 +9020,11 @@
       </c>
       <c r="G120" s="27"/>
       <c r="H120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71312584573748306</v>
       </c>
       <c r="I120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.76623950508174987</v>
       </c>
       <c r="L120" s="26">
@@ -8873,11 +9045,11 @@
       </c>
       <c r="R120" s="27"/>
       <c r="S120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94556011968152542</v>
       </c>
       <c r="T120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.980706266702011</v>
       </c>
       <c r="V120" s="22">
@@ -8936,11 +9108,11 @@
       </c>
       <c r="G121" s="27"/>
       <c r="H121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71202531645569622</v>
       </c>
       <c r="I121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.76175710594315249</v>
       </c>
       <c r="L121" s="26">
@@ -8961,11 +9133,11 @@
       </c>
       <c r="R121" s="27"/>
       <c r="S121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94190157369458438</v>
       </c>
       <c r="T121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.97930561615657918</v>
       </c>
       <c r="V121" s="22">
@@ -9024,11 +9196,11 @@
       </c>
       <c r="G122" s="27"/>
       <c r="H122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71238095238095234</v>
       </c>
       <c r="I122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.76104542626011196</v>
       </c>
       <c r="L122" s="26">
@@ -9049,11 +9221,11 @@
       </c>
       <c r="R122" s="27"/>
       <c r="S122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94721642310368825</v>
       </c>
       <c r="T122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.98121715943847543</v>
       </c>
       <c r="V122" s="22">
@@ -9112,11 +9284,11 @@
       </c>
       <c r="G123" s="27"/>
       <c r="H123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.71158392434988182</v>
       </c>
       <c r="I123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.76334106728538287</v>
       </c>
       <c r="L123" s="26">
@@ -9137,11 +9309,11 @@
       </c>
       <c r="R123" s="27"/>
       <c r="S123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94450677886863021</v>
       </c>
       <c r="T123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.98004098251590066</v>
       </c>
       <c r="V123" s="22">
@@ -9200,11 +9372,11 @@
       </c>
       <c r="G124" s="27"/>
       <c r="H124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.70347003154574128</v>
       </c>
       <c r="I124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.75438596491228072</v>
       </c>
       <c r="L124" s="26">
@@ -9225,11 +9397,11 @@
       </c>
       <c r="R124" s="27"/>
       <c r="S124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94307241523650065</v>
       </c>
       <c r="T124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.98097315639580684</v>
       </c>
       <c r="V124" s="22">
@@ -9351,16 +9523,16 @@
       <c r="R128" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="V128" s="52" t="s">
+      <c r="V128" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="W128" s="52"/>
-      <c r="X128" s="52"/>
-      <c r="Z128" s="52" t="s">
+      <c r="W128" s="50"/>
+      <c r="X128" s="50"/>
+      <c r="Z128" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AA128" s="52"/>
-      <c r="AB128" s="52"/>
+      <c r="AA128" s="50"/>
+      <c r="AB128" s="50"/>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A129" s="26">
@@ -9381,7 +9553,7 @@
       </c>
       <c r="G129" s="27"/>
       <c r="H129">
-        <f t="shared" ref="H129:H190" si="19">B129/C129</f>
+        <f t="shared" ref="H129:H190" si="25">B129/C129</f>
         <v>0.75552791065068892</v>
       </c>
       <c r="I129">
@@ -9406,7 +9578,7 @@
       </c>
       <c r="R129" s="27"/>
       <c r="S129">
-        <f t="shared" ref="S129:S190" si="20">M129/N129</f>
+        <f t="shared" ref="S129:S190" si="26">M129/N129</f>
         <v>0.92011360446491963</v>
       </c>
       <c r="T129">
@@ -9451,11 +9623,11 @@
       </c>
       <c r="G130" s="27"/>
       <c r="H130">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.7451966584379367</v>
       </c>
       <c r="I130">
-        <f t="shared" ref="I130:I135" si="21">E130/F130</f>
+        <f t="shared" ref="I130:I135" si="27">E130/F130</f>
         <v>0.77879022200508041</v>
       </c>
       <c r="L130" s="27">
@@ -9476,11 +9648,11 @@
       </c>
       <c r="R130" s="27"/>
       <c r="S130">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.87839044218203921</v>
       </c>
       <c r="T130">
-        <f t="shared" ref="T130:T134" si="22">P130/Q130</f>
+        <f t="shared" ref="T130:T134" si="28">P130/Q130</f>
         <v>0.90345734840698866</v>
       </c>
       <c r="V130" s="22">
@@ -9521,11 +9693,11 @@
       </c>
       <c r="G131" s="27"/>
       <c r="H131">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.7930805382269841</v>
       </c>
       <c r="I131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.81886834186792867</v>
       </c>
       <c r="L131" s="27">
@@ -9546,11 +9718,11 @@
       </c>
       <c r="R131" s="27"/>
       <c r="S131">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.99100812041988517</v>
       </c>
       <c r="T131">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1.0006852313607553</v>
       </c>
       <c r="V131" s="22">
@@ -9591,11 +9763,11 @@
       </c>
       <c r="G132" s="27"/>
       <c r="H132">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.78413308052571018</v>
       </c>
       <c r="I132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.81157069543587723</v>
       </c>
       <c r="L132" s="27">
@@ -9616,11 +9788,11 @@
       </c>
       <c r="R132" s="27"/>
       <c r="S132">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0057082088735281</v>
       </c>
       <c r="T132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1.0097589288124611</v>
       </c>
       <c r="V132" s="22">
@@ -9661,11 +9833,11 @@
       </c>
       <c r="G133" s="27"/>
       <c r="H133">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.76537973641654322</v>
       </c>
       <c r="I133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.79696346451597999</v>
       </c>
       <c r="L133" s="27">
@@ -9686,11 +9858,11 @@
       </c>
       <c r="R133" s="27"/>
       <c r="S133">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.97591544414924336</v>
       </c>
       <c r="T133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.987725503675696</v>
       </c>
       <c r="V133" s="22">
@@ -9731,11 +9903,11 @@
       </c>
       <c r="G134" s="27"/>
       <c r="H134">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.75717081487351268</v>
       </c>
       <c r="I134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.79017660478992591</v>
       </c>
       <c r="L134" s="27">
@@ -9756,11 +9928,11 @@
       </c>
       <c r="R134" s="27"/>
       <c r="S134">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.97116496494033711</v>
       </c>
       <c r="T134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.98447940455045246</v>
       </c>
       <c r="V134" s="22">
@@ -9801,11 +9973,11 @@
       </c>
       <c r="G135" s="27"/>
       <c r="H135">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.75686620550557016</v>
       </c>
       <c r="I135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.78962533313905114</v>
       </c>
       <c r="L135" s="27">
@@ -9977,7 +10149,7 @@
       </c>
       <c r="G140" s="27"/>
       <c r="H140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.95084432107332872</v>
       </c>
       <c r="I140">
@@ -10002,7 +10174,7 @@
       </c>
       <c r="R140" s="27"/>
       <c r="S140">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.91083097938361646</v>
       </c>
       <c r="T140">
@@ -10047,11 +10219,11 @@
       </c>
       <c r="G141" s="27"/>
       <c r="H141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.8563694475246233</v>
       </c>
       <c r="I141">
-        <f t="shared" ref="I141:I146" si="23">E141/F141</f>
+        <f t="shared" ref="I141:I146" si="29">E141/F141</f>
         <v>0.88275784458990569</v>
       </c>
       <c r="L141" s="26">
@@ -10072,11 +10244,11 @@
       </c>
       <c r="R141" s="27"/>
       <c r="S141">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.026763801699863</v>
       </c>
       <c r="T141">
-        <f t="shared" ref="T141:T146" si="24">P141/Q141</f>
+        <f t="shared" ref="T141:T146" si="30">P141/Q141</f>
         <v>0.95878052462457497</v>
       </c>
       <c r="V141" s="22">
@@ -10117,11 +10289,11 @@
       </c>
       <c r="G142" s="27"/>
       <c r="H142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.85505072153164741</v>
       </c>
       <c r="I142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.88366447717351393</v>
       </c>
       <c r="L142" s="26">
@@ -10142,11 +10314,11 @@
       </c>
       <c r="R142" s="27"/>
       <c r="S142">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0511591685137482</v>
       </c>
       <c r="T142">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.97724075353584128</v>
       </c>
       <c r="V142" s="22">
@@ -10187,11 +10359,11 @@
       </c>
       <c r="G143" s="27"/>
       <c r="H143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.80583996966249527</v>
       </c>
       <c r="I143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.840052232378518</v>
       </c>
       <c r="L143" s="26">
@@ -10212,11 +10384,11 @@
       </c>
       <c r="R143" s="27"/>
       <c r="S143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0243243243243243</v>
       </c>
       <c r="T143">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.95457850598671767</v>
       </c>
       <c r="V143" s="22">
@@ -10257,11 +10429,11 @@
       </c>
       <c r="G144" s="27"/>
       <c r="H144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.82336926930197107</v>
       </c>
       <c r="I144">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.85961690675953772</v>
       </c>
       <c r="L144" s="26">
@@ -10282,11 +10454,11 @@
       </c>
       <c r="R144" s="27"/>
       <c r="S144">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.98898916188091024</v>
       </c>
       <c r="T144">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.92488106168099493</v>
       </c>
       <c r="V144" s="22">
@@ -10327,11 +10499,11 @@
       </c>
       <c r="G145" s="27"/>
       <c r="H145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.82727860374919193</v>
       </c>
       <c r="I145">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.86209713352146145</v>
       </c>
       <c r="L145" s="26">
@@ -10352,11 +10524,11 @@
       </c>
       <c r="R145" s="27"/>
       <c r="S145">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.9234328726554788</v>
       </c>
       <c r="T145">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.8685939778673758</v>
       </c>
       <c r="V145" s="22">
@@ -10397,11 +10569,11 @@
       </c>
       <c r="G146" s="27"/>
       <c r="H146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.75913338997451152</v>
       </c>
       <c r="I146">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.7896244430299173</v>
       </c>
       <c r="L146" s="26">
@@ -10422,11 +10594,11 @@
       </c>
       <c r="R146" s="27"/>
       <c r="S146">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.91441202475685235</v>
       </c>
       <c r="T146">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.85484900564694333</v>
       </c>
       <c r="V146" s="22">
@@ -10694,7 +10866,7 @@
       </c>
       <c r="G155" s="17"/>
       <c r="H155">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.91959064327485385</v>
       </c>
       <c r="L155" s="16">
@@ -10715,7 +10887,7 @@
       </c>
       <c r="R155" s="17"/>
       <c r="S155">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.98332313341493272</v>
       </c>
       <c r="V155" s="22">
@@ -10756,7 +10928,7 @@
       </c>
       <c r="G156" s="17"/>
       <c r="H156">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.91611842105263153</v>
       </c>
       <c r="L156" s="16">
@@ -10777,7 +10949,7 @@
       </c>
       <c r="R156" s="17"/>
       <c r="S156">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.95699470183744784</v>
       </c>
       <c r="V156" s="22">
@@ -10818,7 +10990,7 @@
       </c>
       <c r="G157" s="17"/>
       <c r="H157">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.91541353383458646</v>
       </c>
       <c r="L157" s="16">
@@ -10839,7 +11011,7 @@
       </c>
       <c r="R157" s="17"/>
       <c r="S157">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.94278350515463916</v>
       </c>
     </row>
@@ -10862,7 +11034,7 @@
       </c>
       <c r="G158" s="17"/>
       <c r="H158">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.90537634408602152</v>
       </c>
       <c r="L158" s="16">
@@ -10883,7 +11055,7 @@
       </c>
       <c r="R158" s="17"/>
       <c r="S158">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.92592884130982367</v>
       </c>
     </row>
@@ -10906,7 +11078,7 @@
       </c>
       <c r="G159" s="17"/>
       <c r="H159">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.90463917525773196</v>
       </c>
       <c r="L159" s="16">
@@ -10927,7 +11099,7 @@
       </c>
       <c r="R159" s="17"/>
       <c r="S159">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.93217375299098104</v>
       </c>
     </row>
@@ -10950,7 +11122,7 @@
       </c>
       <c r="G160" s="17"/>
       <c r="H160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.91503267973856206</v>
       </c>
       <c r="L160" s="16">
@@ -10971,7 +11143,7 @@
       </c>
       <c r="R160" s="17"/>
       <c r="S160">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.93821334503950837</v>
       </c>
     </row>
@@ -10994,7 +11166,7 @@
       </c>
       <c r="G161" s="17"/>
       <c r="H161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.91703056768558955</v>
       </c>
       <c r="L161" s="16">
@@ -11015,7 +11187,7 @@
       </c>
       <c r="R161" s="17"/>
       <c r="S161">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.93990188062142277</v>
       </c>
     </row>
@@ -11083,7 +11255,7 @@
       </c>
       <c r="G165" s="17"/>
       <c r="H165">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="L165" s="16">
@@ -11104,7 +11276,7 @@
       </c>
       <c r="R165" s="17"/>
       <c r="S165">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.95558731671166164</v>
       </c>
     </row>
@@ -11127,7 +11299,7 @@
       </c>
       <c r="G166" s="17"/>
       <c r="H166">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.81888035126234904</v>
       </c>
       <c r="L166" s="16">
@@ -11148,7 +11320,7 @@
       </c>
       <c r="R166" s="17"/>
       <c r="S166">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.94967567299915823</v>
       </c>
     </row>
@@ -11171,7 +11343,7 @@
       </c>
       <c r="G167" s="17"/>
       <c r="H167">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.81886792452830193</v>
       </c>
       <c r="L167" s="16">
@@ -11192,7 +11364,7 @@
       </c>
       <c r="R167" s="17"/>
       <c r="S167">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.94409083852653519</v>
       </c>
     </row>
@@ -11215,7 +11387,7 @@
       </c>
       <c r="G168" s="17"/>
       <c r="H168">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.81659388646288211</v>
       </c>
       <c r="L168" s="16">
@@ -11236,7 +11408,7 @@
       </c>
       <c r="R168" s="17"/>
       <c r="S168">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.94217677849800652</v>
       </c>
     </row>
@@ -11259,7 +11431,7 @@
       </c>
       <c r="G169" s="17"/>
       <c r="H169">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.82042253521126762</v>
       </c>
       <c r="L169" s="16">
@@ -11280,7 +11452,7 @@
       </c>
       <c r="R169" s="17"/>
       <c r="S169">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.94818320610687024</v>
       </c>
     </row>
@@ -11303,7 +11475,7 @@
       </c>
       <c r="G170" s="17"/>
       <c r="H170">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.81798245614035092</v>
       </c>
       <c r="L170" s="16">
@@ -11324,7 +11496,7 @@
       </c>
       <c r="R170" s="17"/>
       <c r="S170">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.94163660681716854</v>
       </c>
     </row>
@@ -11347,7 +11519,7 @@
       </c>
       <c r="G171" s="17"/>
       <c r="H171">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.81686046511627908</v>
       </c>
       <c r="L171" s="16">
@@ -11368,7 +11540,7 @@
       </c>
       <c r="R171" s="17"/>
       <c r="S171">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.95324877290178356</v>
       </c>
     </row>
@@ -11436,7 +11608,7 @@
       </c>
       <c r="G176" s="17"/>
       <c r="H176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.9202185571998871</v>
       </c>
       <c r="L176" s="17">
@@ -11457,7 +11629,7 @@
       </c>
       <c r="R176" s="17"/>
       <c r="S176">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0164480932579878</v>
       </c>
     </row>
@@ -11480,7 +11652,7 @@
       </c>
       <c r="G177" s="17"/>
       <c r="H177">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.92980022982909993</v>
       </c>
       <c r="L177" s="17">
@@ -11501,7 +11673,7 @@
       </c>
       <c r="R177" s="17"/>
       <c r="S177">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.98089823763501993</v>
       </c>
     </row>
@@ -11524,7 +11696,7 @@
       </c>
       <c r="G178" s="17"/>
       <c r="H178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.97343970392225376</v>
       </c>
       <c r="L178" s="17">
@@ -11545,7 +11717,7 @@
       </c>
       <c r="R178" s="17"/>
       <c r="S178">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.98155418335339029</v>
       </c>
     </row>
@@ -11568,7 +11740,7 @@
       </c>
       <c r="G179" s="17"/>
       <c r="H179">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.9642878660079528</v>
       </c>
       <c r="L179" s="17">
@@ -11589,7 +11761,7 @@
       </c>
       <c r="R179" s="17"/>
       <c r="S179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0600641341884558</v>
       </c>
     </row>
@@ -11612,7 +11784,7 @@
       </c>
       <c r="G180" s="17"/>
       <c r="H180">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.95046699454045025</v>
       </c>
       <c r="L180" s="17">
@@ -11633,7 +11805,7 @@
       </c>
       <c r="R180" s="17"/>
       <c r="S180">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0700058275929052</v>
       </c>
     </row>
@@ -11656,7 +11828,7 @@
       </c>
       <c r="G181" s="17"/>
       <c r="H181">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.94413975218362789</v>
       </c>
       <c r="L181" s="17">
@@ -11677,7 +11849,7 @@
       </c>
       <c r="R181" s="17"/>
       <c r="S181">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0591230811655483</v>
       </c>
     </row>
@@ -11700,7 +11872,7 @@
       </c>
       <c r="G182" s="17"/>
       <c r="H182">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.94092273351130418</v>
       </c>
       <c r="L182" s="17">
@@ -11721,7 +11893,7 @@
       </c>
       <c r="R182" s="17"/>
       <c r="S182">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0665116389435969</v>
       </c>
     </row>
@@ -11789,7 +11961,7 @@
       </c>
       <c r="G187" s="17"/>
       <c r="H187">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.99016237372401761</v>
       </c>
       <c r="L187" s="16">
@@ -11810,7 +11982,7 @@
       </c>
       <c r="R187" s="17"/>
       <c r="S187">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.94351048978548535</v>
       </c>
     </row>
@@ -11833,7 +12005,7 @@
       </c>
       <c r="G188" s="17"/>
       <c r="H188">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.9708812260536398</v>
       </c>
       <c r="L188" s="16">
@@ -11854,7 +12026,7 @@
       </c>
       <c r="R188" s="17"/>
       <c r="S188">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.94138479001135078</v>
       </c>
     </row>
@@ -11877,7 +12049,7 @@
       </c>
       <c r="G189" s="17"/>
       <c r="H189">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.95941106247512931</v>
       </c>
       <c r="L189" s="16">
@@ -11898,7 +12070,7 @@
       </c>
       <c r="R189" s="17"/>
       <c r="S189">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.95479981617150123</v>
       </c>
     </row>
@@ -11921,7 +12093,7 @@
       </c>
       <c r="G190" s="17"/>
       <c r="H190">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.93297655453618755</v>
       </c>
       <c r="L190" s="16">
@@ -11942,7 +12114,7 @@
       </c>
       <c r="R190" s="17"/>
       <c r="S190">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.93178818112049122</v>
       </c>
     </row>
@@ -11965,7 +12137,7 @@
       </c>
       <c r="G191" s="17"/>
       <c r="H191">
-        <f t="shared" ref="H191:H242" si="25">B191/C191</f>
+        <f t="shared" ref="H191:H242" si="31">B191/C191</f>
         <v>0.93475247524752481</v>
       </c>
       <c r="L191" s="16">
@@ -11986,7 +12158,7 @@
       </c>
       <c r="R191" s="17"/>
       <c r="S191">
-        <f t="shared" ref="S191:S242" si="26">M191/N191</f>
+        <f t="shared" ref="S191:S242" si="32">M191/N191</f>
         <v>0.93331652136321064</v>
       </c>
     </row>
@@ -12009,7 +12181,7 @@
       </c>
       <c r="G192" s="17"/>
       <c r="H192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.93502561714019561</v>
       </c>
       <c r="L192" s="16">
@@ -12030,7 +12202,7 @@
       </c>
       <c r="R192" s="17"/>
       <c r="S192">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.91918165989553102</v>
       </c>
     </row>
@@ -12053,7 +12225,7 @@
       </c>
       <c r="G193" s="17"/>
       <c r="H193">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.90846317280453259</v>
       </c>
       <c r="L193" s="16">
@@ -12074,20 +12246,20 @@
       </c>
       <c r="R193" s="17"/>
       <c r="S193">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.92405145530145527</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A201" s="51" t="s">
+      <c r="A201" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B201" s="51"/>
-      <c r="C201" s="51"/>
-      <c r="D201" s="51"/>
-      <c r="E201" s="51"/>
-      <c r="F201" s="51"/>
-      <c r="G201" s="51"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="52"/>
+      <c r="D201" s="52"/>
+      <c r="E201" s="52"/>
+      <c r="F201" s="52"/>
+      <c r="G201" s="52"/>
     </row>
     <row r="202" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="203" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12153,7 +12325,7 @@
       </c>
       <c r="G204" s="34"/>
       <c r="H204">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.975103734439834</v>
       </c>
       <c r="L204" s="32">
@@ -12174,7 +12346,7 @@
       </c>
       <c r="R204" s="34"/>
       <c r="S204">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.0071266110689916</v>
       </c>
     </row>
@@ -12197,7 +12369,7 @@
       </c>
       <c r="G205" s="34"/>
       <c r="H205">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.97515527950310554</v>
       </c>
       <c r="L205" s="32">
@@ -12218,7 +12390,7 @@
       </c>
       <c r="R205" s="34"/>
       <c r="S205">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.98763359632924852</v>
       </c>
     </row>
@@ -12241,7 +12413,7 @@
       </c>
       <c r="G206" s="34"/>
       <c r="H206">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.0230905861456483</v>
       </c>
       <c r="L206" s="32">
@@ -12262,7 +12434,7 @@
       </c>
       <c r="R206" s="34"/>
       <c r="S206">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.97531811496898779</v>
       </c>
     </row>
@@ -12285,7 +12457,7 @@
       </c>
       <c r="G207" s="34"/>
       <c r="H207">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.0269709543568464</v>
       </c>
       <c r="L207" s="32">
@@ -12306,7 +12478,7 @@
       </c>
       <c r="R207" s="34"/>
       <c r="S207">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.9730059478420009</v>
       </c>
     </row>
@@ -12329,7 +12501,7 @@
       </c>
       <c r="G208" s="34"/>
       <c r="H208">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.0249376558603491</v>
       </c>
       <c r="L208" s="32">
@@ -12350,7 +12522,7 @@
       </c>
       <c r="R208" s="34"/>
       <c r="S208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.97543509789702687</v>
       </c>
     </row>
@@ -12373,7 +12545,7 @@
       </c>
       <c r="G209" s="34"/>
       <c r="H209">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.0279503105590062</v>
       </c>
       <c r="L209" s="32">
@@ -12394,7 +12566,7 @@
       </c>
       <c r="R209" s="34"/>
       <c r="S209">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.97636343922801694</v>
       </c>
     </row>
@@ -12417,7 +12589,7 @@
       </c>
       <c r="G210" s="34"/>
       <c r="H210">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.97942386831275718</v>
       </c>
       <c r="L210" s="32">
@@ -12438,7 +12610,7 @@
       </c>
       <c r="R210" s="34"/>
       <c r="S210">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.97714132042490254</v>
       </c>
     </row>
@@ -12506,7 +12678,7 @@
       </c>
       <c r="G214" s="34"/>
       <c r="H214">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.95622568093385218</v>
       </c>
       <c r="L214" s="32">
@@ -12527,7 +12699,7 @@
       </c>
       <c r="R214" s="34"/>
       <c r="S214">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.97281632033207621</v>
       </c>
     </row>
@@ -12550,7 +12722,7 @@
       </c>
       <c r="G215" s="34"/>
       <c r="H215">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.93186813186813189</v>
       </c>
       <c r="L215" s="32">
@@ -12571,7 +12743,7 @@
       </c>
       <c r="R215" s="34"/>
       <c r="S215">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.96874754736528168</v>
       </c>
     </row>
@@ -12594,7 +12766,7 @@
       </c>
       <c r="G216" s="34"/>
       <c r="H216">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.92991239048811014</v>
       </c>
       <c r="L216" s="32">
@@ -12615,7 +12787,7 @@
       </c>
       <c r="R216" s="34"/>
       <c r="S216">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.9658539645366343</v>
       </c>
     </row>
@@ -12638,7 +12810,7 @@
       </c>
       <c r="G217" s="34"/>
       <c r="H217">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.92597968069666181</v>
       </c>
       <c r="L217" s="32">
@@ -12659,7 +12831,7 @@
       </c>
       <c r="R217" s="34"/>
       <c r="S217">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.96501206042909737</v>
       </c>
     </row>
@@ -12682,7 +12854,7 @@
       </c>
       <c r="G218" s="34"/>
       <c r="H218">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.921875</v>
       </c>
       <c r="L218" s="32">
@@ -12703,7 +12875,7 @@
       </c>
       <c r="R218" s="34"/>
       <c r="S218">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.9696917463874285</v>
       </c>
     </row>
@@ -12726,7 +12898,7 @@
       </c>
       <c r="G219" s="34"/>
       <c r="H219">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.9219088937093276</v>
       </c>
       <c r="L219" s="32">
@@ -12747,7 +12919,7 @@
       </c>
       <c r="R219" s="34"/>
       <c r="S219">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.96550415544002122</v>
       </c>
     </row>
@@ -12770,7 +12942,7 @@
       </c>
       <c r="G220" s="34"/>
       <c r="H220">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.92753623188405798</v>
       </c>
       <c r="L220" s="32">
@@ -12791,7 +12963,7 @@
       </c>
       <c r="R220" s="34"/>
       <c r="S220">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.97396048228120846</v>
       </c>
     </row>
@@ -12859,7 +13031,7 @@
       </c>
       <c r="G225" s="34"/>
       <c r="H225">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.96177605029101765</v>
       </c>
       <c r="L225" s="34">
@@ -12880,7 +13052,7 @@
       </c>
       <c r="R225" s="34"/>
       <c r="S225">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.0271276338598176</v>
       </c>
     </row>
@@ -12903,7 +13075,7 @@
       </c>
       <c r="G226" s="34"/>
       <c r="H226">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.96004347947267199</v>
       </c>
       <c r="L226" s="34">
@@ -12924,7 +13096,7 @@
       </c>
       <c r="R226" s="34"/>
       <c r="S226">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.0053173968283846</v>
       </c>
     </row>
@@ -12947,7 +13119,7 @@
       </c>
       <c r="G227" s="34"/>
       <c r="H227">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.0075736808216296</v>
       </c>
       <c r="L227" s="34">
@@ -12968,7 +13140,7 @@
       </c>
       <c r="R227" s="34"/>
       <c r="S227">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.99722333491132875</v>
       </c>
     </row>
@@ -12991,7 +13163,7 @@
       </c>
       <c r="G228" s="34"/>
       <c r="H228">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.99902594264214917</v>
       </c>
       <c r="L228" s="34">
@@ -13012,7 +13184,7 @@
       </c>
       <c r="R228" s="34"/>
       <c r="S228">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.0267973572111624</v>
       </c>
     </row>
@@ -13035,7 +13207,7 @@
       </c>
       <c r="G229" s="34"/>
       <c r="H229">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.98975360496535492</v>
       </c>
       <c r="L229" s="34">
@@ -13056,7 +13228,7 @@
       </c>
       <c r="R229" s="34"/>
       <c r="S229">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.1282473852222885</v>
       </c>
     </row>
@@ -13079,7 +13251,7 @@
       </c>
       <c r="G230" s="34"/>
       <c r="H230">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.98255963067453189</v>
       </c>
       <c r="L230" s="34">
@@ -13100,7 +13272,7 @@
       </c>
       <c r="R230" s="34"/>
       <c r="S230">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.111587773606981</v>
       </c>
     </row>
@@ -13123,7 +13295,7 @@
       </c>
       <c r="G231" s="34"/>
       <c r="H231">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.98022485295212569</v>
       </c>
       <c r="L231" s="34">
@@ -13144,37 +13316,37 @@
       </c>
       <c r="R231" s="34"/>
       <c r="S231">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.1181560432636775</v>
       </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.15">
       <c r="H232" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S232" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.15">
       <c r="H233" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S233" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="234" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H234" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S234" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13201,7 +13373,7 @@
         <v>16</v>
       </c>
       <c r="H235" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#VALUE!</v>
       </c>
       <c r="L235" s="29" t="s">
@@ -13226,7 +13398,7 @@
         <v>16</v>
       </c>
       <c r="S235" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13249,7 +13421,7 @@
       </c>
       <c r="G236" s="34"/>
       <c r="H236">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.0240901032432996</v>
       </c>
       <c r="L236" s="32">
@@ -13270,7 +13442,7 @@
       </c>
       <c r="R236" s="34"/>
       <c r="S236">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.93396484375</v>
       </c>
     </row>
@@ -13293,7 +13465,7 @@
       </c>
       <c r="G237" s="34"/>
       <c r="H237">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1.0044845661036692</v>
       </c>
       <c r="L237" s="32">
@@ -13314,7 +13486,7 @@
       </c>
       <c r="R237" s="34"/>
       <c r="S237">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.94935111751982693</v>
       </c>
     </row>
@@ -13337,7 +13509,7 @@
       </c>
       <c r="G238" s="34"/>
       <c r="H238">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.99935094437593297</v>
       </c>
       <c r="L238" s="32">
@@ -13358,7 +13530,7 @@
       </c>
       <c r="R238" s="34"/>
       <c r="S238">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.9505298471697109</v>
       </c>
     </row>
@@ -13381,7 +13553,7 @@
       </c>
       <c r="G239" s="34"/>
       <c r="H239">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.98375284114824479</v>
       </c>
       <c r="L239" s="32">
@@ -13402,7 +13574,7 @@
       </c>
       <c r="R239" s="34"/>
       <c r="S239">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.92519079364121748</v>
       </c>
     </row>
@@ -13425,7 +13597,7 @@
       </c>
       <c r="G240" s="34"/>
       <c r="H240">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.98284934710582728</v>
       </c>
       <c r="L240" s="32">
@@ -13446,7 +13618,7 @@
       </c>
       <c r="R240" s="34"/>
       <c r="S240">
-        <f t="shared" si="26"/>
+        <f>M240/N240</f>
         <v>0.93044554455445549</v>
       </c>
     </row>
@@ -13469,7 +13641,7 @@
       </c>
       <c r="G241" s="34"/>
       <c r="H241">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.98153064758166919</v>
       </c>
       <c r="L241" s="32">
@@ -13490,7 +13662,7 @@
       </c>
       <c r="R241" s="34"/>
       <c r="S241">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.92121018234998397</v>
       </c>
     </row>
@@ -13513,7 +13685,7 @@
       </c>
       <c r="G242" s="34"/>
       <c r="H242">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.97399859451862258</v>
       </c>
       <c r="L242" s="32">
@@ -13534,20 +13706,20 @@
       </c>
       <c r="R242" s="34"/>
       <c r="S242">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.92452590854315975</v>
       </c>
     </row>
     <row r="247" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="50" t="s">
+      <c r="A247" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B247" s="51"/>
-      <c r="C247" s="51"/>
-      <c r="D247" s="51"/>
-      <c r="E247" s="51"/>
-      <c r="F247" s="51"/>
-      <c r="G247" s="51"/>
+      <c r="B247" s="52"/>
+      <c r="C247" s="52"/>
+      <c r="D247" s="52"/>
+      <c r="E247" s="52"/>
+      <c r="F247" s="52"/>
+      <c r="G247" s="52"/>
     </row>
     <row r="248" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H248">
@@ -13622,7 +13794,7 @@
       </c>
       <c r="G250" s="40"/>
       <c r="H250">
-        <f t="shared" ref="H250:H287" si="27">B250/C250</f>
+        <f t="shared" ref="H250:H287" si="33">B250/C250</f>
         <v>0.73486088379705405</v>
       </c>
       <c r="I250">
@@ -13647,7 +13819,7 @@
       </c>
       <c r="R250" s="40"/>
       <c r="T250">
-        <f t="shared" ref="T250:T277" si="28">M250/N250</f>
+        <f t="shared" ref="T250:T277" si="34">M250/N250</f>
         <v>1.010325406758448</v>
       </c>
     </row>
@@ -13670,11 +13842,11 @@
       </c>
       <c r="G251" s="40"/>
       <c r="H251">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.71376146788990824</v>
       </c>
       <c r="I251">
-        <f t="shared" ref="I251:I256" si="29">E251/F251</f>
+        <f t="shared" ref="I251:I256" si="35">E251/F251</f>
         <v>0.75391336002912268</v>
       </c>
       <c r="L251" s="38">
@@ -13695,7 +13867,7 @@
       </c>
       <c r="R251" s="40"/>
       <c r="T251">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.93178882094565496</v>
       </c>
     </row>
@@ -13718,11 +13890,11 @@
       </c>
       <c r="G252" s="40"/>
       <c r="H252">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="I252">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.75385256143273638</v>
       </c>
       <c r="L252" s="38">
@@ -13743,7 +13915,7 @@
       </c>
       <c r="R252" s="40"/>
       <c r="T252">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.91738295075336229</v>
       </c>
     </row>
@@ -13766,11 +13938,11 @@
       </c>
       <c r="G253" s="40"/>
       <c r="H253">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.70197044334975367</v>
       </c>
       <c r="I253">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.74365234375</v>
       </c>
       <c r="L253" s="38">
@@ -13791,7 +13963,7 @@
       </c>
       <c r="R253" s="40"/>
       <c r="T253">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.91147922867865927</v>
       </c>
     </row>
@@ -13814,11 +13986,11 @@
       </c>
       <c r="G254" s="40"/>
       <c r="H254">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.70206489675516226</v>
       </c>
       <c r="I254">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.74312463428905795</v>
       </c>
       <c r="L254" s="38">
@@ -13839,7 +14011,7 @@
       </c>
       <c r="R254" s="40"/>
       <c r="T254">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.90988331224518493</v>
       </c>
     </row>
@@ -13862,11 +14034,11 @@
       </c>
       <c r="G255" s="40"/>
       <c r="H255">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.7095588235294118</v>
       </c>
       <c r="I255">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.75109489051094891</v>
       </c>
       <c r="L255" s="38">
@@ -13887,7 +14059,7 @@
       </c>
       <c r="R255" s="40"/>
       <c r="T255">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.91023726563796248</v>
       </c>
     </row>
@@ -13910,11 +14082,11 @@
       </c>
       <c r="G256" s="40"/>
       <c r="H256">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.71219512195121948</v>
       </c>
       <c r="I256">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.75266731328806979</v>
       </c>
       <c r="L256" s="38">
@@ -13935,7 +14107,7 @@
       </c>
       <c r="R256" s="40"/>
       <c r="T256">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.92298110857380111</v>
       </c>
     </row>
@@ -14003,7 +14175,7 @@
       </c>
       <c r="G260" s="40"/>
       <c r="H260">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.0295031055900621</v>
       </c>
       <c r="I260">
@@ -14028,7 +14200,7 @@
       </c>
       <c r="R260" s="40"/>
       <c r="T260">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.84633609393018139</v>
       </c>
     </row>
@@ -14051,11 +14223,11 @@
       </c>
       <c r="G261" s="40"/>
       <c r="H261">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.0670194003527338</v>
       </c>
       <c r="I261">
-        <f t="shared" ref="I261:I266" si="30">E261/F261</f>
+        <f t="shared" ref="I261:I266" si="36">E261/F261</f>
         <v>0.98232647814910024</v>
       </c>
       <c r="L261" s="38">
@@ -14076,7 +14248,7 @@
       </c>
       <c r="R261" s="40"/>
       <c r="T261">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.83028527763627102</v>
       </c>
     </row>
@@ -14099,11 +14271,11 @@
       </c>
       <c r="G262" s="40"/>
       <c r="H262">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.0643863179074446</v>
       </c>
       <c r="I262">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.98129126925898758</v>
       </c>
       <c r="L262" s="38">
@@ -14124,7 +14296,7 @@
       </c>
       <c r="R262" s="40"/>
       <c r="T262">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.81586560589124857</v>
       </c>
     </row>
@@ -14147,11 +14319,11 @@
       </c>
       <c r="G263" s="40"/>
       <c r="H263">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.1223529411764706</v>
       </c>
       <c r="I263">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.0364493996569468</v>
       </c>
       <c r="L263" s="38">
@@ -14172,7 +14344,7 @@
       </c>
       <c r="R263" s="40"/>
       <c r="T263">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.8096110204244138</v>
       </c>
     </row>
@@ -14195,11 +14367,11 @@
       </c>
       <c r="G264" s="40"/>
       <c r="H264">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.1189801699716715</v>
       </c>
       <c r="I264">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.0335917312661498</v>
       </c>
       <c r="L264" s="38">
@@ -14220,7 +14392,7 @@
       </c>
       <c r="R264" s="40"/>
       <c r="T264">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.82430520695477572</v>
       </c>
     </row>
@@ -14243,11 +14415,11 @@
       </c>
       <c r="G265" s="40"/>
       <c r="H265">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.124113475177305</v>
       </c>
       <c r="I265">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.0395333765392094</v>
       </c>
       <c r="L265" s="38">
@@ -14268,7 +14440,7 @@
       </c>
       <c r="R265" s="40"/>
       <c r="T265">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.81704545454545452</v>
       </c>
     </row>
@@ -14291,11 +14463,11 @@
       </c>
       <c r="G266" s="40"/>
       <c r="H266">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.1074766355140186</v>
       </c>
       <c r="I266">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.0265183917878529</v>
       </c>
       <c r="L266" s="38">
@@ -14316,7 +14488,7 @@
       </c>
       <c r="R266" s="40"/>
       <c r="T266">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.84119069205197949</v>
       </c>
     </row>
@@ -14384,7 +14556,7 @@
       </c>
       <c r="G271" s="40"/>
       <c r="H271">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.77332796190119923</v>
       </c>
       <c r="L271" s="40">
@@ -14405,7 +14577,7 @@
       </c>
       <c r="R271" s="40"/>
       <c r="T271">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.81443133219717678</v>
       </c>
     </row>
@@ -14428,7 +14600,7 @@
       </c>
       <c r="G272" s="40"/>
       <c r="H272">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.75506472374600264</v>
       </c>
       <c r="L272" s="40">
@@ -14449,7 +14621,7 @@
       </c>
       <c r="R272" s="40"/>
       <c r="T272">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.79979914637208138</v>
       </c>
     </row>
@@ -14472,7 +14644,7 @@
       </c>
       <c r="G273" s="40"/>
       <c r="H273">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.81176254870501952</v>
       </c>
       <c r="L273" s="40">
@@ -14493,7 +14665,7 @@
       </c>
       <c r="R273" s="40"/>
       <c r="T273">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.89442409157040437</v>
       </c>
     </row>
@@ -14516,7 +14688,7 @@
       </c>
       <c r="G274" s="40"/>
       <c r="H274">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.79347617729121855</v>
       </c>
       <c r="L274" s="40">
@@ -14537,7 +14709,7 @@
       </c>
       <c r="R274" s="40"/>
       <c r="T274">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.89685027926001293</v>
       </c>
     </row>
@@ -14560,7 +14732,7 @@
       </c>
       <c r="G275" s="40"/>
       <c r="H275">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.7806332945880009</v>
       </c>
       <c r="L275" s="40">
@@ -14581,7 +14753,7 @@
       </c>
       <c r="R275" s="40"/>
       <c r="T275">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.86953360080240727</v>
       </c>
     </row>
@@ -14604,7 +14776,7 @@
       </c>
       <c r="G276" s="40"/>
       <c r="H276">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.77467894042292962</v>
       </c>
       <c r="L276" s="40">
@@ -14625,7 +14797,7 @@
       </c>
       <c r="R276" s="40"/>
       <c r="T276">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.86271549012205861</v>
       </c>
     </row>
@@ -14648,7 +14820,7 @@
       </c>
       <c r="G277" s="40"/>
       <c r="H277">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.77131198061677753</v>
       </c>
       <c r="L277" s="40">
@@ -14669,7 +14841,7 @@
       </c>
       <c r="R277" s="40"/>
       <c r="T277">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.83859343444343248</v>
       </c>
     </row>
@@ -14737,7 +14909,7 @@
       </c>
       <c r="G282" s="40"/>
       <c r="H282">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.0080779480346436</v>
       </c>
       <c r="L282" s="38">
@@ -14758,7 +14930,7 @@
       </c>
       <c r="R282" s="40"/>
       <c r="T282">
-        <f t="shared" ref="T282:T287" si="31">M282/N282</f>
+        <f t="shared" ref="T282:T287" si="37">M282/N282</f>
         <v>0.9134331744951214</v>
       </c>
     </row>
@@ -14781,7 +14953,7 @@
       </c>
       <c r="G283" s="40"/>
       <c r="H283">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.90622641509433965</v>
       </c>
       <c r="L283" s="38">
@@ -14802,7 +14974,7 @@
       </c>
       <c r="R283" s="40"/>
       <c r="T283">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.94994603345925521</v>
       </c>
     </row>
@@ -14825,7 +14997,7 @@
       </c>
       <c r="G284" s="40"/>
       <c r="H284">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.89728884254431696</v>
       </c>
       <c r="L284" s="38">
@@ -14846,7 +15018,7 @@
       </c>
       <c r="R284" s="40"/>
       <c r="T284">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.95350698195494743</v>
       </c>
     </row>
@@ -14869,7 +15041,7 @@
       </c>
       <c r="G285" s="40"/>
       <c r="H285">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.87031394886739966</v>
       </c>
       <c r="L285" s="38">
@@ -14890,7 +15062,7 @@
       </c>
       <c r="R285" s="40"/>
       <c r="T285">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.91170806855382247</v>
       </c>
     </row>
@@ -14913,7 +15085,7 @@
       </c>
       <c r="G286" s="40"/>
       <c r="H286">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.86463283765138743</v>
       </c>
       <c r="L286" s="38">
@@ -14934,7 +15106,7 @@
       </c>
       <c r="R286" s="40"/>
       <c r="T286">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.87823519194024668</v>
       </c>
     </row>
@@ -14957,7 +15129,7 @@
       </c>
       <c r="G287" s="40"/>
       <c r="H287">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.85809189887433102</v>
       </c>
       <c r="L287" s="38">
@@ -14978,7 +15150,7 @@
       </c>
       <c r="R287" s="40"/>
       <c r="T287">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.83648840511121625</v>
       </c>
     </row>
@@ -15027,15 +15199,15 @@
       </c>
     </row>
     <row r="293" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="50" t="s">
+      <c r="A293" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B293" s="51"/>
-      <c r="C293" s="51"/>
-      <c r="D293" s="51"/>
-      <c r="E293" s="51"/>
-      <c r="F293" s="51"/>
-      <c r="G293" s="51"/>
+      <c r="B293" s="52"/>
+      <c r="C293" s="52"/>
+      <c r="D293" s="52"/>
+      <c r="E293" s="52"/>
+      <c r="F293" s="52"/>
+      <c r="G293" s="52"/>
     </row>
     <row r="294" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H294">
@@ -15154,7 +15326,7 @@
       </c>
       <c r="G297" s="46"/>
       <c r="H297">
-        <f t="shared" ref="H297:H334" si="32">B297/C297</f>
+        <f t="shared" ref="H297:H334" si="38">B297/C297</f>
         <v>0.97037037037037033</v>
       </c>
       <c r="L297" s="44">
@@ -15175,7 +15347,7 @@
       </c>
       <c r="R297" s="46"/>
       <c r="S297">
-        <f t="shared" ref="S297:S334" si="33">M297/N297</f>
+        <f t="shared" ref="S297:S334" si="39">M297/N297</f>
         <v>0.88763321650811811</v>
       </c>
     </row>
@@ -15198,7 +15370,7 @@
       </c>
       <c r="G298" s="46"/>
       <c r="H298">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.96892655367231639</v>
       </c>
       <c r="L298" s="44">
@@ -15219,7 +15391,7 @@
       </c>
       <c r="R298" s="46"/>
       <c r="S298">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.86542962219993314</v>
       </c>
     </row>
@@ -15242,7 +15414,7 @@
       </c>
       <c r="G299" s="46"/>
       <c r="H299">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1.033003300330033</v>
       </c>
       <c r="L299" s="44">
@@ -15263,7 +15435,7 @@
       </c>
       <c r="R299" s="46"/>
       <c r="S299">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.8648734850095684</v>
       </c>
     </row>
@@ -15286,7 +15458,7 @@
       </c>
       <c r="G300" s="46"/>
       <c r="H300">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1.0355731225296443</v>
       </c>
       <c r="L300" s="44">
@@ -15307,7 +15479,7 @@
       </c>
       <c r="R300" s="46"/>
       <c r="S300">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.87122969837587005</v>
       </c>
     </row>
@@ -15330,7 +15502,7 @@
       </c>
       <c r="G301" s="46"/>
       <c r="H301">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1.0495049504950495</v>
       </c>
       <c r="L301" s="44">
@@ -15351,7 +15523,7 @@
       </c>
       <c r="R301" s="46"/>
       <c r="S301">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.87809549870023262</v>
       </c>
     </row>
@@ -15374,7 +15546,7 @@
       </c>
       <c r="G302" s="46"/>
       <c r="H302">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1.0457516339869282</v>
       </c>
       <c r="L302" s="44">
@@ -15395,7 +15567,7 @@
       </c>
       <c r="R302" s="46"/>
       <c r="S302">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.89448604492852279</v>
       </c>
     </row>
@@ -15463,7 +15635,7 @@
       </c>
       <c r="G306" s="46"/>
       <c r="H306">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.7515856236786469</v>
       </c>
       <c r="L306" s="44">
@@ -15484,7 +15656,7 @@
       </c>
       <c r="R306" s="46"/>
       <c r="S306">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0430684150990825</v>
       </c>
     </row>
@@ -15507,7 +15679,7 @@
       </c>
       <c r="G307" s="46"/>
       <c r="H307">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.74491017964071859</v>
       </c>
       <c r="L307" s="44">
@@ -15528,7 +15700,7 @@
       </c>
       <c r="R307" s="46"/>
       <c r="S307">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0529487280253609</v>
       </c>
     </row>
@@ -15551,7 +15723,7 @@
       </c>
       <c r="G308" s="46"/>
       <c r="H308">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.74725274725274726</v>
       </c>
       <c r="L308" s="44">
@@ -15572,7 +15744,7 @@
       </c>
       <c r="R308" s="46"/>
       <c r="S308">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0344643239004918</v>
       </c>
     </row>
@@ -15595,7 +15767,7 @@
       </c>
       <c r="G309" s="46"/>
       <c r="H309">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.91826923076923073</v>
       </c>
       <c r="L309" s="44">
@@ -15616,7 +15788,7 @@
       </c>
       <c r="R309" s="46"/>
       <c r="S309">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0347456513166542</v>
       </c>
     </row>
@@ -15639,7 +15811,7 @@
       </c>
       <c r="G310" s="46"/>
       <c r="H310">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.91860465116279066</v>
       </c>
       <c r="L310" s="44">
@@ -15660,7 +15832,7 @@
       </c>
       <c r="R310" s="46"/>
       <c r="S310">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0300278306723305</v>
       </c>
     </row>
@@ -15683,7 +15855,7 @@
       </c>
       <c r="G311" s="46"/>
       <c r="H311">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.9193154034229829</v>
       </c>
       <c r="L311" s="44">
@@ -15704,7 +15876,7 @@
       </c>
       <c r="R311" s="46"/>
       <c r="S311">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0307431772292059</v>
       </c>
     </row>
@@ -15727,7 +15899,7 @@
       </c>
       <c r="G312" s="46"/>
       <c r="H312">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.69255663430420711</v>
       </c>
       <c r="L312" s="44">
@@ -15748,7 +15920,7 @@
       </c>
       <c r="R312" s="46"/>
       <c r="S312">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0236761108041985</v>
       </c>
     </row>
@@ -15816,7 +15988,7 @@
       </c>
       <c r="G317" s="46"/>
       <c r="H317">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.75219181095434118</v>
       </c>
       <c r="L317" s="46">
@@ -15837,7 +16009,7 @@
       </c>
       <c r="R317" s="46"/>
       <c r="S317">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.90022992697033233</v>
       </c>
     </row>
@@ -15860,7 +16032,7 @@
       </c>
       <c r="G318" s="46"/>
       <c r="H318">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.73706951149142186</v>
       </c>
       <c r="L318" s="46">
@@ -15881,7 +16053,7 @@
       </c>
       <c r="R318" s="46"/>
       <c r="S318">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.88369192391643281</v>
       </c>
     </row>
@@ -15904,7 +16076,7 @@
       </c>
       <c r="G319" s="46"/>
       <c r="H319">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.78933029919392317</v>
       </c>
       <c r="L319" s="46">
@@ -15925,7 +16097,7 @@
       </c>
       <c r="R319" s="46"/>
       <c r="S319">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0107645926657696</v>
       </c>
     </row>
@@ -15948,7 +16120,7 @@
       </c>
       <c r="G320" s="46"/>
       <c r="H320">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.77728842912876284</v>
       </c>
       <c r="L320" s="46">
@@ -15969,7 +16141,7 @@
       </c>
       <c r="R320" s="46"/>
       <c r="S320">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0223422044039729</v>
       </c>
     </row>
@@ -15992,7 +16164,7 @@
       </c>
       <c r="G321" s="46"/>
       <c r="H321">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.76092955700798837</v>
       </c>
       <c r="L321" s="46">
@@ -16013,7 +16185,7 @@
       </c>
       <c r="R321" s="46"/>
       <c r="S321">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.98926049431149465</v>
       </c>
     </row>
@@ -16036,7 +16208,7 @@
       </c>
       <c r="G322" s="46"/>
       <c r="H322">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.75288644533728066</v>
       </c>
       <c r="L322" s="46">
@@ -16057,7 +16229,7 @@
       </c>
       <c r="R322" s="46"/>
       <c r="S322">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.9975373297172605</v>
       </c>
     </row>
@@ -16080,7 +16252,7 @@
       </c>
       <c r="G323" s="46"/>
       <c r="H323">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.75266433149500667</v>
       </c>
       <c r="L323" s="46">
@@ -16101,7 +16273,7 @@
       </c>
       <c r="R323" s="46"/>
       <c r="S323">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.95940338239899781</v>
       </c>
     </row>
@@ -16169,7 +16341,7 @@
       </c>
       <c r="G328" s="46"/>
       <c r="H328">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.94535028326654691</v>
       </c>
       <c r="L328" s="44">
@@ -16190,7 +16362,7 @@
       </c>
       <c r="R328" s="46"/>
       <c r="S328">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.88960863032930226</v>
       </c>
     </row>
@@ -16213,7 +16385,7 @@
       </c>
       <c r="G329" s="46"/>
       <c r="H329">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.86033781670315923</v>
       </c>
       <c r="L329" s="44">
@@ -16234,7 +16406,7 @@
       </c>
       <c r="R329" s="46"/>
       <c r="S329">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.95145316276602021</v>
       </c>
     </row>
@@ -16257,7 +16429,7 @@
       </c>
       <c r="G330" s="46"/>
       <c r="H330">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.85342075748425505</v>
       </c>
       <c r="L330" s="44">
@@ -16278,7 +16450,7 @@
       </c>
       <c r="R330" s="46"/>
       <c r="S330">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.96721483554933518</v>
       </c>
     </row>
@@ -16301,7 +16473,7 @@
       </c>
       <c r="G331" s="46"/>
       <c r="H331">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.81946746215887745</v>
       </c>
       <c r="L331" s="44">
@@ -16322,7 +16494,7 @@
       </c>
       <c r="R331" s="46"/>
       <c r="S331">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.94057739247538086</v>
       </c>
     </row>
@@ -16345,7 +16517,7 @@
       </c>
       <c r="G332" s="46"/>
       <c r="H332">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.82707535121328224</v>
       </c>
       <c r="L332" s="44">
@@ -16366,7 +16538,7 @@
       </c>
       <c r="R332" s="46"/>
       <c r="S332">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.92008175779253965</v>
       </c>
     </row>
@@ -16389,7 +16561,7 @@
       </c>
       <c r="G333" s="46"/>
       <c r="H333">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.82338536883991431</v>
       </c>
       <c r="L333" s="44">
@@ -16410,7 +16582,7 @@
       </c>
       <c r="R333" s="46"/>
       <c r="S333">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.86089906700593721</v>
       </c>
     </row>
@@ -16433,7 +16605,7 @@
       </c>
       <c r="G334" s="46"/>
       <c r="H334">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="L334" s="44">
@@ -16454,19 +16626,12 @@
       </c>
       <c r="R334" s="46"/>
       <c r="S334">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.86353398853398855</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="V128:X128"/>
-    <mergeCell ref="Z128:AB128"/>
-    <mergeCell ref="AH66:AJ66"/>
-    <mergeCell ref="V97:X97"/>
-    <mergeCell ref="Z97:AB97"/>
-    <mergeCell ref="AD97:AF97"/>
-    <mergeCell ref="AH97:AJ97"/>
     <mergeCell ref="A293:G293"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AF2:AH2"/>
@@ -16483,6 +16648,13 @@
     <mergeCell ref="V66:X66"/>
     <mergeCell ref="Z66:AB66"/>
     <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="V128:X128"/>
+    <mergeCell ref="Z128:AB128"/>
+    <mergeCell ref="AH66:AJ66"/>
+    <mergeCell ref="V97:X97"/>
+    <mergeCell ref="Z97:AB97"/>
+    <mergeCell ref="AD97:AF97"/>
+    <mergeCell ref="AH97:AJ97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
